--- a/в бланки заводов/Останкино КИ/ostankino_ki/NV/moduls/1С.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/NV/moduls/1С.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\NV\moduls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Father\Work\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\NV\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB179F33-47EE-4CD5-974A-BE5A5DDE6ED7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A124359F-4871-4C1B-B170-73153C3D94E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,25 +16,19 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$435</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$436</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="703">
   <si>
     <t>1С</t>
   </si>
@@ -2110,6 +2104,39 @@
   </si>
   <si>
     <t>6872 ШАШЛЫК ИЗ СВИНИНЫ зам.  Останкино</t>
+  </si>
+  <si>
+    <t>6878 В ОБВЯЗКЕ СО ШПИКОМ вар п/о  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>7147 САЛЬЧИЧОН Останкино с/к в/у 1/220 8шт.</t>
+  </si>
+  <si>
+    <t>7227 САЛЯМИ ФИНСКАЯ Папа может с/к в/у 1/180</t>
+  </si>
+  <si>
+    <t>7225 ТОСКАНО ПРЕМИУМ Останкино с/к в/у 1/180</t>
+  </si>
+  <si>
+    <t>7226 ЧОРИЗО ПРЕМИУМ Останкино с/к в/у 1/180</t>
+  </si>
+  <si>
+    <t>7228 МИЛАНО ПРЕМИУМ Останкино с/к в/у 1/180</t>
+  </si>
+  <si>
+    <t>САЛЬЧИЧОН Останкино с/к в/у 1/220 8шт.</t>
+  </si>
+  <si>
+    <t>САЛЯМИ ФИНСКАЯ Папа может с/к в/у 1/180</t>
+  </si>
+  <si>
+    <t>ТОСКАНО ПРЕМИУМ Останкино с/к в/у 1/180</t>
+  </si>
+  <si>
+    <t>ЧОРИЗО ПРЕМИУМ Останкино с/к в/у 1/180</t>
+  </si>
+  <si>
+    <t>МИЛАНО ПРЕМИУМ Останкино с/к в/у 1/180</t>
   </si>
 </sst>
 </file>
@@ -2173,12 +2200,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2464,11 +2490,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F435"/>
+  <dimension ref="A1:F441"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3319,7 +3345,7 @@
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
+      <c r="A77" s="2" t="s">
         <v>112</v>
       </c>
       <c r="B77" s="3">
@@ -3330,7 +3356,7 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="s">
+      <c r="A78" s="2" t="s">
         <v>317</v>
       </c>
       <c r="B78" s="3">
@@ -3410,7 +3436,7 @@
       <c r="A85" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="B85" s="5">
+      <c r="B85" s="4">
         <v>1001303106773</v>
       </c>
       <c r="C85" t="s">
@@ -3421,7 +3447,7 @@
       <c r="A86" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B86" s="5">
+      <c r="B86" s="4">
         <v>1001303106773</v>
       </c>
       <c r="C86" t="s">
@@ -7203,7 +7229,7 @@
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" s="2" t="s">
-        <v>674</v>
+        <v>692</v>
       </c>
       <c r="B430" s="3">
         <v>1001015686878</v>
@@ -7214,51 +7240,51 @@
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B431" s="3">
-        <v>1001302277232</v>
+        <v>1001015686878</v>
       </c>
       <c r="C431" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B432" s="3">
-        <v>1001304497237</v>
+        <v>1001302277232</v>
       </c>
       <c r="C432" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B433" s="3">
-        <v>1001303107241</v>
+        <v>1001304497237</v>
       </c>
       <c r="C433" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434" s="2" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="B434" s="3">
-        <v>1002162216872</v>
+        <v>1001303107241</v>
       </c>
       <c r="C434" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" s="2" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="B435" s="3">
         <v>1002162216872</v>
@@ -7267,8 +7293,74 @@
         <v>684</v>
       </c>
     </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A436" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="B436" s="3">
+        <v>1002162216872</v>
+      </c>
+      <c r="C436" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A437" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="B437" s="3">
+        <v>1001063237147</v>
+      </c>
+      <c r="C437" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A438" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="B438" s="3">
+        <v>1001063097227</v>
+      </c>
+      <c r="C438" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A439" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="B439" s="3">
+        <v>1001066537225</v>
+      </c>
+      <c r="C439" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A440" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="B440" s="3">
+        <v>1001066527226</v>
+      </c>
+      <c r="C440" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A441" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="B441" s="3">
+        <v>1001066547228</v>
+      </c>
+      <c r="C441" t="s">
+        <v>702</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C435" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
+  <autoFilter ref="A1:C436" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/в бланки заводов/Останкино КИ/ostankino_ki/NV/moduls/1С.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/NV/moduls/1С.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Father\Work\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\NV\moduls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\NV\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A124359F-4871-4C1B-B170-73153C3D94E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2833696A-AFDF-45F5-869F-D599A2D015D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,9 +16,9 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$436</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$445</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="707">
   <si>
     <t>1С</t>
   </si>
@@ -2137,6 +2137,18 @@
   </si>
   <si>
     <t>МИЛАНО ПРЕМИУМ Останкино с/к в/у 1/180</t>
+  </si>
+  <si>
+    <t>7225 ТОСКАНО ПРЕМИУМ Останкино с/к в/у 1/180  Останкино</t>
+  </si>
+  <si>
+    <t>7226 ЧОРИЗО ПРЕМИУМ Останкино с/к в/у 1/180  Останкино</t>
+  </si>
+  <si>
+    <t>7227 САЛЯМИ ФИНСКАЯ Папа может с/к в/у 1/180  Останкино</t>
+  </si>
+  <si>
+    <t>7147 САЛЬЧИЧОН Останкино с/к в/у 1/220 8 шт  Останкино</t>
   </si>
 </sst>
 </file>
@@ -2490,11 +2502,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F441"/>
+  <dimension ref="A1:F445"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7306,7 +7318,7 @@
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" s="2" t="s">
-        <v>693</v>
+        <v>706</v>
       </c>
       <c r="B437" s="3">
         <v>1001063237147</v>
@@ -7317,50 +7329,94 @@
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B438" s="3">
-        <v>1001063097227</v>
+        <v>1001063237147</v>
       </c>
       <c r="C438" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
-        <v>695</v>
+        <v>705</v>
       </c>
       <c r="B439" s="3">
-        <v>1001066537225</v>
+        <v>1001063097227</v>
       </c>
       <c r="C439" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B440" s="3">
-        <v>1001066527226</v>
+        <v>1001063097227</v>
       </c>
       <c r="C440" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="B441" s="3">
+        <v>1001066537225</v>
+      </c>
+      <c r="C441" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A442" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="B442" s="3">
+        <v>1001066537225</v>
+      </c>
+      <c r="C442" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A443" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="B443" s="3">
+        <v>1001066527226</v>
+      </c>
+      <c r="C443" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A444" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="B444" s="3">
+        <v>1001066527226</v>
+      </c>
+      <c r="C444" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A445" s="2" t="s">
         <v>697</v>
       </c>
-      <c r="B441" s="3">
+      <c r="B445" s="3">
         <v>1001066547228</v>
       </c>
-      <c r="C441" t="s">
+      <c r="C445" t="s">
         <v>702</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C436" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
+  <autoFilter ref="A1:C445" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/в бланки заводов/Останкино КИ/ostankino_ki/NV/moduls/1С.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/NV/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\NV\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2833696A-AFDF-45F5-869F-D599A2D015D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BC3C9A-C6B7-41B3-BA92-23F08CA2C11C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,12 +23,18 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="713">
   <si>
     <t>1С</t>
   </si>
@@ -2149,6 +2155,24 @@
   </si>
   <si>
     <t>7147 САЛЬЧИЧОН Останкино с/к в/у 1/220 8 шт  Останкино</t>
+  </si>
+  <si>
+    <t>7229 САЛЬЧИЧОН Останкино с/к в/у 1/180</t>
+  </si>
+  <si>
+    <t>7150 САЛЬЧИЧОН Папа может с/к в/у</t>
+  </si>
+  <si>
+    <t>7276 СЛИВОЧНЫЕ ПМ сос п/о мгс 0.3кг 7шт.</t>
+  </si>
+  <si>
+    <t>САЛЬЧИЧОН Останкино с/к в/у 1/180</t>
+  </si>
+  <si>
+    <t>САЛЬЧИЧОН Папа может с/к в/у</t>
+  </si>
+  <si>
+    <t>СЛИВОЧНЫЕ ПМ сос п/о мгс 0.3кг 7шт.</t>
   </si>
 </sst>
 </file>
@@ -2502,11 +2526,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F445"/>
+  <dimension ref="A1:F448"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7415,6 +7439,39 @@
         <v>702</v>
       </c>
     </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A446" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="B446" s="3">
+        <v>1001063237229</v>
+      </c>
+      <c r="C446" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A447" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="B447" s="3">
+        <v>1001063237150</v>
+      </c>
+      <c r="C447" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A448" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="B448" s="3">
+        <v>1001022467276</v>
+      </c>
+      <c r="C448" t="s">
+        <v>712</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C445" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/в бланки заводов/Останкино КИ/ostankino_ki/NV/moduls/1С.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/NV/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\NV\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BC3C9A-C6B7-41B3-BA92-23F08CA2C11C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F938EBA5-A536-4FC1-8B8F-37A2C526426B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$445</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$449</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="714">
   <si>
     <t>1С</t>
   </si>
@@ -2173,6 +2173,9 @@
   </si>
   <si>
     <t>СЛИВОЧНЫЕ ПМ сос п/о мгс 0.3кг 7шт.</t>
+  </si>
+  <si>
+    <t>7229 САЛЬЧИЧОН Останкино с/к в/у 1/180   Останкино</t>
   </si>
 </sst>
 </file>
@@ -2526,11 +2529,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F448"/>
+  <dimension ref="A1:F449"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7441,7 +7444,7 @@
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446" s="2" t="s">
-        <v>707</v>
+        <v>713</v>
       </c>
       <c r="B446" s="3">
         <v>1001063237229</v>
@@ -7452,28 +7455,39 @@
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B447" s="3">
-        <v>1001063237150</v>
+        <v>1001063237229</v>
       </c>
       <c r="C447" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="B448" s="3">
+        <v>1001063237150</v>
+      </c>
+      <c r="C448" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A449" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="B448" s="3">
+      <c r="B449" s="3">
         <v>1001022467276</v>
       </c>
-      <c r="C448" t="s">
+      <c r="C449" t="s">
         <v>712</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C445" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
+  <autoFilter ref="A1:C449" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/в бланки заводов/Останкино КИ/ostankino_ki/NV/moduls/1С.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/NV/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\NV\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F938EBA5-A536-4FC1-8B8F-37A2C526426B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7A17D3-0BFB-41B4-B450-48037411CC29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$449</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$451</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="716">
   <si>
     <t>1С</t>
   </si>
@@ -2176,6 +2176,12 @@
   </si>
   <si>
     <t>7229 САЛЬЧИЧОН Останкино с/к в/у 1/180   Останкино</t>
+  </si>
+  <si>
+    <t>7276 СЛИВОЧНЫЕ ПМ сос п/о мгс 0,3кг 7шт  Останкино</t>
+  </si>
+  <si>
+    <t>7150 САЛЬЧИЧОН папа может с/к в/у  Останкино</t>
   </si>
 </sst>
 </file>
@@ -2529,11 +2535,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F449"/>
+  <dimension ref="A1:F451"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7466,7 +7472,7 @@
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" s="2" t="s">
-        <v>708</v>
+        <v>715</v>
       </c>
       <c r="B448" s="3">
         <v>1001063237150</v>
@@ -7477,17 +7483,39 @@
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="B449" s="3">
+        <v>1001063237150</v>
+      </c>
+      <c r="C449" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A450" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="B449" s="3">
+      <c r="B450" s="3">
         <v>1001022467276</v>
       </c>
-      <c r="C449" t="s">
+      <c r="C450" t="s">
         <v>712</v>
       </c>
     </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A451" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B451" s="3">
+        <v>1001022467276</v>
+      </c>
+      <c r="C451" t="s">
+        <v>712</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C449" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
+  <autoFilter ref="A1:C451" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/в бланки заводов/Останкино КИ/ostankino_ki/NV/moduls/1С.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/NV/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\NV\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7A17D3-0BFB-41B4-B450-48037411CC29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFFF48EB-D9DC-40DE-955A-13376B26C9AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2539,7 +2539,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/в бланки заводов/Останкино КИ/ostankino_ki/NV/moduls/1С.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/NV/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\NV\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFFF48EB-D9DC-40DE-955A-13376B26C9AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE73A12F-82B1-465E-9341-642BC15C034A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$451</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$452</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="716">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="717">
   <si>
     <t>1С</t>
   </si>
@@ -2182,6 +2182,9 @@
   </si>
   <si>
     <t>7150 САЛЬЧИЧОН папа может с/к в/у  Останкино</t>
+  </si>
+  <si>
+    <t>6268 Колбаса Папа может 400г Говяжья вар п/о  ОСТАНКИНО</t>
   </si>
 </sst>
 </file>
@@ -2535,11 +2538,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F451"/>
+  <dimension ref="A1:F452"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3600,7 +3603,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>123</v>
+        <v>716</v>
       </c>
       <c r="B96" s="3">
         <v>1001012426268</v>
@@ -3611,95 +3614,95 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B97" s="3">
-        <v>1001024906041</v>
+        <v>1001012426268</v>
       </c>
       <c r="C97" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B98" s="3">
-        <v>1001011086247</v>
+        <v>1001024906041</v>
       </c>
       <c r="C98" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="B99" s="3">
-        <v>1001014486158</v>
+        <v>1001011086247</v>
       </c>
       <c r="C99" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B100" s="3">
-        <v>1001015356259</v>
+        <v>1001014486158</v>
       </c>
       <c r="C100" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B101" s="3">
-        <v>1001012816716</v>
+        <v>1001015356259</v>
       </c>
       <c r="C101" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>322</v>
+        <v>152</v>
       </c>
       <c r="B102" s="3">
-        <v>1001020966227</v>
+        <v>1001012816716</v>
       </c>
       <c r="C102" t="s">
-        <v>321</v>
+        <v>143</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>129</v>
+        <v>322</v>
       </c>
       <c r="B103" s="3">
         <v>1001020966227</v>
       </c>
       <c r="C103" t="s">
-        <v>130</v>
+        <v>321</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>221</v>
+        <v>129</v>
       </c>
       <c r="B104" s="3">
-        <v>1001022726303</v>
+        <v>1001020966227</v>
       </c>
       <c r="C104" t="s">
-        <v>254</v>
+        <v>130</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="B105" s="3">
         <v>1001022726303</v>
@@ -3710,7 +3713,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>339</v>
+        <v>253</v>
       </c>
       <c r="B106" s="3">
         <v>1001022726303</v>
@@ -3721,62 +3724,62 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>153</v>
+        <v>339</v>
       </c>
       <c r="B107" s="3">
         <v>1001022726303</v>
       </c>
       <c r="C107" t="s">
-        <v>155</v>
+        <v>254</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>108</v>
+        <v>153</v>
       </c>
       <c r="B108" s="3">
-        <v>1001022466726</v>
+        <v>1001022726303</v>
       </c>
       <c r="C108" t="s">
-        <v>109</v>
+        <v>155</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="B109" s="3">
-        <v>1001020966144</v>
+        <v>1001022466726</v>
       </c>
       <c r="C109" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="B110" s="3">
-        <v>1001022376722</v>
+        <v>1001020966144</v>
       </c>
       <c r="C110" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>577</v>
+        <v>121</v>
       </c>
       <c r="B111" s="3">
-        <v>1001022376955</v>
+        <v>1001022376722</v>
       </c>
       <c r="C111" t="s">
-        <v>568</v>
+        <v>119</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B112" s="3">
         <v>1001022376955</v>
@@ -3787,7 +3790,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>134</v>
+        <v>575</v>
       </c>
       <c r="B113" s="3">
         <v>1001022376955</v>
@@ -3798,18 +3801,18 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>246</v>
+        <v>134</v>
       </c>
       <c r="B114" s="3">
-        <v>1001022246661</v>
+        <v>1001022376955</v>
       </c>
       <c r="C114" t="s">
-        <v>247</v>
+        <v>568</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>318</v>
+        <v>246</v>
       </c>
       <c r="B115" s="3">
         <v>1001022246661</v>
@@ -3820,172 +3823,172 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="B116" s="3">
         <v>1001022246661</v>
       </c>
       <c r="C116" t="s">
-        <v>135</v>
+        <v>247</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B117" s="3">
-        <v>1001022246713</v>
+        <v>1001022246661</v>
       </c>
       <c r="C117" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B118" s="3">
-        <v>1001025166241</v>
+        <v>1001022246713</v>
       </c>
       <c r="C118" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="B119" s="3">
-        <v>6606</v>
+        <v>1001025166241</v>
       </c>
       <c r="C119" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="B120" s="3">
-        <v>1001035326217</v>
+        <v>6606</v>
       </c>
       <c r="C120" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="B121" s="3">
-        <v>1001303636301</v>
+        <v>1001035326217</v>
       </c>
       <c r="C121" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>94</v>
+        <v>151</v>
       </c>
       <c r="B122" s="3">
-        <v>1001303636302</v>
+        <v>1001303636301</v>
       </c>
       <c r="C122" t="s">
-        <v>95</v>
+        <v>145</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="B123" s="3">
-        <v>1001305196215</v>
+        <v>1001303636302</v>
       </c>
       <c r="C123" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="B124" s="3">
-        <v>1001301876212</v>
+        <v>1001305196215</v>
       </c>
       <c r="C124" t="s">
-        <v>146</v>
+        <v>79</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="B125" s="3">
-        <v>1001301876213</v>
+        <v>1001301876212</v>
       </c>
       <c r="C125" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="B126" s="3">
-        <v>1001303636302</v>
+        <v>1001301876213</v>
       </c>
       <c r="C126" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B127" s="3">
-        <v>6645</v>
+        <v>1001303636302</v>
       </c>
       <c r="C127" t="s">
-        <v>158</v>
+        <v>95</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B128" s="3">
-        <v>1001225416228</v>
+        <v>6645</v>
       </c>
       <c r="C128" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B129" s="3">
-        <v>6225</v>
+        <v>1001225416228</v>
       </c>
       <c r="C129" t="s">
-        <v>270</v>
+        <v>160</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B130" s="3">
-        <v>1001022376722</v>
+        <v>6225</v>
       </c>
       <c r="C130" t="s">
-        <v>119</v>
+        <v>270</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B131" s="3">
         <v>1001022376722</v>
@@ -3996,29 +3999,29 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B132" s="3">
-        <v>3297</v>
+        <v>1001022376722</v>
       </c>
       <c r="C132" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>312</v>
+        <v>164</v>
       </c>
       <c r="B133" s="3">
-        <v>1001022466726</v>
+        <v>3297</v>
       </c>
       <c r="C133" t="s">
-        <v>288</v>
+        <v>165</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="B134" s="3">
         <v>1001022466726</v>
@@ -4029,51 +4032,51 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>168</v>
+        <v>289</v>
       </c>
       <c r="B135" s="3">
         <v>1001022466726</v>
       </c>
       <c r="C135" t="s">
-        <v>109</v>
+        <v>288</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B136" s="3">
-        <v>1001021966602</v>
+        <v>1001022466726</v>
       </c>
       <c r="C136" t="s">
-        <v>281</v>
+        <v>109</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B137" s="3">
-        <v>6233</v>
+        <v>1001021966602</v>
       </c>
       <c r="C137" t="s">
-        <v>170</v>
+        <v>281</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>261</v>
+        <v>171</v>
       </c>
       <c r="B138" s="3">
-        <v>1001012816341</v>
+        <v>6233</v>
       </c>
       <c r="C138" t="s">
-        <v>442</v>
+        <v>170</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>488</v>
+        <v>261</v>
       </c>
       <c r="B139" s="3">
         <v>1001012816341</v>
@@ -4084,7 +4087,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B140" s="3">
         <v>1001012816341</v>
@@ -4095,7 +4098,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>172</v>
+        <v>491</v>
       </c>
       <c r="B141" s="3">
         <v>1001012816341</v>
@@ -4106,51 +4109,51 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B142" s="3">
-        <v>6750</v>
+        <v>1001012816341</v>
       </c>
       <c r="C142" t="s">
-        <v>85</v>
+        <v>442</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B143" s="3">
-        <v>6751</v>
+        <v>6750</v>
       </c>
       <c r="C143" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B144" s="3">
-        <v>5982</v>
+        <v>6751</v>
       </c>
       <c r="C144" t="s">
-        <v>176</v>
+        <v>87</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>539</v>
+        <v>175</v>
       </c>
       <c r="B145" s="3">
-        <v>1001022656854</v>
+        <v>5982</v>
       </c>
       <c r="C145" t="s">
-        <v>431</v>
+        <v>176</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>556</v>
+        <v>539</v>
       </c>
       <c r="B146" s="3">
         <v>1001022656854</v>
@@ -4161,7 +4164,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>455</v>
+        <v>556</v>
       </c>
       <c r="B147" s="3">
         <v>1001022656854</v>
@@ -4172,7 +4175,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>177</v>
+        <v>455</v>
       </c>
       <c r="B148" s="3">
         <v>1001022656854</v>
@@ -4183,21 +4186,21 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B149" s="3">
-        <v>1001094966025</v>
+        <v>1001022656854</v>
       </c>
       <c r="C149" t="s">
-        <v>179</v>
+        <v>431</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B150" s="3">
-        <v>6025</v>
+        <v>1001094966025</v>
       </c>
       <c r="C150" t="s">
         <v>179</v>
@@ -4205,21 +4208,21 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B151" s="3">
-        <v>6221</v>
+        <v>6025</v>
       </c>
       <c r="C151" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B152" s="3">
-        <v>1001205376221</v>
+        <v>6221</v>
       </c>
       <c r="C152" t="s">
         <v>181</v>
@@ -4227,29 +4230,29 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B153" s="3">
-        <v>1001022373812</v>
+        <v>1001205376221</v>
       </c>
       <c r="C153" t="s">
-        <v>3</v>
+        <v>181</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B154" s="3">
-        <v>1001100606827</v>
+        <v>1001022373812</v>
       </c>
       <c r="C154" t="s">
-        <v>329</v>
+        <v>3</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>341</v>
+        <v>187</v>
       </c>
       <c r="B155" s="3">
         <v>1001100606827</v>
@@ -4260,18 +4263,18 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>188</v>
+        <v>341</v>
       </c>
       <c r="B156" s="3">
-        <v>1001100616826</v>
+        <v>1001100606827</v>
       </c>
       <c r="C156" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>342</v>
+        <v>188</v>
       </c>
       <c r="B157" s="3">
         <v>1001100616826</v>
@@ -4282,18 +4285,18 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>189</v>
+        <v>342</v>
       </c>
       <c r="B158" s="3">
-        <v>1001100626828</v>
+        <v>1001100616826</v>
       </c>
       <c r="C158" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>343</v>
+        <v>189</v>
       </c>
       <c r="B159" s="3">
         <v>1001100626828</v>
@@ -4304,62 +4307,62 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>190</v>
+        <v>343</v>
       </c>
       <c r="B160" s="3">
-        <v>1001035026308</v>
+        <v>1001100626828</v>
       </c>
       <c r="C160" t="s">
-        <v>191</v>
+        <v>331</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>560</v>
+        <v>190</v>
       </c>
       <c r="B161" s="3">
-        <v>1001014486159</v>
+        <v>1001035026308</v>
       </c>
       <c r="C161" t="s">
-        <v>561</v>
+        <v>191</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>192</v>
+        <v>560</v>
       </c>
       <c r="B162" s="3">
         <v>1001014486159</v>
       </c>
       <c r="C162" t="s">
-        <v>193</v>
+        <v>561</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B163" s="3">
-        <v>1001035326217</v>
+        <v>1001014486159</v>
       </c>
       <c r="C163" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>506</v>
+        <v>194</v>
       </c>
       <c r="B164" s="3">
-        <v>1001012426220</v>
+        <v>1001035326217</v>
       </c>
       <c r="C164" t="s">
-        <v>196</v>
+        <v>285</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>195</v>
+        <v>506</v>
       </c>
       <c r="B165" s="3">
         <v>1001012426220</v>
@@ -4370,238 +4373,238 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B166" s="3">
-        <v>1001022466236</v>
+        <v>1001012426220</v>
       </c>
       <c r="C166" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B167" s="3">
-        <v>1001021966602</v>
+        <v>1001022466236</v>
       </c>
       <c r="C167" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B168" s="3">
-        <v>1001022296656</v>
+        <v>1001021966602</v>
       </c>
       <c r="C168" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B169" s="3">
-        <v>1001301876697</v>
+        <v>1001022296656</v>
       </c>
       <c r="C169" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B170" s="3">
-        <v>1001022246713</v>
+        <v>1001301876697</v>
       </c>
       <c r="C170" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B171" s="3">
-        <v>1001022376722</v>
+        <v>1001022246713</v>
       </c>
       <c r="C171" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B172" s="3">
-        <v>1001020846751</v>
+        <v>1001022376722</v>
       </c>
       <c r="C172" t="s">
-        <v>87</v>
+        <v>210</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B173" s="3">
-        <v>1001022725819</v>
+        <v>1001020846751</v>
       </c>
       <c r="C173" t="s">
-        <v>213</v>
+        <v>87</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B174" s="3">
-        <v>1001012825337</v>
+        <v>1001022725819</v>
       </c>
       <c r="C174" t="s">
-        <v>27</v>
+        <v>213</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B175" s="3">
-        <v>1001012815336</v>
+        <v>1001012825337</v>
       </c>
       <c r="C175" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B176" s="3">
-        <v>1001234146448</v>
+        <v>1001012815336</v>
       </c>
       <c r="C176" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B177" s="3">
-        <v>1001022725819</v>
+        <v>1001234146448</v>
       </c>
       <c r="C177" t="s">
-        <v>213</v>
+        <v>65</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B178" s="3">
-        <v>1001092676027</v>
+        <v>1001022725819</v>
       </c>
       <c r="C178" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B179" s="3">
-        <v>1001301876213</v>
+        <v>1001092676027</v>
       </c>
       <c r="C179" t="s">
-        <v>78</v>
+        <v>219</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B180" s="3">
-        <v>1001035026308</v>
+        <v>1001301876213</v>
       </c>
       <c r="C180" t="s">
-        <v>407</v>
+        <v>78</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B181" s="3">
-        <v>1001234146448</v>
+        <v>1001035026308</v>
       </c>
       <c r="C181" t="s">
-        <v>65</v>
+        <v>407</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B182" s="3">
-        <v>1001201976454</v>
+        <v>1001234146448</v>
       </c>
       <c r="C182" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B183" s="3">
-        <v>1001025176475</v>
+        <v>1001201976454</v>
       </c>
       <c r="C183" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B184" s="3">
-        <v>1001012456498</v>
+        <v>1001025176475</v>
       </c>
       <c r="C184" t="s">
-        <v>229</v>
+        <v>72</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B185" s="3">
-        <v>1001010036596</v>
+        <v>1001012456498</v>
       </c>
       <c r="C185" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>571</v>
+        <v>230</v>
       </c>
       <c r="B186" s="3">
-        <v>1001033856608</v>
+        <v>1001010036596</v>
       </c>
       <c r="C186" t="s">
-        <v>562</v>
+        <v>231</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="B187" s="3">
         <v>1001033856608</v>
@@ -4612,18 +4615,18 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="B188" s="3">
-        <v>1001033856609</v>
+        <v>1001033856608</v>
       </c>
       <c r="C188" t="s">
-        <v>233</v>
+        <v>562</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>232</v>
+        <v>572</v>
       </c>
       <c r="B189" s="3">
         <v>1001033856609</v>
@@ -4634,315 +4637,315 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B190" s="3">
-        <v>1001093345495</v>
+        <v>1001033856609</v>
       </c>
       <c r="C190" t="s">
-        <v>443</v>
+        <v>233</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B191" s="3">
-        <v>6550</v>
+        <v>1001093345495</v>
       </c>
       <c r="C191" t="s">
-        <v>238</v>
+        <v>443</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B192" s="3">
-        <v>1001304506684</v>
+        <v>6550</v>
       </c>
       <c r="C192" t="s">
-        <v>59</v>
+        <v>238</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B193" s="3">
-        <v>1001010113248</v>
+        <v>1001304506684</v>
       </c>
       <c r="C193" t="s">
-        <v>241</v>
+        <v>59</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>415</v>
+        <v>240</v>
       </c>
       <c r="B194" s="3">
-        <v>1001063926780</v>
+        <v>1001010113248</v>
       </c>
       <c r="C194" t="s">
-        <v>416</v>
+        <v>241</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>242</v>
+        <v>415</v>
       </c>
       <c r="B195" s="3">
-        <v>6586</v>
+        <v>1001063926780</v>
       </c>
       <c r="C195" t="s">
-        <v>243</v>
+        <v>416</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B196" s="3">
-        <v>1001303636467</v>
+        <v>6586</v>
       </c>
       <c r="C196" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B197" s="3">
-        <v>1001304496701</v>
+        <v>1001303636467</v>
       </c>
       <c r="C197" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B198" s="3">
-        <v>6144</v>
+        <v>1001304496701</v>
       </c>
       <c r="C198" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B199" s="3">
-        <v>1001022725819</v>
+        <v>6144</v>
       </c>
       <c r="C199" t="s">
-        <v>213</v>
+        <v>251</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B200" s="3">
-        <v>1001022373812</v>
+        <v>1001022725819</v>
       </c>
       <c r="C200" t="s">
-        <v>3</v>
+        <v>213</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B201" s="3">
-        <v>1001024906062</v>
+        <v>1001022373812</v>
       </c>
       <c r="C201" t="s">
-        <v>257</v>
+        <v>3</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B202" s="3">
-        <v>1001303056692</v>
+        <v>1001024906062</v>
       </c>
       <c r="C202" t="s">
-        <v>60</v>
+        <v>257</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B203" s="3">
-        <v>1001301876697</v>
+        <v>1001303056692</v>
       </c>
       <c r="C203" t="s">
-        <v>205</v>
+        <v>60</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B204" s="3">
-        <v>1001012634574</v>
+        <v>1001301876697</v>
       </c>
       <c r="C204" t="s">
-        <v>11</v>
+        <v>205</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B205" s="3">
-        <v>1001092485452</v>
+        <v>1001012634574</v>
       </c>
       <c r="C205" t="s">
-        <v>263</v>
+        <v>11</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B206" s="3">
-        <v>1001020966144</v>
+        <v>1001092485452</v>
       </c>
       <c r="C206" t="s">
-        <v>144</v>
+        <v>263</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B207" s="3">
-        <v>6586</v>
+        <v>1001020966144</v>
       </c>
       <c r="C207" t="s">
-        <v>243</v>
+        <v>144</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B208" s="3">
-        <v>1001304496701</v>
+        <v>6586</v>
       </c>
       <c r="C208" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B209" s="3">
-        <v>1001063655015</v>
+        <v>1001304496701</v>
       </c>
       <c r="C209" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B210" s="3">
-        <v>1001060763287</v>
+        <v>1001063655015</v>
       </c>
       <c r="C210" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B211" s="3">
-        <v>1001225416228</v>
+        <v>1001060763287</v>
       </c>
       <c r="C211" t="s">
-        <v>160</v>
+        <v>272</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B212" s="3">
-        <v>1001032736550</v>
+        <v>1001225416228</v>
       </c>
       <c r="C212" t="s">
-        <v>238</v>
+        <v>160</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B213" s="3">
-        <v>6758</v>
+        <v>1001032736550</v>
       </c>
       <c r="C213" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B214" s="3">
-        <v>1001020965976</v>
+        <v>6758</v>
       </c>
       <c r="C214" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B215" s="3">
-        <v>1001215576586</v>
+        <v>1001020965976</v>
       </c>
       <c r="C215" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B216" s="3">
-        <v>1001094896026</v>
+        <v>1001215576586</v>
       </c>
       <c r="C216" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>496</v>
+        <v>282</v>
       </c>
       <c r="B217" s="3">
-        <v>1001215576586</v>
+        <v>1001094896026</v>
       </c>
       <c r="C217" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>284</v>
+        <v>496</v>
       </c>
       <c r="B218" s="3">
         <v>1001215576586</v>
@@ -4953,95 +4956,95 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B219" s="3">
-        <v>1001092436470</v>
+        <v>1001215576586</v>
       </c>
       <c r="C219" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="B220" s="3">
-        <v>1001203146555</v>
+        <v>1001092436470</v>
       </c>
       <c r="C220" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="B221" s="3">
-        <v>1001014765992</v>
+        <v>1001203146555</v>
       </c>
       <c r="C221" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="B222" s="3">
         <v>1001014765992</v>
       </c>
       <c r="C222" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B223" s="3">
-        <v>1001014765993</v>
+        <v>1001014765992</v>
       </c>
       <c r="C223" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B224" s="3">
-        <v>1001025166776</v>
+        <v>1001014765993</v>
       </c>
       <c r="C224" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B225" s="3">
-        <v>1001025506777</v>
+        <v>1001025166776</v>
       </c>
       <c r="C225" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>323</v>
+        <v>300</v>
       </c>
       <c r="B226" s="3">
-        <v>1001025546822</v>
+        <v>1001025506777</v>
       </c>
       <c r="C226" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B227" s="3">
         <v>1001025546822</v>
@@ -5052,40 +5055,40 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="B228" s="3">
         <v>1001025546822</v>
       </c>
       <c r="C228" t="s">
-        <v>554</v>
+        <v>303</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>302</v>
+        <v>336</v>
       </c>
       <c r="B229" s="3">
         <v>1001025546822</v>
       </c>
       <c r="C229" t="s">
-        <v>303</v>
+        <v>554</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>666</v>
+        <v>302</v>
       </c>
       <c r="B230" s="3">
-        <v>1001024976616</v>
+        <v>1001025546822</v>
       </c>
       <c r="C230" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>307</v>
+        <v>666</v>
       </c>
       <c r="B231" s="3">
         <v>1001024976616</v>
@@ -5096,29 +5099,29 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B232" s="3">
-        <v>1001010855247</v>
+        <v>1001024976616</v>
       </c>
       <c r="C232" t="s">
-        <v>23</v>
+        <v>306</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>386</v>
+        <v>308</v>
       </c>
       <c r="B233" s="3">
-        <v>1001223296919</v>
+        <v>1001010855247</v>
       </c>
       <c r="C233" t="s">
-        <v>389</v>
+        <v>23</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>66</v>
+        <v>386</v>
       </c>
       <c r="B234" s="3">
         <v>1001223296919</v>
@@ -5129,7 +5132,7 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>225</v>
+        <v>66</v>
       </c>
       <c r="B235" s="3">
         <v>1001223296919</v>
@@ -5140,29 +5143,29 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>459</v>
+        <v>225</v>
       </c>
       <c r="B236" s="3">
         <v>1001223296919</v>
       </c>
       <c r="C236" t="s">
-        <v>475</v>
+        <v>389</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>481</v>
+        <v>459</v>
       </c>
       <c r="B237" s="3">
         <v>1001223296919</v>
       </c>
       <c r="C237" t="s">
-        <v>389</v>
+        <v>475</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>309</v>
+        <v>481</v>
       </c>
       <c r="B238" s="3">
         <v>1001223296919</v>
@@ -5173,73 +5176,73 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B239" s="3">
-        <v>1001014765993</v>
+        <v>1001223296919</v>
       </c>
       <c r="C239" t="s">
-        <v>296</v>
+        <v>389</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B240" s="3">
-        <v>1001025166776</v>
+        <v>1001014765993</v>
       </c>
       <c r="C240" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B241" s="3">
-        <v>1001025506777</v>
+        <v>1001025166776</v>
       </c>
       <c r="C241" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B242" s="3">
-        <v>1001025526778</v>
+        <v>1001025506777</v>
       </c>
       <c r="C242" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B243" s="3">
-        <v>1001304236685</v>
+        <v>1001025526778</v>
       </c>
       <c r="C243" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>344</v>
+        <v>319</v>
       </c>
       <c r="B244" s="3">
-        <v>1001015496769</v>
+        <v>1001304236685</v>
       </c>
       <c r="C244" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="B245" s="3">
         <v>1001015496769</v>
@@ -5250,84 +5253,84 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B246" s="3">
-        <v>1001014766798</v>
+        <v>1001015496769</v>
       </c>
       <c r="C246" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B247" s="3">
-        <v>1001015026797</v>
+        <v>1001014766798</v>
       </c>
       <c r="C247" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B248" s="3">
-        <v>1001205386222</v>
+        <v>1001015026797</v>
       </c>
       <c r="C248" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B249" s="3">
-        <v>1001092675224</v>
+        <v>1001205386222</v>
       </c>
       <c r="C249" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="B250" s="3">
-        <v>1001225406223</v>
+        <v>1001092675224</v>
       </c>
       <c r="C250" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B251" s="3">
-        <v>1001300366790</v>
+        <v>1001225406223</v>
       </c>
       <c r="C251" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>477</v>
+        <v>348</v>
       </c>
       <c r="B252" s="3">
-        <v>1001304096792</v>
+        <v>1001300366790</v>
       </c>
       <c r="C252" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>350</v>
+        <v>477</v>
       </c>
       <c r="B253" s="3">
         <v>1001304096792</v>
@@ -5338,29 +5341,29 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B254" s="3">
-        <v>1001303636793</v>
+        <v>1001304096792</v>
       </c>
       <c r="C254" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>397</v>
+        <v>351</v>
       </c>
       <c r="B255" s="3">
-        <v>1001303636794</v>
+        <v>1001303636793</v>
       </c>
       <c r="C255" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>497</v>
+        <v>397</v>
       </c>
       <c r="B256" s="3">
         <v>1001303636794</v>
@@ -5371,7 +5374,7 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>352</v>
+        <v>497</v>
       </c>
       <c r="B257" s="3">
         <v>1001303636794</v>
@@ -5382,51 +5385,51 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B258" s="3">
-        <v>1001302596795</v>
+        <v>1001303636794</v>
       </c>
       <c r="C258" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B259" s="3">
-        <v>1001302596796</v>
+        <v>1001302596795</v>
       </c>
       <c r="C259" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B260" s="3">
-        <v>1001300456804</v>
+        <v>1001302596796</v>
       </c>
       <c r="C260" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>446</v>
+        <v>355</v>
       </c>
       <c r="B261" s="3">
-        <v>1001300366806</v>
+        <v>1001300456804</v>
       </c>
       <c r="C261" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>356</v>
+        <v>446</v>
       </c>
       <c r="B262" s="3">
         <v>1001300366806</v>
@@ -5437,62 +5440,62 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B263" s="3">
-        <v>1001300516803</v>
+        <v>1001300366806</v>
       </c>
       <c r="C263" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B264" s="3">
-        <v>1001300366807</v>
+        <v>1001300516803</v>
       </c>
       <c r="C264" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="B265" s="3">
         <v>1001300366807</v>
       </c>
       <c r="C265" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B266" s="3">
-        <v>1001300516785</v>
+        <v>1001300366807</v>
       </c>
       <c r="C266" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>540</v>
+        <v>372</v>
       </c>
       <c r="B267" s="3">
-        <v>1001300456787</v>
+        <v>1001300516785</v>
       </c>
       <c r="C267" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="B268" s="3">
         <v>1001300456787</v>
@@ -5503,7 +5506,7 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>374</v>
+        <v>555</v>
       </c>
       <c r="B269" s="3">
         <v>1001300456787</v>
@@ -5514,73 +5517,73 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B270" s="3">
-        <v>1001303636793</v>
+        <v>1001300456787</v>
       </c>
       <c r="C270" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B271" s="3">
-        <v>1001302596795</v>
+        <v>1001303636793</v>
       </c>
       <c r="C271" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B272" s="3">
-        <v>1001012486332</v>
+        <v>1001302596795</v>
       </c>
       <c r="C272" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B273" s="3">
-        <v>1001012566345</v>
+        <v>1001012486332</v>
       </c>
       <c r="C273" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B274" s="3">
-        <v>1001031076528</v>
+        <v>1001012566345</v>
       </c>
       <c r="C274" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
-        <v>414</v>
+        <v>383</v>
       </c>
       <c r="B275" s="3">
-        <v>1001020836761</v>
+        <v>1001031076528</v>
       </c>
       <c r="C275" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B276" s="3">
         <v>1001020836761</v>
@@ -5591,7 +5594,7 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
-        <v>390</v>
+        <v>419</v>
       </c>
       <c r="B277" s="3">
         <v>1001020836761</v>
@@ -5602,18 +5605,18 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="B278" s="3">
-        <v>1001020846764</v>
+        <v>1001020836761</v>
       </c>
       <c r="C278" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="B279" s="3">
         <v>1001020846764</v>
@@ -5624,7 +5627,7 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
-        <v>392</v>
+        <v>420</v>
       </c>
       <c r="B280" s="3">
         <v>1001020846764</v>
@@ -5635,18 +5638,18 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
-        <v>493</v>
+        <v>392</v>
       </c>
       <c r="B281" s="3">
-        <v>1001300366790</v>
+        <v>1001020846764</v>
       </c>
       <c r="C281" t="s">
-        <v>359</v>
+        <v>393</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
-        <v>394</v>
+        <v>493</v>
       </c>
       <c r="B282" s="3">
         <v>1001300366790</v>
@@ -5657,18 +5660,18 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
-        <v>349</v>
+        <v>394</v>
       </c>
       <c r="B283" s="3">
-        <v>1001304096791</v>
+        <v>1001300366790</v>
       </c>
       <c r="C283" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
-        <v>468</v>
+        <v>349</v>
       </c>
       <c r="B284" s="3">
         <v>1001304096791</v>
@@ -5679,7 +5682,7 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
-        <v>395</v>
+        <v>468</v>
       </c>
       <c r="B285" s="3">
         <v>1001304096791</v>
@@ -5690,84 +5693,84 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B286" s="3">
-        <v>1001303636793</v>
+        <v>1001304096791</v>
       </c>
       <c r="C286" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B287" s="3">
-        <v>1001302596795</v>
+        <v>1001303636793</v>
       </c>
       <c r="C287" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B288" s="3">
-        <v>1001300516803</v>
+        <v>1001302596795</v>
       </c>
       <c r="C288" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B289" s="3">
-        <v>1001300456804</v>
+        <v>1001300516803</v>
       </c>
       <c r="C289" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B290" s="3">
-        <v>1001300366807</v>
+        <v>1001300456804</v>
       </c>
       <c r="C290" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B291" s="3">
-        <v>1001302596796</v>
+        <v>1001300366807</v>
       </c>
       <c r="C291" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
-        <v>452</v>
+        <v>402</v>
       </c>
       <c r="B292" s="3">
-        <v>1001023696765</v>
+        <v>1001302596796</v>
       </c>
       <c r="C292" t="s">
-        <v>405</v>
+        <v>365</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>471</v>
+        <v>452</v>
       </c>
       <c r="B293" s="3">
         <v>1001023696765</v>
@@ -5778,7 +5781,7 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
-        <v>404</v>
+        <v>471</v>
       </c>
       <c r="B294" s="3">
         <v>1001023696765</v>
@@ -5789,18 +5792,18 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="B295" s="3">
-        <v>1001023696767</v>
+        <v>1001023696765</v>
       </c>
       <c r="C295" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="B296" s="3">
         <v>1001023696767</v>
@@ -5811,7 +5814,7 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="B297" s="3">
         <v>1001023696767</v>
@@ -5822,18 +5825,18 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B298" s="3">
-        <v>1001024976829</v>
+        <v>1001023696767</v>
       </c>
       <c r="C298" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B299" s="3">
         <v>1001024976829</v>
@@ -5844,29 +5847,29 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="B300" s="3">
-        <v>1001022376722</v>
+        <v>1001024976829</v>
       </c>
       <c r="C300" t="s">
-        <v>119</v>
+        <v>403</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
-        <v>451</v>
+        <v>424</v>
       </c>
       <c r="B301" s="3">
-        <v>1001020846762</v>
+        <v>1001022376722</v>
       </c>
       <c r="C301" t="s">
-        <v>426</v>
+        <v>119</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
-        <v>470</v>
+        <v>451</v>
       </c>
       <c r="B302" s="3">
         <v>1001020846762</v>
@@ -5877,7 +5880,7 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
-        <v>425</v>
+        <v>470</v>
       </c>
       <c r="B303" s="3">
         <v>1001020846762</v>
@@ -5888,18 +5891,18 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
-        <v>124</v>
+        <v>425</v>
       </c>
       <c r="B304" s="3">
-        <v>1001022656853</v>
+        <v>1001020846762</v>
       </c>
       <c r="C304" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
-        <v>492</v>
+        <v>124</v>
       </c>
       <c r="B305" s="3">
         <v>1001022656853</v>
@@ -5910,18 +5913,18 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
-        <v>576</v>
+        <v>492</v>
       </c>
       <c r="B306" s="3">
-        <v>1001022656948</v>
+        <v>1001022656853</v>
       </c>
       <c r="C306" t="s">
-        <v>567</v>
+        <v>429</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="B307" s="3">
         <v>1001022656948</v>
@@ -5932,7 +5935,7 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
-        <v>428</v>
+        <v>570</v>
       </c>
       <c r="B308" s="3">
         <v>1001022656948</v>
@@ -5943,29 +5946,29 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="B309" s="3">
-        <v>1001022656852</v>
+        <v>1001022656948</v>
       </c>
       <c r="C309" t="s">
-        <v>435</v>
+        <v>567</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
-        <v>453</v>
+        <v>434</v>
       </c>
       <c r="B310" s="3">
-        <v>1001020836759</v>
+        <v>1001022656852</v>
       </c>
       <c r="C310" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="B311" s="3">
         <v>1001020836759</v>
@@ -5976,7 +5979,7 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>436</v>
+        <v>469</v>
       </c>
       <c r="B312" s="3">
         <v>1001020836759</v>
@@ -5987,51 +5990,51 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B313" s="3">
-        <v>1001023856870</v>
+        <v>1001020836759</v>
       </c>
       <c r="C313" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="B314" s="3">
-        <v>1001013956426</v>
+        <v>1001023856870</v>
       </c>
       <c r="C314" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B315" s="3">
-        <v>1001093345495</v>
+        <v>1001013956426</v>
       </c>
       <c r="C315" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
-        <v>485</v>
+        <v>456</v>
       </c>
       <c r="B316" s="3">
-        <v>1001022656868</v>
+        <v>1001093345495</v>
       </c>
       <c r="C316" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
-        <v>457</v>
+        <v>485</v>
       </c>
       <c r="B317" s="3">
         <v>1001022656868</v>
@@ -6042,18 +6045,18 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
-        <v>166</v>
+        <v>457</v>
       </c>
       <c r="B318" s="3">
-        <v>1001034065698</v>
+        <v>1001022656868</v>
       </c>
       <c r="C318" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="B319" s="3">
         <v>1001034065698</v>
@@ -6064,7 +6067,7 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
-        <v>483</v>
+        <v>185</v>
       </c>
       <c r="B320" s="3">
         <v>1001034065698</v>
@@ -6075,7 +6078,7 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
-        <v>461</v>
+        <v>483</v>
       </c>
       <c r="B321" s="3">
         <v>1001034065698</v>
@@ -6086,29 +6089,29 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B322" s="3">
-        <v>1001084216206</v>
+        <v>1001034065698</v>
       </c>
       <c r="C322" t="s">
-        <v>388</v>
+        <v>430</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="B323" s="3">
-        <v>1001015646861</v>
+        <v>1001084216206</v>
       </c>
       <c r="C323" t="s">
-        <v>427</v>
+        <v>388</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="B324" s="3">
         <v>1001015646861</v>
@@ -6119,18 +6122,18 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
-        <v>449</v>
+        <v>463</v>
       </c>
       <c r="B325" s="3">
-        <v>1001025176768</v>
+        <v>1001015646861</v>
       </c>
       <c r="C325" t="s">
-        <v>450</v>
+        <v>427</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
-        <v>472</v>
+        <v>449</v>
       </c>
       <c r="B326" s="3">
         <v>1001025176768</v>
@@ -6141,7 +6144,7 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="B327" s="3">
         <v>1001025176768</v>
@@ -6152,18 +6155,18 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
       <c r="B328" s="3">
-        <v>1001025486770</v>
+        <v>1001025176768</v>
       </c>
       <c r="C328" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
-        <v>473</v>
+        <v>448</v>
       </c>
       <c r="B329" s="3">
         <v>1001025486770</v>
@@ -6174,7 +6177,7 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="B330" s="3">
         <v>1001025486770</v>
@@ -6185,18 +6188,18 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
-        <v>208</v>
+        <v>465</v>
       </c>
       <c r="B331" s="3">
-        <v>1001012816340</v>
+        <v>1001025486770</v>
       </c>
       <c r="C331" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
-        <v>487</v>
+        <v>208</v>
       </c>
       <c r="B332" s="3">
         <v>1001012816340</v>
@@ -6207,7 +6210,7 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
-        <v>466</v>
+        <v>487</v>
       </c>
       <c r="B333" s="3">
         <v>1001012816340</v>
@@ -6218,18 +6221,18 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
-        <v>310</v>
+        <v>466</v>
       </c>
       <c r="B334" s="3">
-        <v>1001203146834</v>
+        <v>1001012816340</v>
       </c>
       <c r="C334" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
-        <v>460</v>
+        <v>310</v>
       </c>
       <c r="B335" s="3">
         <v>1001203146834</v>
@@ -6240,7 +6243,7 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
-        <v>484</v>
+        <v>460</v>
       </c>
       <c r="B336" s="3">
         <v>1001203146834</v>
@@ -6251,7 +6254,7 @@
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
-        <v>467</v>
+        <v>484</v>
       </c>
       <c r="B337" s="3">
         <v>1001203146834</v>
@@ -6262,62 +6265,62 @@
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="B338" s="3">
-        <v>1001300456788</v>
+        <v>1001203146834</v>
       </c>
       <c r="C338" t="s">
-        <v>480</v>
+        <v>433</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="B339" s="3">
-        <v>1001022556837</v>
+        <v>1001300456788</v>
       </c>
       <c r="C339" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="B340" s="3">
-        <v>1001300516786</v>
+        <v>1001022556837</v>
       </c>
       <c r="C340" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B341" s="3">
-        <v>1001214196459</v>
+        <v>1001300516786</v>
       </c>
       <c r="C341" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
-        <v>551</v>
+        <v>498</v>
       </c>
       <c r="B342" s="3">
-        <v>1001092436495</v>
+        <v>1001214196459</v>
       </c>
       <c r="C342" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="B343" s="3">
         <v>1001092436495</v>
@@ -6328,7 +6331,7 @@
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
-        <v>500</v>
+        <v>558</v>
       </c>
       <c r="B344" s="3">
         <v>1001092436495</v>
@@ -6339,40 +6342,40 @@
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B345" s="3">
-        <v>1001025526901</v>
+        <v>1001092436495</v>
       </c>
       <c r="C345" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B346" s="3">
-        <v>1001025546931</v>
+        <v>1001025526901</v>
       </c>
       <c r="C346" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="B347" s="3">
-        <v>1001010016324</v>
+        <v>1001025546931</v>
       </c>
       <c r="C347" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
-        <v>544</v>
+        <v>514</v>
       </c>
       <c r="B348" s="3">
         <v>1001010016324</v>
@@ -6383,7 +6386,7 @@
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
-        <v>507</v>
+        <v>544</v>
       </c>
       <c r="B349" s="3">
         <v>1001010016324</v>
@@ -6394,18 +6397,18 @@
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B350" s="3">
-        <v>1001025766909</v>
+        <v>1001010016324</v>
       </c>
       <c r="C350" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
-        <v>545</v>
+        <v>511</v>
       </c>
       <c r="B351" s="3">
         <v>1001025766909</v>
@@ -6416,7 +6419,7 @@
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
-        <v>509</v>
+        <v>545</v>
       </c>
       <c r="B352" s="3">
         <v>1001025766909</v>
@@ -6427,18 +6430,18 @@
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
-        <v>543</v>
+        <v>509</v>
       </c>
       <c r="B353" s="3">
-        <v>1001010014558</v>
+        <v>1001025766909</v>
       </c>
       <c r="C353" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
-        <v>512</v>
+        <v>543</v>
       </c>
       <c r="B354" s="3">
         <v>1001010014558</v>
@@ -6449,18 +6452,18 @@
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
-        <v>538</v>
+        <v>512</v>
       </c>
       <c r="B355" s="3">
-        <v>1001012596802</v>
+        <v>1001010014558</v>
       </c>
       <c r="C355" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="B356" s="3">
         <v>1001012596802</v>
@@ -6471,7 +6474,7 @@
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
-        <v>515</v>
+        <v>547</v>
       </c>
       <c r="B357" s="3">
         <v>1001012596802</v>
@@ -6482,18 +6485,18 @@
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
-        <v>533</v>
+        <v>515</v>
       </c>
       <c r="B358" s="3">
-        <v>1001012596801</v>
+        <v>1001012596802</v>
       </c>
       <c r="C358" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="B359" s="3">
         <v>1001012596801</v>
@@ -6504,7 +6507,7 @@
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
-        <v>517</v>
+        <v>546</v>
       </c>
       <c r="B360" s="3">
         <v>1001012596801</v>
@@ -6515,161 +6518,161 @@
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B361" s="3">
-        <v>1001062353684</v>
+        <v>1001012596801</v>
       </c>
       <c r="C361" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B362" s="3">
-        <v>1001010014555</v>
+        <v>1001062353684</v>
       </c>
       <c r="C362" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B363" s="3">
-        <v>1001083424691</v>
+        <v>1001010014555</v>
       </c>
       <c r="C363" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B364" s="3">
-        <v>1001190765679</v>
+        <v>1001083424691</v>
       </c>
       <c r="C364" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B365" s="3">
-        <v>1001085636200</v>
+        <v>1001190765679</v>
       </c>
       <c r="C365" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B366" s="3">
-        <v>1001020836253</v>
+        <v>1001085636200</v>
       </c>
       <c r="C366" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B367" s="3">
-        <v>1001084226492</v>
+        <v>1001020836253</v>
       </c>
       <c r="C367" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B368" s="3">
-        <v>1001223296921</v>
+        <v>1001084226492</v>
       </c>
       <c r="C368" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B369" s="3">
-        <v>1001053944786</v>
+        <v>1001223296921</v>
       </c>
       <c r="C369" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="B370" s="3">
-        <v>1001010016839</v>
+        <v>1001053944786</v>
       </c>
       <c r="C370" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="B371" s="3">
-        <v>1001023857038</v>
+        <v>1001010016839</v>
       </c>
       <c r="C371" t="s">
-        <v>589</v>
+        <v>542</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B372" s="3">
-        <v>1001040434903</v>
+        <v>1001023857038</v>
       </c>
       <c r="C372" t="s">
-        <v>550</v>
+        <v>589</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B373" s="3">
-        <v>1001080216842</v>
+        <v>1001040434903</v>
       </c>
       <c r="C373" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="B374" s="3">
-        <v>1001022466951</v>
+        <v>1001080216842</v>
       </c>
       <c r="C374" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B375" s="3">
         <v>1001022466951</v>
@@ -6680,106 +6683,106 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B376" s="3">
-        <v>1001035276653</v>
+        <v>1001022466951</v>
       </c>
       <c r="C376" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="B377" s="3">
-        <v>1001062353680</v>
+        <v>1001035276653</v>
       </c>
       <c r="C377" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B378" s="3">
-        <v>1001061971146</v>
+        <v>1001062353680</v>
       </c>
       <c r="C378" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B379" s="3">
-        <v>1001225636201</v>
+        <v>1001061971146</v>
       </c>
       <c r="C379" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B380" s="3">
-        <v>1001020836724</v>
+        <v>1001225636201</v>
       </c>
       <c r="C380" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B381" s="3">
-        <v>1001095227035</v>
+        <v>1001020836724</v>
       </c>
       <c r="C381" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B382" s="3">
-        <v>1001023857038</v>
+        <v>1001095227035</v>
       </c>
       <c r="C382" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B383" s="3">
-        <v>1001025027040</v>
+        <v>1001023857038</v>
       </c>
       <c r="C383" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B384" s="3">
-        <v>1001223297103</v>
+        <v>1001025027040</v>
       </c>
       <c r="C384" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B385" s="3">
         <v>1001223297103</v>
@@ -6790,7 +6793,7 @@
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B386" s="3">
         <v>1001223297103</v>
@@ -6801,18 +6804,18 @@
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
-        <v>615</v>
+        <v>593</v>
       </c>
       <c r="B387" s="3">
-        <v>1001010032675</v>
+        <v>1001223297103</v>
       </c>
       <c r="C387" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
-        <v>595</v>
+        <v>615</v>
       </c>
       <c r="B388" s="3">
         <v>1001010032675</v>
@@ -6823,18 +6826,18 @@
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
-        <v>620</v>
+        <v>595</v>
       </c>
       <c r="B389" s="3">
-        <v>1001035937001</v>
+        <v>1001010032675</v>
       </c>
       <c r="C389" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
-        <v>597</v>
+        <v>620</v>
       </c>
       <c r="B390" s="3">
         <v>1001035937001</v>
@@ -6845,18 +6848,18 @@
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
-        <v>621</v>
+        <v>597</v>
       </c>
       <c r="B391" s="3">
-        <v>1001084217090</v>
+        <v>1001035937001</v>
       </c>
       <c r="C391" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
-        <v>599</v>
+        <v>621</v>
       </c>
       <c r="B392" s="3">
         <v>1001084217090</v>
@@ -6867,18 +6870,18 @@
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
-        <v>622</v>
+        <v>599</v>
       </c>
       <c r="B393" s="3">
-        <v>1001022377066</v>
+        <v>1001084217090</v>
       </c>
       <c r="C393" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
-        <v>601</v>
+        <v>622</v>
       </c>
       <c r="B394" s="3">
         <v>1001022377066</v>
@@ -6889,18 +6892,18 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
-        <v>623</v>
+        <v>601</v>
       </c>
       <c r="B395" s="3">
-        <v>1001022467080</v>
+        <v>1001022377066</v>
       </c>
       <c r="C395" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
-        <v>603</v>
+        <v>623</v>
       </c>
       <c r="B396" s="3">
         <v>1001022467080</v>
@@ -6911,18 +6914,18 @@
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
-        <v>624</v>
+        <v>603</v>
       </c>
       <c r="B397" s="3">
-        <v>1001025507077</v>
+        <v>1001022467080</v>
       </c>
       <c r="C397" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
-        <v>605</v>
+        <v>624</v>
       </c>
       <c r="B398" s="3">
         <v>1001025507077</v>
@@ -6933,18 +6936,18 @@
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
-        <v>627</v>
+        <v>605</v>
       </c>
       <c r="B399" s="3">
-        <v>1001022657075</v>
+        <v>1001025507077</v>
       </c>
       <c r="C399" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
-        <v>607</v>
+        <v>627</v>
       </c>
       <c r="B400" s="3">
         <v>1001022657075</v>
@@ -6955,18 +6958,18 @@
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
-        <v>625</v>
+        <v>607</v>
       </c>
       <c r="B401" s="3">
-        <v>1001022467082</v>
+        <v>1001022657075</v>
       </c>
       <c r="C401" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
-        <v>609</v>
+        <v>625</v>
       </c>
       <c r="B402" s="3">
         <v>1001022467082</v>
@@ -6977,18 +6980,18 @@
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
-        <v>626</v>
+        <v>609</v>
       </c>
       <c r="B403" s="3">
-        <v>1001022377070</v>
+        <v>1001022467082</v>
       </c>
       <c r="C403" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
-        <v>611</v>
+        <v>626</v>
       </c>
       <c r="B404" s="3">
         <v>1001022377070</v>
@@ -6999,18 +7002,18 @@
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
-        <v>628</v>
+        <v>611</v>
       </c>
       <c r="B405" s="3">
-        <v>1001022657073</v>
+        <v>1001022377070</v>
       </c>
       <c r="C405" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
-        <v>613</v>
+        <v>628</v>
       </c>
       <c r="B406" s="3">
         <v>1001022657073</v>
@@ -7021,18 +7024,18 @@
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
-        <v>639</v>
+        <v>613</v>
       </c>
       <c r="B407" s="3">
-        <v>1001010027126</v>
+        <v>1001022657073</v>
       </c>
       <c r="C407" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
-        <v>616</v>
+        <v>639</v>
       </c>
       <c r="B408" s="3">
         <v>1001010027126</v>
@@ -7043,18 +7046,18 @@
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B409" s="3">
-        <v>1001010027125</v>
+        <v>1001010027126</v>
       </c>
       <c r="C409" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
-        <v>640</v>
+        <v>618</v>
       </c>
       <c r="B410" s="3">
         <v>1001010027125</v>
@@ -7065,18 +7068,18 @@
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
-        <v>663</v>
+        <v>640</v>
       </c>
       <c r="B411" s="3">
-        <v>1001016366888</v>
+        <v>1001010027125</v>
       </c>
       <c r="C411" t="s">
-        <v>642</v>
+        <v>619</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
-        <v>641</v>
+        <v>663</v>
       </c>
       <c r="B412" s="3">
         <v>1001016366888</v>
@@ -7087,18 +7090,18 @@
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
-        <v>664</v>
+        <v>641</v>
       </c>
       <c r="B413" s="3">
-        <v>1001300367133</v>
+        <v>1001016366888</v>
       </c>
       <c r="C413" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
-        <v>643</v>
+        <v>664</v>
       </c>
       <c r="B414" s="3">
         <v>1001300367133</v>
@@ -7109,18 +7112,18 @@
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
-        <v>662</v>
+        <v>643</v>
       </c>
       <c r="B415" s="3">
-        <v>1001303637131</v>
+        <v>1001300367133</v>
       </c>
       <c r="C415" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
-        <v>645</v>
+        <v>662</v>
       </c>
       <c r="B416" s="3">
         <v>1001303637131</v>
@@ -7131,18 +7134,18 @@
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
-        <v>665</v>
+        <v>645</v>
       </c>
       <c r="B417" s="3">
-        <v>1001304527146</v>
+        <v>1001303637131</v>
       </c>
       <c r="C417" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" s="2" t="s">
-        <v>647</v>
+        <v>665</v>
       </c>
       <c r="B418" s="3">
         <v>1001304527146</v>
@@ -7153,18 +7156,18 @@
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
-        <v>660</v>
+        <v>647</v>
       </c>
       <c r="B419" s="3">
-        <v>1001300517134</v>
+        <v>1001304527146</v>
       </c>
       <c r="C419" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" s="2" t="s">
-        <v>649</v>
+        <v>660</v>
       </c>
       <c r="B420" s="3">
         <v>1001300517134</v>
@@ -7175,29 +7178,29 @@
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B421" s="3">
-        <v>1001300457135</v>
+        <v>1001300517134</v>
       </c>
       <c r="C421" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B422" s="3">
-        <v>1001304527144</v>
+        <v>1001300457135</v>
       </c>
       <c r="C422" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="B423" s="3">
         <v>1001304527144</v>
@@ -7208,18 +7211,18 @@
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
-        <v>685</v>
+        <v>661</v>
       </c>
       <c r="B424" s="3">
-        <v>1001081596620</v>
+        <v>1001304527144</v>
       </c>
       <c r="C424" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
-        <v>668</v>
+        <v>685</v>
       </c>
       <c r="B425" s="3">
         <v>1001081596620</v>
@@ -7230,18 +7233,18 @@
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
-        <v>690</v>
+        <v>668</v>
       </c>
       <c r="B426" s="3">
-        <v>1001085637187</v>
+        <v>1001081596620</v>
       </c>
       <c r="C426" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
-        <v>670</v>
+        <v>690</v>
       </c>
       <c r="B427" s="3">
         <v>1001085637187</v>
@@ -7252,18 +7255,18 @@
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" s="2" t="s">
-        <v>689</v>
+        <v>670</v>
       </c>
       <c r="B428" s="3">
-        <v>1001015676877</v>
+        <v>1001085637187</v>
       </c>
       <c r="C428" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" s="2" t="s">
-        <v>672</v>
+        <v>689</v>
       </c>
       <c r="B429" s="3">
         <v>1001015676877</v>
@@ -7274,18 +7277,18 @@
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" s="2" t="s">
-        <v>692</v>
+        <v>672</v>
       </c>
       <c r="B430" s="3">
-        <v>1001015686878</v>
+        <v>1001015676877</v>
       </c>
       <c r="C430" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" s="2" t="s">
-        <v>674</v>
+        <v>692</v>
       </c>
       <c r="B431" s="3">
         <v>1001015686878</v>
@@ -7296,51 +7299,51 @@
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B432" s="3">
-        <v>1001302277232</v>
+        <v>1001015686878</v>
       </c>
       <c r="C432" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B433" s="3">
-        <v>1001304497237</v>
+        <v>1001302277232</v>
       </c>
       <c r="C433" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B434" s="3">
-        <v>1001303107241</v>
+        <v>1001304497237</v>
       </c>
       <c r="C434" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" s="2" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="B435" s="3">
-        <v>1002162216872</v>
+        <v>1001303107241</v>
       </c>
       <c r="C435" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" s="2" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="B436" s="3">
         <v>1002162216872</v>
@@ -7351,18 +7354,18 @@
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" s="2" t="s">
-        <v>706</v>
+        <v>691</v>
       </c>
       <c r="B437" s="3">
-        <v>1001063237147</v>
+        <v>1002162216872</v>
       </c>
       <c r="C437" t="s">
-        <v>698</v>
+        <v>684</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" s="2" t="s">
-        <v>693</v>
+        <v>706</v>
       </c>
       <c r="B438" s="3">
         <v>1001063237147</v>
@@ -7373,18 +7376,18 @@
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
-        <v>705</v>
+        <v>693</v>
       </c>
       <c r="B439" s="3">
-        <v>1001063097227</v>
+        <v>1001063237147</v>
       </c>
       <c r="C439" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
-        <v>694</v>
+        <v>705</v>
       </c>
       <c r="B440" s="3">
         <v>1001063097227</v>
@@ -7395,18 +7398,18 @@
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="B441" s="3">
-        <v>1001066537225</v>
+        <v>1001063097227</v>
       </c>
       <c r="C441" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
-        <v>695</v>
+        <v>703</v>
       </c>
       <c r="B442" s="3">
         <v>1001066537225</v>
@@ -7417,18 +7420,18 @@
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" s="2" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="B443" s="3">
-        <v>1001066527226</v>
+        <v>1001066537225</v>
       </c>
       <c r="C443" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" s="2" t="s">
-        <v>696</v>
+        <v>704</v>
       </c>
       <c r="B444" s="3">
         <v>1001066527226</v>
@@ -7439,29 +7442,29 @@
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B445" s="3">
-        <v>1001066547228</v>
+        <v>1001066527226</v>
       </c>
       <c r="C445" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446" s="2" t="s">
-        <v>713</v>
+        <v>697</v>
       </c>
       <c r="B446" s="3">
-        <v>1001063237229</v>
+        <v>1001066547228</v>
       </c>
       <c r="C446" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
-        <v>707</v>
+        <v>713</v>
       </c>
       <c r="B447" s="3">
         <v>1001063237229</v>
@@ -7472,18 +7475,18 @@
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" s="2" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="B448" s="3">
-        <v>1001063237150</v>
+        <v>1001063237229</v>
       </c>
       <c r="C448" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" s="2" t="s">
-        <v>708</v>
+        <v>715</v>
       </c>
       <c r="B449" s="3">
         <v>1001063237150</v>
@@ -7494,18 +7497,18 @@
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B450" s="3">
-        <v>1001022467276</v>
+        <v>1001063237150</v>
       </c>
       <c r="C450" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" s="2" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="B451" s="3">
         <v>1001022467276</v>
@@ -7514,8 +7517,19 @@
         <v>712</v>
       </c>
     </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A452" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B452" s="3">
+        <v>1001022467276</v>
+      </c>
+      <c r="C452" t="s">
+        <v>712</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C451" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
+  <autoFilter ref="A1:C452" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/в бланки заводов/Останкино КИ/ostankino_ki/NV/moduls/1С.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/NV/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\NV\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE73A12F-82B1-465E-9341-642BC15C034A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF2BAB7-1240-4BFB-A2D5-9E1276EB1DEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$452</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="731">
   <si>
     <t>1С</t>
   </si>
@@ -2185,6 +2185,48 @@
   </si>
   <si>
     <t>6268 Колбаса Папа может 400г Говяжья вар п/о  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6837 ФИЛЕЙНЫЕ Папа Может сос ц/о мгс 0.4кг</t>
+  </si>
+  <si>
+    <t>6221 НЕАПОЛИТАНСКИЙ ДУЭТ с/к с/н мгс 1/90</t>
+  </si>
+  <si>
+    <t>5992 ВРЕМЯ ОКРОШКИ Папа может вар п/о 0.4кг</t>
+  </si>
+  <si>
+    <t>6459 СЕРВЕЛАТ ШВЕЙЦАРСК. в/к с/н в/у 1/100*10</t>
+  </si>
+  <si>
+    <t>6325 ДОКТОРСКАЯ ПРЕМИУМ вар п/о 0.4кг 8шт.</t>
+  </si>
+  <si>
+    <t>7231 КЛАССИЧЕСКАЯ ПМ вар п/о 0.3кг 8шт_209к</t>
+  </si>
+  <si>
+    <t>6279 КОРЕЙКА ПО-ОСТ.к/в в/с с/н в/у 1/150_45с</t>
+  </si>
+  <si>
+    <t>7092 БЕКОН Папа может с/к с/н в/у 1/140_50с</t>
+  </si>
+  <si>
+    <t>6724 МОЛОЧНЫЕ ПМ сос п/о мгс 0.41кг 10шт.</t>
+  </si>
+  <si>
+    <t>5707 ЮБИЛЕЙНАЯ Папа может с/к в/у 1/250 8шт.</t>
+  </si>
+  <si>
+    <t>6609 С ГОВЯДИНОЙ ПМ сар б/о мгс 0.4кг_45с</t>
+  </si>
+  <si>
+    <t>КЛАССИЧЕСКАЯ ПМ вар п/о 0.3кг 8шт_209к</t>
+  </si>
+  <si>
+    <t>БЕКОН Папа может с/к с/н в/у 1/140_50с</t>
+  </si>
+  <si>
+    <t>ЮБИЛЕЙНАЯ Папа может с/к в/у 1/250 8шт.</t>
   </si>
 </sst>
 </file>
@@ -2248,7 +2290,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2256,6 +2298,8 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Arial10px" xfId="2" xr:uid="{C0A75BEE-14F2-4260-AF17-AC512850AE79}"/>
@@ -2538,11 +2582,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F452"/>
+  <dimension ref="A1:F463"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7528,6 +7572,127 @@
         <v>712</v>
       </c>
     </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A453" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="B453" s="5">
+        <v>1001022556837</v>
+      </c>
+      <c r="C453" s="6" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A454" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="B454" s="5">
+        <v>1001205376221</v>
+      </c>
+      <c r="C454" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A455" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="B455" s="5">
+        <v>1001014765992</v>
+      </c>
+      <c r="C455" s="6" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A456" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="B456" s="5">
+        <v>1001214196459</v>
+      </c>
+      <c r="C456" s="6" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A457" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="B457" s="5">
+        <v>1001010106325</v>
+      </c>
+      <c r="C457" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A458" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="B458" s="5">
+        <v>1001013957231</v>
+      </c>
+      <c r="C458" s="6" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A459" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="B459" s="5">
+        <v>1001220286279</v>
+      </c>
+      <c r="C459" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A460" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="B460" s="5">
+        <v>1001223297092</v>
+      </c>
+      <c r="C460" s="6" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A461" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="B461" s="5">
+        <v>1001020836724</v>
+      </c>
+      <c r="C461" s="6" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A462" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="B462" s="5">
+        <v>1001062475707</v>
+      </c>
+      <c r="C462" s="6" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A463" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="B463" s="5">
+        <v>1001033856609</v>
+      </c>
+      <c r="C463" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C452" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/в бланки заводов/Останкино КИ/ostankino_ki/NV/moduls/1С.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/NV/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\NV\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF2BAB7-1240-4BFB-A2D5-9E1276EB1DEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D0DACC-8E91-48F6-8BE0-52733291AD72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$452</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$468</definedName>
   </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="736">
   <si>
     <t>1С</t>
   </si>
@@ -582,9 +582,6 @@
     <t>НЕАПОЛИТАНСКИЙ ДУЭТ с/к с/н мгс 1/90</t>
   </si>
   <si>
-    <t>6221 НЕАПОЛИТАНСКИЙ ДУЭТ с/к с/н мгс 1/90  ОСТАНКИНО</t>
-  </si>
-  <si>
     <t>6025 ВЕТЧ.ФИРМЕННАЯ С ИНДЕЙКОЙ п/о   ОСТАНКИНО</t>
   </si>
   <si>
@@ -2227,6 +2224,24 @@
   </si>
   <si>
     <t>ЮБИЛЕЙНАЯ Папа может с/к в/у 1/250 8шт.</t>
+  </si>
+  <si>
+    <t>6459 СЕРВЕЛАТ ШВЕЙЦАРСК. в/к с/н в/у 1/100*10  Останкино</t>
+  </si>
+  <si>
+    <t>7231 КЛАССИЧЕСКАЯ ПМ вар п/о 0,3кг 8 шт_209к  Останкино</t>
+  </si>
+  <si>
+    <t>7092 БЕКОН Папа может с/к с/н в/у 1/140_50с  Останкино</t>
+  </si>
+  <si>
+    <t>6221 НЕОПОЛИТАНСКИЙ ДУЭТ с/к с/н мгс 1/90  Останкино</t>
+  </si>
+  <si>
+    <t>6724 МОЛОЧНЫЕ ПМ сос п/о мгс 0,41кг 10шт  Останкино</t>
+  </si>
+  <si>
+    <t>6837 ФИЛЕЙНЫЕ Папа Может сос ц/о мгс 0,4кг  Останкино</t>
   </si>
 </sst>
 </file>
@@ -2582,11 +2597,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F463"/>
+  <dimension ref="A1:F468"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2678,68 +2693,68 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B8" s="3">
         <v>1001095716865</v>
       </c>
       <c r="C8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B9" s="3">
         <v>1001095716866</v>
       </c>
       <c r="C9" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B10" s="3">
         <v>1001095716866</v>
       </c>
       <c r="C10" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B11" s="3">
         <v>1001095716866</v>
       </c>
       <c r="C11" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B12" s="3">
         <v>1001095716866</v>
       </c>
       <c r="C12" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B13" s="3">
         <v>1001095716866</v>
       </c>
       <c r="C13" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -2750,7 +2765,7 @@
         <v>1001095716865</v>
       </c>
       <c r="C14" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -2816,29 +2831,29 @@
         <v>1001015646861</v>
       </c>
       <c r="C20" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B21" s="3">
         <v>1001015706862</v>
       </c>
       <c r="C21" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B22" s="3">
         <v>1001015706862</v>
       </c>
       <c r="C22" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -2849,29 +2864,29 @@
         <v>1001015706862</v>
       </c>
       <c r="C23" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B24" s="3">
         <v>1001303987166</v>
       </c>
       <c r="C24" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B25" s="3">
         <v>1001303987166</v>
       </c>
       <c r="C25" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -2953,13 +2968,13 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B33" s="3">
         <v>1001060755931</v>
       </c>
       <c r="C33" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -2970,7 +2985,7 @@
         <v>1001060755931</v>
       </c>
       <c r="C34" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -3003,7 +3018,7 @@
         <v>1001024976829</v>
       </c>
       <c r="C37" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -3019,13 +3034,13 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B39" s="3">
         <v>1001084216206</v>
       </c>
       <c r="C39" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -3036,40 +3051,40 @@
         <v>1001084216206</v>
       </c>
       <c r="C40" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B41" s="3">
         <v>1001022557257</v>
       </c>
       <c r="C41" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B42" s="3">
         <v>1001022557257</v>
       </c>
       <c r="C42" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B43" s="3">
         <v>1001022557257</v>
       </c>
       <c r="C43" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -3080,7 +3095,7 @@
         <v>1001022556069</v>
       </c>
       <c r="C44" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F44" s="3"/>
     </row>
@@ -3119,13 +3134,13 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B48" s="3">
         <v>1001304507236</v>
       </c>
       <c r="C48" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -3136,18 +3151,18 @@
         <v>1001304507236</v>
       </c>
       <c r="C49" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B50" s="3">
         <v>1001304507236</v>
       </c>
       <c r="C50" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -3163,24 +3178,24 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B52" s="3">
         <v>1001303637149</v>
       </c>
       <c r="C52" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B53" s="3">
         <v>1001303637149</v>
       </c>
       <c r="C53" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -3191,7 +3206,7 @@
         <v>1001013956426</v>
       </c>
       <c r="C54" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -3218,7 +3233,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B57" s="3">
         <v>1001202506453</v>
@@ -3449,7 +3464,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B78" s="3">
         <v>1001305306566</v>
@@ -3471,79 +3486,79 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B80" s="3">
         <v>1001300387154</v>
       </c>
       <c r="C80" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B81" s="3">
         <v>1001300387154</v>
       </c>
       <c r="C81" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B82" s="3">
         <v>1001303987169</v>
       </c>
       <c r="C82" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B83" s="3">
         <v>1001303987169</v>
       </c>
       <c r="C83" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B84" s="3">
         <v>1001303106773</v>
       </c>
       <c r="C84" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B85" s="4">
         <v>1001303106773</v>
       </c>
       <c r="C85" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B86" s="4">
         <v>1001303106773</v>
       </c>
       <c r="C86" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -3554,45 +3569,45 @@
         <v>1001303106773</v>
       </c>
       <c r="C87" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B88" s="3">
         <v>1001303106773</v>
       </c>
       <c r="C88" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B89" s="3">
         <v>1001303106773</v>
       </c>
       <c r="C89" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B90" s="3">
         <v>1001303106773</v>
       </c>
       <c r="C90" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B91" s="3">
         <v>1001012566392</v>
@@ -3603,7 +3618,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B92" s="3">
         <v>1001012566392</v>
@@ -3625,29 +3640,29 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B94" s="3">
         <v>1001302277173</v>
       </c>
       <c r="C94" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B95" s="3">
         <v>1001302277173</v>
       </c>
       <c r="C95" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B96" s="3">
         <v>1001012426268</v>
@@ -3724,13 +3739,13 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B103" s="3">
         <v>1001020966227</v>
       </c>
       <c r="C103" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -3746,35 +3761,35 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B105" s="3">
         <v>1001022726303</v>
       </c>
       <c r="C105" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B106" s="3">
         <v>1001022726303</v>
       </c>
       <c r="C106" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B107" s="3">
         <v>1001022726303</v>
       </c>
       <c r="C107" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -3823,24 +3838,24 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B112" s="3">
         <v>1001022376955</v>
       </c>
       <c r="C112" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B113" s="3">
         <v>1001022376955</v>
       </c>
       <c r="C113" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -3851,29 +3866,29 @@
         <v>1001022376955</v>
       </c>
       <c r="C114" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B115" s="3">
         <v>1001022246661</v>
       </c>
       <c r="C115" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B116" s="3">
         <v>1001022246661</v>
       </c>
       <c r="C116" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -4027,7 +4042,7 @@
         <v>6225</v>
       </c>
       <c r="C130" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -4065,24 +4080,24 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B134" s="3">
         <v>1001022466726</v>
       </c>
       <c r="C134" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B135" s="3">
         <v>1001022466726</v>
       </c>
       <c r="C135" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -4104,7 +4119,7 @@
         <v>1001021966602</v>
       </c>
       <c r="C137" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -4120,35 +4135,35 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B139" s="3">
         <v>1001012816341</v>
       </c>
       <c r="C139" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B140" s="3">
         <v>1001012816341</v>
       </c>
       <c r="C140" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B141" s="3">
         <v>1001012816341</v>
       </c>
       <c r="C141" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -4159,7 +4174,7 @@
         <v>1001012816341</v>
       </c>
       <c r="C142" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -4197,35 +4212,35 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B146" s="3">
         <v>1001022656854</v>
       </c>
       <c r="C146" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B147" s="3">
         <v>1001022656854</v>
       </c>
       <c r="C147" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B148" s="3">
         <v>1001022656854</v>
       </c>
       <c r="C148" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -4236,12 +4251,12 @@
         <v>1001022656854</v>
       </c>
       <c r="C149" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B150" s="3">
         <v>1001094966025</v>
@@ -4263,35 +4278,35 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B152" s="3">
-        <v>6221</v>
+        <v>1001022373812</v>
       </c>
       <c r="C152" t="s">
-        <v>181</v>
+        <v>3</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B153" s="3">
-        <v>1001205376221</v>
+        <v>1001100606827</v>
       </c>
       <c r="C153" t="s">
-        <v>181</v>
+        <v>328</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>186</v>
+        <v>340</v>
       </c>
       <c r="B154" s="3">
-        <v>1001022373812</v>
+        <v>1001100606827</v>
       </c>
       <c r="C154" t="s">
-        <v>3</v>
+        <v>328</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -4299,7 +4314,7 @@
         <v>187</v>
       </c>
       <c r="B155" s="3">
-        <v>1001100606827</v>
+        <v>1001100616826</v>
       </c>
       <c r="C155" t="s">
         <v>329</v>
@@ -4310,7 +4325,7 @@
         <v>341</v>
       </c>
       <c r="B156" s="3">
-        <v>1001100606827</v>
+        <v>1001100616826</v>
       </c>
       <c r="C156" t="s">
         <v>329</v>
@@ -4321,7 +4336,7 @@
         <v>188</v>
       </c>
       <c r="B157" s="3">
-        <v>1001100616826</v>
+        <v>1001100626828</v>
       </c>
       <c r="C157" t="s">
         <v>330</v>
@@ -4332,7 +4347,7 @@
         <v>342</v>
       </c>
       <c r="B158" s="3">
-        <v>1001100616826</v>
+        <v>1001100626828</v>
       </c>
       <c r="C158" t="s">
         <v>330</v>
@@ -4343,54 +4358,54 @@
         <v>189</v>
       </c>
       <c r="B159" s="3">
-        <v>1001100626828</v>
+        <v>1001035026308</v>
       </c>
       <c r="C159" t="s">
-        <v>331</v>
+        <v>190</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>343</v>
+        <v>559</v>
       </c>
       <c r="B160" s="3">
-        <v>1001100626828</v>
+        <v>1001014486159</v>
       </c>
       <c r="C160" t="s">
-        <v>331</v>
+        <v>560</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B161" s="3">
-        <v>1001035026308</v>
+        <v>1001014486159</v>
       </c>
       <c r="C161" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>560</v>
+        <v>193</v>
       </c>
       <c r="B162" s="3">
-        <v>1001014486159</v>
+        <v>1001035326217</v>
       </c>
       <c r="C162" t="s">
-        <v>561</v>
+        <v>284</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>192</v>
+        <v>505</v>
       </c>
       <c r="B163" s="3">
-        <v>1001014486159</v>
+        <v>1001012426220</v>
       </c>
       <c r="C163" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -4398,252 +4413,252 @@
         <v>194</v>
       </c>
       <c r="B164" s="3">
-        <v>1001035326217</v>
+        <v>1001012426220</v>
       </c>
       <c r="C164" t="s">
-        <v>285</v>
+        <v>195</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>506</v>
+        <v>196</v>
       </c>
       <c r="B165" s="3">
-        <v>1001012426220</v>
+        <v>1001022466236</v>
       </c>
       <c r="C165" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B166" s="3">
-        <v>1001012426220</v>
+        <v>1001021966602</v>
       </c>
       <c r="C166" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B167" s="3">
-        <v>1001022466236</v>
+        <v>1001022296656</v>
       </c>
       <c r="C167" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B168" s="3">
-        <v>1001021966602</v>
+        <v>1001301876697</v>
       </c>
       <c r="C168" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B169" s="3">
-        <v>1001022296656</v>
+        <v>1001022246713</v>
       </c>
       <c r="C169" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B170" s="3">
-        <v>1001301876697</v>
+        <v>1001022376722</v>
       </c>
       <c r="C170" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B171" s="3">
-        <v>1001022246713</v>
+        <v>1001020846751</v>
       </c>
       <c r="C171" t="s">
-        <v>207</v>
+        <v>87</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B172" s="3">
-        <v>1001022376722</v>
+        <v>1001022725819</v>
       </c>
       <c r="C172" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B173" s="3">
-        <v>1001020846751</v>
+        <v>1001012825337</v>
       </c>
       <c r="C173" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B174" s="3">
-        <v>1001022725819</v>
+        <v>1001012815336</v>
       </c>
       <c r="C174" t="s">
-        <v>213</v>
+        <v>25</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B175" s="3">
-        <v>1001012825337</v>
+        <v>1001234146448</v>
       </c>
       <c r="C175" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B176" s="3">
-        <v>1001012815336</v>
+        <v>1001022725819</v>
       </c>
       <c r="C176" t="s">
-        <v>25</v>
+        <v>212</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B177" s="3">
-        <v>1001234146448</v>
+        <v>1001092676027</v>
       </c>
       <c r="C177" t="s">
-        <v>65</v>
+        <v>218</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B178" s="3">
-        <v>1001022725819</v>
+        <v>1001301876213</v>
       </c>
       <c r="C178" t="s">
-        <v>213</v>
+        <v>78</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B179" s="3">
-        <v>1001092676027</v>
+        <v>1001035026308</v>
       </c>
       <c r="C179" t="s">
-        <v>219</v>
+        <v>406</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B180" s="3">
-        <v>1001301876213</v>
+        <v>1001234146448</v>
       </c>
       <c r="C180" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B181" s="3">
-        <v>1001035026308</v>
+        <v>1001201976454</v>
       </c>
       <c r="C181" t="s">
-        <v>407</v>
+        <v>70</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B182" s="3">
-        <v>1001234146448</v>
+        <v>1001025176475</v>
       </c>
       <c r="C182" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B183" s="3">
-        <v>1001201976454</v>
+        <v>1001012456498</v>
       </c>
       <c r="C183" t="s">
-        <v>70</v>
+        <v>228</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B184" s="3">
-        <v>1001025176475</v>
+        <v>1001010036596</v>
       </c>
       <c r="C184" t="s">
-        <v>72</v>
+        <v>230</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>228</v>
+        <v>570</v>
       </c>
       <c r="B185" s="3">
-        <v>1001012456498</v>
+        <v>1001033856608</v>
       </c>
       <c r="C185" t="s">
-        <v>229</v>
+        <v>561</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>230</v>
+        <v>563</v>
       </c>
       <c r="B186" s="3">
-        <v>1001010036596</v>
+        <v>1001033856608</v>
       </c>
       <c r="C186" t="s">
-        <v>231</v>
+        <v>561</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -4651,733 +4666,733 @@
         <v>571</v>
       </c>
       <c r="B187" s="3">
-        <v>1001033856608</v>
+        <v>1001033856609</v>
       </c>
       <c r="C187" t="s">
-        <v>562</v>
+        <v>232</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>564</v>
+        <v>231</v>
       </c>
       <c r="B188" s="3">
-        <v>1001033856608</v>
+        <v>1001033856609</v>
       </c>
       <c r="C188" t="s">
-        <v>562</v>
+        <v>232</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>572</v>
+        <v>234</v>
       </c>
       <c r="B189" s="3">
-        <v>1001033856609</v>
+        <v>1001093345495</v>
       </c>
       <c r="C189" t="s">
-        <v>233</v>
+        <v>442</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B190" s="3">
-        <v>1001033856609</v>
+        <v>6550</v>
       </c>
       <c r="C190" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B191" s="3">
-        <v>1001093345495</v>
+        <v>1001304506684</v>
       </c>
       <c r="C191" t="s">
-        <v>443</v>
+        <v>59</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B192" s="3">
-        <v>6550</v>
+        <v>1001010113248</v>
       </c>
       <c r="C192" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>239</v>
+        <v>414</v>
       </c>
       <c r="B193" s="3">
-        <v>1001304506684</v>
+        <v>1001063926780</v>
       </c>
       <c r="C193" t="s">
-        <v>59</v>
+        <v>415</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B194" s="3">
-        <v>1001010113248</v>
+        <v>6586</v>
       </c>
       <c r="C194" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>415</v>
+        <v>243</v>
       </c>
       <c r="B195" s="3">
-        <v>1001063926780</v>
+        <v>1001303636467</v>
       </c>
       <c r="C195" t="s">
-        <v>416</v>
+        <v>244</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B196" s="3">
-        <v>6586</v>
+        <v>1001304496701</v>
       </c>
       <c r="C196" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B197" s="3">
-        <v>1001303636467</v>
+        <v>6144</v>
       </c>
       <c r="C197" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B198" s="3">
-        <v>1001304496701</v>
+        <v>1001022725819</v>
       </c>
       <c r="C198" t="s">
-        <v>249</v>
+        <v>212</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B199" s="3">
-        <v>6144</v>
+        <v>1001022373812</v>
       </c>
       <c r="C199" t="s">
-        <v>251</v>
+        <v>3</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B200" s="3">
-        <v>1001022725819</v>
+        <v>1001024906062</v>
       </c>
       <c r="C200" t="s">
-        <v>213</v>
+        <v>256</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B201" s="3">
-        <v>1001022373812</v>
+        <v>1001303056692</v>
       </c>
       <c r="C201" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B202" s="3">
-        <v>1001024906062</v>
+        <v>1001301876697</v>
       </c>
       <c r="C202" t="s">
-        <v>257</v>
+        <v>204</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B203" s="3">
-        <v>1001303056692</v>
+        <v>1001012634574</v>
       </c>
       <c r="C203" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B204" s="3">
-        <v>1001301876697</v>
+        <v>1001092485452</v>
       </c>
       <c r="C204" t="s">
-        <v>205</v>
+        <v>262</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B205" s="3">
-        <v>1001012634574</v>
+        <v>1001020966144</v>
       </c>
       <c r="C205" t="s">
-        <v>11</v>
+        <v>144</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B206" s="3">
-        <v>1001092485452</v>
+        <v>6586</v>
       </c>
       <c r="C206" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B207" s="3">
-        <v>1001020966144</v>
+        <v>1001304496701</v>
       </c>
       <c r="C207" t="s">
-        <v>144</v>
+        <v>248</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B208" s="3">
-        <v>6586</v>
+        <v>1001063655015</v>
       </c>
       <c r="C208" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B209" s="3">
-        <v>1001304496701</v>
+        <v>1001060763287</v>
       </c>
       <c r="C209" t="s">
-        <v>249</v>
+        <v>271</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B210" s="3">
-        <v>1001063655015</v>
+        <v>1001225416228</v>
       </c>
       <c r="C210" t="s">
-        <v>269</v>
+        <v>160</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B211" s="3">
-        <v>1001060763287</v>
+        <v>1001032736550</v>
       </c>
       <c r="C211" t="s">
-        <v>272</v>
+        <v>237</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B212" s="3">
-        <v>1001225416228</v>
+        <v>6758</v>
       </c>
       <c r="C212" t="s">
-        <v>160</v>
+        <v>275</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B213" s="3">
-        <v>1001032736550</v>
+        <v>1001020965976</v>
       </c>
       <c r="C213" t="s">
-        <v>238</v>
+        <v>277</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B214" s="3">
-        <v>6758</v>
+        <v>1001215576586</v>
       </c>
       <c r="C214" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B215" s="3">
-        <v>1001020965976</v>
+        <v>1001094896026</v>
       </c>
       <c r="C215" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>279</v>
+        <v>495</v>
       </c>
       <c r="B216" s="3">
         <v>1001215576586</v>
       </c>
       <c r="C216" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B217" s="3">
-        <v>1001094896026</v>
+        <v>1001215576586</v>
       </c>
       <c r="C217" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>496</v>
+        <v>285</v>
       </c>
       <c r="B218" s="3">
-        <v>1001215576586</v>
+        <v>1001092436470</v>
       </c>
       <c r="C218" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="B219" s="3">
-        <v>1001215576586</v>
+        <v>1001203146555</v>
       </c>
       <c r="C219" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="B220" s="3">
-        <v>1001092436470</v>
+        <v>1001014765992</v>
       </c>
       <c r="C220" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B221" s="3">
+        <v>1001014765992</v>
+      </c>
+      <c r="C221" t="s">
         <v>293</v>
-      </c>
-      <c r="B221" s="3">
-        <v>1001203146555</v>
-      </c>
-      <c r="C221" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="B222" s="3">
-        <v>1001014765992</v>
+        <v>1001014765993</v>
       </c>
       <c r="C222" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B223" s="3">
-        <v>1001014765992</v>
+        <v>1001025166776</v>
       </c>
       <c r="C223" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B224" s="3">
-        <v>1001014765993</v>
+        <v>1001025506777</v>
       </c>
       <c r="C224" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>298</v>
+        <v>322</v>
       </c>
       <c r="B225" s="3">
-        <v>1001025166776</v>
+        <v>1001025546822</v>
       </c>
       <c r="C225" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>300</v>
+        <v>323</v>
       </c>
       <c r="B226" s="3">
-        <v>1001025506777</v>
+        <v>1001025546822</v>
       </c>
       <c r="C226" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="B227" s="3">
         <v>1001025546822</v>
       </c>
       <c r="C227" t="s">
-        <v>303</v>
+        <v>553</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>324</v>
+        <v>301</v>
       </c>
       <c r="B228" s="3">
         <v>1001025546822</v>
       </c>
       <c r="C228" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>336</v>
+        <v>665</v>
       </c>
       <c r="B229" s="3">
-        <v>1001025546822</v>
+        <v>1001024976616</v>
       </c>
       <c r="C229" t="s">
-        <v>554</v>
+        <v>305</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B230" s="3">
-        <v>1001025546822</v>
+        <v>1001024976616</v>
       </c>
       <c r="C230" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>666</v>
+        <v>307</v>
       </c>
       <c r="B231" s="3">
-        <v>1001024976616</v>
+        <v>1001010855247</v>
       </c>
       <c r="C231" t="s">
-        <v>306</v>
+        <v>23</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>307</v>
+        <v>385</v>
       </c>
       <c r="B232" s="3">
-        <v>1001024976616</v>
+        <v>1001223296919</v>
       </c>
       <c r="C232" t="s">
-        <v>306</v>
+        <v>388</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>308</v>
+        <v>66</v>
       </c>
       <c r="B233" s="3">
-        <v>1001010855247</v>
+        <v>1001223296919</v>
       </c>
       <c r="C233" t="s">
-        <v>23</v>
+        <v>388</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>386</v>
+        <v>224</v>
       </c>
       <c r="B234" s="3">
         <v>1001223296919</v>
       </c>
       <c r="C234" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>66</v>
+        <v>458</v>
       </c>
       <c r="B235" s="3">
         <v>1001223296919</v>
       </c>
       <c r="C235" t="s">
-        <v>389</v>
+        <v>474</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>225</v>
+        <v>480</v>
       </c>
       <c r="B236" s="3">
         <v>1001223296919</v>
       </c>
       <c r="C236" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>459</v>
+        <v>308</v>
       </c>
       <c r="B237" s="3">
         <v>1001223296919</v>
       </c>
       <c r="C237" t="s">
-        <v>475</v>
+        <v>388</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>481</v>
+        <v>310</v>
       </c>
       <c r="B238" s="3">
-        <v>1001223296919</v>
+        <v>1001014765993</v>
       </c>
       <c r="C238" t="s">
-        <v>389</v>
+        <v>295</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B239" s="3">
-        <v>1001223296919</v>
+        <v>1001025166776</v>
       </c>
       <c r="C239" t="s">
-        <v>389</v>
+        <v>298</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B240" s="3">
-        <v>1001014765993</v>
+        <v>1001025506777</v>
       </c>
       <c r="C240" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B241" s="3">
-        <v>1001025166776</v>
+        <v>1001025526778</v>
       </c>
       <c r="C241" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B242" s="3">
-        <v>1001025506777</v>
+        <v>1001304236685</v>
       </c>
       <c r="C242" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="B243" s="3">
-        <v>1001025526778</v>
+        <v>1001015496769</v>
       </c>
       <c r="C243" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="B244" s="3">
-        <v>1001304236685</v>
+        <v>1001015496769</v>
       </c>
       <c r="C244" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="B245" s="3">
-        <v>1001015496769</v>
+        <v>1001014766798</v>
       </c>
       <c r="C245" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="B246" s="3">
-        <v>1001015496769</v>
+        <v>1001015026797</v>
       </c>
       <c r="C246" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="B247" s="3">
-        <v>1001014766798</v>
+        <v>1001205386222</v>
       </c>
       <c r="C247" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B248" s="3">
-        <v>1001015026797</v>
+        <v>1001092675224</v>
       </c>
       <c r="C248" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="B249" s="3">
-        <v>1001205386222</v>
+        <v>1001225406223</v>
       </c>
       <c r="C249" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="B250" s="3">
-        <v>1001092675224</v>
+        <v>1001300366790</v>
       </c>
       <c r="C250" t="s">
-        <v>338</v>
+        <v>358</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>345</v>
+        <v>476</v>
       </c>
       <c r="B251" s="3">
-        <v>1001225406223</v>
+        <v>1001304096792</v>
       </c>
       <c r="C251" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B252" s="3">
-        <v>1001300366790</v>
+        <v>1001304096792</v>
       </c>
       <c r="C252" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>477</v>
+        <v>350</v>
       </c>
       <c r="B253" s="3">
-        <v>1001304096792</v>
+        <v>1001303636793</v>
       </c>
       <c r="C253" t="s">
         <v>361</v>
@@ -5385,21 +5400,21 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>350</v>
+        <v>396</v>
       </c>
       <c r="B254" s="3">
-        <v>1001304096792</v>
+        <v>1001303636794</v>
       </c>
       <c r="C254" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>351</v>
+        <v>496</v>
       </c>
       <c r="B255" s="3">
-        <v>1001303636793</v>
+        <v>1001303636794</v>
       </c>
       <c r="C255" t="s">
         <v>362</v>
@@ -5407,21 +5422,21 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>397</v>
+        <v>351</v>
       </c>
       <c r="B256" s="3">
         <v>1001303636794</v>
       </c>
       <c r="C256" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>497</v>
+        <v>352</v>
       </c>
       <c r="B257" s="3">
-        <v>1001303636794</v>
+        <v>1001302596795</v>
       </c>
       <c r="C257" t="s">
         <v>363</v>
@@ -5429,35 +5444,35 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B258" s="3">
-        <v>1001303636794</v>
+        <v>1001302596796</v>
       </c>
       <c r="C258" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B259" s="3">
-        <v>1001302596795</v>
+        <v>1001300456804</v>
       </c>
       <c r="C259" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>354</v>
+        <v>445</v>
       </c>
       <c r="B260" s="3">
-        <v>1001302596796</v>
+        <v>1001300366806</v>
       </c>
       <c r="C260" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -5465,7 +5480,7 @@
         <v>355</v>
       </c>
       <c r="B261" s="3">
-        <v>1001300456804</v>
+        <v>1001300366806</v>
       </c>
       <c r="C261" t="s">
         <v>366</v>
@@ -5473,10 +5488,10 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>446</v>
+        <v>356</v>
       </c>
       <c r="B262" s="3">
-        <v>1001300366806</v>
+        <v>1001300516803</v>
       </c>
       <c r="C262" t="s">
         <v>367</v>
@@ -5484,219 +5499,219 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B263" s="3">
-        <v>1001300366806</v>
+        <v>1001300366807</v>
       </c>
       <c r="C263" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="B264" s="3">
-        <v>1001300516803</v>
+        <v>1001300366807</v>
       </c>
       <c r="C264" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="B265" s="3">
-        <v>1001300366807</v>
+        <v>1001300516785</v>
       </c>
       <c r="C265" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>370</v>
+        <v>539</v>
       </c>
       <c r="B266" s="3">
-        <v>1001300366807</v>
+        <v>1001300456787</v>
       </c>
       <c r="C266" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>372</v>
+        <v>554</v>
       </c>
       <c r="B267" s="3">
-        <v>1001300516785</v>
+        <v>1001300456787</v>
       </c>
       <c r="C267" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>540</v>
+        <v>373</v>
       </c>
       <c r="B268" s="3">
         <v>1001300456787</v>
       </c>
       <c r="C268" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>555</v>
+        <v>375</v>
       </c>
       <c r="B269" s="3">
-        <v>1001300456787</v>
+        <v>1001303636793</v>
       </c>
       <c r="C269" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B270" s="3">
-        <v>1001300456787</v>
+        <v>1001302596795</v>
       </c>
       <c r="C270" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B271" s="3">
-        <v>1001303636793</v>
+        <v>1001012486332</v>
       </c>
       <c r="C271" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B272" s="3">
-        <v>1001302596795</v>
+        <v>1001012566345</v>
       </c>
       <c r="C272" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="B273" s="3">
-        <v>1001012486332</v>
+        <v>1001031076528</v>
       </c>
       <c r="C273" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>380</v>
+        <v>413</v>
       </c>
       <c r="B274" s="3">
-        <v>1001012566345</v>
+        <v>1001020836761</v>
       </c>
       <c r="C274" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="B275" s="3">
-        <v>1001031076528</v>
+        <v>1001020836761</v>
       </c>
       <c r="C275" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
-        <v>414</v>
+        <v>389</v>
       </c>
       <c r="B276" s="3">
         <v>1001020836761</v>
       </c>
       <c r="C276" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="B277" s="3">
-        <v>1001020836761</v>
+        <v>1001020846764</v>
       </c>
       <c r="C277" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
-        <v>390</v>
+        <v>419</v>
       </c>
       <c r="B278" s="3">
-        <v>1001020836761</v>
+        <v>1001020846764</v>
       </c>
       <c r="C278" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
-        <v>410</v>
+        <v>391</v>
       </c>
       <c r="B279" s="3">
         <v>1001020846764</v>
       </c>
       <c r="C279" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
-        <v>420</v>
+        <v>492</v>
       </c>
       <c r="B280" s="3">
-        <v>1001020846764</v>
+        <v>1001300366790</v>
       </c>
       <c r="C280" t="s">
-        <v>393</v>
+        <v>358</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B281" s="3">
-        <v>1001020846764</v>
+        <v>1001300366790</v>
       </c>
       <c r="C281" t="s">
-        <v>393</v>
+        <v>358</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
-        <v>493</v>
+        <v>348</v>
       </c>
       <c r="B282" s="3">
-        <v>1001300366790</v>
+        <v>1001304096791</v>
       </c>
       <c r="C282" t="s">
         <v>359</v>
@@ -5704,10 +5719,10 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
-        <v>394</v>
+        <v>467</v>
       </c>
       <c r="B283" s="3">
-        <v>1001300366790</v>
+        <v>1001304096791</v>
       </c>
       <c r="C283" t="s">
         <v>359</v>
@@ -5715,65 +5730,65 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
-        <v>349</v>
+        <v>394</v>
       </c>
       <c r="B284" s="3">
         <v>1001304096791</v>
       </c>
       <c r="C284" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
-        <v>468</v>
+        <v>395</v>
       </c>
       <c r="B285" s="3">
-        <v>1001304096791</v>
+        <v>1001303636793</v>
       </c>
       <c r="C285" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B286" s="3">
-        <v>1001304096791</v>
+        <v>1001302596795</v>
       </c>
       <c r="C286" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B287" s="3">
-        <v>1001303636793</v>
+        <v>1001300516803</v>
       </c>
       <c r="C287" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B288" s="3">
-        <v>1001302596795</v>
+        <v>1001300456804</v>
       </c>
       <c r="C288" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B289" s="3">
-        <v>1001300516803</v>
+        <v>1001300366807</v>
       </c>
       <c r="C289" t="s">
         <v>368</v>
@@ -5781,288 +5796,288 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B290" s="3">
-        <v>1001300456804</v>
+        <v>1001302596796</v>
       </c>
       <c r="C290" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="B291" s="3">
-        <v>1001300366807</v>
+        <v>1001023696765</v>
       </c>
       <c r="C291" t="s">
-        <v>369</v>
+        <v>404</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
-        <v>402</v>
+        <v>470</v>
       </c>
       <c r="B292" s="3">
-        <v>1001302596796</v>
+        <v>1001023696765</v>
       </c>
       <c r="C292" t="s">
-        <v>365</v>
+        <v>404</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>452</v>
+        <v>403</v>
       </c>
       <c r="B293" s="3">
         <v>1001023696765</v>
       </c>
       <c r="C293" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
-        <v>471</v>
+        <v>412</v>
       </c>
       <c r="B294" s="3">
-        <v>1001023696765</v>
+        <v>1001023696767</v>
       </c>
       <c r="C294" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="B295" s="3">
-        <v>1001023696765</v>
+        <v>1001023696767</v>
       </c>
       <c r="C295" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="B296" s="3">
         <v>1001023696767</v>
       </c>
       <c r="C296" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="B297" s="3">
-        <v>1001023696767</v>
+        <v>1001024976829</v>
       </c>
       <c r="C297" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B298" s="3">
-        <v>1001023696767</v>
+        <v>1001024976829</v>
       </c>
       <c r="C298" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="B299" s="3">
-        <v>1001024976829</v>
+        <v>1001022376722</v>
       </c>
       <c r="C299" t="s">
-        <v>403</v>
+        <v>119</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
-        <v>412</v>
+        <v>450</v>
       </c>
       <c r="B300" s="3">
-        <v>1001024976829</v>
+        <v>1001020846762</v>
       </c>
       <c r="C300" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
-        <v>424</v>
+        <v>469</v>
       </c>
       <c r="B301" s="3">
-        <v>1001022376722</v>
+        <v>1001020846762</v>
       </c>
       <c r="C301" t="s">
-        <v>119</v>
+        <v>425</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
-        <v>451</v>
+        <v>424</v>
       </c>
       <c r="B302" s="3">
         <v>1001020846762</v>
       </c>
       <c r="C302" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
-        <v>470</v>
+        <v>124</v>
       </c>
       <c r="B303" s="3">
-        <v>1001020846762</v>
+        <v>1001022656853</v>
       </c>
       <c r="C303" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
-        <v>425</v>
+        <v>491</v>
       </c>
       <c r="B304" s="3">
-        <v>1001020846762</v>
+        <v>1001022656853</v>
       </c>
       <c r="C304" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
-        <v>124</v>
+        <v>575</v>
       </c>
       <c r="B305" s="3">
-        <v>1001022656853</v>
+        <v>1001022656948</v>
       </c>
       <c r="C305" t="s">
-        <v>429</v>
+        <v>566</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
-        <v>492</v>
+        <v>569</v>
       </c>
       <c r="B306" s="3">
-        <v>1001022656853</v>
+        <v>1001022656948</v>
       </c>
       <c r="C306" t="s">
-        <v>429</v>
+        <v>566</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
-        <v>576</v>
+        <v>427</v>
       </c>
       <c r="B307" s="3">
         <v>1001022656948</v>
       </c>
       <c r="C307" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
-        <v>570</v>
+        <v>433</v>
       </c>
       <c r="B308" s="3">
-        <v>1001022656948</v>
+        <v>1001022656852</v>
       </c>
       <c r="C308" t="s">
-        <v>567</v>
+        <v>434</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
-        <v>428</v>
+        <v>452</v>
       </c>
       <c r="B309" s="3">
-        <v>1001022656948</v>
+        <v>1001020836759</v>
       </c>
       <c r="C309" t="s">
-        <v>567</v>
+        <v>436</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
-        <v>434</v>
+        <v>468</v>
       </c>
       <c r="B310" s="3">
-        <v>1001022656852</v>
+        <v>1001020836759</v>
       </c>
       <c r="C310" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="B311" s="3">
         <v>1001020836759</v>
       </c>
       <c r="C311" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>469</v>
+        <v>437</v>
       </c>
       <c r="B312" s="3">
-        <v>1001020836759</v>
+        <v>1001023856870</v>
       </c>
       <c r="C312" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>436</v>
+        <v>453</v>
       </c>
       <c r="B313" s="3">
-        <v>1001020836759</v>
+        <v>1001013956426</v>
       </c>
       <c r="C313" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>438</v>
+        <v>455</v>
       </c>
       <c r="B314" s="3">
-        <v>1001023856870</v>
+        <v>1001093345495</v>
       </c>
       <c r="C314" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
-        <v>454</v>
+        <v>484</v>
       </c>
       <c r="B315" s="3">
-        <v>1001013956426</v>
+        <v>1001022656868</v>
       </c>
       <c r="C315" t="s">
-        <v>432</v>
+        <v>457</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -6070,76 +6085,76 @@
         <v>456</v>
       </c>
       <c r="B316" s="3">
-        <v>1001093345495</v>
+        <v>1001022656868</v>
       </c>
       <c r="C316" t="s">
-        <v>443</v>
+        <v>457</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
-        <v>485</v>
+        <v>166</v>
       </c>
       <c r="B317" s="3">
-        <v>1001022656868</v>
+        <v>1001034065698</v>
       </c>
       <c r="C317" t="s">
-        <v>458</v>
+        <v>429</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
-        <v>457</v>
+        <v>184</v>
       </c>
       <c r="B318" s="3">
-        <v>1001022656868</v>
+        <v>1001034065698</v>
       </c>
       <c r="C318" t="s">
-        <v>458</v>
+        <v>429</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
-        <v>166</v>
+        <v>482</v>
       </c>
       <c r="B319" s="3">
         <v>1001034065698</v>
       </c>
       <c r="C319" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
-        <v>185</v>
+        <v>460</v>
       </c>
       <c r="B320" s="3">
         <v>1001034065698</v>
       </c>
       <c r="C320" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
-        <v>483</v>
+        <v>461</v>
       </c>
       <c r="B321" s="3">
-        <v>1001034065698</v>
+        <v>1001084216206</v>
       </c>
       <c r="C321" t="s">
-        <v>430</v>
+        <v>387</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="B322" s="3">
-        <v>1001034065698</v>
+        <v>1001015646861</v>
       </c>
       <c r="C322" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
@@ -6147,307 +6162,307 @@
         <v>462</v>
       </c>
       <c r="B323" s="3">
-        <v>1001084216206</v>
+        <v>1001015646861</v>
       </c>
       <c r="C323" t="s">
-        <v>388</v>
+        <v>426</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
-        <v>474</v>
+        <v>448</v>
       </c>
       <c r="B324" s="3">
-        <v>1001015646861</v>
+        <v>1001025176768</v>
       </c>
       <c r="C324" t="s">
-        <v>427</v>
+        <v>449</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="B325" s="3">
-        <v>1001015646861</v>
+        <v>1001025176768</v>
       </c>
       <c r="C325" t="s">
-        <v>427</v>
+        <v>449</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
-        <v>449</v>
+        <v>463</v>
       </c>
       <c r="B326" s="3">
         <v>1001025176768</v>
       </c>
       <c r="C326" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
-        <v>472</v>
+        <v>447</v>
       </c>
       <c r="B327" s="3">
-        <v>1001025176768</v>
+        <v>1001025486770</v>
       </c>
       <c r="C327" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="B328" s="3">
-        <v>1001025176768</v>
+        <v>1001025486770</v>
       </c>
       <c r="C328" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
       <c r="B329" s="3">
         <v>1001025486770</v>
       </c>
       <c r="C329" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
-        <v>473</v>
+        <v>207</v>
       </c>
       <c r="B330" s="3">
-        <v>1001025486770</v>
+        <v>1001012816340</v>
       </c>
       <c r="C330" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
-        <v>465</v>
+        <v>486</v>
       </c>
       <c r="B331" s="3">
-        <v>1001025486770</v>
+        <v>1001012816340</v>
       </c>
       <c r="C331" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
-        <v>208</v>
+        <v>465</v>
       </c>
       <c r="B332" s="3">
         <v>1001012816340</v>
       </c>
       <c r="C332" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
-        <v>487</v>
+        <v>309</v>
       </c>
       <c r="B333" s="3">
-        <v>1001012816340</v>
+        <v>1001203146834</v>
       </c>
       <c r="C333" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="B334" s="3">
-        <v>1001012816340</v>
+        <v>1001203146834</v>
       </c>
       <c r="C334" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
-        <v>310</v>
+        <v>483</v>
       </c>
       <c r="B335" s="3">
         <v>1001203146834</v>
       </c>
       <c r="C335" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="B336" s="3">
         <v>1001203146834</v>
       </c>
       <c r="C336" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B337" s="3">
-        <v>1001203146834</v>
+        <v>1001300456788</v>
       </c>
       <c r="C337" t="s">
-        <v>433</v>
+        <v>479</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
-        <v>467</v>
+        <v>493</v>
       </c>
       <c r="B338" s="3">
-        <v>1001203146834</v>
+        <v>1001300516786</v>
       </c>
       <c r="C338" t="s">
-        <v>433</v>
+        <v>494</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
-        <v>479</v>
+        <v>550</v>
       </c>
       <c r="B339" s="3">
-        <v>1001300456788</v>
+        <v>1001092436495</v>
       </c>
       <c r="C339" t="s">
-        <v>480</v>
+        <v>500</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
-        <v>489</v>
+        <v>557</v>
       </c>
       <c r="B340" s="3">
-        <v>1001022556837</v>
+        <v>1001092436495</v>
       </c>
       <c r="C340" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="B341" s="3">
-        <v>1001300516786</v>
+        <v>1001092436495</v>
       </c>
       <c r="C341" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="B342" s="3">
-        <v>1001214196459</v>
+        <v>1001025526901</v>
       </c>
       <c r="C342" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
-        <v>551</v>
+        <v>503</v>
       </c>
       <c r="B343" s="3">
-        <v>1001092436495</v>
+        <v>1001025546931</v>
       </c>
       <c r="C343" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
-        <v>558</v>
+        <v>513</v>
       </c>
       <c r="B344" s="3">
-        <v>1001092436495</v>
+        <v>1001010016324</v>
       </c>
       <c r="C344" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
-        <v>500</v>
+        <v>543</v>
       </c>
       <c r="B345" s="3">
-        <v>1001092436495</v>
+        <v>1001010016324</v>
       </c>
       <c r="C345" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="B346" s="3">
-        <v>1001025526901</v>
+        <v>1001010016324</v>
       </c>
       <c r="C346" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="B347" s="3">
-        <v>1001025546931</v>
+        <v>1001025766909</v>
       </c>
       <c r="C347" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
-        <v>514</v>
+        <v>544</v>
       </c>
       <c r="B348" s="3">
-        <v>1001010016324</v>
+        <v>1001025766909</v>
       </c>
       <c r="C348" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
-        <v>544</v>
+        <v>508</v>
       </c>
       <c r="B349" s="3">
-        <v>1001010016324</v>
+        <v>1001025766909</v>
       </c>
       <c r="C349" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
-        <v>507</v>
+        <v>542</v>
       </c>
       <c r="B350" s="3">
-        <v>1001010016324</v>
+        <v>1001010014558</v>
       </c>
       <c r="C350" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
@@ -6455,1055 +6470,1055 @@
         <v>511</v>
       </c>
       <c r="B351" s="3">
-        <v>1001025766909</v>
+        <v>1001010014558</v>
       </c>
       <c r="C351" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="B352" s="3">
-        <v>1001025766909</v>
+        <v>1001012596802</v>
       </c>
       <c r="C352" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
-        <v>509</v>
+        <v>546</v>
       </c>
       <c r="B353" s="3">
-        <v>1001025766909</v>
+        <v>1001012596802</v>
       </c>
       <c r="C353" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
-        <v>543</v>
+        <v>514</v>
       </c>
       <c r="B354" s="3">
-        <v>1001010014558</v>
+        <v>1001012596802</v>
       </c>
       <c r="C354" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
-        <v>512</v>
+        <v>532</v>
       </c>
       <c r="B355" s="3">
-        <v>1001010014558</v>
+        <v>1001012596801</v>
       </c>
       <c r="C355" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="B356" s="3">
-        <v>1001012596802</v>
+        <v>1001012596801</v>
       </c>
       <c r="C356" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
-        <v>547</v>
+        <v>516</v>
       </c>
       <c r="B357" s="3">
-        <v>1001012596802</v>
+        <v>1001012596801</v>
       </c>
       <c r="C357" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="B358" s="3">
-        <v>1001012596802</v>
+        <v>1001062353684</v>
       </c>
       <c r="C358" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="B359" s="3">
-        <v>1001012596801</v>
+        <v>1001010014555</v>
       </c>
       <c r="C359" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
-        <v>546</v>
+        <v>522</v>
       </c>
       <c r="B360" s="3">
-        <v>1001012596801</v>
+        <v>1001083424691</v>
       </c>
       <c r="C360" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="B361" s="3">
-        <v>1001012596801</v>
+        <v>1001190765679</v>
       </c>
       <c r="C361" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="B362" s="3">
-        <v>1001062353684</v>
+        <v>1001085636200</v>
       </c>
       <c r="C362" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="B363" s="3">
-        <v>1001010014555</v>
+        <v>1001020836253</v>
       </c>
       <c r="C363" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="B364" s="3">
-        <v>1001083424691</v>
+        <v>1001084226492</v>
       </c>
       <c r="C364" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="B365" s="3">
-        <v>1001190765679</v>
+        <v>1001223296921</v>
       </c>
       <c r="C365" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="B366" s="3">
-        <v>1001085636200</v>
+        <v>1001053944786</v>
       </c>
       <c r="C366" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="B367" s="3">
-        <v>1001020836253</v>
+        <v>1001010016839</v>
       </c>
       <c r="C367" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
-        <v>531</v>
+        <v>547</v>
       </c>
       <c r="B368" s="3">
-        <v>1001084226492</v>
+        <v>1001023857038</v>
       </c>
       <c r="C368" t="s">
-        <v>532</v>
+        <v>588</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
-        <v>534</v>
+        <v>548</v>
       </c>
       <c r="B369" s="3">
-        <v>1001223296921</v>
+        <v>1001040434903</v>
       </c>
       <c r="C369" t="s">
-        <v>535</v>
+        <v>549</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
-        <v>536</v>
+        <v>551</v>
       </c>
       <c r="B370" s="3">
-        <v>1001053944786</v>
+        <v>1001080216842</v>
       </c>
       <c r="C370" t="s">
-        <v>537</v>
+        <v>552</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
-        <v>541</v>
+        <v>564</v>
       </c>
       <c r="B371" s="3">
-        <v>1001010016839</v>
+        <v>1001022466951</v>
       </c>
       <c r="C371" t="s">
-        <v>542</v>
+        <v>565</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
-        <v>548</v>
+        <v>568</v>
       </c>
       <c r="B372" s="3">
-        <v>1001023857038</v>
+        <v>1001022466951</v>
       </c>
       <c r="C372" t="s">
-        <v>589</v>
+        <v>565</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
-        <v>549</v>
+        <v>572</v>
       </c>
       <c r="B373" s="3">
-        <v>1001040434903</v>
+        <v>1001035276653</v>
       </c>
       <c r="C373" t="s">
-        <v>550</v>
+        <v>573</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
-        <v>552</v>
+        <v>577</v>
       </c>
       <c r="B374" s="3">
-        <v>1001080216842</v>
+        <v>1001062353680</v>
       </c>
       <c r="C374" t="s">
-        <v>553</v>
+        <v>578</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
-        <v>565</v>
+        <v>579</v>
       </c>
       <c r="B375" s="3">
-        <v>1001022466951</v>
+        <v>1001061971146</v>
       </c>
       <c r="C375" t="s">
-        <v>566</v>
+        <v>580</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="B376" s="3">
-        <v>1001022466951</v>
+        <v>1001225636201</v>
       </c>
       <c r="C376" t="s">
-        <v>566</v>
+        <v>582</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="B377" s="3">
-        <v>1001035276653</v>
+        <v>1001095227035</v>
       </c>
       <c r="C377" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
       <c r="B378" s="3">
-        <v>1001062353680</v>
+        <v>1001023857038</v>
       </c>
       <c r="C378" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="B379" s="3">
-        <v>1001061971146</v>
+        <v>1001025027040</v>
       </c>
       <c r="C379" t="s">
-        <v>581</v>
+        <v>590</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="B380" s="3">
-        <v>1001225636201</v>
+        <v>1001223297103</v>
       </c>
       <c r="C380" t="s">
-        <v>583</v>
+        <v>592</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="B381" s="3">
-        <v>1001020836724</v>
+        <v>1001223297103</v>
       </c>
       <c r="C381" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="B382" s="3">
-        <v>1001095227035</v>
+        <v>1001223297103</v>
       </c>
       <c r="C382" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
-        <v>588</v>
+        <v>614</v>
       </c>
       <c r="B383" s="3">
-        <v>1001023857038</v>
+        <v>1001010032675</v>
       </c>
       <c r="C383" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="B384" s="3">
-        <v>1001025027040</v>
+        <v>1001010032675</v>
       </c>
       <c r="C384" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
-        <v>592</v>
+        <v>619</v>
       </c>
       <c r="B385" s="3">
-        <v>1001223297103</v>
+        <v>1001035937001</v>
       </c>
       <c r="C385" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="B386" s="3">
-        <v>1001223297103</v>
+        <v>1001035937001</v>
       </c>
       <c r="C386" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
-        <v>593</v>
+        <v>620</v>
       </c>
       <c r="B387" s="3">
-        <v>1001223297103</v>
+        <v>1001084217090</v>
       </c>
       <c r="C387" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
-        <v>615</v>
+        <v>598</v>
       </c>
       <c r="B388" s="3">
-        <v>1001010032675</v>
+        <v>1001084217090</v>
       </c>
       <c r="C388" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
-        <v>595</v>
+        <v>621</v>
       </c>
       <c r="B389" s="3">
-        <v>1001010032675</v>
+        <v>1001022377066</v>
       </c>
       <c r="C389" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
-        <v>620</v>
+        <v>600</v>
       </c>
       <c r="B390" s="3">
-        <v>1001035937001</v>
+        <v>1001022377066</v>
       </c>
       <c r="C390" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
-        <v>597</v>
+        <v>622</v>
       </c>
       <c r="B391" s="3">
-        <v>1001035937001</v>
+        <v>1001022467080</v>
       </c>
       <c r="C391" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
-        <v>621</v>
+        <v>602</v>
       </c>
       <c r="B392" s="3">
-        <v>1001084217090</v>
+        <v>1001022467080</v>
       </c>
       <c r="C392" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
-        <v>599</v>
+        <v>623</v>
       </c>
       <c r="B393" s="3">
-        <v>1001084217090</v>
+        <v>1001025507077</v>
       </c>
       <c r="C393" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
-        <v>622</v>
+        <v>604</v>
       </c>
       <c r="B394" s="3">
-        <v>1001022377066</v>
+        <v>1001025507077</v>
       </c>
       <c r="C394" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
-        <v>601</v>
+        <v>626</v>
       </c>
       <c r="B395" s="3">
-        <v>1001022377066</v>
+        <v>1001022657075</v>
       </c>
       <c r="C395" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
-        <v>623</v>
+        <v>606</v>
       </c>
       <c r="B396" s="3">
-        <v>1001022467080</v>
+        <v>1001022657075</v>
       </c>
       <c r="C396" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
-        <v>603</v>
+        <v>624</v>
       </c>
       <c r="B397" s="3">
-        <v>1001022467080</v>
+        <v>1001022467082</v>
       </c>
       <c r="C397" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
-        <v>624</v>
+        <v>608</v>
       </c>
       <c r="B398" s="3">
-        <v>1001025507077</v>
+        <v>1001022467082</v>
       </c>
       <c r="C398" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
-        <v>605</v>
+        <v>625</v>
       </c>
       <c r="B399" s="3">
-        <v>1001025507077</v>
+        <v>1001022377070</v>
       </c>
       <c r="C399" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
-        <v>627</v>
+        <v>610</v>
       </c>
       <c r="B400" s="3">
-        <v>1001022657075</v>
+        <v>1001022377070</v>
       </c>
       <c r="C400" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
-        <v>607</v>
+        <v>627</v>
       </c>
       <c r="B401" s="3">
-        <v>1001022657075</v>
+        <v>1001022657073</v>
       </c>
       <c r="C401" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
       <c r="B402" s="3">
-        <v>1001022467082</v>
+        <v>1001022657073</v>
       </c>
       <c r="C402" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
-        <v>609</v>
+        <v>638</v>
       </c>
       <c r="B403" s="3">
-        <v>1001022467082</v>
+        <v>1001010027126</v>
       </c>
       <c r="C403" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
       <c r="B404" s="3">
-        <v>1001022377070</v>
+        <v>1001010027126</v>
       </c>
       <c r="C404" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="B405" s="3">
-        <v>1001022377070</v>
+        <v>1001010027125</v>
       </c>
       <c r="C405" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
-        <v>628</v>
+        <v>639</v>
       </c>
       <c r="B406" s="3">
-        <v>1001022657073</v>
+        <v>1001010027125</v>
       </c>
       <c r="C406" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
-        <v>613</v>
+        <v>662</v>
       </c>
       <c r="B407" s="3">
-        <v>1001022657073</v>
+        <v>1001016366888</v>
       </c>
       <c r="C407" t="s">
-        <v>614</v>
+        <v>641</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B408" s="3">
-        <v>1001010027126</v>
+        <v>1001016366888</v>
       </c>
       <c r="C408" t="s">
-        <v>617</v>
+        <v>641</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
-        <v>616</v>
+        <v>663</v>
       </c>
       <c r="B409" s="3">
-        <v>1001010027126</v>
+        <v>1001300367133</v>
       </c>
       <c r="C409" t="s">
-        <v>617</v>
+        <v>643</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
-        <v>618</v>
+        <v>642</v>
       </c>
       <c r="B410" s="3">
-        <v>1001010027125</v>
+        <v>1001300367133</v>
       </c>
       <c r="C410" t="s">
-        <v>619</v>
+        <v>643</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
-        <v>640</v>
+        <v>661</v>
       </c>
       <c r="B411" s="3">
-        <v>1001010027125</v>
+        <v>1001303637131</v>
       </c>
       <c r="C411" t="s">
-        <v>619</v>
+        <v>645</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
-        <v>663</v>
+        <v>644</v>
       </c>
       <c r="B412" s="3">
-        <v>1001016366888</v>
+        <v>1001303637131</v>
       </c>
       <c r="C412" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
-        <v>641</v>
+        <v>664</v>
       </c>
       <c r="B413" s="3">
-        <v>1001016366888</v>
+        <v>1001304527146</v>
       </c>
       <c r="C413" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
-        <v>664</v>
+        <v>646</v>
       </c>
       <c r="B414" s="3">
-        <v>1001300367133</v>
+        <v>1001304527146</v>
       </c>
       <c r="C414" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
-        <v>643</v>
+        <v>659</v>
       </c>
       <c r="B415" s="3">
-        <v>1001300367133</v>
+        <v>1001300517134</v>
       </c>
       <c r="C415" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
-        <v>662</v>
+        <v>648</v>
       </c>
       <c r="B416" s="3">
-        <v>1001303637131</v>
+        <v>1001300517134</v>
       </c>
       <c r="C416" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="B417" s="3">
-        <v>1001303637131</v>
+        <v>1001300457135</v>
       </c>
       <c r="C417" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" s="2" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="B418" s="3">
-        <v>1001304527146</v>
+        <v>1001304527144</v>
       </c>
       <c r="C418" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
-        <v>647</v>
+        <v>660</v>
       </c>
       <c r="B419" s="3">
-        <v>1001304527146</v>
+        <v>1001304527144</v>
       </c>
       <c r="C419" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" s="2" t="s">
-        <v>660</v>
+        <v>684</v>
       </c>
       <c r="B420" s="3">
-        <v>1001300517134</v>
+        <v>1001081596620</v>
       </c>
       <c r="C420" t="s">
-        <v>650</v>
+        <v>666</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
-        <v>649</v>
+        <v>667</v>
       </c>
       <c r="B421" s="3">
-        <v>1001300517134</v>
+        <v>1001081596620</v>
       </c>
       <c r="C421" t="s">
-        <v>650</v>
+        <v>666</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
-        <v>651</v>
+        <v>689</v>
       </c>
       <c r="B422" s="3">
-        <v>1001300457135</v>
+        <v>1001085637187</v>
       </c>
       <c r="C422" t="s">
-        <v>652</v>
+        <v>668</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
-        <v>653</v>
+        <v>669</v>
       </c>
       <c r="B423" s="3">
-        <v>1001304527144</v>
+        <v>1001085637187</v>
       </c>
       <c r="C423" t="s">
-        <v>654</v>
+        <v>668</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
-        <v>661</v>
+        <v>688</v>
       </c>
       <c r="B424" s="3">
-        <v>1001304527144</v>
+        <v>1001015676877</v>
       </c>
       <c r="C424" t="s">
-        <v>654</v>
+        <v>670</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
-        <v>685</v>
+        <v>671</v>
       </c>
       <c r="B425" s="3">
-        <v>1001081596620</v>
+        <v>1001015676877</v>
       </c>
       <c r="C425" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
-        <v>668</v>
+        <v>691</v>
       </c>
       <c r="B426" s="3">
-        <v>1001081596620</v>
+        <v>1001015686878</v>
       </c>
       <c r="C426" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
-        <v>690</v>
+        <v>673</v>
       </c>
       <c r="B427" s="3">
-        <v>1001085637187</v>
+        <v>1001015686878</v>
       </c>
       <c r="C427" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" s="2" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="B428" s="3">
-        <v>1001085637187</v>
+        <v>1001302277232</v>
       </c>
       <c r="C428" t="s">
-        <v>669</v>
+        <v>677</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" s="2" t="s">
-        <v>689</v>
+        <v>675</v>
       </c>
       <c r="B429" s="3">
-        <v>1001015676877</v>
+        <v>1001304497237</v>
       </c>
       <c r="C429" t="s">
-        <v>671</v>
+        <v>678</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" s="2" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="B430" s="3">
-        <v>1001015676877</v>
+        <v>1001303107241</v>
       </c>
       <c r="C430" t="s">
-        <v>671</v>
+        <v>679</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" s="2" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="B431" s="3">
-        <v>1001015686878</v>
+        <v>1002162216872</v>
       </c>
       <c r="C431" t="s">
-        <v>673</v>
+        <v>683</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" s="2" t="s">
-        <v>674</v>
+        <v>690</v>
       </c>
       <c r="B432" s="3">
-        <v>1001015686878</v>
+        <v>1002162216872</v>
       </c>
       <c r="C432" t="s">
-        <v>673</v>
+        <v>683</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" s="2" t="s">
-        <v>675</v>
+        <v>705</v>
       </c>
       <c r="B433" s="3">
-        <v>1001302277232</v>
+        <v>1001063237147</v>
       </c>
       <c r="C433" t="s">
-        <v>678</v>
+        <v>697</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434" s="2" t="s">
-        <v>676</v>
+        <v>692</v>
       </c>
       <c r="B434" s="3">
-        <v>1001304497237</v>
+        <v>1001063237147</v>
       </c>
       <c r="C434" t="s">
-        <v>679</v>
+        <v>697</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" s="2" t="s">
-        <v>677</v>
+        <v>704</v>
       </c>
       <c r="B435" s="3">
-        <v>1001303107241</v>
+        <v>1001063097227</v>
       </c>
       <c r="C435" t="s">
-        <v>680</v>
+        <v>698</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" s="2" t="s">
-        <v>683</v>
+        <v>693</v>
       </c>
       <c r="B436" s="3">
-        <v>1002162216872</v>
+        <v>1001063097227</v>
       </c>
       <c r="C436" t="s">
-        <v>684</v>
+        <v>698</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" s="2" t="s">
-        <v>691</v>
+        <v>702</v>
       </c>
       <c r="B437" s="3">
-        <v>1002162216872</v>
+        <v>1001066537225</v>
       </c>
       <c r="C437" t="s">
-        <v>684</v>
+        <v>699</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" s="2" t="s">
-        <v>706</v>
+        <v>694</v>
       </c>
       <c r="B438" s="3">
-        <v>1001063237147</v>
+        <v>1001066537225</v>
       </c>
       <c r="C438" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="B439" s="3">
-        <v>1001063237147</v>
+        <v>1001066527226</v>
       </c>
       <c r="C439" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="B440" s="3">
-        <v>1001063097227</v>
+        <v>1001066527226</v>
       </c>
       <c r="C440" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="B441" s="3">
-        <v>1001063097227</v>
+        <v>1001066547228</v>
       </c>
       <c r="C441" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
-        <v>703</v>
+        <v>712</v>
       </c>
       <c r="B442" s="3">
-        <v>1001066537225</v>
+        <v>1001063237229</v>
       </c>
       <c r="C442" t="s">
-        <v>700</v>
+        <v>709</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" s="2" t="s">
-        <v>695</v>
+        <v>706</v>
       </c>
       <c r="B443" s="3">
-        <v>1001066537225</v>
+        <v>1001063237229</v>
       </c>
       <c r="C443" t="s">
-        <v>700</v>
+        <v>709</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" s="2" t="s">
-        <v>704</v>
+        <v>714</v>
       </c>
       <c r="B444" s="3">
-        <v>1001066527226</v>
+        <v>1001063237150</v>
       </c>
       <c r="C444" t="s">
-        <v>701</v>
+        <v>710</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" s="2" t="s">
-        <v>696</v>
+        <v>707</v>
       </c>
       <c r="B445" s="3">
-        <v>1001066527226</v>
+        <v>1001063237150</v>
       </c>
       <c r="C445" t="s">
-        <v>701</v>
+        <v>710</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446" s="2" t="s">
-        <v>697</v>
+        <v>708</v>
       </c>
       <c r="B446" s="3">
-        <v>1001066547228</v>
+        <v>1001022467276</v>
       </c>
       <c r="C446" t="s">
-        <v>702</v>
+        <v>711</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
@@ -7511,65 +7526,65 @@
         <v>713</v>
       </c>
       <c r="B447" s="3">
-        <v>1001063237229</v>
+        <v>1001022467276</v>
       </c>
       <c r="C447" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" s="2" t="s">
-        <v>707</v>
+        <v>488</v>
       </c>
       <c r="B448" s="3">
-        <v>1001063237229</v>
+        <v>1001022556837</v>
       </c>
       <c r="C448" t="s">
-        <v>710</v>
+        <v>489</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" s="2" t="s">
-        <v>715</v>
+        <v>735</v>
       </c>
       <c r="B449" s="3">
-        <v>1001063237150</v>
+        <v>1001022556837</v>
       </c>
       <c r="C449" t="s">
-        <v>711</v>
+        <v>489</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" s="2" t="s">
-        <v>708</v>
-      </c>
-      <c r="B450" s="3">
-        <v>1001063237150</v>
-      </c>
-      <c r="C450" t="s">
-        <v>711</v>
+        <v>716</v>
+      </c>
+      <c r="B450" s="5">
+        <v>1001022556837</v>
+      </c>
+      <c r="C450" s="6" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" s="2" t="s">
-        <v>709</v>
+        <v>183</v>
       </c>
       <c r="B451" s="3">
-        <v>1001022467276</v>
+        <v>1001205376221</v>
       </c>
       <c r="C451" t="s">
-        <v>712</v>
+        <v>181</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" s="2" t="s">
-        <v>714</v>
+        <v>733</v>
       </c>
       <c r="B452" s="3">
-        <v>1001022467276</v>
+        <v>1001205376221</v>
       </c>
       <c r="C452" t="s">
-        <v>712</v>
+        <v>181</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
@@ -7577,10 +7592,10 @@
         <v>717</v>
       </c>
       <c r="B453" s="5">
-        <v>1001022556837</v>
+        <v>1001205376221</v>
       </c>
       <c r="C453" s="6" t="s">
-        <v>490</v>
+        <v>181</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
@@ -7588,113 +7603,168 @@
         <v>718</v>
       </c>
       <c r="B454" s="5">
-        <v>1001205376221</v>
+        <v>1001014765992</v>
       </c>
       <c r="C454" s="6" t="s">
-        <v>181</v>
+        <v>303</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="B455" s="5">
-        <v>1001014765992</v>
-      </c>
-      <c r="C455" s="6" t="s">
-        <v>304</v>
+        <v>497</v>
+      </c>
+      <c r="B455" s="3">
+        <v>1001214196459</v>
+      </c>
+      <c r="C455" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" s="2" t="s">
-        <v>720</v>
-      </c>
-      <c r="B456" s="5">
+        <v>730</v>
+      </c>
+      <c r="B456" s="3">
         <v>1001214196459</v>
       </c>
-      <c r="C456" s="6" t="s">
-        <v>499</v>
+      <c r="C456" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457" s="2" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B457" s="5">
-        <v>1001010106325</v>
+        <v>1001214196459</v>
       </c>
       <c r="C457" s="6" t="s">
-        <v>53</v>
+        <v>498</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" s="2" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B458" s="5">
-        <v>1001013957231</v>
+        <v>1001010106325</v>
       </c>
       <c r="C458" s="6" t="s">
-        <v>728</v>
+        <v>53</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459" s="2" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="B459" s="5">
-        <v>1001220286279</v>
+        <v>1001013957231</v>
       </c>
       <c r="C459" s="6" t="s">
-        <v>49</v>
+        <v>727</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460" s="2" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="B460" s="5">
-        <v>1001223297092</v>
+        <v>1001013957231</v>
       </c>
       <c r="C460" s="6" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" s="2" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="B461" s="5">
-        <v>1001020836724</v>
+        <v>1001220286279</v>
       </c>
       <c r="C461" s="6" t="s">
-        <v>585</v>
+        <v>49</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462" s="2" t="s">
-        <v>726</v>
+        <v>732</v>
       </c>
       <c r="B462" s="5">
-        <v>1001062475707</v>
+        <v>1001223297092</v>
       </c>
       <c r="C462" s="6" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463" s="2" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="B463" s="5">
+        <v>1001223297092</v>
+      </c>
+      <c r="C463" s="6" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A464" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B464" s="3">
+        <v>1001020836724</v>
+      </c>
+      <c r="C464" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A465" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="B465" s="3">
+        <v>1001020836724</v>
+      </c>
+      <c r="C465" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A466" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="B466" s="5">
+        <v>1001020836724</v>
+      </c>
+      <c r="C466" s="6" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A467" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="B467" s="5">
+        <v>1001062475707</v>
+      </c>
+      <c r="C467" s="6" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A468" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="B468" s="5">
         <v>1001033856609</v>
       </c>
-      <c r="C463" s="6" t="s">
-        <v>233</v>
+      <c r="C468" s="6" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C452" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
+  <autoFilter ref="A1:C468" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/в бланки заводов/Останкино КИ/ostankino_ki/NV/moduls/1С.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/NV/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\NV\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D0DACC-8E91-48F6-8BE0-52733291AD72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9484843-296C-4604-AE22-9CFA5DEFFC17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$468</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$470</definedName>
   </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="738">
   <si>
     <t>1С</t>
   </si>
@@ -2242,6 +2242,12 @@
   </si>
   <si>
     <t>6837 ФИЛЕЙНЫЕ Папа Может сос ц/о мгс 0,4кг  Останкино</t>
+  </si>
+  <si>
+    <t>5707 ЮБИЛЕЙНАЯ Папа может с/к в/у 1/250 8шт.    ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6279 КОРЕЙКА ПО-ОСТ.к/в в/с с/н в/у 1/150_45с  Останкино</t>
   </si>
 </sst>
 </file>
@@ -2597,11 +2603,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F468"/>
+  <dimension ref="A1:F470"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3023,18 +3029,18 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>48</v>
+        <v>444</v>
       </c>
       <c r="B38" s="3">
-        <v>1001220286279</v>
+        <v>1001084216206</v>
       </c>
       <c r="C38" t="s">
-        <v>49</v>
+        <v>387</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>444</v>
+        <v>50</v>
       </c>
       <c r="B39" s="3">
         <v>1001084216206</v>
@@ -3045,18 +3051,18 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>50</v>
+        <v>685</v>
       </c>
       <c r="B40" s="3">
-        <v>1001084216206</v>
+        <v>1001022557257</v>
       </c>
       <c r="C40" t="s">
-        <v>387</v>
+        <v>680</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B41" s="3">
         <v>1001022557257</v>
@@ -3067,7 +3073,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>687</v>
+        <v>485</v>
       </c>
       <c r="B42" s="3">
         <v>1001022557257</v>
@@ -3078,63 +3084,63 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>485</v>
+        <v>51</v>
       </c>
       <c r="B43" s="3">
-        <v>1001022557257</v>
+        <v>1001022556069</v>
       </c>
       <c r="C43" t="s">
-        <v>680</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="F43" s="3"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B44" s="3">
-        <v>1001022556069</v>
+        <v>1001010106325</v>
       </c>
       <c r="C44" t="s">
-        <v>475</v>
-      </c>
-      <c r="F44" s="3"/>
+        <v>53</v>
+      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B45" s="3">
-        <v>1001010106325</v>
+        <v>1001012486333</v>
       </c>
       <c r="C45" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B46" s="3">
-        <v>1001012486333</v>
+        <v>1001012506353</v>
       </c>
       <c r="C46" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>57</v>
+        <v>202</v>
       </c>
       <c r="B47" s="3">
-        <v>1001012506353</v>
+        <v>1001304507236</v>
       </c>
       <c r="C47" t="s">
-        <v>58</v>
+        <v>681</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>202</v>
+        <v>115</v>
       </c>
       <c r="B48" s="3">
         <v>1001304507236</v>
@@ -3145,7 +3151,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>115</v>
+        <v>686</v>
       </c>
       <c r="B49" s="3">
         <v>1001304507236</v>
@@ -3156,29 +3162,29 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>686</v>
+        <v>116</v>
       </c>
       <c r="B50" s="3">
-        <v>1001304507236</v>
+        <v>1001303056692</v>
       </c>
       <c r="C50" t="s">
-        <v>681</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>116</v>
+        <v>657</v>
       </c>
       <c r="B51" s="3">
-        <v>1001303056692</v>
+        <v>1001303637149</v>
       </c>
       <c r="C51" t="s">
-        <v>60</v>
+        <v>631</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>657</v>
+        <v>630</v>
       </c>
       <c r="B52" s="3">
         <v>1001303637149</v>
@@ -3189,51 +3195,51 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>630</v>
+        <v>61</v>
       </c>
       <c r="B53" s="3">
-        <v>1001303637149</v>
+        <v>1001013956426</v>
       </c>
       <c r="C53" t="s">
-        <v>631</v>
+        <v>431</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B54" s="3">
-        <v>1001013956426</v>
+        <v>1001024636438</v>
       </c>
       <c r="C54" t="s">
-        <v>431</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B55" s="3">
-        <v>1001024636438</v>
+        <v>1001234146448</v>
       </c>
       <c r="C55" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>64</v>
+        <v>290</v>
       </c>
       <c r="B56" s="3">
-        <v>1001234146448</v>
+        <v>1001202506453</v>
       </c>
       <c r="C56" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>290</v>
+        <v>67</v>
       </c>
       <c r="B57" s="3">
         <v>1001202506453</v>
@@ -3244,227 +3250,227 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B58" s="3">
-        <v>1001202506453</v>
+        <v>1001201976454</v>
       </c>
       <c r="C58" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B59" s="3">
-        <v>1001201976454</v>
+        <v>1001025176475</v>
       </c>
       <c r="C59" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="B60" s="3">
-        <v>1001025176475</v>
+        <v>1001301876697</v>
       </c>
       <c r="C60" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="B61" s="3">
-        <v>1001301876697</v>
+        <v>1001024636517</v>
       </c>
       <c r="C61" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B62" s="3">
-        <v>1001024636517</v>
+        <v>1001031076527</v>
       </c>
       <c r="C62" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B63" s="3">
-        <v>1001031076527</v>
+        <v>1001304506562</v>
       </c>
       <c r="C63" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B64" s="3">
-        <v>1001304506562</v>
+        <v>1001020846563</v>
       </c>
       <c r="C64" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B65" s="3">
-        <v>1001020846563</v>
+        <v>1001020836589</v>
       </c>
       <c r="C65" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B66" s="3">
-        <v>1001020836589</v>
+        <v>6751</v>
       </c>
       <c r="C66" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B67" s="3">
-        <v>6751</v>
+        <v>1001010016592</v>
       </c>
       <c r="C67" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B68" s="3">
-        <v>1001010016592</v>
+        <v>1001010026594</v>
       </c>
       <c r="C68" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B69" s="3">
-        <v>1001010026594</v>
+        <v>1001022296601</v>
       </c>
       <c r="C69" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B70" s="3">
-        <v>1001022296601</v>
+        <v>1001031896648</v>
       </c>
       <c r="C70" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B71" s="3">
-        <v>1001031896648</v>
+        <v>1001035266650</v>
       </c>
       <c r="C71" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B72" s="3">
-        <v>1001035266650</v>
+        <v>1001305256658</v>
       </c>
       <c r="C72" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B73" s="3">
-        <v>1001305256658</v>
+        <v>1001010016593</v>
       </c>
       <c r="C73" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B74" s="3">
-        <v>1001010016593</v>
+        <v>1001010026595</v>
       </c>
       <c r="C74" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B75" s="3">
-        <v>1001010026595</v>
+        <v>1001010036597</v>
       </c>
       <c r="C75" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B76" s="3">
-        <v>1001010036597</v>
+        <v>1001020886646</v>
       </c>
       <c r="C76" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>112</v>
+        <v>316</v>
       </c>
       <c r="B77" s="3">
-        <v>1001020886646</v>
+        <v>1001305306566</v>
       </c>
       <c r="C77" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>316</v>
+        <v>113</v>
       </c>
       <c r="B78" s="3">
         <v>1001305306566</v>
@@ -3475,18 +3481,18 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>113</v>
+        <v>655</v>
       </c>
       <c r="B79" s="3">
-        <v>1001305306566</v>
+        <v>1001300387154</v>
       </c>
       <c r="C79" t="s">
-        <v>114</v>
+        <v>635</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
       <c r="B80" s="3">
         <v>1001300387154</v>
@@ -3497,18 +3503,18 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>634</v>
+        <v>656</v>
       </c>
       <c r="B81" s="3">
-        <v>1001300387154</v>
+        <v>1001303987169</v>
       </c>
       <c r="C81" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>656</v>
+        <v>636</v>
       </c>
       <c r="B82" s="3">
         <v>1001303987169</v>
@@ -3519,20 +3525,20 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>636</v>
+        <v>233</v>
       </c>
       <c r="B83" s="3">
-        <v>1001303987169</v>
+        <v>1001303106773</v>
       </c>
       <c r="C83" t="s">
-        <v>637</v>
+        <v>339</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="B84" s="3">
+        <v>346</v>
+      </c>
+      <c r="B84" s="4">
         <v>1001303106773</v>
       </c>
       <c r="C84" t="s">
@@ -3541,7 +3547,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>346</v>
+        <v>265</v>
       </c>
       <c r="B85" s="4">
         <v>1001303106773</v>
@@ -3552,9 +3558,9 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="B86" s="4">
+        <v>117</v>
+      </c>
+      <c r="B86" s="3">
         <v>1001303106773</v>
       </c>
       <c r="C86" t="s">
@@ -3563,7 +3569,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>117</v>
+        <v>386</v>
       </c>
       <c r="B87" s="3">
         <v>1001303106773</v>
@@ -3574,7 +3580,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B88" s="3">
         <v>1001303106773</v>
@@ -3585,7 +3591,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B89" s="3">
         <v>1001303106773</v>
@@ -3596,18 +3602,18 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>381</v>
+        <v>222</v>
       </c>
       <c r="B90" s="3">
-        <v>1001303106773</v>
+        <v>1001012566392</v>
       </c>
       <c r="C90" t="s">
-        <v>339</v>
+        <v>56</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>222</v>
+        <v>416</v>
       </c>
       <c r="B91" s="3">
         <v>1001012566392</v>
@@ -3618,7 +3624,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>416</v>
+        <v>120</v>
       </c>
       <c r="B92" s="3">
         <v>1001012566392</v>
@@ -3629,18 +3635,18 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>120</v>
+        <v>658</v>
       </c>
       <c r="B93" s="3">
-        <v>1001012566392</v>
+        <v>1001302277173</v>
       </c>
       <c r="C93" t="s">
-        <v>56</v>
+        <v>633</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>658</v>
+        <v>632</v>
       </c>
       <c r="B94" s="3">
         <v>1001302277173</v>
@@ -3651,18 +3657,18 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>632</v>
+        <v>715</v>
       </c>
       <c r="B95" s="3">
-        <v>1001302277173</v>
+        <v>1001012426268</v>
       </c>
       <c r="C95" t="s">
-        <v>633</v>
+        <v>122</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>715</v>
+        <v>123</v>
       </c>
       <c r="B96" s="3">
         <v>1001012426268</v>
@@ -3673,95 +3679,95 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B97" s="3">
-        <v>1001012426268</v>
+        <v>1001024906041</v>
       </c>
       <c r="C97" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B98" s="3">
-        <v>1001024906041</v>
+        <v>1001011086247</v>
       </c>
       <c r="C98" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="B99" s="3">
-        <v>1001011086247</v>
+        <v>1001014486158</v>
       </c>
       <c r="C99" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B100" s="3">
-        <v>1001014486158</v>
+        <v>1001015356259</v>
       </c>
       <c r="C100" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B101" s="3">
-        <v>1001015356259</v>
+        <v>1001012816716</v>
       </c>
       <c r="C101" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>152</v>
+        <v>321</v>
       </c>
       <c r="B102" s="3">
-        <v>1001012816716</v>
+        <v>1001020966227</v>
       </c>
       <c r="C102" t="s">
-        <v>143</v>
+        <v>320</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>321</v>
+        <v>129</v>
       </c>
       <c r="B103" s="3">
         <v>1001020966227</v>
       </c>
       <c r="C103" t="s">
-        <v>320</v>
+        <v>130</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>129</v>
+        <v>220</v>
       </c>
       <c r="B104" s="3">
-        <v>1001020966227</v>
+        <v>1001022726303</v>
       </c>
       <c r="C104" t="s">
-        <v>130</v>
+        <v>253</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>220</v>
+        <v>252</v>
       </c>
       <c r="B105" s="3">
         <v>1001022726303</v>
@@ -3772,7 +3778,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>252</v>
+        <v>338</v>
       </c>
       <c r="B106" s="3">
         <v>1001022726303</v>
@@ -3783,62 +3789,62 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>338</v>
+        <v>153</v>
       </c>
       <c r="B107" s="3">
         <v>1001022726303</v>
       </c>
       <c r="C107" t="s">
-        <v>253</v>
+        <v>155</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>153</v>
+        <v>108</v>
       </c>
       <c r="B108" s="3">
-        <v>1001022726303</v>
+        <v>1001022466726</v>
       </c>
       <c r="C108" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="B109" s="3">
-        <v>1001022466726</v>
+        <v>1001020966144</v>
       </c>
       <c r="C109" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="B110" s="3">
-        <v>1001020966144</v>
+        <v>1001022376722</v>
       </c>
       <c r="C110" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>121</v>
+        <v>576</v>
       </c>
       <c r="B111" s="3">
-        <v>1001022376722</v>
+        <v>1001022376955</v>
       </c>
       <c r="C111" t="s">
-        <v>119</v>
+        <v>567</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B112" s="3">
         <v>1001022376955</v>
@@ -3849,7 +3855,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>574</v>
+        <v>134</v>
       </c>
       <c r="B113" s="3">
         <v>1001022376955</v>
@@ -3860,18 +3866,18 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>134</v>
+        <v>245</v>
       </c>
       <c r="B114" s="3">
-        <v>1001022376955</v>
+        <v>1001022246661</v>
       </c>
       <c r="C114" t="s">
-        <v>567</v>
+        <v>246</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>245</v>
+        <v>317</v>
       </c>
       <c r="B115" s="3">
         <v>1001022246661</v>
@@ -3882,172 +3888,172 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>317</v>
+        <v>133</v>
       </c>
       <c r="B116" s="3">
         <v>1001022246661</v>
       </c>
       <c r="C116" t="s">
-        <v>246</v>
+        <v>135</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B117" s="3">
-        <v>1001022246661</v>
+        <v>1001022246713</v>
       </c>
       <c r="C117" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B118" s="3">
-        <v>1001022246713</v>
+        <v>1001025166241</v>
       </c>
       <c r="C118" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="B119" s="3">
-        <v>1001025166241</v>
+        <v>6606</v>
       </c>
       <c r="C119" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="B120" s="3">
-        <v>6606</v>
+        <v>1001035326217</v>
       </c>
       <c r="C120" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="B121" s="3">
-        <v>1001035326217</v>
+        <v>1001303636301</v>
       </c>
       <c r="C121" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>151</v>
+        <v>94</v>
       </c>
       <c r="B122" s="3">
-        <v>1001303636301</v>
+        <v>1001303636302</v>
       </c>
       <c r="C122" t="s">
-        <v>145</v>
+        <v>95</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="B123" s="3">
-        <v>1001303636302</v>
+        <v>1001305196215</v>
       </c>
       <c r="C123" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B124" s="3">
-        <v>1001305196215</v>
+        <v>1001301876212</v>
       </c>
       <c r="C124" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B125" s="3">
-        <v>1001301876212</v>
+        <v>1001301876213</v>
       </c>
       <c r="C125" t="s">
-        <v>146</v>
+        <v>78</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="B126" s="3">
-        <v>1001301876213</v>
+        <v>1001303636302</v>
       </c>
       <c r="C126" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B127" s="3">
-        <v>1001303636302</v>
+        <v>6645</v>
       </c>
       <c r="C127" t="s">
-        <v>95</v>
+        <v>158</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B128" s="3">
-        <v>6645</v>
+        <v>1001225416228</v>
       </c>
       <c r="C128" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B129" s="3">
-        <v>1001225416228</v>
+        <v>6225</v>
       </c>
       <c r="C129" t="s">
-        <v>160</v>
+        <v>269</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B130" s="3">
-        <v>6225</v>
+        <v>1001022376722</v>
       </c>
       <c r="C130" t="s">
-        <v>269</v>
+        <v>119</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B131" s="3">
         <v>1001022376722</v>
@@ -4058,29 +4064,29 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B132" s="3">
-        <v>1001022376722</v>
+        <v>3297</v>
       </c>
       <c r="C132" t="s">
-        <v>119</v>
+        <v>165</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>164</v>
+        <v>311</v>
       </c>
       <c r="B133" s="3">
-        <v>3297</v>
+        <v>1001022466726</v>
       </c>
       <c r="C133" t="s">
-        <v>165</v>
+        <v>287</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="B134" s="3">
         <v>1001022466726</v>
@@ -4091,51 +4097,51 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>288</v>
+        <v>168</v>
       </c>
       <c r="B135" s="3">
         <v>1001022466726</v>
       </c>
       <c r="C135" t="s">
-        <v>287</v>
+        <v>109</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B136" s="3">
-        <v>1001022466726</v>
+        <v>1001021966602</v>
       </c>
       <c r="C136" t="s">
-        <v>109</v>
+        <v>280</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B137" s="3">
-        <v>1001021966602</v>
+        <v>6233</v>
       </c>
       <c r="C137" t="s">
-        <v>280</v>
+        <v>170</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>171</v>
+        <v>260</v>
       </c>
       <c r="B138" s="3">
-        <v>6233</v>
+        <v>1001012816341</v>
       </c>
       <c r="C138" t="s">
-        <v>170</v>
+        <v>441</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>260</v>
+        <v>487</v>
       </c>
       <c r="B139" s="3">
         <v>1001012816341</v>
@@ -4146,7 +4152,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B140" s="3">
         <v>1001012816341</v>
@@ -4157,7 +4163,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>490</v>
+        <v>172</v>
       </c>
       <c r="B141" s="3">
         <v>1001012816341</v>
@@ -4168,51 +4174,51 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B142" s="3">
-        <v>1001012816341</v>
+        <v>6750</v>
       </c>
       <c r="C142" t="s">
-        <v>441</v>
+        <v>85</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B143" s="3">
-        <v>6750</v>
+        <v>6751</v>
       </c>
       <c r="C143" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B144" s="3">
-        <v>6751</v>
+        <v>5982</v>
       </c>
       <c r="C144" t="s">
-        <v>87</v>
+        <v>176</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>175</v>
+        <v>538</v>
       </c>
       <c r="B145" s="3">
-        <v>5982</v>
+        <v>1001022656854</v>
       </c>
       <c r="C145" t="s">
-        <v>176</v>
+        <v>430</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>538</v>
+        <v>555</v>
       </c>
       <c r="B146" s="3">
         <v>1001022656854</v>
@@ -4223,7 +4229,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>555</v>
+        <v>454</v>
       </c>
       <c r="B147" s="3">
         <v>1001022656854</v>
@@ -4234,7 +4240,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>454</v>
+        <v>177</v>
       </c>
       <c r="B148" s="3">
         <v>1001022656854</v>
@@ -4245,21 +4251,21 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B149" s="3">
-        <v>1001022656854</v>
+        <v>1001094966025</v>
       </c>
       <c r="C149" t="s">
-        <v>430</v>
+        <v>179</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B150" s="3">
-        <v>1001094966025</v>
+        <v>6025</v>
       </c>
       <c r="C150" t="s">
         <v>179</v>
@@ -4267,29 +4273,29 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="B151" s="3">
-        <v>6025</v>
+        <v>1001022373812</v>
       </c>
       <c r="C151" t="s">
-        <v>179</v>
+        <v>3</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B152" s="3">
-        <v>1001022373812</v>
+        <v>1001100606827</v>
       </c>
       <c r="C152" t="s">
-        <v>3</v>
+        <v>328</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>186</v>
+        <v>340</v>
       </c>
       <c r="B153" s="3">
         <v>1001100606827</v>
@@ -4300,18 +4306,18 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>340</v>
+        <v>187</v>
       </c>
       <c r="B154" s="3">
-        <v>1001100606827</v>
+        <v>1001100616826</v>
       </c>
       <c r="C154" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>187</v>
+        <v>341</v>
       </c>
       <c r="B155" s="3">
         <v>1001100616826</v>
@@ -4322,18 +4328,18 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>341</v>
+        <v>188</v>
       </c>
       <c r="B156" s="3">
-        <v>1001100616826</v>
+        <v>1001100626828</v>
       </c>
       <c r="C156" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>188</v>
+        <v>342</v>
       </c>
       <c r="B157" s="3">
         <v>1001100626828</v>
@@ -4344,62 +4350,62 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>342</v>
+        <v>189</v>
       </c>
       <c r="B158" s="3">
-        <v>1001100626828</v>
+        <v>1001035026308</v>
       </c>
       <c r="C158" t="s">
-        <v>330</v>
+        <v>190</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>189</v>
+        <v>559</v>
       </c>
       <c r="B159" s="3">
-        <v>1001035026308</v>
+        <v>1001014486159</v>
       </c>
       <c r="C159" t="s">
-        <v>190</v>
+        <v>560</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>559</v>
+        <v>191</v>
       </c>
       <c r="B160" s="3">
         <v>1001014486159</v>
       </c>
       <c r="C160" t="s">
-        <v>560</v>
+        <v>192</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B161" s="3">
-        <v>1001014486159</v>
+        <v>1001035326217</v>
       </c>
       <c r="C161" t="s">
-        <v>192</v>
+        <v>284</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>193</v>
+        <v>505</v>
       </c>
       <c r="B162" s="3">
-        <v>1001035326217</v>
+        <v>1001012426220</v>
       </c>
       <c r="C162" t="s">
-        <v>284</v>
+        <v>195</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>505</v>
+        <v>194</v>
       </c>
       <c r="B163" s="3">
         <v>1001012426220</v>
@@ -4410,238 +4416,238 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B164" s="3">
-        <v>1001012426220</v>
+        <v>1001022466236</v>
       </c>
       <c r="C164" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B165" s="3">
-        <v>1001022466236</v>
+        <v>1001021966602</v>
       </c>
       <c r="C165" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B166" s="3">
-        <v>1001021966602</v>
+        <v>1001022296656</v>
       </c>
       <c r="C166" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B167" s="3">
-        <v>1001022296656</v>
+        <v>1001301876697</v>
       </c>
       <c r="C167" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B168" s="3">
-        <v>1001301876697</v>
+        <v>1001022246713</v>
       </c>
       <c r="C168" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B169" s="3">
-        <v>1001022246713</v>
+        <v>1001022376722</v>
       </c>
       <c r="C169" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B170" s="3">
-        <v>1001022376722</v>
+        <v>1001020846751</v>
       </c>
       <c r="C170" t="s">
-        <v>209</v>
+        <v>87</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B171" s="3">
-        <v>1001020846751</v>
+        <v>1001022725819</v>
       </c>
       <c r="C171" t="s">
-        <v>87</v>
+        <v>212</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B172" s="3">
-        <v>1001022725819</v>
+        <v>1001012825337</v>
       </c>
       <c r="C172" t="s">
-        <v>212</v>
+        <v>27</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B173" s="3">
-        <v>1001012825337</v>
+        <v>1001012815336</v>
       </c>
       <c r="C173" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B174" s="3">
-        <v>1001012815336</v>
+        <v>1001234146448</v>
       </c>
       <c r="C174" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B175" s="3">
-        <v>1001234146448</v>
+        <v>1001022725819</v>
       </c>
       <c r="C175" t="s">
-        <v>65</v>
+        <v>212</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B176" s="3">
-        <v>1001022725819</v>
+        <v>1001092676027</v>
       </c>
       <c r="C176" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B177" s="3">
-        <v>1001092676027</v>
+        <v>1001301876213</v>
       </c>
       <c r="C177" t="s">
-        <v>218</v>
+        <v>78</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B178" s="3">
-        <v>1001301876213</v>
+        <v>1001035026308</v>
       </c>
       <c r="C178" t="s">
-        <v>78</v>
+        <v>406</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B179" s="3">
-        <v>1001035026308</v>
+        <v>1001234146448</v>
       </c>
       <c r="C179" t="s">
-        <v>406</v>
+        <v>65</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B180" s="3">
-        <v>1001234146448</v>
+        <v>1001201976454</v>
       </c>
       <c r="C180" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B181" s="3">
-        <v>1001201976454</v>
+        <v>1001025176475</v>
       </c>
       <c r="C181" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B182" s="3">
-        <v>1001025176475</v>
+        <v>1001012456498</v>
       </c>
       <c r="C182" t="s">
-        <v>72</v>
+        <v>228</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B183" s="3">
-        <v>1001012456498</v>
+        <v>1001010036596</v>
       </c>
       <c r="C183" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>229</v>
+        <v>570</v>
       </c>
       <c r="B184" s="3">
-        <v>1001010036596</v>
+        <v>1001033856608</v>
       </c>
       <c r="C184" t="s">
-        <v>230</v>
+        <v>561</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="B185" s="3">
         <v>1001033856608</v>
@@ -4652,18 +4658,18 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="B186" s="3">
-        <v>1001033856608</v>
+        <v>1001033856609</v>
       </c>
       <c r="C186" t="s">
-        <v>561</v>
+        <v>232</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>571</v>
+        <v>231</v>
       </c>
       <c r="B187" s="3">
         <v>1001033856609</v>
@@ -4674,315 +4680,315 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B188" s="3">
-        <v>1001033856609</v>
+        <v>1001093345495</v>
       </c>
       <c r="C188" t="s">
-        <v>232</v>
+        <v>442</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B189" s="3">
-        <v>1001093345495</v>
+        <v>6550</v>
       </c>
       <c r="C189" t="s">
-        <v>442</v>
+        <v>237</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B190" s="3">
-        <v>6550</v>
+        <v>1001304506684</v>
       </c>
       <c r="C190" t="s">
-        <v>237</v>
+        <v>59</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B191" s="3">
-        <v>1001304506684</v>
+        <v>1001010113248</v>
       </c>
       <c r="C191" t="s">
-        <v>59</v>
+        <v>240</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>239</v>
+        <v>414</v>
       </c>
       <c r="B192" s="3">
-        <v>1001010113248</v>
+        <v>1001063926780</v>
       </c>
       <c r="C192" t="s">
-        <v>240</v>
+        <v>415</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>414</v>
+        <v>241</v>
       </c>
       <c r="B193" s="3">
-        <v>1001063926780</v>
+        <v>6586</v>
       </c>
       <c r="C193" t="s">
-        <v>415</v>
+        <v>242</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B194" s="3">
-        <v>6586</v>
+        <v>1001303636467</v>
       </c>
       <c r="C194" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B195" s="3">
-        <v>1001303636467</v>
+        <v>1001304496701</v>
       </c>
       <c r="C195" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B196" s="3">
-        <v>1001304496701</v>
+        <v>6144</v>
       </c>
       <c r="C196" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B197" s="3">
-        <v>6144</v>
+        <v>1001022725819</v>
       </c>
       <c r="C197" t="s">
-        <v>250</v>
+        <v>212</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B198" s="3">
-        <v>1001022725819</v>
+        <v>1001022373812</v>
       </c>
       <c r="C198" t="s">
-        <v>212</v>
+        <v>3</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B199" s="3">
-        <v>1001022373812</v>
+        <v>1001024906062</v>
       </c>
       <c r="C199" t="s">
-        <v>3</v>
+        <v>256</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B200" s="3">
-        <v>1001024906062</v>
+        <v>1001303056692</v>
       </c>
       <c r="C200" t="s">
-        <v>256</v>
+        <v>60</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B201" s="3">
-        <v>1001303056692</v>
+        <v>1001301876697</v>
       </c>
       <c r="C201" t="s">
-        <v>60</v>
+        <v>204</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B202" s="3">
-        <v>1001301876697</v>
+        <v>1001012634574</v>
       </c>
       <c r="C202" t="s">
-        <v>204</v>
+        <v>11</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B203" s="3">
-        <v>1001012634574</v>
+        <v>1001092485452</v>
       </c>
       <c r="C203" t="s">
-        <v>11</v>
+        <v>262</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B204" s="3">
-        <v>1001092485452</v>
+        <v>1001020966144</v>
       </c>
       <c r="C204" t="s">
-        <v>262</v>
+        <v>144</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B205" s="3">
-        <v>1001020966144</v>
+        <v>6586</v>
       </c>
       <c r="C205" t="s">
-        <v>144</v>
+        <v>242</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B206" s="3">
-        <v>6586</v>
+        <v>1001304496701</v>
       </c>
       <c r="C206" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B207" s="3">
-        <v>1001304496701</v>
+        <v>1001063655015</v>
       </c>
       <c r="C207" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B208" s="3">
-        <v>1001063655015</v>
+        <v>1001060763287</v>
       </c>
       <c r="C208" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B209" s="3">
-        <v>1001060763287</v>
+        <v>1001225416228</v>
       </c>
       <c r="C209" t="s">
-        <v>271</v>
+        <v>160</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B210" s="3">
-        <v>1001225416228</v>
+        <v>1001032736550</v>
       </c>
       <c r="C210" t="s">
-        <v>160</v>
+        <v>237</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B211" s="3">
-        <v>1001032736550</v>
+        <v>6758</v>
       </c>
       <c r="C211" t="s">
-        <v>237</v>
+        <v>275</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B212" s="3">
-        <v>6758</v>
+        <v>1001020965976</v>
       </c>
       <c r="C212" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B213" s="3">
-        <v>1001020965976</v>
+        <v>1001215576586</v>
       </c>
       <c r="C213" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B214" s="3">
-        <v>1001215576586</v>
+        <v>1001094896026</v>
       </c>
       <c r="C214" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>281</v>
+        <v>495</v>
       </c>
       <c r="B215" s="3">
-        <v>1001094896026</v>
+        <v>1001215576586</v>
       </c>
       <c r="C215" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>495</v>
+        <v>283</v>
       </c>
       <c r="B216" s="3">
         <v>1001215576586</v>
@@ -4993,95 +4999,95 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B217" s="3">
-        <v>1001215576586</v>
+        <v>1001092436470</v>
       </c>
       <c r="C217" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="B218" s="3">
-        <v>1001092436470</v>
+        <v>1001203146555</v>
       </c>
       <c r="C218" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="B219" s="3">
-        <v>1001203146555</v>
+        <v>1001014765992</v>
       </c>
       <c r="C219" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="B220" s="3">
         <v>1001014765992</v>
       </c>
       <c r="C220" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B221" s="3">
-        <v>1001014765992</v>
+        <v>1001014765993</v>
       </c>
       <c r="C221" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B222" s="3">
-        <v>1001014765993</v>
+        <v>1001025166776</v>
       </c>
       <c r="C222" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B223" s="3">
-        <v>1001025166776</v>
+        <v>1001025506777</v>
       </c>
       <c r="C223" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>299</v>
+        <v>322</v>
       </c>
       <c r="B224" s="3">
-        <v>1001025506777</v>
+        <v>1001025546822</v>
       </c>
       <c r="C224" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B225" s="3">
         <v>1001025546822</v>
@@ -5092,40 +5098,40 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="B226" s="3">
         <v>1001025546822</v>
       </c>
       <c r="C226" t="s">
-        <v>302</v>
+        <v>553</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>335</v>
+        <v>301</v>
       </c>
       <c r="B227" s="3">
         <v>1001025546822</v>
       </c>
       <c r="C227" t="s">
-        <v>553</v>
+        <v>302</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>301</v>
+        <v>665</v>
       </c>
       <c r="B228" s="3">
-        <v>1001025546822</v>
+        <v>1001024976616</v>
       </c>
       <c r="C228" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>665</v>
+        <v>306</v>
       </c>
       <c r="B229" s="3">
         <v>1001024976616</v>
@@ -5136,29 +5142,29 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B230" s="3">
-        <v>1001024976616</v>
+        <v>1001010855247</v>
       </c>
       <c r="C230" t="s">
-        <v>305</v>
+        <v>23</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>307</v>
+        <v>385</v>
       </c>
       <c r="B231" s="3">
-        <v>1001010855247</v>
+        <v>1001223296919</v>
       </c>
       <c r="C231" t="s">
-        <v>23</v>
+        <v>388</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>385</v>
+        <v>66</v>
       </c>
       <c r="B232" s="3">
         <v>1001223296919</v>
@@ -5169,7 +5175,7 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>66</v>
+        <v>224</v>
       </c>
       <c r="B233" s="3">
         <v>1001223296919</v>
@@ -5180,29 +5186,29 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>224</v>
+        <v>458</v>
       </c>
       <c r="B234" s="3">
         <v>1001223296919</v>
       </c>
       <c r="C234" t="s">
-        <v>388</v>
+        <v>474</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>458</v>
+        <v>480</v>
       </c>
       <c r="B235" s="3">
         <v>1001223296919</v>
       </c>
       <c r="C235" t="s">
-        <v>474</v>
+        <v>388</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>480</v>
+        <v>308</v>
       </c>
       <c r="B236" s="3">
         <v>1001223296919</v>
@@ -5213,73 +5219,73 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B237" s="3">
-        <v>1001223296919</v>
+        <v>1001014765993</v>
       </c>
       <c r="C237" t="s">
-        <v>388</v>
+        <v>295</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B238" s="3">
-        <v>1001014765993</v>
+        <v>1001025166776</v>
       </c>
       <c r="C238" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B239" s="3">
-        <v>1001025166776</v>
+        <v>1001025506777</v>
       </c>
       <c r="C239" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B240" s="3">
-        <v>1001025506777</v>
+        <v>1001025526778</v>
       </c>
       <c r="C240" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B241" s="3">
-        <v>1001025526778</v>
+        <v>1001304236685</v>
       </c>
       <c r="C241" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="B242" s="3">
-        <v>1001304236685</v>
+        <v>1001015496769</v>
       </c>
       <c r="C242" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="B243" s="3">
         <v>1001015496769</v>
@@ -5290,84 +5296,84 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B244" s="3">
-        <v>1001015496769</v>
+        <v>1001014766798</v>
       </c>
       <c r="C244" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="B245" s="3">
-        <v>1001014766798</v>
+        <v>1001015026797</v>
       </c>
       <c r="C245" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B246" s="3">
-        <v>1001015026797</v>
+        <v>1001205386222</v>
       </c>
       <c r="C246" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B247" s="3">
-        <v>1001205386222</v>
+        <v>1001092675224</v>
       </c>
       <c r="C247" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="B248" s="3">
-        <v>1001092675224</v>
+        <v>1001225406223</v>
       </c>
       <c r="C248" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B249" s="3">
-        <v>1001225406223</v>
+        <v>1001300366790</v>
       </c>
       <c r="C249" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>347</v>
+        <v>476</v>
       </c>
       <c r="B250" s="3">
-        <v>1001300366790</v>
+        <v>1001304096792</v>
       </c>
       <c r="C250" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>476</v>
+        <v>349</v>
       </c>
       <c r="B251" s="3">
         <v>1001304096792</v>
@@ -5378,29 +5384,29 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B252" s="3">
-        <v>1001304096792</v>
+        <v>1001303636793</v>
       </c>
       <c r="C252" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>350</v>
+        <v>396</v>
       </c>
       <c r="B253" s="3">
-        <v>1001303636793</v>
+        <v>1001303636794</v>
       </c>
       <c r="C253" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>396</v>
+        <v>496</v>
       </c>
       <c r="B254" s="3">
         <v>1001303636794</v>
@@ -5411,7 +5417,7 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>496</v>
+        <v>351</v>
       </c>
       <c r="B255" s="3">
         <v>1001303636794</v>
@@ -5422,51 +5428,51 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B256" s="3">
-        <v>1001303636794</v>
+        <v>1001302596795</v>
       </c>
       <c r="C256" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B257" s="3">
-        <v>1001302596795</v>
+        <v>1001302596796</v>
       </c>
       <c r="C257" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B258" s="3">
-        <v>1001302596796</v>
+        <v>1001300456804</v>
       </c>
       <c r="C258" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>354</v>
+        <v>445</v>
       </c>
       <c r="B259" s="3">
-        <v>1001300456804</v>
+        <v>1001300366806</v>
       </c>
       <c r="C259" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>445</v>
+        <v>355</v>
       </c>
       <c r="B260" s="3">
         <v>1001300366806</v>
@@ -5477,62 +5483,62 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B261" s="3">
-        <v>1001300366806</v>
+        <v>1001300516803</v>
       </c>
       <c r="C261" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B262" s="3">
-        <v>1001300516803</v>
+        <v>1001300366807</v>
       </c>
       <c r="C262" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="B263" s="3">
         <v>1001300366807</v>
       </c>
       <c r="C263" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B264" s="3">
-        <v>1001300366807</v>
+        <v>1001300516785</v>
       </c>
       <c r="C264" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>371</v>
+        <v>539</v>
       </c>
       <c r="B265" s="3">
-        <v>1001300516785</v>
+        <v>1001300456787</v>
       </c>
       <c r="C265" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
       <c r="B266" s="3">
         <v>1001300456787</v>
@@ -5543,7 +5549,7 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>554</v>
+        <v>373</v>
       </c>
       <c r="B267" s="3">
         <v>1001300456787</v>
@@ -5554,73 +5560,73 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B268" s="3">
-        <v>1001300456787</v>
+        <v>1001303636793</v>
       </c>
       <c r="C268" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B269" s="3">
-        <v>1001303636793</v>
+        <v>1001302596795</v>
       </c>
       <c r="C269" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B270" s="3">
-        <v>1001302596795</v>
+        <v>1001012486332</v>
       </c>
       <c r="C270" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B271" s="3">
-        <v>1001012486332</v>
+        <v>1001012566345</v>
       </c>
       <c r="C271" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B272" s="3">
-        <v>1001012566345</v>
+        <v>1001031076528</v>
       </c>
       <c r="C272" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
-        <v>382</v>
+        <v>413</v>
       </c>
       <c r="B273" s="3">
-        <v>1001031076528</v>
+        <v>1001020836761</v>
       </c>
       <c r="C273" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="B274" s="3">
         <v>1001020836761</v>
@@ -5631,7 +5637,7 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
-        <v>418</v>
+        <v>389</v>
       </c>
       <c r="B275" s="3">
         <v>1001020836761</v>
@@ -5642,18 +5648,18 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
-        <v>389</v>
+        <v>409</v>
       </c>
       <c r="B276" s="3">
-        <v>1001020836761</v>
+        <v>1001020846764</v>
       </c>
       <c r="C276" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="B277" s="3">
         <v>1001020846764</v>
@@ -5664,7 +5670,7 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
-        <v>419</v>
+        <v>391</v>
       </c>
       <c r="B278" s="3">
         <v>1001020846764</v>
@@ -5675,18 +5681,18 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
-        <v>391</v>
+        <v>492</v>
       </c>
       <c r="B279" s="3">
-        <v>1001020846764</v>
+        <v>1001300366790</v>
       </c>
       <c r="C279" t="s">
-        <v>392</v>
+        <v>358</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
-        <v>492</v>
+        <v>393</v>
       </c>
       <c r="B280" s="3">
         <v>1001300366790</v>
@@ -5697,18 +5703,18 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
-        <v>393</v>
+        <v>348</v>
       </c>
       <c r="B281" s="3">
-        <v>1001300366790</v>
+        <v>1001304096791</v>
       </c>
       <c r="C281" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
-        <v>348</v>
+        <v>467</v>
       </c>
       <c r="B282" s="3">
         <v>1001304096791</v>
@@ -5719,7 +5725,7 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
-        <v>467</v>
+        <v>394</v>
       </c>
       <c r="B283" s="3">
         <v>1001304096791</v>
@@ -5730,84 +5736,84 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B284" s="3">
-        <v>1001304096791</v>
+        <v>1001303636793</v>
       </c>
       <c r="C284" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B285" s="3">
-        <v>1001303636793</v>
+        <v>1001302596795</v>
       </c>
       <c r="C285" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B286" s="3">
-        <v>1001302596795</v>
+        <v>1001300516803</v>
       </c>
       <c r="C286" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B287" s="3">
-        <v>1001300516803</v>
+        <v>1001300456804</v>
       </c>
       <c r="C287" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B288" s="3">
-        <v>1001300456804</v>
+        <v>1001300366807</v>
       </c>
       <c r="C288" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B289" s="3">
-        <v>1001300366807</v>
+        <v>1001302596796</v>
       </c>
       <c r="C289" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="B290" s="3">
-        <v>1001302596796</v>
+        <v>1001023696765</v>
       </c>
       <c r="C290" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
-        <v>451</v>
+        <v>470</v>
       </c>
       <c r="B291" s="3">
         <v>1001023696765</v>
@@ -5818,7 +5824,7 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
-        <v>470</v>
+        <v>403</v>
       </c>
       <c r="B292" s="3">
         <v>1001023696765</v>
@@ -5829,18 +5835,18 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="B293" s="3">
-        <v>1001023696765</v>
+        <v>1001023696767</v>
       </c>
       <c r="C293" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="B294" s="3">
         <v>1001023696767</v>
@@ -5851,7 +5857,7 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="B295" s="3">
         <v>1001023696767</v>
@@ -5862,18 +5868,18 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B296" s="3">
-        <v>1001023696767</v>
+        <v>1001024976829</v>
       </c>
       <c r="C296" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B297" s="3">
         <v>1001024976829</v>
@@ -5884,29 +5890,29 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="B298" s="3">
-        <v>1001024976829</v>
+        <v>1001022376722</v>
       </c>
       <c r="C298" t="s">
-        <v>402</v>
+        <v>119</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
-        <v>423</v>
+        <v>450</v>
       </c>
       <c r="B299" s="3">
-        <v>1001022376722</v>
+        <v>1001020846762</v>
       </c>
       <c r="C299" t="s">
-        <v>119</v>
+        <v>425</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
-        <v>450</v>
+        <v>469</v>
       </c>
       <c r="B300" s="3">
         <v>1001020846762</v>
@@ -5917,7 +5923,7 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
-        <v>469</v>
+        <v>424</v>
       </c>
       <c r="B301" s="3">
         <v>1001020846762</v>
@@ -5928,18 +5934,18 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
-        <v>424</v>
+        <v>124</v>
       </c>
       <c r="B302" s="3">
-        <v>1001020846762</v>
+        <v>1001022656853</v>
       </c>
       <c r="C302" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
-        <v>124</v>
+        <v>491</v>
       </c>
       <c r="B303" s="3">
         <v>1001022656853</v>
@@ -5950,18 +5956,18 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
-        <v>491</v>
+        <v>575</v>
       </c>
       <c r="B304" s="3">
-        <v>1001022656853</v>
+        <v>1001022656948</v>
       </c>
       <c r="C304" t="s">
-        <v>428</v>
+        <v>566</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="B305" s="3">
         <v>1001022656948</v>
@@ -5972,7 +5978,7 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
-        <v>569</v>
+        <v>427</v>
       </c>
       <c r="B306" s="3">
         <v>1001022656948</v>
@@ -5983,29 +5989,29 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B307" s="3">
-        <v>1001022656948</v>
+        <v>1001022656852</v>
       </c>
       <c r="C307" t="s">
-        <v>566</v>
+        <v>434</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
-        <v>433</v>
+        <v>452</v>
       </c>
       <c r="B308" s="3">
-        <v>1001022656852</v>
+        <v>1001020836759</v>
       </c>
       <c r="C308" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
-        <v>452</v>
+        <v>468</v>
       </c>
       <c r="B309" s="3">
         <v>1001020836759</v>
@@ -6016,7 +6022,7 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
-        <v>468</v>
+        <v>435</v>
       </c>
       <c r="B310" s="3">
         <v>1001020836759</v>
@@ -6027,51 +6033,51 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B311" s="3">
-        <v>1001020836759</v>
+        <v>1001023856870</v>
       </c>
       <c r="C311" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>437</v>
+        <v>453</v>
       </c>
       <c r="B312" s="3">
-        <v>1001023856870</v>
+        <v>1001013956426</v>
       </c>
       <c r="C312" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B313" s="3">
-        <v>1001013956426</v>
+        <v>1001093345495</v>
       </c>
       <c r="C313" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>455</v>
+        <v>484</v>
       </c>
       <c r="B314" s="3">
-        <v>1001093345495</v>
+        <v>1001022656868</v>
       </c>
       <c r="C314" t="s">
-        <v>442</v>
+        <v>457</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
-        <v>484</v>
+        <v>456</v>
       </c>
       <c r="B315" s="3">
         <v>1001022656868</v>
@@ -6082,18 +6088,18 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
-        <v>456</v>
+        <v>166</v>
       </c>
       <c r="B316" s="3">
-        <v>1001022656868</v>
+        <v>1001034065698</v>
       </c>
       <c r="C316" t="s">
-        <v>457</v>
+        <v>429</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="B317" s="3">
         <v>1001034065698</v>
@@ -6104,7 +6110,7 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
-        <v>184</v>
+        <v>482</v>
       </c>
       <c r="B318" s="3">
         <v>1001034065698</v>
@@ -6115,7 +6121,7 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
-        <v>482</v>
+        <v>460</v>
       </c>
       <c r="B319" s="3">
         <v>1001034065698</v>
@@ -6126,29 +6132,29 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B320" s="3">
-        <v>1001034065698</v>
+        <v>1001084216206</v>
       </c>
       <c r="C320" t="s">
-        <v>429</v>
+        <v>387</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="B321" s="3">
-        <v>1001084216206</v>
+        <v>1001015646861</v>
       </c>
       <c r="C321" t="s">
-        <v>387</v>
+        <v>426</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="B322" s="3">
         <v>1001015646861</v>
@@ -6159,18 +6165,18 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="B323" s="3">
-        <v>1001015646861</v>
+        <v>1001025176768</v>
       </c>
       <c r="C323" t="s">
-        <v>426</v>
+        <v>449</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
-        <v>448</v>
+        <v>471</v>
       </c>
       <c r="B324" s="3">
         <v>1001025176768</v>
@@ -6181,7 +6187,7 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="B325" s="3">
         <v>1001025176768</v>
@@ -6192,18 +6198,18 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="B326" s="3">
-        <v>1001025176768</v>
+        <v>1001025486770</v>
       </c>
       <c r="C326" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
-        <v>447</v>
+        <v>472</v>
       </c>
       <c r="B327" s="3">
         <v>1001025486770</v>
@@ -6214,7 +6220,7 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="B328" s="3">
         <v>1001025486770</v>
@@ -6225,18 +6231,18 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
-        <v>464</v>
+        <v>207</v>
       </c>
       <c r="B329" s="3">
-        <v>1001025486770</v>
+        <v>1001012816340</v>
       </c>
       <c r="C329" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
-        <v>207</v>
+        <v>486</v>
       </c>
       <c r="B330" s="3">
         <v>1001012816340</v>
@@ -6247,7 +6253,7 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
-        <v>486</v>
+        <v>465</v>
       </c>
       <c r="B331" s="3">
         <v>1001012816340</v>
@@ -6258,18 +6264,18 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
-        <v>465</v>
+        <v>309</v>
       </c>
       <c r="B332" s="3">
-        <v>1001012816340</v>
+        <v>1001203146834</v>
       </c>
       <c r="C332" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
-        <v>309</v>
+        <v>459</v>
       </c>
       <c r="B333" s="3">
         <v>1001203146834</v>
@@ -6280,7 +6286,7 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
-        <v>459</v>
+        <v>483</v>
       </c>
       <c r="B334" s="3">
         <v>1001203146834</v>
@@ -6291,7 +6297,7 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
-        <v>483</v>
+        <v>466</v>
       </c>
       <c r="B335" s="3">
         <v>1001203146834</v>
@@ -6302,40 +6308,40 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="B336" s="3">
-        <v>1001203146834</v>
+        <v>1001300456788</v>
       </c>
       <c r="C336" t="s">
-        <v>432</v>
+        <v>479</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
       <c r="B337" s="3">
-        <v>1001300456788</v>
+        <v>1001300516786</v>
       </c>
       <c r="C337" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
-        <v>493</v>
+        <v>550</v>
       </c>
       <c r="B338" s="3">
-        <v>1001300516786</v>
+        <v>1001092436495</v>
       </c>
       <c r="C338" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="B339" s="3">
         <v>1001092436495</v>
@@ -6346,7 +6352,7 @@
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
-        <v>557</v>
+        <v>499</v>
       </c>
       <c r="B340" s="3">
         <v>1001092436495</v>
@@ -6357,40 +6363,40 @@
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B341" s="3">
-        <v>1001092436495</v>
+        <v>1001025526901</v>
       </c>
       <c r="C341" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B342" s="3">
-        <v>1001025526901</v>
+        <v>1001025546931</v>
       </c>
       <c r="C342" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="B343" s="3">
-        <v>1001025546931</v>
+        <v>1001010016324</v>
       </c>
       <c r="C343" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
-        <v>513</v>
+        <v>543</v>
       </c>
       <c r="B344" s="3">
         <v>1001010016324</v>
@@ -6401,7 +6407,7 @@
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
-        <v>543</v>
+        <v>506</v>
       </c>
       <c r="B345" s="3">
         <v>1001010016324</v>
@@ -6412,18 +6418,18 @@
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="B346" s="3">
-        <v>1001010016324</v>
+        <v>1001025766909</v>
       </c>
       <c r="C346" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
-        <v>510</v>
+        <v>544</v>
       </c>
       <c r="B347" s="3">
         <v>1001025766909</v>
@@ -6434,7 +6440,7 @@
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
-        <v>544</v>
+        <v>508</v>
       </c>
       <c r="B348" s="3">
         <v>1001025766909</v>
@@ -6445,18 +6451,18 @@
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
-        <v>508</v>
+        <v>542</v>
       </c>
       <c r="B349" s="3">
-        <v>1001025766909</v>
+        <v>1001010014558</v>
       </c>
       <c r="C349" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
-        <v>542</v>
+        <v>511</v>
       </c>
       <c r="B350" s="3">
         <v>1001010014558</v>
@@ -6467,18 +6473,18 @@
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
-        <v>511</v>
+        <v>537</v>
       </c>
       <c r="B351" s="3">
-        <v>1001010014558</v>
+        <v>1001012596802</v>
       </c>
       <c r="C351" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="B352" s="3">
         <v>1001012596802</v>
@@ -6489,7 +6495,7 @@
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
-        <v>546</v>
+        <v>514</v>
       </c>
       <c r="B353" s="3">
         <v>1001012596802</v>
@@ -6500,18 +6506,18 @@
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c r="B354" s="3">
-        <v>1001012596802</v>
+        <v>1001012596801</v>
       </c>
       <c r="C354" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
-        <v>532</v>
+        <v>545</v>
       </c>
       <c r="B355" s="3">
         <v>1001012596801</v>
@@ -6522,7 +6528,7 @@
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
-        <v>545</v>
+        <v>516</v>
       </c>
       <c r="B356" s="3">
         <v>1001012596801</v>
@@ -6533,161 +6539,161 @@
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B357" s="3">
-        <v>1001012596801</v>
+        <v>1001062353684</v>
       </c>
       <c r="C357" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B358" s="3">
-        <v>1001062353684</v>
+        <v>1001010014555</v>
       </c>
       <c r="C358" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B359" s="3">
-        <v>1001010014555</v>
+        <v>1001083424691</v>
       </c>
       <c r="C359" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B360" s="3">
-        <v>1001083424691</v>
+        <v>1001190765679</v>
       </c>
       <c r="C360" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B361" s="3">
-        <v>1001190765679</v>
+        <v>1001085636200</v>
       </c>
       <c r="C361" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B362" s="3">
-        <v>1001085636200</v>
+        <v>1001020836253</v>
       </c>
       <c r="C362" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B363" s="3">
-        <v>1001020836253</v>
+        <v>1001084226492</v>
       </c>
       <c r="C363" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="B364" s="3">
-        <v>1001084226492</v>
+        <v>1001223296921</v>
       </c>
       <c r="C364" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B365" s="3">
-        <v>1001223296921</v>
+        <v>1001053944786</v>
       </c>
       <c r="C365" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="B366" s="3">
-        <v>1001053944786</v>
+        <v>1001010016839</v>
       </c>
       <c r="C366" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="B367" s="3">
-        <v>1001010016839</v>
+        <v>1001023857038</v>
       </c>
       <c r="C367" t="s">
-        <v>541</v>
+        <v>588</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B368" s="3">
-        <v>1001023857038</v>
+        <v>1001040434903</v>
       </c>
       <c r="C368" t="s">
-        <v>588</v>
+        <v>549</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="B369" s="3">
-        <v>1001040434903</v>
+        <v>1001080216842</v>
       </c>
       <c r="C369" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
-        <v>551</v>
+        <v>564</v>
       </c>
       <c r="B370" s="3">
-        <v>1001080216842</v>
+        <v>1001022466951</v>
       </c>
       <c r="C370" t="s">
-        <v>552</v>
+        <v>565</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="B371" s="3">
         <v>1001022466951</v>
@@ -6698,95 +6704,95 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="B372" s="3">
-        <v>1001022466951</v>
+        <v>1001035276653</v>
       </c>
       <c r="C372" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="B373" s="3">
-        <v>1001035276653</v>
+        <v>1001062353680</v>
       </c>
       <c r="C373" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B374" s="3">
-        <v>1001062353680</v>
+        <v>1001061971146</v>
       </c>
       <c r="C374" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B375" s="3">
-        <v>1001061971146</v>
+        <v>1001225636201</v>
       </c>
       <c r="C375" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="B376" s="3">
-        <v>1001225636201</v>
+        <v>1001095227035</v>
       </c>
       <c r="C376" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B377" s="3">
-        <v>1001095227035</v>
+        <v>1001023857038</v>
       </c>
       <c r="C377" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="B378" s="3">
-        <v>1001023857038</v>
+        <v>1001025027040</v>
       </c>
       <c r="C378" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="B379" s="3">
-        <v>1001025027040</v>
+        <v>1001223297103</v>
       </c>
       <c r="C379" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B380" s="3">
         <v>1001223297103</v>
@@ -6797,7 +6803,7 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B381" s="3">
         <v>1001223297103</v>
@@ -6808,18 +6814,18 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
-        <v>592</v>
+        <v>614</v>
       </c>
       <c r="B382" s="3">
-        <v>1001223297103</v>
+        <v>1001010032675</v>
       </c>
       <c r="C382" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
       <c r="B383" s="3">
         <v>1001010032675</v>
@@ -6830,18 +6836,18 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
-        <v>594</v>
+        <v>619</v>
       </c>
       <c r="B384" s="3">
-        <v>1001010032675</v>
+        <v>1001035937001</v>
       </c>
       <c r="C384" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
-        <v>619</v>
+        <v>596</v>
       </c>
       <c r="B385" s="3">
         <v>1001035937001</v>
@@ -6852,18 +6858,18 @@
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
-        <v>596</v>
+        <v>620</v>
       </c>
       <c r="B386" s="3">
-        <v>1001035937001</v>
+        <v>1001084217090</v>
       </c>
       <c r="C386" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
-        <v>620</v>
+        <v>598</v>
       </c>
       <c r="B387" s="3">
         <v>1001084217090</v>
@@ -6874,18 +6880,18 @@
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
-        <v>598</v>
+        <v>621</v>
       </c>
       <c r="B388" s="3">
-        <v>1001084217090</v>
+        <v>1001022377066</v>
       </c>
       <c r="C388" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
-        <v>621</v>
+        <v>600</v>
       </c>
       <c r="B389" s="3">
         <v>1001022377066</v>
@@ -6896,18 +6902,18 @@
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
-        <v>600</v>
+        <v>622</v>
       </c>
       <c r="B390" s="3">
-        <v>1001022377066</v>
+        <v>1001022467080</v>
       </c>
       <c r="C390" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
-        <v>622</v>
+        <v>602</v>
       </c>
       <c r="B391" s="3">
         <v>1001022467080</v>
@@ -6918,18 +6924,18 @@
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
-        <v>602</v>
+        <v>623</v>
       </c>
       <c r="B392" s="3">
-        <v>1001022467080</v>
+        <v>1001025507077</v>
       </c>
       <c r="C392" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
-        <v>623</v>
+        <v>604</v>
       </c>
       <c r="B393" s="3">
         <v>1001025507077</v>
@@ -6940,18 +6946,18 @@
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
-        <v>604</v>
+        <v>626</v>
       </c>
       <c r="B394" s="3">
-        <v>1001025507077</v>
+        <v>1001022657075</v>
       </c>
       <c r="C394" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
-        <v>626</v>
+        <v>606</v>
       </c>
       <c r="B395" s="3">
         <v>1001022657075</v>
@@ -6962,18 +6968,18 @@
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
-        <v>606</v>
+        <v>624</v>
       </c>
       <c r="B396" s="3">
-        <v>1001022657075</v>
+        <v>1001022467082</v>
       </c>
       <c r="C396" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
-        <v>624</v>
+        <v>608</v>
       </c>
       <c r="B397" s="3">
         <v>1001022467082</v>
@@ -6984,18 +6990,18 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
-        <v>608</v>
+        <v>625</v>
       </c>
       <c r="B398" s="3">
-        <v>1001022467082</v>
+        <v>1001022377070</v>
       </c>
       <c r="C398" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
-        <v>625</v>
+        <v>610</v>
       </c>
       <c r="B399" s="3">
         <v>1001022377070</v>
@@ -7006,18 +7012,18 @@
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
-        <v>610</v>
+        <v>627</v>
       </c>
       <c r="B400" s="3">
-        <v>1001022377070</v>
+        <v>1001022657073</v>
       </c>
       <c r="C400" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
-        <v>627</v>
+        <v>612</v>
       </c>
       <c r="B401" s="3">
         <v>1001022657073</v>
@@ -7028,18 +7034,18 @@
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
-        <v>612</v>
+        <v>638</v>
       </c>
       <c r="B402" s="3">
-        <v>1001022657073</v>
+        <v>1001010027126</v>
       </c>
       <c r="C402" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
-        <v>638</v>
+        <v>615</v>
       </c>
       <c r="B403" s="3">
         <v>1001010027126</v>
@@ -7050,18 +7056,18 @@
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B404" s="3">
-        <v>1001010027126</v>
+        <v>1001010027125</v>
       </c>
       <c r="C404" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
-        <v>617</v>
+        <v>639</v>
       </c>
       <c r="B405" s="3">
         <v>1001010027125</v>
@@ -7072,18 +7078,18 @@
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
-        <v>639</v>
+        <v>662</v>
       </c>
       <c r="B406" s="3">
-        <v>1001010027125</v>
+        <v>1001016366888</v>
       </c>
       <c r="C406" t="s">
-        <v>618</v>
+        <v>641</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
-        <v>662</v>
+        <v>640</v>
       </c>
       <c r="B407" s="3">
         <v>1001016366888</v>
@@ -7094,18 +7100,18 @@
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
-        <v>640</v>
+        <v>663</v>
       </c>
       <c r="B408" s="3">
-        <v>1001016366888</v>
+        <v>1001300367133</v>
       </c>
       <c r="C408" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
-        <v>663</v>
+        <v>642</v>
       </c>
       <c r="B409" s="3">
         <v>1001300367133</v>
@@ -7116,18 +7122,18 @@
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
-        <v>642</v>
+        <v>661</v>
       </c>
       <c r="B410" s="3">
-        <v>1001300367133</v>
+        <v>1001303637131</v>
       </c>
       <c r="C410" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
-        <v>661</v>
+        <v>644</v>
       </c>
       <c r="B411" s="3">
         <v>1001303637131</v>
@@ -7138,18 +7144,18 @@
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
-        <v>644</v>
+        <v>664</v>
       </c>
       <c r="B412" s="3">
-        <v>1001303637131</v>
+        <v>1001304527146</v>
       </c>
       <c r="C412" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
-        <v>664</v>
+        <v>646</v>
       </c>
       <c r="B413" s="3">
         <v>1001304527146</v>
@@ -7160,18 +7166,18 @@
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
-        <v>646</v>
+        <v>659</v>
       </c>
       <c r="B414" s="3">
-        <v>1001304527146</v>
+        <v>1001300517134</v>
       </c>
       <c r="C414" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
       <c r="B415" s="3">
         <v>1001300517134</v>
@@ -7182,29 +7188,29 @@
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="B416" s="3">
-        <v>1001300517134</v>
+        <v>1001300457135</v>
       </c>
       <c r="C416" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="B417" s="3">
-        <v>1001300457135</v>
+        <v>1001304527144</v>
       </c>
       <c r="C417" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" s="2" t="s">
-        <v>652</v>
+        <v>660</v>
       </c>
       <c r="B418" s="3">
         <v>1001304527144</v>
@@ -7215,18 +7221,18 @@
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
-        <v>660</v>
+        <v>684</v>
       </c>
       <c r="B419" s="3">
-        <v>1001304527144</v>
+        <v>1001081596620</v>
       </c>
       <c r="C419" t="s">
-        <v>653</v>
+        <v>666</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" s="2" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
       <c r="B420" s="3">
         <v>1001081596620</v>
@@ -7237,18 +7243,18 @@
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
-        <v>667</v>
+        <v>689</v>
       </c>
       <c r="B421" s="3">
-        <v>1001081596620</v>
+        <v>1001085637187</v>
       </c>
       <c r="C421" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
-        <v>689</v>
+        <v>669</v>
       </c>
       <c r="B422" s="3">
         <v>1001085637187</v>
@@ -7259,18 +7265,18 @@
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
-        <v>669</v>
+        <v>688</v>
       </c>
       <c r="B423" s="3">
-        <v>1001085637187</v>
+        <v>1001015676877</v>
       </c>
       <c r="C423" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
-        <v>688</v>
+        <v>671</v>
       </c>
       <c r="B424" s="3">
         <v>1001015676877</v>
@@ -7281,18 +7287,18 @@
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
-        <v>671</v>
+        <v>691</v>
       </c>
       <c r="B425" s="3">
-        <v>1001015676877</v>
+        <v>1001015686878</v>
       </c>
       <c r="C425" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
-        <v>691</v>
+        <v>673</v>
       </c>
       <c r="B426" s="3">
         <v>1001015686878</v>
@@ -7303,51 +7309,51 @@
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B427" s="3">
-        <v>1001015686878</v>
+        <v>1001302277232</v>
       </c>
       <c r="C427" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" s="2" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B428" s="3">
-        <v>1001302277232</v>
+        <v>1001304497237</v>
       </c>
       <c r="C428" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B429" s="3">
-        <v>1001304497237</v>
+        <v>1001303107241</v>
       </c>
       <c r="C429" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" s="2" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="B430" s="3">
-        <v>1001303107241</v>
+        <v>1002162216872</v>
       </c>
       <c r="C430" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" s="2" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="B431" s="3">
         <v>1002162216872</v>
@@ -7358,18 +7364,18 @@
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" s="2" t="s">
-        <v>690</v>
+        <v>705</v>
       </c>
       <c r="B432" s="3">
-        <v>1002162216872</v>
+        <v>1001063237147</v>
       </c>
       <c r="C432" t="s">
-        <v>683</v>
+        <v>697</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" s="2" t="s">
-        <v>705</v>
+        <v>692</v>
       </c>
       <c r="B433" s="3">
         <v>1001063237147</v>
@@ -7380,18 +7386,18 @@
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434" s="2" t="s">
-        <v>692</v>
+        <v>704</v>
       </c>
       <c r="B434" s="3">
-        <v>1001063237147</v>
+        <v>1001063097227</v>
       </c>
       <c r="C434" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" s="2" t="s">
-        <v>704</v>
+        <v>693</v>
       </c>
       <c r="B435" s="3">
         <v>1001063097227</v>
@@ -7402,18 +7408,18 @@
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" s="2" t="s">
-        <v>693</v>
+        <v>702</v>
       </c>
       <c r="B436" s="3">
-        <v>1001063097227</v>
+        <v>1001066537225</v>
       </c>
       <c r="C436" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" s="2" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="B437" s="3">
         <v>1001066537225</v>
@@ -7424,18 +7430,18 @@
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" s="2" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="B438" s="3">
-        <v>1001066537225</v>
+        <v>1001066527226</v>
       </c>
       <c r="C438" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="B439" s="3">
         <v>1001066527226</v>
@@ -7446,29 +7452,29 @@
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B440" s="3">
-        <v>1001066527226</v>
+        <v>1001066547228</v>
       </c>
       <c r="C440" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
-        <v>696</v>
+        <v>712</v>
       </c>
       <c r="B441" s="3">
-        <v>1001066547228</v>
+        <v>1001063237229</v>
       </c>
       <c r="C441" t="s">
-        <v>701</v>
+        <v>709</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="B442" s="3">
         <v>1001063237229</v>
@@ -7479,18 +7485,18 @@
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" s="2" t="s">
-        <v>706</v>
+        <v>714</v>
       </c>
       <c r="B443" s="3">
-        <v>1001063237229</v>
+        <v>1001063237150</v>
       </c>
       <c r="C443" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" s="2" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="B444" s="3">
         <v>1001063237150</v>
@@ -7501,18 +7507,18 @@
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" s="2" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B445" s="3">
-        <v>1001063237150</v>
+        <v>1001022467276</v>
       </c>
       <c r="C445" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446" s="2" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="B446" s="3">
         <v>1001022467276</v>
@@ -7523,18 +7529,18 @@
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
-        <v>713</v>
+        <v>488</v>
       </c>
       <c r="B447" s="3">
-        <v>1001022467276</v>
+        <v>1001022556837</v>
       </c>
       <c r="C447" t="s">
-        <v>711</v>
+        <v>489</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" s="2" t="s">
-        <v>488</v>
+        <v>735</v>
       </c>
       <c r="B448" s="3">
         <v>1001022556837</v>
@@ -7545,29 +7551,29 @@
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="B449" s="3">
+        <v>716</v>
+      </c>
+      <c r="B449" s="5">
         <v>1001022556837</v>
       </c>
-      <c r="C449" t="s">
+      <c r="C449" s="6" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" s="2" t="s">
-        <v>716</v>
-      </c>
-      <c r="B450" s="5">
-        <v>1001022556837</v>
-      </c>
-      <c r="C450" s="6" t="s">
-        <v>489</v>
+        <v>183</v>
+      </c>
+      <c r="B450" s="3">
+        <v>1001205376221</v>
+      </c>
+      <c r="C450" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" s="2" t="s">
-        <v>183</v>
+        <v>733</v>
       </c>
       <c r="B451" s="3">
         <v>1001205376221</v>
@@ -7578,40 +7584,40 @@
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" s="2" t="s">
-        <v>733</v>
-      </c>
-      <c r="B452" s="3">
+        <v>717</v>
+      </c>
+      <c r="B452" s="5">
         <v>1001205376221</v>
       </c>
-      <c r="C452" t="s">
+      <c r="C452" s="6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" s="2" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B453" s="5">
-        <v>1001205376221</v>
+        <v>1001014765992</v>
       </c>
       <c r="C453" s="6" t="s">
-        <v>181</v>
+        <v>303</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" s="2" t="s">
-        <v>718</v>
-      </c>
-      <c r="B454" s="5">
-        <v>1001014765992</v>
-      </c>
-      <c r="C454" s="6" t="s">
-        <v>303</v>
+        <v>497</v>
+      </c>
+      <c r="B454" s="3">
+        <v>1001214196459</v>
+      </c>
+      <c r="C454" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" s="2" t="s">
-        <v>497</v>
+        <v>730</v>
       </c>
       <c r="B455" s="3">
         <v>1001214196459</v>
@@ -7622,40 +7628,40 @@
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" s="2" t="s">
-        <v>730</v>
-      </c>
-      <c r="B456" s="3">
+        <v>719</v>
+      </c>
+      <c r="B456" s="5">
         <v>1001214196459</v>
       </c>
-      <c r="C456" t="s">
+      <c r="C456" s="6" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457" s="2" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B457" s="5">
-        <v>1001214196459</v>
+        <v>1001010106325</v>
       </c>
       <c r="C457" s="6" t="s">
-        <v>498</v>
+        <v>53</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" s="2" t="s">
-        <v>720</v>
+        <v>731</v>
       </c>
       <c r="B458" s="5">
-        <v>1001010106325</v>
+        <v>1001013957231</v>
       </c>
       <c r="C458" s="6" t="s">
-        <v>53</v>
+        <v>727</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459" s="2" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="B459" s="5">
         <v>1001013957231</v>
@@ -7666,40 +7672,40 @@
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460" s="2" t="s">
-        <v>721</v>
-      </c>
-      <c r="B460" s="5">
-        <v>1001013957231</v>
-      </c>
-      <c r="C460" s="6" t="s">
-        <v>727</v>
+        <v>48</v>
+      </c>
+      <c r="B460" s="3">
+        <v>1001220286279</v>
+      </c>
+      <c r="C460" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" s="2" t="s">
-        <v>722</v>
-      </c>
-      <c r="B461" s="5">
+        <v>737</v>
+      </c>
+      <c r="B461" s="3">
         <v>1001220286279</v>
       </c>
-      <c r="C461" s="6" t="s">
+      <c r="C461" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462" s="2" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="B462" s="5">
-        <v>1001223297092</v>
+        <v>1001220286279</v>
       </c>
       <c r="C462" s="6" t="s">
-        <v>728</v>
+        <v>49</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463" s="2" t="s">
-        <v>723</v>
+        <v>732</v>
       </c>
       <c r="B463" s="5">
         <v>1001223297092</v>
@@ -7710,18 +7716,18 @@
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="B464" s="3">
-        <v>1001020836724</v>
-      </c>
-      <c r="C464" t="s">
-        <v>584</v>
+        <v>723</v>
+      </c>
+      <c r="B464" s="5">
+        <v>1001223297092</v>
+      </c>
+      <c r="C464" s="6" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465" s="2" t="s">
-        <v>734</v>
+        <v>583</v>
       </c>
       <c r="B465" s="3">
         <v>1001020836724</v>
@@ -7732,39 +7738,61 @@
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466" s="2" t="s">
-        <v>724</v>
-      </c>
-      <c r="B466" s="5">
+        <v>734</v>
+      </c>
+      <c r="B466" s="3">
         <v>1001020836724</v>
       </c>
-      <c r="C466" s="6" t="s">
+      <c r="C466" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B467" s="5">
-        <v>1001062475707</v>
+        <v>1001020836724</v>
       </c>
       <c r="C467" s="6" t="s">
-        <v>729</v>
+        <v>584</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="B468" s="5">
+        <v>1001062475707</v>
+      </c>
+      <c r="C468" s="6" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A469" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="B469" s="5">
+        <v>1001062475707</v>
+      </c>
+      <c r="C469" s="6" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A470" s="2" t="s">
         <v>726</v>
       </c>
-      <c r="B468" s="5">
+      <c r="B470" s="5">
         <v>1001033856609</v>
       </c>
-      <c r="C468" s="6" t="s">
+      <c r="C470" s="6" t="s">
         <v>232</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C468" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
+  <autoFilter ref="A1:C470" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/в бланки заводов/Останкино КИ/ostankino_ki/NV/moduls/1С.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/NV/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\NV\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9484843-296C-4604-AE22-9CFA5DEFFC17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBC8189-7874-49D9-9951-480C7262590E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,9 +16,9 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$470</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$471</definedName>
   </definedNames>
-  <calcPr calcId="181029" refMode="R1C1"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="740">
   <si>
     <t>1С</t>
   </si>
@@ -2248,6 +2248,12 @@
   </si>
   <si>
     <t>6279 КОРЕЙКА ПО-ОСТ.к/в в/с с/н в/у 1/150_45с  Останкино</t>
+  </si>
+  <si>
+    <t>7284 ДЛЯ ДЕТЕЙ сос п/о мгс 0,33кг 6шт  Останкино</t>
+  </si>
+  <si>
+    <t>ДЛЯ ДЕТЕЙ сос п/о мгс 0,33кг 6шт</t>
   </si>
 </sst>
 </file>
@@ -2603,11 +2609,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F470"/>
+  <dimension ref="A1:F471"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7791,8 +7797,19 @@
         <v>232</v>
       </c>
     </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A471" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="B471" s="3">
+        <v>1001025767284</v>
+      </c>
+      <c r="C471" s="6" t="s">
+        <v>739</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C470" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
+  <autoFilter ref="A1:C471" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/в бланки заводов/Останкино КИ/ostankino_ki/NV/moduls/1С.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/NV/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\NV\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBC8189-7874-49D9-9951-480C7262590E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584589E6-69F9-40C3-A8D4-B4DD6503E177}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="753">
   <si>
     <t>1С</t>
   </si>
@@ -2254,6 +2254,45 @@
   </si>
   <si>
     <t>ДЛЯ ДЕТЕЙ сос п/о мгс 0,33кг 6шт</t>
+  </si>
+  <si>
+    <t>БОЯРСКАЯ ПМ п/к в/у 0.28кг_СНГ (7332)</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ ОХОТНИЧИЙ ПМ в/к в/у 0.28кг_СНГ (7333)</t>
+  </si>
+  <si>
+    <t>ГОВЯЖЬЯ Папа может вар п/о (6220)</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ ЗЕРНИСТЫЙ ПМ в/к в/у_50с (7157)</t>
+  </si>
+  <si>
+    <t>ДЫМОВИЦА ИЗ ЛОПАТКИ ПМ к/в с/н в/у 1/150 (6208)</t>
+  </si>
+  <si>
+    <t>БУРГУНДИЯ Папа может с/к в/у 1/250 8шт. (6967)</t>
+  </si>
+  <si>
+    <t>БОЯРСКАЯ ПМ п/к в/у 0.28кг_СНГ</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ ОХОТНИЧИЙ ПМ в/к в/у 0.28кг_СНГ</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ ЗЕРНИСТЫЙ ПМ в/к в/у_50с</t>
+  </si>
+  <si>
+    <t>ДЫМОВИЦА ИЗ ЛОПАТКИ ПМ к/в с/н в/у 1/150</t>
+  </si>
+  <si>
+    <t>БУРГУНДИЯ Папа может с/к в/у 1/250 8шт.</t>
+  </si>
+  <si>
+    <t>6208 ДЫМОВИЦА ИЗ ЛОПАТКИ ПМ к/в с/н в/у 1/150  Останкино</t>
+  </si>
+  <si>
+    <t>6967 БУРГУНДИЯ Папа может с/к в/у 1/250 8шт  Останкино</t>
   </si>
 </sst>
 </file>
@@ -2317,7 +2356,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2327,6 +2366,7 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Arial10px" xfId="2" xr:uid="{C0A75BEE-14F2-4260-AF17-AC512850AE79}"/>
@@ -2609,11 +2649,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F471"/>
+  <dimension ref="A1:F479"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7808,6 +7848,94 @@
         <v>739</v>
       </c>
     </row>
+    <row r="472" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A472" s="7" t="s">
+        <v>740</v>
+      </c>
+      <c r="B472" s="5">
+        <v>1001301777332</v>
+      </c>
+      <c r="C472" s="6" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A473" s="7" t="s">
+        <v>741</v>
+      </c>
+      <c r="B473" s="5">
+        <v>1001303987333</v>
+      </c>
+      <c r="C473" s="6" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A474" s="7" t="s">
+        <v>742</v>
+      </c>
+      <c r="B474" s="5">
+        <v>1001012426220</v>
+      </c>
+      <c r="C474" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A475" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="B475" s="5">
+        <v>1001300387157</v>
+      </c>
+      <c r="C475" s="6" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A476" s="7" t="s">
+        <v>744</v>
+      </c>
+      <c r="B476" s="5">
+        <v>1001220226208</v>
+      </c>
+      <c r="C476" s="6" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A477" s="7" t="s">
+        <v>751</v>
+      </c>
+      <c r="B477" s="5">
+        <v>1001220226208</v>
+      </c>
+      <c r="C477" s="6" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A478" s="7" t="s">
+        <v>745</v>
+      </c>
+      <c r="B478" s="5">
+        <v>1001063656967</v>
+      </c>
+      <c r="C478" s="6" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A479" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="B479" s="5">
+        <v>1001063656967</v>
+      </c>
+      <c r="C479" s="6" t="s">
+        <v>750</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C471" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/в бланки заводов/Останкино КИ/ostankino_ki/NV/moduls/1С.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/NV/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\NV\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584589E6-69F9-40C3-A8D4-B4DD6503E177}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C3B279-CEC0-4FCE-9562-8A0F74E533DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$471</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$480</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="754">
   <si>
     <t>1С</t>
   </si>
@@ -2293,6 +2293,9 @@
   </si>
   <si>
     <t>6967 БУРГУНДИЯ Папа может с/к в/у 1/250 8шт  Останкино</t>
+  </si>
+  <si>
+    <t>7157 СЕРВЕЛАТ ЗЕРНИСТЫЙ ПМ в/к в/у_50с  Останкино</t>
   </si>
 </sst>
 </file>
@@ -2649,11 +2652,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F479"/>
+  <dimension ref="A1:F480"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7883,7 +7886,7 @@
     </row>
     <row r="475" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A475" s="7" t="s">
-        <v>743</v>
+        <v>753</v>
       </c>
       <c r="B475" s="5">
         <v>1001300387157</v>
@@ -7894,18 +7897,18 @@
     </row>
     <row r="476" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A476" s="7" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B476" s="5">
-        <v>1001220226208</v>
+        <v>1001300387157</v>
       </c>
       <c r="C476" s="6" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="477" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A477" s="7" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="B477" s="5">
         <v>1001220226208</v>
@@ -7916,18 +7919,18 @@
     </row>
     <row r="478" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A478" s="7" t="s">
+        <v>751</v>
+      </c>
+      <c r="B478" s="5">
+        <v>1001220226208</v>
+      </c>
+      <c r="C478" s="6" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A479" s="7" t="s">
         <v>745</v>
-      </c>
-      <c r="B478" s="5">
-        <v>1001063656967</v>
-      </c>
-      <c r="C478" s="6" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A479" s="2" t="s">
-        <v>752</v>
       </c>
       <c r="B479" s="5">
         <v>1001063656967</v>
@@ -7936,8 +7939,19 @@
         <v>750</v>
       </c>
     </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A480" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="B480" s="5">
+        <v>1001063656967</v>
+      </c>
+      <c r="C480" s="6" t="s">
+        <v>750</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C471" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
+  <autoFilter ref="A1:C480" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/в бланки заводов/Останкино КИ/ostankino_ki/NV/moduls/1С.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/NV/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\NV\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C3B279-CEC0-4FCE-9562-8A0F74E533DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F160ED-64D1-4167-8B34-D89C0FA6421C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$480</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$482</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="754">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="756">
   <si>
     <t>1С</t>
   </si>
@@ -2296,6 +2296,12 @@
   </si>
   <si>
     <t>7157 СЕРВЕЛАТ ЗЕРНИСТЫЙ ПМ в/к в/у_50с  Останкино</t>
+  </si>
+  <si>
+    <t>7332 БОЯРСКАЯ ПМ п/к в/у 0,28кг ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>7333 СЕРВЕЛАТ ОХОТНИЧИЙ ПМ в/к в/у 0,28кг ОСТАНКИНО</t>
   </si>
 </sst>
 </file>
@@ -2652,11 +2658,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F480"/>
+  <dimension ref="A1:F482"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7864,94 +7870,116 @@
     </row>
     <row r="473" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A473" s="7" t="s">
-        <v>741</v>
+        <v>754</v>
       </c>
       <c r="B473" s="5">
-        <v>1001303987333</v>
+        <v>1001301777332</v>
       </c>
       <c r="C473" s="6" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="474" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A474" s="7" t="s">
-        <v>742</v>
+        <v>755</v>
       </c>
       <c r="B474" s="5">
-        <v>1001012426220</v>
+        <v>1001303987333</v>
       </c>
       <c r="C474" s="6" t="s">
-        <v>195</v>
+        <v>747</v>
       </c>
     </row>
     <row r="475" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A475" s="7" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="B475" s="5">
-        <v>1001300387157</v>
+        <v>1001303987333</v>
       </c>
       <c r="C475" s="6" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="476" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A476" s="7" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B476" s="5">
-        <v>1001300387157</v>
+        <v>1001012426220</v>
       </c>
       <c r="C476" s="6" t="s">
-        <v>748</v>
+        <v>195</v>
       </c>
     </row>
     <row r="477" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A477" s="7" t="s">
-        <v>744</v>
+        <v>753</v>
       </c>
       <c r="B477" s="5">
-        <v>1001220226208</v>
+        <v>1001300387157</v>
       </c>
       <c r="C477" s="6" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="478" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A478" s="7" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="B478" s="5">
-        <v>1001220226208</v>
+        <v>1001300387157</v>
       </c>
       <c r="C478" s="6" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="479" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A479" s="7" t="s">
+        <v>744</v>
+      </c>
+      <c r="B479" s="5">
+        <v>1001220226208</v>
+      </c>
+      <c r="C479" s="6" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A480" s="7" t="s">
+        <v>751</v>
+      </c>
+      <c r="B480" s="5">
+        <v>1001220226208</v>
+      </c>
+      <c r="C480" s="6" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A481" s="7" t="s">
         <v>745</v>
       </c>
-      <c r="B479" s="5">
+      <c r="B481" s="5">
         <v>1001063656967</v>
       </c>
-      <c r="C479" s="6" t="s">
+      <c r="C481" s="6" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A480" s="2" t="s">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A482" s="2" t="s">
         <v>752</v>
       </c>
-      <c r="B480" s="5">
+      <c r="B482" s="5">
         <v>1001063656967</v>
       </c>
-      <c r="C480" s="6" t="s">
+      <c r="C482" s="6" t="s">
         <v>750</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C480" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
+  <autoFilter ref="A1:C482" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/в бланки заводов/Останкино КИ/ostankino_ki/NV/moduls/1С.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/NV/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\NV\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F160ED-64D1-4167-8B34-D89C0FA6421C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0887A42C-60A1-4AAA-B00D-0E7A9CB491BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="756">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="756">
   <si>
     <t>1С</t>
   </si>
@@ -141,9 +141,6 @@
     <t>5706 АРОМАТНАЯ Папа может с/к в/у 1/250 8шт.  ОСТАНКИНО</t>
   </si>
   <si>
-    <t>АРОМАТНАЯ Папа может с/к в/у 1/250 8шт.</t>
-  </si>
-  <si>
     <t>5708 ПОСОЛЬСКАЯ Папа может с/к в/у ОСТАНКИНО</t>
   </si>
   <si>
@@ -915,9 +912,6 @@
     <t>ПОСОЛЬСКАЯ с/к с/н в/у 1/100 10шт. (6555)</t>
   </si>
   <si>
-    <t>ВРЕМЯ ОКРОШКИ Папа может вар п/о 0,4кг</t>
-  </si>
-  <si>
     <t>5992ВРЕМЯ ОКРОШКИ Папа может вар п/о 0.4кг</t>
   </si>
   <si>
@@ -945,9 +939,6 @@
     <t>ИЗ ОТБОРНОГО МЯСА ПМ сос п/о мгс 0,36кг</t>
   </si>
   <si>
-    <t>ВРЕМЯ ОКРОШКИ Папа может вар п/о 0.4кг</t>
-  </si>
-  <si>
     <t>5992 ВРЕМЯ ОКРОШКИ Папа может вар п/о 0.4кг   ОСТАНКИНО</t>
   </si>
   <si>
@@ -1851,9 +1842,6 @@
     <t>7077 МЯСНЫЕ С ГОВЯД.ПМ сос п/о мгс 0.4кг_50с</t>
   </si>
   <si>
-    <t>МЯСНЫЕ С ГОВЯД.ПМ сос п/о мгс 0.4кг_50с</t>
-  </si>
-  <si>
     <t>7075 МОЛОЧ.ПРЕМИУМ ПМ сос п/о мгс 1.5*4_О_50с</t>
   </si>
   <si>
@@ -2302,6 +2290,18 @@
   </si>
   <si>
     <t>7333 СЕРВЕЛАТ ОХОТНИЧИЙ ПМ в/к в/у 0,28кг ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>АРОМАТНАЯ с/к в/у 1/250 8шт.</t>
+  </si>
+  <si>
+    <t>ротация 04,11,25</t>
+  </si>
+  <si>
+    <t>СЕЙЧАС СЕЗОН ПМ вар п/о 0.4кг</t>
+  </si>
+  <si>
+    <t>МЯСНЫЕ С ГОВЯД.ПМ сос п/о мгс 0.4кг 6шт.</t>
   </si>
 </sst>
 </file>
@@ -2662,7 +2662,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2754,68 +2754,68 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B8" s="3">
         <v>1001095716865</v>
       </c>
       <c r="C8" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B9" s="3">
         <v>1001095716866</v>
       </c>
       <c r="C9" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B10" s="3">
         <v>1001095716866</v>
       </c>
       <c r="C10" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B11" s="3">
         <v>1001095716866</v>
       </c>
       <c r="C11" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B12" s="3">
         <v>1001095716866</v>
       </c>
       <c r="C12" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B13" s="3">
         <v>1001095716866</v>
       </c>
       <c r="C13" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -2826,12 +2826,12 @@
         <v>1001095716865</v>
       </c>
       <c r="C14" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B15" s="3">
         <v>1001092446756</v>
@@ -2851,7 +2851,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
@@ -2862,7 +2862,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
@@ -2873,7 +2873,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
@@ -2884,7 +2884,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
@@ -2892,32 +2892,32 @@
         <v>1001015646861</v>
       </c>
       <c r="C20" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B21" s="3">
         <v>1001015706862</v>
       </c>
       <c r="C21" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B22" s="3">
         <v>1001015706862</v>
       </c>
       <c r="C22" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>26</v>
       </c>
@@ -2925,32 +2925,32 @@
         <v>1001015706862</v>
       </c>
       <c r="C23" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="B24" s="3">
         <v>1001303987166</v>
       </c>
       <c r="C24" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B25" s="3">
         <v>1001303987166</v>
       </c>
       <c r="C25" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>28</v>
       </c>
@@ -2961,7 +2961,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>30</v>
       </c>
@@ -2972,7 +2972,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>32</v>
       </c>
@@ -2983,1352 +2983,1355 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B29" s="3">
-        <v>1001061975706</v>
+        <v>1001061973986</v>
       </c>
       <c r="C29" t="s">
+        <v>752</v>
+      </c>
+      <c r="E29" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="B30" s="3">
         <v>1001063145708</v>
       </c>
       <c r="C30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="B31" s="3">
         <v>1001022465820</v>
       </c>
       <c r="C31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="B32" s="3">
         <v>1001012505851</v>
       </c>
       <c r="C32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B33" s="3">
         <v>1001060755931</v>
       </c>
       <c r="C33" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B34" s="3">
         <v>1001060755931</v>
       </c>
       <c r="C34" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B35" s="3">
         <v>1001012815997</v>
       </c>
       <c r="C35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B36" s="3">
         <v>1001024906042</v>
       </c>
       <c r="C36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B37" s="3">
         <v>1001024976829</v>
       </c>
       <c r="C37" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B38" s="3">
         <v>1001084216206</v>
       </c>
       <c r="C38" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B39" s="3">
         <v>1001084216206</v>
       </c>
       <c r="C39" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="B40" s="3">
         <v>1001022557257</v>
       </c>
       <c r="C40" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="B41" s="3">
         <v>1001022557257</v>
       </c>
       <c r="C41" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B42" s="3">
         <v>1001022557257</v>
       </c>
       <c r="C42" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B43" s="3">
         <v>1001022556069</v>
       </c>
       <c r="C43" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F43" s="3"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B44" s="3">
         <v>1001010106325</v>
       </c>
       <c r="C44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B45" s="3">
         <v>1001012486333</v>
       </c>
       <c r="C45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B46" s="3">
         <v>1001012506353</v>
       </c>
       <c r="C46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B47" s="3">
         <v>1001304507236</v>
       </c>
       <c r="C47" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B48" s="3">
         <v>1001304507236</v>
       </c>
       <c r="C48" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="B49" s="3">
         <v>1001304507236</v>
       </c>
       <c r="C49" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B50" s="3">
         <v>1001303056692</v>
       </c>
       <c r="C50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="B51" s="3">
         <v>1001303637149</v>
       </c>
       <c r="C51" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B52" s="3">
         <v>1001303637149</v>
       </c>
       <c r="C52" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B53" s="3">
         <v>1001013956426</v>
       </c>
       <c r="C53" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B54" s="3">
         <v>1001024636438</v>
       </c>
       <c r="C54" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B55" s="3">
         <v>1001234146448</v>
       </c>
       <c r="C55" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B56" s="3">
         <v>1001202506453</v>
       </c>
       <c r="C56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57" s="3">
         <v>1001202506453</v>
       </c>
       <c r="C57" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B58" s="3">
         <v>1001201976454</v>
       </c>
       <c r="C58" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B59" s="3">
         <v>1001025176475</v>
       </c>
       <c r="C59" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B60" s="3">
         <v>1001301876697</v>
       </c>
       <c r="C60" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B61" s="3">
         <v>1001024636517</v>
       </c>
       <c r="C61" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B62" s="3">
         <v>1001031076527</v>
       </c>
       <c r="C62" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B63" s="3">
         <v>1001304506562</v>
       </c>
       <c r="C63" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B64" s="3">
         <v>1001020846563</v>
       </c>
       <c r="C64" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B65" s="3">
         <v>1001020836589</v>
       </c>
       <c r="C65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B66" s="3">
         <v>6751</v>
       </c>
       <c r="C66" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B67" s="3">
         <v>1001010016592</v>
       </c>
       <c r="C67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B68" s="3">
         <v>1001010026594</v>
       </c>
       <c r="C68" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B69" s="3">
         <v>1001022296601</v>
       </c>
       <c r="C69" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B70" s="3">
         <v>1001031896648</v>
       </c>
       <c r="C70" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B71" s="3">
         <v>1001035266650</v>
       </c>
       <c r="C71" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B72" s="3">
         <v>1001305256658</v>
       </c>
       <c r="C72" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B73" s="3">
         <v>1001010016593</v>
       </c>
       <c r="C73" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B74" s="3">
         <v>1001010026595</v>
       </c>
       <c r="C74" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B75" s="3">
         <v>1001010036597</v>
       </c>
       <c r="C75" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B76" s="3">
         <v>1001020886646</v>
       </c>
       <c r="C76" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B77" s="3">
         <v>1001305306566</v>
       </c>
       <c r="C77" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B78" s="3">
         <v>1001305306566</v>
       </c>
       <c r="C78" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="B79" s="3">
         <v>1001300387154</v>
       </c>
       <c r="C79" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="B80" s="3">
         <v>1001300387154</v>
       </c>
       <c r="C80" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="B81" s="3">
         <v>1001303987169</v>
       </c>
       <c r="C81" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B82" s="3">
         <v>1001303987169</v>
       </c>
       <c r="C82" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B83" s="3">
         <v>1001303106773</v>
       </c>
       <c r="C83" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B84" s="4">
         <v>1001303106773</v>
       </c>
       <c r="C84" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B85" s="4">
         <v>1001303106773</v>
       </c>
       <c r="C85" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B86" s="3">
         <v>1001303106773</v>
       </c>
       <c r="C86" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B87" s="3">
         <v>1001303106773</v>
       </c>
       <c r="C87" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B88" s="3">
         <v>1001303106773</v>
       </c>
       <c r="C88" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B89" s="3">
         <v>1001303106773</v>
       </c>
       <c r="C89" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B90" s="3">
         <v>1001012566392</v>
       </c>
       <c r="C90" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B91" s="3">
         <v>1001012566392</v>
       </c>
       <c r="C91" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B92" s="3">
         <v>1001012566392</v>
       </c>
       <c r="C92" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="B93" s="3">
         <v>1001302277173</v>
       </c>
       <c r="C93" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="B94" s="3">
         <v>1001302277173</v>
       </c>
       <c r="C94" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="B95" s="3">
         <v>1001012426268</v>
       </c>
       <c r="C95" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B96" s="3">
         <v>1001012426268</v>
       </c>
       <c r="C96" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B97" s="3">
         <v>1001024906041</v>
       </c>
       <c r="C97" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B98" s="3">
         <v>1001011086247</v>
       </c>
       <c r="C98" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B99" s="3">
         <v>1001014486158</v>
       </c>
       <c r="C99" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B100" s="3">
         <v>1001015356259</v>
       </c>
       <c r="C100" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B101" s="3">
         <v>1001012816716</v>
       </c>
       <c r="C101" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B102" s="3">
         <v>1001020966227</v>
       </c>
       <c r="C102" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B103" s="3">
         <v>1001020966227</v>
       </c>
       <c r="C103" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B104" s="3">
         <v>1001022726303</v>
       </c>
       <c r="C104" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B105" s="3">
         <v>1001022726303</v>
       </c>
       <c r="C105" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B106" s="3">
         <v>1001022726303</v>
       </c>
       <c r="C106" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B107" s="3">
         <v>1001022726303</v>
       </c>
       <c r="C107" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B108" s="3">
         <v>1001022466726</v>
       </c>
       <c r="C108" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B109" s="3">
         <v>1001020966144</v>
       </c>
       <c r="C109" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B110" s="3">
         <v>1001022376722</v>
       </c>
       <c r="C110" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B111" s="3">
         <v>1001022376955</v>
       </c>
       <c r="C111" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B112" s="3">
         <v>1001022376955</v>
       </c>
       <c r="C112" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B113" s="3">
         <v>1001022376955</v>
       </c>
       <c r="C113" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B114" s="3">
         <v>1001022246661</v>
       </c>
       <c r="C114" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B115" s="3">
         <v>1001022246661</v>
       </c>
       <c r="C115" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B116" s="3">
         <v>1001022246661</v>
       </c>
       <c r="C116" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B117" s="3">
         <v>1001022246713</v>
       </c>
       <c r="C117" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B118" s="3">
         <v>1001025166241</v>
       </c>
       <c r="C118" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B119" s="3">
         <v>6606</v>
       </c>
       <c r="C119" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B120" s="3">
         <v>1001035326217</v>
       </c>
       <c r="C120" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B121" s="3">
         <v>1001303636301</v>
       </c>
       <c r="C121" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B122" s="3">
         <v>1001303636302</v>
       </c>
       <c r="C122" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B123" s="3">
         <v>1001305196215</v>
       </c>
       <c r="C123" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B124" s="3">
         <v>1001301876212</v>
       </c>
       <c r="C124" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B125" s="3">
         <v>1001301876213</v>
       </c>
       <c r="C125" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B126" s="3">
         <v>1001303636302</v>
       </c>
       <c r="C126" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B127" s="3">
         <v>6645</v>
       </c>
       <c r="C127" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B128" s="3">
         <v>1001225416228</v>
       </c>
       <c r="C128" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B129" s="3">
         <v>6225</v>
       </c>
       <c r="C129" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B130" s="3">
         <v>1001022376722</v>
       </c>
       <c r="C130" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B131" s="3">
         <v>1001022376722</v>
       </c>
       <c r="C131" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B132" s="3">
         <v>3297</v>
       </c>
       <c r="C132" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B133" s="3">
         <v>1001022466726</v>
       </c>
       <c r="C133" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B134" s="3">
         <v>1001022466726</v>
       </c>
       <c r="C134" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B135" s="3">
         <v>1001022466726</v>
       </c>
       <c r="C135" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B136" s="3">
         <v>1001021966602</v>
       </c>
       <c r="C136" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B137" s="3">
         <v>6233</v>
       </c>
       <c r="C137" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B138" s="3">
         <v>1001012816341</v>
       </c>
       <c r="C138" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B139" s="3">
         <v>1001012816341</v>
       </c>
       <c r="C139" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B140" s="3">
         <v>1001012816341</v>
       </c>
       <c r="C140" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B141" s="3">
         <v>1001012816341</v>
       </c>
       <c r="C141" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B142" s="3">
         <v>6750</v>
       </c>
       <c r="C142" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B143" s="3">
         <v>6751</v>
       </c>
       <c r="C143" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B144" s="3">
         <v>5982</v>
       </c>
       <c r="C144" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B145" s="3">
         <v>1001022656854</v>
       </c>
       <c r="C145" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B146" s="3">
         <v>1001022656854</v>
       </c>
       <c r="C146" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B147" s="3">
         <v>1001022656854</v>
       </c>
       <c r="C147" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B148" s="3">
         <v>1001022656854</v>
       </c>
       <c r="C148" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B149" s="3">
         <v>1001094966025</v>
       </c>
       <c r="C149" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B150" s="3">
         <v>6025</v>
       </c>
       <c r="C150" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B151" s="3">
         <v>1001022373812</v>
@@ -4339,227 +4342,227 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B152" s="3">
         <v>1001100606827</v>
       </c>
       <c r="C152" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B153" s="3">
         <v>1001100606827</v>
       </c>
       <c r="C153" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B154" s="3">
         <v>1001100616826</v>
       </c>
       <c r="C154" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B155" s="3">
         <v>1001100616826</v>
       </c>
       <c r="C155" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B156" s="3">
         <v>1001100626828</v>
       </c>
       <c r="C156" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B157" s="3">
         <v>1001100626828</v>
       </c>
       <c r="C157" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B158" s="3">
         <v>1001035026308</v>
       </c>
       <c r="C158" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B159" s="3">
         <v>1001014486159</v>
       </c>
       <c r="C159" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B160" s="3">
         <v>1001014486159</v>
       </c>
       <c r="C160" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B161" s="3">
         <v>1001035326217</v>
       </c>
       <c r="C161" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B162" s="3">
         <v>1001012426220</v>
       </c>
       <c r="C162" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B163" s="3">
         <v>1001012426220</v>
       </c>
       <c r="C163" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B164" s="3">
         <v>1001022466236</v>
       </c>
       <c r="C164" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B165" s="3">
         <v>1001021966602</v>
       </c>
       <c r="C165" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B166" s="3">
         <v>1001022296656</v>
       </c>
       <c r="C166" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B167" s="3">
         <v>1001301876697</v>
       </c>
       <c r="C167" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B168" s="3">
         <v>1001022246713</v>
       </c>
       <c r="C168" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B169" s="3">
         <v>1001022376722</v>
       </c>
       <c r="C169" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B170" s="3">
         <v>1001020846751</v>
       </c>
       <c r="C170" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B171" s="3">
         <v>1001022725819</v>
       </c>
       <c r="C171" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B172" s="3">
         <v>1001012825337</v>
@@ -4570,7 +4573,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B173" s="3">
         <v>1001012815336</v>
@@ -4581,271 +4584,271 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B174" s="3">
         <v>1001234146448</v>
       </c>
       <c r="C174" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B175" s="3">
         <v>1001022725819</v>
       </c>
       <c r="C175" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B176" s="3">
         <v>1001092676027</v>
       </c>
       <c r="C176" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B177" s="3">
         <v>1001301876213</v>
       </c>
       <c r="C177" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B178" s="3">
         <v>1001035026308</v>
       </c>
       <c r="C178" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B179" s="3">
         <v>1001234146448</v>
       </c>
       <c r="C179" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B180" s="3">
         <v>1001201976454</v>
       </c>
       <c r="C180" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B181" s="3">
         <v>1001025176475</v>
       </c>
       <c r="C181" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B182" s="3">
         <v>1001012456498</v>
       </c>
       <c r="C182" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B183" s="3">
         <v>1001010036596</v>
       </c>
       <c r="C183" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B184" s="3">
         <v>1001033856608</v>
       </c>
       <c r="C184" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B185" s="3">
         <v>1001033856608</v>
       </c>
       <c r="C185" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B186" s="3">
         <v>1001033856609</v>
       </c>
       <c r="C186" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B187" s="3">
         <v>1001033856609</v>
       </c>
       <c r="C187" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B188" s="3">
         <v>1001093345495</v>
       </c>
       <c r="C188" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B189" s="3">
         <v>6550</v>
       </c>
       <c r="C189" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B190" s="3">
         <v>1001304506684</v>
       </c>
       <c r="C190" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B191" s="3">
         <v>1001010113248</v>
       </c>
       <c r="C191" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B192" s="3">
         <v>1001063926780</v>
       </c>
       <c r="C192" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B193" s="3">
         <v>6586</v>
       </c>
       <c r="C193" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B194" s="3">
         <v>1001303636467</v>
       </c>
       <c r="C194" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B195" s="3">
         <v>1001304496701</v>
       </c>
       <c r="C195" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B196" s="3">
         <v>6144</v>
       </c>
       <c r="C196" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B197" s="3">
         <v>1001022725819</v>
       </c>
       <c r="C197" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B198" s="3">
         <v>1001022373812</v>
@@ -4856,40 +4859,40 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B199" s="3">
         <v>1001024906062</v>
       </c>
       <c r="C199" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B200" s="3">
         <v>1001303056692</v>
       </c>
       <c r="C200" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B201" s="3">
         <v>1001301876697</v>
       </c>
       <c r="C201" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B202" s="3">
         <v>1001012634574</v>
@@ -4900,304 +4903,310 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B203" s="3">
         <v>1001092485452</v>
       </c>
       <c r="C203" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B204" s="3">
         <v>1001020966144</v>
       </c>
       <c r="C204" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B205" s="3">
         <v>6586</v>
       </c>
       <c r="C205" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B206" s="3">
         <v>1001304496701</v>
       </c>
       <c r="C206" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B207" s="3">
         <v>1001063655015</v>
       </c>
       <c r="C207" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B208" s="3">
         <v>1001060763287</v>
       </c>
       <c r="C208" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
         <v>271</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209" s="2" t="s">
-        <v>272</v>
       </c>
       <c r="B209" s="3">
         <v>1001225416228</v>
       </c>
       <c r="C209" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B210" s="3">
         <v>1001032736550</v>
       </c>
       <c r="C210" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B211" s="3">
         <v>6758</v>
       </c>
       <c r="C211" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" s="2" t="s">
         <v>275</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A212" s="2" t="s">
-        <v>276</v>
       </c>
       <c r="B212" s="3">
         <v>1001020965976</v>
       </c>
       <c r="C212" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" s="2" t="s">
         <v>277</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A213" s="2" t="s">
-        <v>278</v>
       </c>
       <c r="B213" s="3">
         <v>1001215576586</v>
       </c>
       <c r="C213" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B214" s="3">
         <v>1001094896026</v>
       </c>
       <c r="C214" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B215" s="3">
         <v>1001215576586</v>
       </c>
       <c r="C215" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B216" s="3">
         <v>1001215576586</v>
       </c>
       <c r="C216" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B217" s="3">
         <v>1001092436470</v>
       </c>
       <c r="C217" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B218" s="3">
         <v>1001203146555</v>
       </c>
       <c r="C218" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B219" s="3">
-        <v>1001014765992</v>
+        <v>1001016747343</v>
       </c>
       <c r="C219" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+        <v>754</v>
+      </c>
+      <c r="E219" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B220" s="3">
+        <v>1001016747343</v>
+      </c>
+      <c r="C220" t="s">
+        <v>754</v>
+      </c>
+      <c r="E220" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" s="2" t="s">
         <v>294</v>
-      </c>
-      <c r="B220" s="3">
-        <v>1001014765992</v>
-      </c>
-      <c r="C220" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A221" s="2" t="s">
-        <v>296</v>
       </c>
       <c r="B221" s="3">
         <v>1001014765993</v>
       </c>
       <c r="C221" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" s="2" t="s">
         <v>295</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A222" s="2" t="s">
-        <v>297</v>
       </c>
       <c r="B222" s="3">
         <v>1001025166776</v>
       </c>
       <c r="C222" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B223" s="3">
         <v>1001025506777</v>
       </c>
       <c r="C223" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B224" s="3">
         <v>1001025546822</v>
       </c>
       <c r="C224" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B225" s="3">
         <v>1001025546822</v>
       </c>
       <c r="C225" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B226" s="3">
         <v>1001025546822</v>
       </c>
       <c r="C226" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B227" s="3">
         <v>1001025546822</v>
       </c>
       <c r="C227" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="B228" s="3">
         <v>1001024976616</v>
       </c>
       <c r="C228" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B229" s="3">
         <v>1001024976616</v>
       </c>
       <c r="C229" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B230" s="3">
         <v>1001010855247</v>
@@ -5208,2774 +5217,2780 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B231" s="3">
         <v>1001223296919</v>
       </c>
       <c r="C231" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B232" s="3">
         <v>1001223296919</v>
       </c>
       <c r="C232" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B233" s="3">
         <v>1001223296919</v>
       </c>
       <c r="C233" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B234" s="3">
         <v>1001223296919</v>
       </c>
       <c r="C234" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B235" s="3">
         <v>1001223296919</v>
       </c>
       <c r="C235" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B236" s="3">
         <v>1001223296919</v>
       </c>
       <c r="C236" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B237" s="3">
         <v>1001014765993</v>
       </c>
       <c r="C237" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B238" s="3">
         <v>1001025166776</v>
       </c>
       <c r="C238" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B239" s="3">
         <v>1001025506777</v>
       </c>
       <c r="C239" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B240" s="3">
         <v>1001025526778</v>
       </c>
       <c r="C240" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B241" s="3">
         <v>1001304236685</v>
       </c>
       <c r="C241" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B242" s="3">
         <v>1001015496769</v>
       </c>
       <c r="C242" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B243" s="3">
         <v>1001015496769</v>
       </c>
       <c r="C243" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B244" s="3">
         <v>1001014766798</v>
       </c>
       <c r="C244" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B245" s="3">
         <v>1001015026797</v>
       </c>
       <c r="C245" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B246" s="3">
         <v>1001205386222</v>
       </c>
       <c r="C246" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B247" s="3">
         <v>1001092675224</v>
       </c>
       <c r="C247" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B248" s="3">
         <v>1001225406223</v>
       </c>
       <c r="C248" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B249" s="3">
         <v>1001300366790</v>
       </c>
       <c r="C249" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B250" s="3">
         <v>1001304096792</v>
       </c>
       <c r="C250" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B251" s="3">
         <v>1001304096792</v>
       </c>
       <c r="C251" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B252" s="3">
         <v>1001303636793</v>
       </c>
       <c r="C252" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B253" s="3">
         <v>1001303636794</v>
       </c>
       <c r="C253" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B254" s="3">
         <v>1001303636794</v>
       </c>
       <c r="C254" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B255" s="3">
         <v>1001303636794</v>
       </c>
       <c r="C255" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B256" s="3">
         <v>1001302596795</v>
       </c>
       <c r="C256" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B257" s="3">
         <v>1001302596796</v>
       </c>
       <c r="C257" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B258" s="3">
         <v>1001300456804</v>
       </c>
       <c r="C258" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B259" s="3">
         <v>1001300366806</v>
       </c>
       <c r="C259" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B260" s="3">
         <v>1001300366806</v>
       </c>
       <c r="C260" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B261" s="3">
         <v>1001300516803</v>
       </c>
       <c r="C261" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B262" s="3">
         <v>1001300366807</v>
       </c>
       <c r="C262" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B263" s="3">
         <v>1001300366807</v>
       </c>
       <c r="C263" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B264" s="3">
         <v>1001300516785</v>
       </c>
       <c r="C264" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B265" s="3">
         <v>1001300456787</v>
       </c>
       <c r="C265" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B266" s="3">
         <v>1001300456787</v>
       </c>
       <c r="C266" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B267" s="3">
         <v>1001300456787</v>
       </c>
       <c r="C267" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B268" s="3">
         <v>1001303636793</v>
       </c>
       <c r="C268" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B269" s="3">
         <v>1001302596795</v>
       </c>
       <c r="C269" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B270" s="3">
         <v>1001012486332</v>
       </c>
       <c r="C270" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B271" s="3">
         <v>1001012566345</v>
       </c>
       <c r="C271" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B272" s="3">
         <v>1001031076528</v>
       </c>
       <c r="C272" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B273" s="3">
         <v>1001020836761</v>
       </c>
       <c r="C273" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B274" s="3">
         <v>1001020836761</v>
       </c>
       <c r="C274" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B275" s="3">
         <v>1001020836761</v>
       </c>
       <c r="C275" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B276" s="3">
         <v>1001020846764</v>
       </c>
       <c r="C276" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B277" s="3">
         <v>1001020846764</v>
       </c>
       <c r="C277" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B278" s="3">
         <v>1001020846764</v>
       </c>
       <c r="C278" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B279" s="3">
         <v>1001300366790</v>
       </c>
       <c r="C279" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B280" s="3">
         <v>1001300366790</v>
       </c>
       <c r="C280" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B281" s="3">
         <v>1001304096791</v>
       </c>
       <c r="C281" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B282" s="3">
         <v>1001304096791</v>
       </c>
       <c r="C282" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B283" s="3">
         <v>1001304096791</v>
       </c>
       <c r="C283" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B284" s="3">
         <v>1001303636793</v>
       </c>
       <c r="C284" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B285" s="3">
         <v>1001302596795</v>
       </c>
       <c r="C285" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B286" s="3">
         <v>1001300516803</v>
       </c>
       <c r="C286" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B287" s="3">
         <v>1001300456804</v>
       </c>
       <c r="C287" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B288" s="3">
         <v>1001300366807</v>
       </c>
       <c r="C288" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B289" s="3">
         <v>1001302596796</v>
       </c>
       <c r="C289" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B290" s="3">
         <v>1001023696765</v>
       </c>
       <c r="C290" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B291" s="3">
         <v>1001023696765</v>
       </c>
       <c r="C291" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B292" s="3">
         <v>1001023696765</v>
       </c>
       <c r="C292" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B293" s="3">
         <v>1001023696767</v>
       </c>
       <c r="C293" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B294" s="3">
         <v>1001023696767</v>
       </c>
       <c r="C294" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B295" s="3">
         <v>1001023696767</v>
       </c>
       <c r="C295" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B296" s="3">
         <v>1001024976829</v>
       </c>
       <c r="C296" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B297" s="3">
         <v>1001024976829</v>
       </c>
       <c r="C297" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B298" s="3">
         <v>1001022376722</v>
       </c>
       <c r="C298" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B299" s="3">
         <v>1001020846762</v>
       </c>
       <c r="C299" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B300" s="3">
         <v>1001020846762</v>
       </c>
       <c r="C300" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B301" s="3">
         <v>1001020846762</v>
       </c>
       <c r="C301" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B302" s="3">
         <v>1001022656853</v>
       </c>
       <c r="C302" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B303" s="3">
         <v>1001022656853</v>
       </c>
       <c r="C303" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B304" s="3">
         <v>1001022656948</v>
       </c>
       <c r="C304" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B305" s="3">
         <v>1001022656948</v>
       </c>
       <c r="C305" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B306" s="3">
         <v>1001022656948</v>
       </c>
       <c r="C306" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B307" s="3">
         <v>1001022656852</v>
       </c>
       <c r="C307" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B308" s="3">
         <v>1001020836759</v>
       </c>
       <c r="C308" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B309" s="3">
         <v>1001020836759</v>
       </c>
       <c r="C309" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B310" s="3">
         <v>1001020836759</v>
       </c>
       <c r="C310" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B311" s="3">
         <v>1001023856870</v>
       </c>
       <c r="C311" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B312" s="3">
         <v>1001013956426</v>
       </c>
       <c r="C312" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B313" s="3">
         <v>1001093345495</v>
       </c>
       <c r="C313" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B314" s="3">
         <v>1001022656868</v>
       </c>
       <c r="C314" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B315" s="3">
         <v>1001022656868</v>
       </c>
       <c r="C315" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B316" s="3">
         <v>1001034065698</v>
       </c>
       <c r="C316" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B317" s="3">
         <v>1001034065698</v>
       </c>
       <c r="C317" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B318" s="3">
         <v>1001034065698</v>
       </c>
       <c r="C318" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B319" s="3">
         <v>1001034065698</v>
       </c>
       <c r="C319" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B320" s="3">
         <v>1001084216206</v>
       </c>
       <c r="C320" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B321" s="3">
         <v>1001015646861</v>
       </c>
       <c r="C321" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B322" s="3">
         <v>1001015646861</v>
       </c>
       <c r="C322" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B323" s="3">
         <v>1001025176768</v>
       </c>
       <c r="C323" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B324" s="3">
         <v>1001025176768</v>
       </c>
       <c r="C324" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B325" s="3">
         <v>1001025176768</v>
       </c>
       <c r="C325" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B326" s="3">
         <v>1001025486770</v>
       </c>
       <c r="C326" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B327" s="3">
         <v>1001025486770</v>
       </c>
       <c r="C327" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B328" s="3">
         <v>1001025486770</v>
       </c>
       <c r="C328" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B329" s="3">
         <v>1001012816340</v>
       </c>
       <c r="C329" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B330" s="3">
         <v>1001012816340</v>
       </c>
       <c r="C330" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B331" s="3">
         <v>1001012816340</v>
       </c>
       <c r="C331" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B332" s="3">
         <v>1001203146834</v>
       </c>
       <c r="C332" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B333" s="3">
         <v>1001203146834</v>
       </c>
       <c r="C333" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B334" s="3">
         <v>1001203146834</v>
       </c>
       <c r="C334" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B335" s="3">
         <v>1001203146834</v>
       </c>
       <c r="C335" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B336" s="3">
         <v>1001300456788</v>
       </c>
       <c r="C336" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B337" s="3">
         <v>1001300516786</v>
       </c>
       <c r="C337" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B338" s="3">
         <v>1001092436495</v>
       </c>
       <c r="C338" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B339" s="3">
         <v>1001092436495</v>
       </c>
       <c r="C339" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B340" s="3">
         <v>1001092436495</v>
       </c>
       <c r="C340" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B341" s="3">
         <v>1001025526901</v>
       </c>
       <c r="C341" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B342" s="3">
         <v>1001025546931</v>
       </c>
       <c r="C342" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B343" s="3">
         <v>1001010016324</v>
       </c>
       <c r="C343" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B344" s="3">
         <v>1001010016324</v>
       </c>
       <c r="C344" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B345" s="3">
         <v>1001010016324</v>
       </c>
       <c r="C345" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B346" s="3">
         <v>1001025766909</v>
       </c>
       <c r="C346" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B347" s="3">
         <v>1001025766909</v>
       </c>
       <c r="C347" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B348" s="3">
         <v>1001025766909</v>
       </c>
       <c r="C348" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B349" s="3">
         <v>1001010014558</v>
       </c>
       <c r="C349" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B350" s="3">
         <v>1001010014558</v>
       </c>
       <c r="C350" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B351" s="3">
         <v>1001012596802</v>
       </c>
       <c r="C351" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B352" s="3">
         <v>1001012596802</v>
       </c>
       <c r="C352" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B353" s="3">
         <v>1001012596802</v>
       </c>
       <c r="C353" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B354" s="3">
         <v>1001012596801</v>
       </c>
       <c r="C354" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B355" s="3">
         <v>1001012596801</v>
       </c>
       <c r="C355" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B356" s="3">
         <v>1001012596801</v>
       </c>
       <c r="C356" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B357" s="3">
         <v>1001062353684</v>
       </c>
       <c r="C357" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B358" s="3">
         <v>1001010014555</v>
       </c>
       <c r="C358" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B359" s="3">
         <v>1001083424691</v>
       </c>
       <c r="C359" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B360" s="3">
         <v>1001190765679</v>
       </c>
       <c r="C360" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B361" s="3">
         <v>1001085636200</v>
       </c>
       <c r="C361" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B362" s="3">
         <v>1001020836253</v>
       </c>
       <c r="C362" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B363" s="3">
         <v>1001084226492</v>
       </c>
       <c r="C363" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B364" s="3">
         <v>1001223296921</v>
       </c>
       <c r="C364" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B365" s="3">
         <v>1001053944786</v>
       </c>
       <c r="C365" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B366" s="3">
         <v>1001010016839</v>
       </c>
       <c r="C366" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B367" s="3">
         <v>1001023857038</v>
       </c>
       <c r="C367" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B368" s="3">
         <v>1001040434903</v>
       </c>
       <c r="C368" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B369" s="3">
         <v>1001080216842</v>
       </c>
       <c r="C369" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B370" s="3">
         <v>1001022466951</v>
       </c>
       <c r="C370" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B371" s="3">
         <v>1001022466951</v>
       </c>
       <c r="C371" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B372" s="3">
         <v>1001035276653</v>
       </c>
       <c r="C372" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B373" s="3">
         <v>1001062353680</v>
       </c>
       <c r="C373" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B374" s="3">
         <v>1001061971146</v>
       </c>
       <c r="C374" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="B375" s="3">
         <v>1001225636201</v>
       </c>
       <c r="C375" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B376" s="3">
         <v>1001095227035</v>
       </c>
       <c r="C376" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B377" s="3">
         <v>1001023857038</v>
       </c>
       <c r="C377" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B378" s="3">
         <v>1001025027040</v>
       </c>
       <c r="C378" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B379" s="3">
         <v>1001223297103</v>
       </c>
       <c r="C379" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B380" s="3">
         <v>1001223297103</v>
       </c>
       <c r="C380" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B381" s="3">
         <v>1001223297103</v>
       </c>
       <c r="C381" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="B382" s="3">
         <v>1001010032675</v>
       </c>
       <c r="C382" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B383" s="3">
         <v>1001010032675</v>
       </c>
       <c r="C383" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="B384" s="3">
         <v>1001035937001</v>
       </c>
       <c r="C384" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B385" s="3">
         <v>1001035937001</v>
       </c>
       <c r="C385" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="B386" s="3">
         <v>1001084217090</v>
       </c>
       <c r="C386" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B387" s="3">
         <v>1001084217090</v>
       </c>
       <c r="C387" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B388" s="3">
         <v>1001022377066</v>
       </c>
       <c r="C388" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B389" s="3">
         <v>1001022377066</v>
       </c>
       <c r="C389" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B390" s="3">
         <v>1001022467080</v>
       </c>
       <c r="C390" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B391" s="3">
         <v>1001022467080</v>
       </c>
       <c r="C391" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B392" s="3">
-        <v>1001025507077</v>
+        <v>1001025507255</v>
       </c>
       <c r="C392" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+        <v>755</v>
+      </c>
+      <c r="E392" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B393" s="3">
-        <v>1001025507077</v>
+        <v>1001025507255</v>
       </c>
       <c r="C393" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="B394" s="3">
         <v>1001022657075</v>
       </c>
       <c r="C394" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B395" s="3">
         <v>1001022657075</v>
       </c>
       <c r="C395" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B396" s="3">
         <v>1001022467082</v>
       </c>
       <c r="C396" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="B397" s="3">
         <v>1001022467082</v>
       </c>
       <c r="C397" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B398" s="3">
         <v>1001022377070</v>
       </c>
       <c r="C398" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="B399" s="3">
         <v>1001022377070</v>
       </c>
       <c r="C399" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="B400" s="3">
         <v>1001022657073</v>
       </c>
       <c r="C400" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="B401" s="3">
         <v>1001022657073</v>
       </c>
       <c r="C401" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B402" s="3">
         <v>1001010027126</v>
       </c>
       <c r="C402" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="B403" s="3">
         <v>1001010027126</v>
       </c>
       <c r="C403" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B404" s="3">
         <v>1001010027125</v>
       </c>
       <c r="C404" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="B405" s="3">
         <v>1001010027125</v>
       </c>
       <c r="C405" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="B406" s="3">
         <v>1001016366888</v>
       </c>
       <c r="C406" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B407" s="3">
         <v>1001016366888</v>
       </c>
       <c r="C407" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="B408" s="3">
         <v>1001300367133</v>
       </c>
       <c r="C408" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="B409" s="3">
         <v>1001300367133</v>
       </c>
       <c r="C409" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="B410" s="3">
         <v>1001303637131</v>
       </c>
       <c r="C410" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B411" s="3">
         <v>1001303637131</v>
       </c>
       <c r="C411" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="B412" s="3">
         <v>1001304527146</v>
       </c>
       <c r="C412" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B413" s="3">
         <v>1001304527146</v>
       </c>
       <c r="C413" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B414" s="3">
         <v>1001300517134</v>
       </c>
       <c r="C414" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="B415" s="3">
         <v>1001300517134</v>
       </c>
       <c r="C415" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="B416" s="3">
         <v>1001300457135</v>
       </c>
       <c r="C416" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="B417" s="3">
         <v>1001304527144</v>
       </c>
       <c r="C417" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" s="2" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="B418" s="3">
         <v>1001304527144</v>
       </c>
       <c r="C418" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B419" s="3">
         <v>1001081596620</v>
       </c>
       <c r="C419" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" s="2" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="B420" s="3">
         <v>1001081596620</v>
       </c>
       <c r="C420" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="B421" s="3">
         <v>1001085637187</v>
       </c>
       <c r="C421" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="B422" s="3">
         <v>1001085637187</v>
       </c>
       <c r="C422" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="B423" s="3">
         <v>1001015676877</v>
       </c>
       <c r="C423" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="B424" s="3">
         <v>1001015676877</v>
       </c>
       <c r="C424" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B425" s="3">
         <v>1001015686878</v>
       </c>
       <c r="C425" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="B426" s="3">
         <v>1001015686878</v>
       </c>
       <c r="C426" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="B427" s="3">
         <v>1001302277232</v>
       </c>
       <c r="C427" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" s="2" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="B428" s="3">
         <v>1001304497237</v>
       </c>
       <c r="C428" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" s="2" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="B429" s="3">
         <v>1001303107241</v>
       </c>
       <c r="C429" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" s="2" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="B430" s="3">
         <v>1002162216872</v>
       </c>
       <c r="C430" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" s="2" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B431" s="3">
         <v>1002162216872</v>
       </c>
       <c r="C431" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" s="2" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="B432" s="3">
         <v>1001063237147</v>
       </c>
       <c r="C432" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" s="2" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B433" s="3">
         <v>1001063237147</v>
       </c>
       <c r="C433" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434" s="2" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="B434" s="3">
         <v>1001063097227</v>
       </c>
       <c r="C434" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" s="2" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="B435" s="3">
         <v>1001063097227</v>
       </c>
       <c r="C435" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" s="2" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="B436" s="3">
         <v>1001066537225</v>
       </c>
       <c r="C436" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" s="2" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="B437" s="3">
         <v>1001066537225</v>
       </c>
       <c r="C437" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" s="2" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="B438" s="3">
         <v>1001066527226</v>
       </c>
       <c r="C438" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="B439" s="3">
         <v>1001066527226</v>
       </c>
       <c r="C439" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="B440" s="3">
         <v>1001066547228</v>
       </c>
       <c r="C440" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="B441" s="3">
         <v>1001063237229</v>
       </c>
       <c r="C441" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="B442" s="3">
         <v>1001063237229</v>
       </c>
       <c r="C442" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" s="2" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="B443" s="3">
         <v>1001063237150</v>
       </c>
       <c r="C443" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" s="2" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="B444" s="3">
         <v>1001063237150</v>
       </c>
       <c r="C444" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" s="2" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="B445" s="3">
         <v>1001022467276</v>
       </c>
       <c r="C445" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446" s="2" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="B446" s="3">
         <v>1001022467276</v>
       </c>
       <c r="C446" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B447" s="3">
         <v>1001022556837</v>
       </c>
       <c r="C447" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" s="2" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="B448" s="3">
         <v>1001022556837</v>
       </c>
       <c r="C448" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449" s="2" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B449" s="5">
         <v>1001022556837</v>
       </c>
       <c r="C449" s="6" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B450" s="3">
         <v>1001205376221</v>
       </c>
       <c r="C450" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451" s="2" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="B451" s="3">
         <v>1001205376221</v>
       </c>
       <c r="C451" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452" s="2" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="B452" s="5">
         <v>1001205376221</v>
       </c>
       <c r="C452" s="6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453" s="2" t="s">
-        <v>718</v>
-      </c>
-      <c r="B453" s="5">
-        <v>1001014765992</v>
-      </c>
-      <c r="C453" s="6" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+        <v>714</v>
+      </c>
+      <c r="B453" s="3">
+        <v>1001016747343</v>
+      </c>
+      <c r="C453" t="s">
+        <v>754</v>
+      </c>
+      <c r="E453" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454" s="2" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B454" s="3">
         <v>1001214196459</v>
       </c>
       <c r="C454" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455" s="2" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="B455" s="3">
         <v>1001214196459</v>
       </c>
       <c r="C455" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456" s="2" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="B456" s="5">
         <v>1001214196459</v>
       </c>
       <c r="C456" s="6" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457" s="2" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="B457" s="5">
         <v>1001010106325</v>
       </c>
       <c r="C457" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458" s="2" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="B458" s="5">
         <v>1001013957231</v>
       </c>
       <c r="C458" s="6" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459" s="2" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="B459" s="5">
         <v>1001013957231</v>
       </c>
       <c r="C459" s="6" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B460" s="3">
         <v>1001220286279</v>
       </c>
       <c r="C460" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461" s="2" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="B461" s="3">
         <v>1001220286279</v>
       </c>
       <c r="C461" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462" s="2" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="B462" s="5">
         <v>1001220286279</v>
       </c>
       <c r="C462" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463" s="2" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="B463" s="5">
         <v>1001223297092</v>
       </c>
       <c r="C463" s="6" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464" s="2" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="B464" s="5">
         <v>1001223297092</v>
       </c>
       <c r="C464" s="6" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465" s="2" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B465" s="3">
         <v>1001020836724</v>
       </c>
       <c r="C465" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="B466" s="3">
         <v>1001020836724</v>
       </c>
       <c r="C466" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467" s="2" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="B467" s="5">
         <v>1001020836724</v>
       </c>
       <c r="C467" s="6" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468" s="2" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="B468" s="5">
         <v>1001062475707</v>
       </c>
       <c r="C468" s="6" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469" s="2" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="B469" s="5">
         <v>1001062475707</v>
       </c>
       <c r="C469" s="6" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470" s="2" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="B470" s="5">
         <v>1001033856609</v>
       </c>
       <c r="C470" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="B471" s="3">
         <v>1001025767284</v>
       </c>
       <c r="C471" s="6" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
     </row>
     <row r="472" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A472" s="7" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="B472" s="5">
         <v>1001301777332</v>
       </c>
       <c r="C472" s="6" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
     </row>
     <row r="473" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A473" s="7" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="B473" s="5">
         <v>1001301777332</v>
       </c>
       <c r="C473" s="6" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
     </row>
     <row r="474" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A474" s="7" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="B474" s="5">
         <v>1001303987333</v>
       </c>
       <c r="C474" s="6" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
     </row>
     <row r="475" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A475" s="7" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="B475" s="5">
         <v>1001303987333</v>
       </c>
       <c r="C475" s="6" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
     </row>
     <row r="476" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A476" s="7" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="B476" s="5">
         <v>1001012426220</v>
       </c>
       <c r="C476" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="477" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A477" s="7" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="B477" s="5">
         <v>1001300387157</v>
       </c>
       <c r="C477" s="6" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
     </row>
     <row r="478" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A478" s="7" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="B478" s="5">
         <v>1001300387157</v>
       </c>
       <c r="C478" s="6" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
     </row>
     <row r="479" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A479" s="7" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="B479" s="5">
         <v>1001220226208</v>
       </c>
       <c r="C479" s="6" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
     </row>
     <row r="480" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A480" s="7" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="B480" s="5">
         <v>1001220226208</v>
       </c>
       <c r="C480" s="6" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
     </row>
     <row r="481" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A481" s="7" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="B481" s="5">
         <v>1001063656967</v>
       </c>
       <c r="C481" s="6" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A482" s="2" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="B482" s="5">
         <v>1001063656967</v>
       </c>
       <c r="C482" s="6" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
     </row>
   </sheetData>

--- a/в бланки заводов/Останкино КИ/ostankino_ki/NV/moduls/1С.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/NV/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\NV\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0887A42C-60A1-4AAA-B00D-0E7A9CB491BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A3C208-5C36-4DC7-8273-C0303124F485}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$482</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$483</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="756">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="757">
   <si>
     <t>1С</t>
   </si>
@@ -2302,6 +2302,9 @@
   </si>
   <si>
     <t>МЯСНЫЕ С ГОВЯД.ПМ сос п/о мгс 0.4кг 6шт.</t>
+  </si>
+  <si>
+    <t>7343 СЕЙЧАС СЕЗОН ПМ вар п/о 0,4кг ОСТАНКИНО</t>
   </si>
 </sst>
 </file>
@@ -2658,11 +2661,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F482"/>
+  <dimension ref="A1:F483"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5093,7 +5096,7 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>292</v>
+        <v>714</v>
       </c>
       <c r="B220" s="3">
         <v>1001016747343</v>
@@ -5107,73 +5110,76 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B221" s="3">
-        <v>1001014765993</v>
+        <v>1001016747343</v>
       </c>
       <c r="C221" t="s">
-        <v>293</v>
+        <v>754</v>
+      </c>
+      <c r="E221" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>295</v>
+        <v>756</v>
       </c>
       <c r="B222" s="3">
-        <v>1001025166776</v>
+        <v>1001016747343</v>
       </c>
       <c r="C222" t="s">
-        <v>296</v>
+        <v>754</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B223" s="3">
-        <v>1001025506777</v>
+        <v>1001014765993</v>
       </c>
       <c r="C223" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="B224" s="3">
-        <v>1001025546822</v>
+        <v>1001025166776</v>
       </c>
       <c r="C224" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>320</v>
+        <v>297</v>
       </c>
       <c r="B225" s="3">
-        <v>1001025546822</v>
+        <v>1001025506777</v>
       </c>
       <c r="C225" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="B226" s="3">
         <v>1001025546822</v>
       </c>
       <c r="C226" t="s">
-        <v>550</v>
+        <v>300</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>299</v>
+        <v>320</v>
       </c>
       <c r="B227" s="3">
         <v>1001025546822</v>
@@ -5184,62 +5190,62 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>661</v>
+        <v>332</v>
       </c>
       <c r="B228" s="3">
-        <v>1001024976616</v>
+        <v>1001025546822</v>
       </c>
       <c r="C228" t="s">
-        <v>302</v>
+        <v>550</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B229" s="3">
-        <v>1001024976616</v>
+        <v>1001025546822</v>
       </c>
       <c r="C229" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>304</v>
+        <v>661</v>
       </c>
       <c r="B230" s="3">
-        <v>1001010855247</v>
+        <v>1001024976616</v>
       </c>
       <c r="C230" t="s">
-        <v>23</v>
+        <v>302</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>382</v>
+        <v>303</v>
       </c>
       <c r="B231" s="3">
-        <v>1001223296919</v>
+        <v>1001024976616</v>
       </c>
       <c r="C231" t="s">
-        <v>385</v>
+        <v>302</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>65</v>
+        <v>304</v>
       </c>
       <c r="B232" s="3">
-        <v>1001223296919</v>
+        <v>1001010855247</v>
       </c>
       <c r="C232" t="s">
-        <v>385</v>
+        <v>23</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>223</v>
+        <v>382</v>
       </c>
       <c r="B233" s="3">
         <v>1001223296919</v>
@@ -5250,18 +5256,18 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>455</v>
+        <v>65</v>
       </c>
       <c r="B234" s="3">
         <v>1001223296919</v>
       </c>
       <c r="C234" t="s">
-        <v>471</v>
+        <v>385</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>477</v>
+        <v>223</v>
       </c>
       <c r="B235" s="3">
         <v>1001223296919</v>
@@ -5272,216 +5278,216 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>305</v>
+        <v>455</v>
       </c>
       <c r="B236" s="3">
         <v>1001223296919</v>
       </c>
       <c r="C236" t="s">
-        <v>385</v>
+        <v>471</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>307</v>
+        <v>477</v>
       </c>
       <c r="B237" s="3">
-        <v>1001014765993</v>
+        <v>1001223296919</v>
       </c>
       <c r="C237" t="s">
-        <v>293</v>
+        <v>385</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B238" s="3">
-        <v>1001025166776</v>
+        <v>1001223296919</v>
       </c>
       <c r="C238" t="s">
-        <v>296</v>
+        <v>385</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B239" s="3">
-        <v>1001025506777</v>
+        <v>1001014765993</v>
       </c>
       <c r="C239" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B240" s="3">
-        <v>1001025526778</v>
+        <v>1001025166776</v>
       </c>
       <c r="C240" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B241" s="3">
-        <v>1001304236685</v>
+        <v>1001025506777</v>
       </c>
       <c r="C241" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>340</v>
+        <v>311</v>
       </c>
       <c r="B242" s="3">
-        <v>1001015496769</v>
+        <v>1001025526778</v>
       </c>
       <c r="C242" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="B243" s="3">
-        <v>1001015496769</v>
+        <v>1001304236685</v>
       </c>
       <c r="C243" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="B244" s="3">
-        <v>1001014766798</v>
+        <v>1001015496769</v>
       </c>
       <c r="C244" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B245" s="3">
-        <v>1001015026797</v>
+        <v>1001015496769</v>
       </c>
       <c r="C245" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="B246" s="3">
-        <v>1001205386222</v>
+        <v>1001014766798</v>
       </c>
       <c r="C246" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B247" s="3">
-        <v>1001092675224</v>
+        <v>1001015026797</v>
       </c>
       <c r="C247" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="B248" s="3">
-        <v>1001225406223</v>
+        <v>1001205386222</v>
       </c>
       <c r="C248" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="B249" s="3">
-        <v>1001300366790</v>
+        <v>1001092675224</v>
       </c>
       <c r="C249" t="s">
-        <v>355</v>
+        <v>334</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>473</v>
+        <v>341</v>
       </c>
       <c r="B250" s="3">
-        <v>1001304096792</v>
+        <v>1001225406223</v>
       </c>
       <c r="C250" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B251" s="3">
-        <v>1001304096792</v>
+        <v>1001300366790</v>
       </c>
       <c r="C251" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>347</v>
+        <v>473</v>
       </c>
       <c r="B252" s="3">
-        <v>1001303636793</v>
+        <v>1001304096792</v>
       </c>
       <c r="C252" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>393</v>
+        <v>346</v>
       </c>
       <c r="B253" s="3">
-        <v>1001303636794</v>
+        <v>1001304096792</v>
       </c>
       <c r="C253" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>493</v>
+        <v>347</v>
       </c>
       <c r="B254" s="3">
-        <v>1001303636794</v>
+        <v>1001303636793</v>
       </c>
       <c r="C254" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>348</v>
+        <v>393</v>
       </c>
       <c r="B255" s="3">
         <v>1001303636794</v>
@@ -5492,128 +5498,128 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>349</v>
+        <v>493</v>
       </c>
       <c r="B256" s="3">
-        <v>1001302596795</v>
+        <v>1001303636794</v>
       </c>
       <c r="C256" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B257" s="3">
-        <v>1001302596796</v>
+        <v>1001303636794</v>
       </c>
       <c r="C257" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B258" s="3">
-        <v>1001300456804</v>
+        <v>1001302596795</v>
       </c>
       <c r="C258" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>442</v>
+        <v>350</v>
       </c>
       <c r="B259" s="3">
-        <v>1001300366806</v>
+        <v>1001302596796</v>
       </c>
       <c r="C259" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B260" s="3">
-        <v>1001300366806</v>
+        <v>1001300456804</v>
       </c>
       <c r="C260" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>353</v>
+        <v>442</v>
       </c>
       <c r="B261" s="3">
-        <v>1001300516803</v>
+        <v>1001300366806</v>
       </c>
       <c r="C261" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B262" s="3">
-        <v>1001300366807</v>
+        <v>1001300366806</v>
       </c>
       <c r="C262" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="B263" s="3">
-        <v>1001300366807</v>
+        <v>1001300516803</v>
       </c>
       <c r="C263" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="B264" s="3">
-        <v>1001300516785</v>
+        <v>1001300366807</v>
       </c>
       <c r="C264" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>536</v>
+        <v>366</v>
       </c>
       <c r="B265" s="3">
-        <v>1001300456787</v>
+        <v>1001300366807</v>
       </c>
       <c r="C265" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>551</v>
+        <v>368</v>
       </c>
       <c r="B266" s="3">
-        <v>1001300456787</v>
+        <v>1001300516785</v>
       </c>
       <c r="C266" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>370</v>
+        <v>536</v>
       </c>
       <c r="B267" s="3">
         <v>1001300456787</v>
@@ -5624,84 +5630,84 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>372</v>
+        <v>551</v>
       </c>
       <c r="B268" s="3">
-        <v>1001303636793</v>
+        <v>1001300456787</v>
       </c>
       <c r="C268" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B269" s="3">
-        <v>1001302596795</v>
+        <v>1001300456787</v>
       </c>
       <c r="C269" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B270" s="3">
-        <v>1001012486332</v>
+        <v>1001303636793</v>
       </c>
       <c r="C270" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B271" s="3">
-        <v>1001012566345</v>
+        <v>1001302596795</v>
       </c>
       <c r="C271" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B272" s="3">
-        <v>1001031076528</v>
+        <v>1001012486332</v>
       </c>
       <c r="C272" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="B273" s="3">
-        <v>1001020836761</v>
+        <v>1001012566345</v>
       </c>
       <c r="C273" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>415</v>
+        <v>379</v>
       </c>
       <c r="B274" s="3">
-        <v>1001020836761</v>
+        <v>1001031076528</v>
       </c>
       <c r="C274" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
-        <v>386</v>
+        <v>410</v>
       </c>
       <c r="B275" s="3">
         <v>1001020836761</v>
@@ -5712,29 +5718,29 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="B276" s="3">
-        <v>1001020846764</v>
+        <v>1001020836761</v>
       </c>
       <c r="C276" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
-        <v>416</v>
+        <v>386</v>
       </c>
       <c r="B277" s="3">
-        <v>1001020846764</v>
+        <v>1001020836761</v>
       </c>
       <c r="C277" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
-        <v>388</v>
+        <v>406</v>
       </c>
       <c r="B278" s="3">
         <v>1001020846764</v>
@@ -5745,51 +5751,51 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
-        <v>489</v>
+        <v>416</v>
       </c>
       <c r="B279" s="3">
-        <v>1001300366790</v>
+        <v>1001020846764</v>
       </c>
       <c r="C279" t="s">
-        <v>355</v>
+        <v>389</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B280" s="3">
-        <v>1001300366790</v>
+        <v>1001020846764</v>
       </c>
       <c r="C280" t="s">
-        <v>355</v>
+        <v>389</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
-        <v>345</v>
+        <v>489</v>
       </c>
       <c r="B281" s="3">
-        <v>1001304096791</v>
+        <v>1001300366790</v>
       </c>
       <c r="C281" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
-        <v>464</v>
+        <v>390</v>
       </c>
       <c r="B282" s="3">
-        <v>1001304096791</v>
+        <v>1001300366790</v>
       </c>
       <c r="C282" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
-        <v>391</v>
+        <v>345</v>
       </c>
       <c r="B283" s="3">
         <v>1001304096791</v>
@@ -5800,95 +5806,95 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
-        <v>392</v>
+        <v>464</v>
       </c>
       <c r="B284" s="3">
-        <v>1001303636793</v>
+        <v>1001304096791</v>
       </c>
       <c r="C284" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B285" s="3">
-        <v>1001302596795</v>
+        <v>1001304096791</v>
       </c>
       <c r="C285" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B286" s="3">
-        <v>1001300516803</v>
+        <v>1001303636793</v>
       </c>
       <c r="C286" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B287" s="3">
-        <v>1001300456804</v>
+        <v>1001302596795</v>
       </c>
       <c r="C287" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B288" s="3">
-        <v>1001300366807</v>
+        <v>1001300516803</v>
       </c>
       <c r="C288" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B289" s="3">
-        <v>1001302596796</v>
+        <v>1001300456804</v>
       </c>
       <c r="C289" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>448</v>
+        <v>397</v>
       </c>
       <c r="B290" s="3">
-        <v>1001023696765</v>
+        <v>1001300366807</v>
       </c>
       <c r="C290" t="s">
-        <v>401</v>
+        <v>365</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
-        <v>467</v>
+        <v>398</v>
       </c>
       <c r="B291" s="3">
-        <v>1001023696765</v>
+        <v>1001302596796</v>
       </c>
       <c r="C291" t="s">
-        <v>401</v>
+        <v>361</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
-        <v>400</v>
+        <v>448</v>
       </c>
       <c r="B292" s="3">
         <v>1001023696765</v>
@@ -5899,29 +5905,29 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>409</v>
+        <v>467</v>
       </c>
       <c r="B293" s="3">
-        <v>1001023696767</v>
+        <v>1001023696765</v>
       </c>
       <c r="C293" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
-        <v>417</v>
+        <v>400</v>
       </c>
       <c r="B294" s="3">
-        <v>1001023696767</v>
+        <v>1001023696765</v>
       </c>
       <c r="C294" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="B295" s="3">
         <v>1001023696767</v>
@@ -5932,62 +5938,62 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="B296" s="3">
-        <v>1001024976829</v>
+        <v>1001023696767</v>
       </c>
       <c r="C296" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B297" s="3">
-        <v>1001024976829</v>
+        <v>1001023696767</v>
       </c>
       <c r="C297" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="B298" s="3">
-        <v>1001022376722</v>
+        <v>1001024976829</v>
       </c>
       <c r="C298" t="s">
-        <v>118</v>
+        <v>399</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
-        <v>447</v>
+        <v>408</v>
       </c>
       <c r="B299" s="3">
-        <v>1001020846762</v>
+        <v>1001024976829</v>
       </c>
       <c r="C299" t="s">
-        <v>422</v>
+        <v>399</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
-        <v>466</v>
+        <v>420</v>
       </c>
       <c r="B300" s="3">
-        <v>1001020846762</v>
+        <v>1001022376722</v>
       </c>
       <c r="C300" t="s">
-        <v>422</v>
+        <v>118</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
-        <v>421</v>
+        <v>447</v>
       </c>
       <c r="B301" s="3">
         <v>1001020846762</v>
@@ -5998,51 +6004,51 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
-        <v>123</v>
+        <v>466</v>
       </c>
       <c r="B302" s="3">
-        <v>1001022656853</v>
+        <v>1001020846762</v>
       </c>
       <c r="C302" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
-        <v>488</v>
+        <v>421</v>
       </c>
       <c r="B303" s="3">
-        <v>1001022656853</v>
+        <v>1001020846762</v>
       </c>
       <c r="C303" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
-        <v>572</v>
+        <v>123</v>
       </c>
       <c r="B304" s="3">
-        <v>1001022656948</v>
+        <v>1001022656853</v>
       </c>
       <c r="C304" t="s">
-        <v>563</v>
+        <v>425</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
-        <v>566</v>
+        <v>488</v>
       </c>
       <c r="B305" s="3">
-        <v>1001022656948</v>
+        <v>1001022656853</v>
       </c>
       <c r="C305" t="s">
-        <v>563</v>
+        <v>425</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
-        <v>424</v>
+        <v>572</v>
       </c>
       <c r="B306" s="3">
         <v>1001022656948</v>
@@ -6053,40 +6059,40 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
-        <v>430</v>
+        <v>566</v>
       </c>
       <c r="B307" s="3">
-        <v>1001022656852</v>
+        <v>1001022656948</v>
       </c>
       <c r="C307" t="s">
-        <v>431</v>
+        <v>563</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
-        <v>449</v>
+        <v>424</v>
       </c>
       <c r="B308" s="3">
-        <v>1001020836759</v>
+        <v>1001022656948</v>
       </c>
       <c r="C308" t="s">
-        <v>433</v>
+        <v>563</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
-        <v>465</v>
+        <v>430</v>
       </c>
       <c r="B309" s="3">
-        <v>1001020836759</v>
+        <v>1001022656852</v>
       </c>
       <c r="C309" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
-        <v>432</v>
+        <v>449</v>
       </c>
       <c r="B310" s="3">
         <v>1001020836759</v>
@@ -6097,84 +6103,84 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
-        <v>434</v>
+        <v>465</v>
       </c>
       <c r="B311" s="3">
-        <v>1001023856870</v>
+        <v>1001020836759</v>
       </c>
       <c r="C311" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>450</v>
+        <v>432</v>
       </c>
       <c r="B312" s="3">
-        <v>1001013956426</v>
+        <v>1001020836759</v>
       </c>
       <c r="C312" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
       <c r="B313" s="3">
-        <v>1001093345495</v>
+        <v>1001023856870</v>
       </c>
       <c r="C313" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>481</v>
+        <v>450</v>
       </c>
       <c r="B314" s="3">
-        <v>1001022656868</v>
+        <v>1001013956426</v>
       </c>
       <c r="C314" t="s">
-        <v>454</v>
+        <v>428</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B315" s="3">
-        <v>1001022656868</v>
+        <v>1001093345495</v>
       </c>
       <c r="C315" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
-        <v>165</v>
+        <v>481</v>
       </c>
       <c r="B316" s="3">
-        <v>1001034065698</v>
+        <v>1001022656868</v>
       </c>
       <c r="C316" t="s">
-        <v>426</v>
+        <v>454</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
-        <v>183</v>
+        <v>453</v>
       </c>
       <c r="B317" s="3">
-        <v>1001034065698</v>
+        <v>1001022656868</v>
       </c>
       <c r="C317" t="s">
-        <v>426</v>
+        <v>454</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
-        <v>479</v>
+        <v>165</v>
       </c>
       <c r="B318" s="3">
         <v>1001034065698</v>
@@ -6185,7 +6191,7 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
-        <v>457</v>
+        <v>183</v>
       </c>
       <c r="B319" s="3">
         <v>1001034065698</v>
@@ -6196,62 +6202,62 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
-        <v>458</v>
+        <v>479</v>
       </c>
       <c r="B320" s="3">
-        <v>1001084216206</v>
+        <v>1001034065698</v>
       </c>
       <c r="C320" t="s">
-        <v>384</v>
+        <v>426</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="B321" s="3">
-        <v>1001015646861</v>
+        <v>1001034065698</v>
       </c>
       <c r="C321" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B322" s="3">
-        <v>1001015646861</v>
+        <v>1001084216206</v>
       </c>
       <c r="C322" t="s">
-        <v>423</v>
+        <v>384</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
-        <v>445</v>
+        <v>470</v>
       </c>
       <c r="B323" s="3">
-        <v>1001025176768</v>
+        <v>1001015646861</v>
       </c>
       <c r="C323" t="s">
-        <v>446</v>
+        <v>423</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="B324" s="3">
-        <v>1001025176768</v>
+        <v>1001015646861</v>
       </c>
       <c r="C324" t="s">
-        <v>446</v>
+        <v>423</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="B325" s="3">
         <v>1001025176768</v>
@@ -6262,29 +6268,29 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
-        <v>444</v>
+        <v>468</v>
       </c>
       <c r="B326" s="3">
-        <v>1001025486770</v>
+        <v>1001025176768</v>
       </c>
       <c r="C326" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="B327" s="3">
-        <v>1001025486770</v>
+        <v>1001025176768</v>
       </c>
       <c r="C327" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="B328" s="3">
         <v>1001025486770</v>
@@ -6295,29 +6301,29 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
-        <v>206</v>
+        <v>469</v>
       </c>
       <c r="B329" s="3">
-        <v>1001012816340</v>
+        <v>1001025486770</v>
       </c>
       <c r="C329" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
-        <v>483</v>
+        <v>461</v>
       </c>
       <c r="B330" s="3">
-        <v>1001012816340</v>
+        <v>1001025486770</v>
       </c>
       <c r="C330" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
-        <v>462</v>
+        <v>206</v>
       </c>
       <c r="B331" s="3">
         <v>1001012816340</v>
@@ -6328,29 +6334,29 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
-        <v>306</v>
+        <v>483</v>
       </c>
       <c r="B332" s="3">
-        <v>1001203146834</v>
+        <v>1001012816340</v>
       </c>
       <c r="C332" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="B333" s="3">
-        <v>1001203146834</v>
+        <v>1001012816340</v>
       </c>
       <c r="C333" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
-        <v>480</v>
+        <v>306</v>
       </c>
       <c r="B334" s="3">
         <v>1001203146834</v>
@@ -6361,7 +6367,7 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="B335" s="3">
         <v>1001203146834</v>
@@ -6372,51 +6378,51 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="B336" s="3">
-        <v>1001300456788</v>
+        <v>1001203146834</v>
       </c>
       <c r="C336" t="s">
-        <v>476</v>
+        <v>429</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
-        <v>490</v>
+        <v>463</v>
       </c>
       <c r="B337" s="3">
-        <v>1001300516786</v>
+        <v>1001203146834</v>
       </c>
       <c r="C337" t="s">
-        <v>491</v>
+        <v>429</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
-        <v>547</v>
+        <v>475</v>
       </c>
       <c r="B338" s="3">
-        <v>1001092436495</v>
+        <v>1001300456788</v>
       </c>
       <c r="C338" t="s">
-        <v>497</v>
+        <v>476</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
-        <v>554</v>
+        <v>490</v>
       </c>
       <c r="B339" s="3">
-        <v>1001092436495</v>
+        <v>1001300516786</v>
       </c>
       <c r="C339" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
-        <v>496</v>
+        <v>547</v>
       </c>
       <c r="B340" s="3">
         <v>1001092436495</v>
@@ -6427,51 +6433,51 @@
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
-        <v>498</v>
+        <v>554</v>
       </c>
       <c r="B341" s="3">
-        <v>1001025526901</v>
+        <v>1001092436495</v>
       </c>
       <c r="C341" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B342" s="3">
-        <v>1001025546931</v>
+        <v>1001092436495</v>
       </c>
       <c r="C342" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="B343" s="3">
-        <v>1001010016324</v>
+        <v>1001025526901</v>
       </c>
       <c r="C343" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
-        <v>540</v>
+        <v>500</v>
       </c>
       <c r="B344" s="3">
-        <v>1001010016324</v>
+        <v>1001025546931</v>
       </c>
       <c r="C344" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="B345" s="3">
         <v>1001010016324</v>
@@ -6482,29 +6488,29 @@
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
-        <v>507</v>
+        <v>540</v>
       </c>
       <c r="B346" s="3">
-        <v>1001025766909</v>
+        <v>1001010016324</v>
       </c>
       <c r="C346" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
-        <v>541</v>
+        <v>503</v>
       </c>
       <c r="B347" s="3">
-        <v>1001025766909</v>
+        <v>1001010016324</v>
       </c>
       <c r="C347" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B348" s="3">
         <v>1001025766909</v>
@@ -6515,51 +6521,51 @@
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B349" s="3">
-        <v>1001010014558</v>
+        <v>1001025766909</v>
       </c>
       <c r="C349" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B350" s="3">
-        <v>1001010014558</v>
+        <v>1001025766909</v>
       </c>
       <c r="C350" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="B351" s="3">
-        <v>1001012596802</v>
+        <v>1001010014558</v>
       </c>
       <c r="C351" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
-        <v>543</v>
+        <v>508</v>
       </c>
       <c r="B352" s="3">
-        <v>1001012596802</v>
+        <v>1001010014558</v>
       </c>
       <c r="C352" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
-        <v>511</v>
+        <v>534</v>
       </c>
       <c r="B353" s="3">
         <v>1001012596802</v>
@@ -6570,29 +6576,29 @@
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
-        <v>529</v>
+        <v>543</v>
       </c>
       <c r="B354" s="3">
-        <v>1001012596801</v>
+        <v>1001012596802</v>
       </c>
       <c r="C354" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
-        <v>542</v>
+        <v>511</v>
       </c>
       <c r="B355" s="3">
-        <v>1001012596801</v>
+        <v>1001012596802</v>
       </c>
       <c r="C355" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
-        <v>513</v>
+        <v>529</v>
       </c>
       <c r="B356" s="3">
         <v>1001012596801</v>
@@ -6603,271 +6609,271 @@
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
-        <v>515</v>
+        <v>542</v>
       </c>
       <c r="B357" s="3">
-        <v>1001062353684</v>
+        <v>1001012596801</v>
       </c>
       <c r="C357" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B358" s="3">
-        <v>1001010014555</v>
+        <v>1001012596801</v>
       </c>
       <c r="C358" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B359" s="3">
-        <v>1001083424691</v>
+        <v>1001062353684</v>
       </c>
       <c r="C359" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B360" s="3">
-        <v>1001190765679</v>
+        <v>1001010014555</v>
       </c>
       <c r="C360" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B361" s="3">
-        <v>1001085636200</v>
+        <v>1001083424691</v>
       </c>
       <c r="C361" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B362" s="3">
-        <v>1001020836253</v>
+        <v>1001190765679</v>
       </c>
       <c r="C362" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="B363" s="3">
-        <v>1001084226492</v>
+        <v>1001085636200</v>
       </c>
       <c r="C363" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="B364" s="3">
-        <v>1001223296921</v>
+        <v>1001020836253</v>
       </c>
       <c r="C364" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="B365" s="3">
-        <v>1001053944786</v>
+        <v>1001084226492</v>
       </c>
       <c r="C365" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="B366" s="3">
-        <v>1001010016839</v>
+        <v>1001223296921</v>
       </c>
       <c r="C366" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="B367" s="3">
-        <v>1001023857038</v>
+        <v>1001053944786</v>
       </c>
       <c r="C367" t="s">
-        <v>585</v>
+        <v>533</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="B368" s="3">
-        <v>1001040434903</v>
+        <v>1001010016839</v>
       </c>
       <c r="C368" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B369" s="3">
-        <v>1001080216842</v>
+        <v>1001023857038</v>
       </c>
       <c r="C369" t="s">
-        <v>549</v>
+        <v>585</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="B370" s="3">
-        <v>1001022466951</v>
+        <v>1001040434903</v>
       </c>
       <c r="C370" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
-        <v>565</v>
+        <v>548</v>
       </c>
       <c r="B371" s="3">
-        <v>1001022466951</v>
+        <v>1001080216842</v>
       </c>
       <c r="C371" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="B372" s="3">
-        <v>1001035276653</v>
+        <v>1001022466951</v>
       </c>
       <c r="C372" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="B373" s="3">
-        <v>1001062353680</v>
+        <v>1001022466951</v>
       </c>
       <c r="C373" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="B374" s="3">
-        <v>1001061971146</v>
+        <v>1001035276653</v>
       </c>
       <c r="C374" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="B375" s="3">
-        <v>1001225636201</v>
+        <v>1001062353680</v>
       </c>
       <c r="C375" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="B376" s="3">
-        <v>1001095227035</v>
+        <v>1001061971146</v>
       </c>
       <c r="C376" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="B377" s="3">
-        <v>1001023857038</v>
+        <v>1001225636201</v>
       </c>
       <c r="C377" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="B378" s="3">
-        <v>1001025027040</v>
+        <v>1001095227035</v>
       </c>
       <c r="C378" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B379" s="3">
-        <v>1001223297103</v>
+        <v>1001023857038</v>
       </c>
       <c r="C379" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B380" s="3">
-        <v>1001223297103</v>
+        <v>1001025027040</v>
       </c>
       <c r="C380" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B381" s="3">
         <v>1001223297103</v>
@@ -6878,816 +6884,813 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
-        <v>610</v>
+        <v>590</v>
       </c>
       <c r="B382" s="3">
-        <v>1001010032675</v>
+        <v>1001223297103</v>
       </c>
       <c r="C382" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B383" s="3">
-        <v>1001010032675</v>
+        <v>1001223297103</v>
       </c>
       <c r="C383" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="B384" s="3">
-        <v>1001035937001</v>
+        <v>1001010032675</v>
       </c>
       <c r="C384" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B385" s="3">
-        <v>1001035937001</v>
+        <v>1001010032675</v>
       </c>
       <c r="C385" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B386" s="3">
-        <v>1001084217090</v>
+        <v>1001035937001</v>
       </c>
       <c r="C386" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B387" s="3">
-        <v>1001084217090</v>
+        <v>1001035937001</v>
       </c>
       <c r="C387" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B388" s="3">
-        <v>1001022377066</v>
+        <v>1001084217090</v>
       </c>
       <c r="C388" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B389" s="3">
-        <v>1001022377066</v>
+        <v>1001084217090</v>
       </c>
       <c r="C389" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B390" s="3">
-        <v>1001022467080</v>
+        <v>1001022377066</v>
       </c>
       <c r="C390" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B391" s="3">
-        <v>1001022467080</v>
+        <v>1001022377066</v>
       </c>
       <c r="C391" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B392" s="3">
-        <v>1001025507255</v>
+        <v>1001022467080</v>
       </c>
       <c r="C392" t="s">
-        <v>755</v>
-      </c>
-      <c r="E392" t="s">
-        <v>753</v>
+        <v>600</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B393" s="3">
-        <v>1001025507255</v>
+        <v>1001022467080</v>
       </c>
       <c r="C393" t="s">
-        <v>755</v>
+        <v>600</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B394" s="3">
-        <v>1001022657075</v>
+        <v>1001025507255</v>
       </c>
       <c r="C394" t="s">
-        <v>603</v>
+        <v>755</v>
+      </c>
+      <c r="E394" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B395" s="3">
-        <v>1001022657075</v>
+        <v>1001025507255</v>
       </c>
       <c r="C395" t="s">
-        <v>603</v>
+        <v>755</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="B396" s="3">
-        <v>1001022467082</v>
+        <v>1001022657075</v>
       </c>
       <c r="C396" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B397" s="3">
-        <v>1001022467082</v>
+        <v>1001022657075</v>
       </c>
       <c r="C397" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B398" s="3">
-        <v>1001022377070</v>
+        <v>1001022467082</v>
       </c>
       <c r="C398" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B399" s="3">
-        <v>1001022377070</v>
+        <v>1001022467082</v>
       </c>
       <c r="C399" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B400" s="3">
-        <v>1001022657073</v>
+        <v>1001022377070</v>
       </c>
       <c r="C400" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B401" s="3">
-        <v>1001022657073</v>
+        <v>1001022377070</v>
       </c>
       <c r="C401" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
       <c r="B402" s="3">
-        <v>1001010027126</v>
+        <v>1001022657073</v>
       </c>
       <c r="C402" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="B403" s="3">
-        <v>1001010027126</v>
+        <v>1001022657073</v>
       </c>
       <c r="C403" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
-        <v>613</v>
+        <v>634</v>
       </c>
       <c r="B404" s="3">
-        <v>1001010027125</v>
+        <v>1001010027126</v>
       </c>
       <c r="C404" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
-        <v>635</v>
+        <v>611</v>
       </c>
       <c r="B405" s="3">
-        <v>1001010027125</v>
+        <v>1001010027126</v>
       </c>
       <c r="C405" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
-        <v>658</v>
+        <v>613</v>
       </c>
       <c r="B406" s="3">
-        <v>1001016366888</v>
+        <v>1001010027125</v>
       </c>
       <c r="C406" t="s">
-        <v>637</v>
+        <v>614</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B407" s="3">
-        <v>1001016366888</v>
+        <v>1001010027125</v>
       </c>
       <c r="C407" t="s">
-        <v>637</v>
+        <v>614</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B408" s="3">
-        <v>1001300367133</v>
+        <v>1001016366888</v>
       </c>
       <c r="C408" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B409" s="3">
-        <v>1001300367133</v>
+        <v>1001016366888</v>
       </c>
       <c r="C409" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B410" s="3">
-        <v>1001303637131</v>
+        <v>1001300367133</v>
       </c>
       <c r="C410" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B411" s="3">
-        <v>1001303637131</v>
+        <v>1001300367133</v>
       </c>
       <c r="C411" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="B412" s="3">
-        <v>1001304527146</v>
+        <v>1001303637131</v>
       </c>
       <c r="C412" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B413" s="3">
-        <v>1001304527146</v>
+        <v>1001303637131</v>
       </c>
       <c r="C413" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="B414" s="3">
-        <v>1001300517134</v>
+        <v>1001304527146</v>
       </c>
       <c r="C414" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B415" s="3">
-        <v>1001300517134</v>
+        <v>1001304527146</v>
       </c>
       <c r="C415" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
       <c r="B416" s="3">
-        <v>1001300457135</v>
+        <v>1001300517134</v>
       </c>
       <c r="C416" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="B417" s="3">
-        <v>1001304527144</v>
+        <v>1001300517134</v>
       </c>
       <c r="C417" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" s="2" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="B418" s="3">
-        <v>1001304527144</v>
+        <v>1001300457135</v>
       </c>
       <c r="C418" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
-        <v>680</v>
+        <v>648</v>
       </c>
       <c r="B419" s="3">
-        <v>1001081596620</v>
+        <v>1001304527144</v>
       </c>
       <c r="C419" t="s">
-        <v>662</v>
+        <v>649</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" s="2" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="B420" s="3">
-        <v>1001081596620</v>
+        <v>1001304527144</v>
       </c>
       <c r="C420" t="s">
-        <v>662</v>
+        <v>649</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="B421" s="3">
-        <v>1001085637187</v>
+        <v>1001081596620</v>
       </c>
       <c r="C421" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B422" s="3">
-        <v>1001085637187</v>
+        <v>1001081596620</v>
       </c>
       <c r="C422" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B423" s="3">
-        <v>1001015676877</v>
+        <v>1001085637187</v>
       </c>
       <c r="C423" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B424" s="3">
-        <v>1001015676877</v>
+        <v>1001085637187</v>
       </c>
       <c r="C424" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="B425" s="3">
-        <v>1001015686878</v>
+        <v>1001015676877</v>
       </c>
       <c r="C425" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B426" s="3">
-        <v>1001015686878</v>
+        <v>1001015676877</v>
       </c>
       <c r="C426" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
-        <v>670</v>
+        <v>687</v>
       </c>
       <c r="B427" s="3">
-        <v>1001302277232</v>
+        <v>1001015686878</v>
       </c>
       <c r="C427" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" s="2" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B428" s="3">
-        <v>1001304497237</v>
+        <v>1001015686878</v>
       </c>
       <c r="C428" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" s="2" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B429" s="3">
-        <v>1001303107241</v>
+        <v>1001302277232</v>
       </c>
       <c r="C429" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" s="2" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="B430" s="3">
-        <v>1002162216872</v>
+        <v>1001304497237</v>
       </c>
       <c r="C430" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" s="2" t="s">
-        <v>686</v>
+        <v>672</v>
       </c>
       <c r="B431" s="3">
-        <v>1002162216872</v>
+        <v>1001303107241</v>
       </c>
       <c r="C431" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" s="2" t="s">
-        <v>701</v>
+        <v>678</v>
       </c>
       <c r="B432" s="3">
-        <v>1001063237147</v>
+        <v>1002162216872</v>
       </c>
       <c r="C432" t="s">
-        <v>693</v>
+        <v>679</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B433" s="3">
-        <v>1001063237147</v>
+        <v>1002162216872</v>
       </c>
       <c r="C433" t="s">
-        <v>693</v>
+        <v>679</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434" s="2" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B434" s="3">
-        <v>1001063097227</v>
+        <v>1001063237147</v>
       </c>
       <c r="C434" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B435" s="3">
-        <v>1001063097227</v>
+        <v>1001063237147</v>
       </c>
       <c r="C435" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" s="2" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="B436" s="3">
-        <v>1001066537225</v>
+        <v>1001063097227</v>
       </c>
       <c r="C436" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B437" s="3">
-        <v>1001066537225</v>
+        <v>1001063097227</v>
       </c>
       <c r="C437" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B438" s="3">
-        <v>1001066527226</v>
+        <v>1001066537225</v>
       </c>
       <c r="C438" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B439" s="3">
-        <v>1001066527226</v>
+        <v>1001066537225</v>
       </c>
       <c r="C439" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
-        <v>692</v>
+        <v>699</v>
       </c>
       <c r="B440" s="3">
-        <v>1001066547228</v>
+        <v>1001066527226</v>
       </c>
       <c r="C440" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
-        <v>708</v>
+        <v>691</v>
       </c>
       <c r="B441" s="3">
-        <v>1001063237229</v>
+        <v>1001066527226</v>
       </c>
       <c r="C441" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="B442" s="3">
-        <v>1001063237229</v>
+        <v>1001066547228</v>
       </c>
       <c r="C442" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" s="2" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B443" s="3">
-        <v>1001063237150</v>
+        <v>1001063237229</v>
       </c>
       <c r="C443" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B444" s="3">
-        <v>1001063237150</v>
+        <v>1001063237229</v>
       </c>
       <c r="C444" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" s="2" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
       <c r="B445" s="3">
-        <v>1001022467276</v>
+        <v>1001063237150</v>
       </c>
       <c r="C445" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446" s="2" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="B446" s="3">
-        <v>1001022467276</v>
+        <v>1001063237150</v>
       </c>
       <c r="C446" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
-        <v>485</v>
+        <v>704</v>
       </c>
       <c r="B447" s="3">
-        <v>1001022556837</v>
+        <v>1001022467276</v>
       </c>
       <c r="C447" t="s">
-        <v>486</v>
+        <v>707</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="B448" s="3">
+        <v>1001022467276</v>
+      </c>
+      <c r="C448" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A449" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="B449" s="3">
+        <v>1001022556837</v>
+      </c>
+      <c r="C449" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A450" s="2" t="s">
         <v>731</v>
       </c>
-      <c r="B448" s="3">
+      <c r="B450" s="3">
         <v>1001022556837</v>
       </c>
-      <c r="C448" t="s">
+      <c r="C450" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A449" s="2" t="s">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A451" s="2" t="s">
         <v>712</v>
       </c>
-      <c r="B449" s="5">
+      <c r="B451" s="5">
         <v>1001022556837</v>
       </c>
-      <c r="C449" s="6" t="s">
+      <c r="C451" s="6" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A450" s="2" t="s">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A452" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B450" s="3">
+      <c r="B452" s="3">
         <v>1001205376221</v>
       </c>
-      <c r="C450" t="s">
+      <c r="C452" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A451" s="2" t="s">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A453" s="2" t="s">
         <v>729</v>
       </c>
-      <c r="B451" s="3">
+      <c r="B453" s="3">
         <v>1001205376221</v>
       </c>
-      <c r="C451" t="s">
+      <c r="C453" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A452" s="2" t="s">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A454" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="B452" s="5">
+      <c r="B454" s="5">
         <v>1001205376221</v>
       </c>
-      <c r="C452" s="6" t="s">
+      <c r="C454" s="6" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A453" s="2" t="s">
-        <v>714</v>
-      </c>
-      <c r="B453" s="3">
-        <v>1001016747343</v>
-      </c>
-      <c r="C453" t="s">
-        <v>754</v>
-      </c>
-      <c r="E453" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A454" s="2" t="s">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A455" s="2" t="s">
         <v>494</v>
-      </c>
-      <c r="B454" s="3">
-        <v>1001214196459</v>
-      </c>
-      <c r="C454" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A455" s="2" t="s">
-        <v>726</v>
       </c>
       <c r="B455" s="3">
         <v>1001214196459</v>
@@ -7696,42 +7699,42 @@
         <v>495</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="B456" s="3">
+        <v>1001214196459</v>
+      </c>
+      <c r="C456" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A457" s="2" t="s">
         <v>715</v>
       </c>
-      <c r="B456" s="5">
+      <c r="B457" s="5">
         <v>1001214196459</v>
       </c>
-      <c r="C456" s="6" t="s">
+      <c r="C457" s="6" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A457" s="2" t="s">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A458" s="2" t="s">
         <v>716</v>
       </c>
-      <c r="B457" s="5">
+      <c r="B458" s="5">
         <v>1001010106325</v>
       </c>
-      <c r="C457" s="6" t="s">
+      <c r="C458" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A458" s="2" t="s">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A459" s="2" t="s">
         <v>727</v>
-      </c>
-      <c r="B458" s="5">
-        <v>1001013957231</v>
-      </c>
-      <c r="C458" s="6" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A459" s="2" t="s">
-        <v>717</v>
       </c>
       <c r="B459" s="5">
         <v>1001013957231</v>
@@ -7740,20 +7743,20 @@
         <v>723</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="B460" s="5">
+        <v>1001013957231</v>
+      </c>
+      <c r="C460" s="6" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A461" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="B460" s="3">
-        <v>1001220286279</v>
-      </c>
-      <c r="C460" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A461" s="2" t="s">
-        <v>733</v>
       </c>
       <c r="B461" s="3">
         <v>1001220286279</v>
@@ -7762,31 +7765,31 @@
         <v>48</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="B462" s="3">
+        <v>1001220286279</v>
+      </c>
+      <c r="C462" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A463" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="B462" s="5">
+      <c r="B463" s="5">
         <v>1001220286279</v>
       </c>
-      <c r="C462" s="6" t="s">
+      <c r="C463" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A463" s="2" t="s">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A464" s="2" t="s">
         <v>728</v>
-      </c>
-      <c r="B463" s="5">
-        <v>1001223297092</v>
-      </c>
-      <c r="C463" s="6" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A464" s="2" t="s">
-        <v>719</v>
       </c>
       <c r="B464" s="5">
         <v>1001223297092</v>
@@ -7797,18 +7800,18 @@
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="B465" s="3">
-        <v>1001020836724</v>
-      </c>
-      <c r="C465" t="s">
-        <v>581</v>
+        <v>719</v>
+      </c>
+      <c r="B465" s="5">
+        <v>1001223297092</v>
+      </c>
+      <c r="C465" s="6" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466" s="2" t="s">
-        <v>730</v>
+        <v>580</v>
       </c>
       <c r="B466" s="3">
         <v>1001020836724</v>
@@ -7819,29 +7822,29 @@
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467" s="2" t="s">
-        <v>720</v>
-      </c>
-      <c r="B467" s="5">
+        <v>730</v>
+      </c>
+      <c r="B467" s="3">
         <v>1001020836724</v>
       </c>
-      <c r="C467" s="6" t="s">
+      <c r="C467" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468" s="2" t="s">
-        <v>732</v>
+        <v>720</v>
       </c>
       <c r="B468" s="5">
-        <v>1001062475707</v>
+        <v>1001020836724</v>
       </c>
       <c r="C468" s="6" t="s">
-        <v>725</v>
+        <v>581</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469" s="2" t="s">
-        <v>721</v>
+        <v>732</v>
       </c>
       <c r="B469" s="5">
         <v>1001062475707</v>
@@ -7852,40 +7855,40 @@
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B470" s="5">
-        <v>1001033856609</v>
+        <v>1001062475707</v>
       </c>
       <c r="C470" s="6" t="s">
-        <v>231</v>
+        <v>725</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="B471" s="5">
+        <v>1001033856609</v>
+      </c>
+      <c r="C471" s="6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A472" s="2" t="s">
         <v>734</v>
       </c>
-      <c r="B471" s="3">
+      <c r="B472" s="3">
         <v>1001025767284</v>
       </c>
-      <c r="C471" s="6" t="s">
+      <c r="C472" s="6" t="s">
         <v>735</v>
-      </c>
-    </row>
-    <row r="472" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A472" s="7" t="s">
-        <v>736</v>
-      </c>
-      <c r="B472" s="5">
-        <v>1001301777332</v>
-      </c>
-      <c r="C472" s="6" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="473" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A473" s="7" t="s">
-        <v>750</v>
+        <v>736</v>
       </c>
       <c r="B473" s="5">
         <v>1001301777332</v>
@@ -7896,18 +7899,18 @@
     </row>
     <row r="474" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A474" s="7" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B474" s="5">
-        <v>1001303987333</v>
+        <v>1001301777332</v>
       </c>
       <c r="C474" s="6" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="475" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A475" s="7" t="s">
-        <v>737</v>
+        <v>751</v>
       </c>
       <c r="B475" s="5">
         <v>1001303987333</v>
@@ -7918,29 +7921,29 @@
     </row>
     <row r="476" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A476" s="7" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B476" s="5">
-        <v>1001012426220</v>
+        <v>1001303987333</v>
       </c>
       <c r="C476" s="6" t="s">
-        <v>194</v>
+        <v>743</v>
       </c>
     </row>
     <row r="477" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A477" s="7" t="s">
-        <v>749</v>
+        <v>738</v>
       </c>
       <c r="B477" s="5">
-        <v>1001300387157</v>
+        <v>1001012426220</v>
       </c>
       <c r="C477" s="6" t="s">
-        <v>744</v>
+        <v>194</v>
       </c>
     </row>
     <row r="478" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A478" s="7" t="s">
-        <v>739</v>
+        <v>749</v>
       </c>
       <c r="B478" s="5">
         <v>1001300387157</v>
@@ -7951,18 +7954,18 @@
     </row>
     <row r="479" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A479" s="7" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B479" s="5">
-        <v>1001220226208</v>
+        <v>1001300387157</v>
       </c>
       <c r="C479" s="6" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="480" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A480" s="7" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="B480" s="5">
         <v>1001220226208</v>
@@ -7973,18 +7976,18 @@
     </row>
     <row r="481" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A481" s="7" t="s">
+        <v>747</v>
+      </c>
+      <c r="B481" s="5">
+        <v>1001220226208</v>
+      </c>
+      <c r="C481" s="6" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A482" s="7" t="s">
         <v>741</v>
-      </c>
-      <c r="B481" s="5">
-        <v>1001063656967</v>
-      </c>
-      <c r="C481" s="6" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A482" s="2" t="s">
-        <v>748</v>
       </c>
       <c r="B482" s="5">
         <v>1001063656967</v>
@@ -7993,8 +7996,19 @@
         <v>746</v>
       </c>
     </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A483" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="B483" s="5">
+        <v>1001063656967</v>
+      </c>
+      <c r="C483" s="6" t="s">
+        <v>746</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C482" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
+  <autoFilter ref="A1:C483" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/в бланки заводов/Останкино КИ/ostankino_ki/NV/moduls/1С.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/NV/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\NV\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A3C208-5C36-4DC7-8273-C0303124F485}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD95F88-27BD-4F00-B88C-4E20BE14E5FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$483</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$487</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="763">
   <si>
     <t>1С</t>
   </si>
@@ -2305,6 +2305,24 @@
   </si>
   <si>
     <t>7343 СЕЙЧАС СЕЗОН ПМ вар п/о 0,4кг ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>3986 Ароматная с/к в/у 1/250 ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6832 АССОРТИ СЫРОКОПЧЕНЫХ КОЛБАС Коровино в/у  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>АССОРТИ СЫРОКОПЧЕНЫХ КОЛБАС Коровино в/у</t>
+  </si>
+  <si>
+    <t>7299 НАБОР ДЛЯ ПИЦЦЫ Папа Может с/к в/у  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>НАБОР ДЛЯ ПИЦЦЫ Папа Может с/к в/у</t>
+  </si>
+  <si>
+    <t>7255 МЯСНЫЕ С ГОВЯД.ПМ сос п/о мгс 0.4кг 6шт.  ОСТАНКИНО</t>
   </si>
 </sst>
 </file>
@@ -2661,11 +2679,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F483"/>
+  <dimension ref="A1:F487"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2988,7 +3006,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>34</v>
+        <v>757</v>
       </c>
       <c r="B29" s="3">
         <v>1001061973986</v>
@@ -2996,57 +3014,57 @@
       <c r="C29" t="s">
         <v>752</v>
       </c>
-      <c r="E29" t="s">
-        <v>753</v>
-      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30" s="3">
-        <v>1001063145708</v>
+        <v>1001061973986</v>
       </c>
       <c r="C30" t="s">
-        <v>36</v>
+        <v>752</v>
+      </c>
+      <c r="E30" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B31" s="3">
-        <v>1001022465820</v>
+        <v>1001063145708</v>
       </c>
       <c r="C31" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B32" s="3">
-        <v>1001012505851</v>
+        <v>1001022465820</v>
       </c>
       <c r="C32" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>288</v>
+        <v>39</v>
       </c>
       <c r="B33" s="3">
-        <v>1001060755931</v>
+        <v>1001012505851</v>
       </c>
       <c r="C33" t="s">
-        <v>414</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>41</v>
+        <v>288</v>
       </c>
       <c r="B34" s="3">
         <v>1001060755931</v>
@@ -3057,51 +3075,51 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B35" s="3">
-        <v>1001012815997</v>
+        <v>1001060755931</v>
       </c>
       <c r="C35" t="s">
-        <v>43</v>
+        <v>414</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B36" s="3">
-        <v>1001024906042</v>
+        <v>1001012815997</v>
       </c>
       <c r="C36" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B37" s="3">
-        <v>1001024976829</v>
+        <v>1001024906042</v>
       </c>
       <c r="C37" t="s">
-        <v>399</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>441</v>
+        <v>46</v>
       </c>
       <c r="B38" s="3">
-        <v>1001084216206</v>
+        <v>1001024976829</v>
       </c>
       <c r="C38" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>49</v>
+        <v>441</v>
       </c>
       <c r="B39" s="3">
         <v>1001084216206</v>
@@ -3112,18 +3130,18 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>681</v>
+        <v>49</v>
       </c>
       <c r="B40" s="3">
-        <v>1001022557257</v>
+        <v>1001084216206</v>
       </c>
       <c r="C40" t="s">
-        <v>676</v>
+        <v>384</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B41" s="3">
         <v>1001022557257</v>
@@ -3134,7 +3152,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>482</v>
+        <v>683</v>
       </c>
       <c r="B42" s="3">
         <v>1001022557257</v>
@@ -3145,63 +3163,63 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>50</v>
+        <v>482</v>
       </c>
       <c r="B43" s="3">
-        <v>1001022556069</v>
+        <v>1001022557257</v>
       </c>
       <c r="C43" t="s">
-        <v>472</v>
-      </c>
-      <c r="F43" s="3"/>
+        <v>676</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B44" s="3">
-        <v>1001010106325</v>
+        <v>1001022556069</v>
       </c>
       <c r="C44" t="s">
-        <v>52</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B45" s="3">
-        <v>1001012486333</v>
+        <v>1001010106325</v>
       </c>
       <c r="C45" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B46" s="3">
-        <v>1001012506353</v>
+        <v>1001012486333</v>
       </c>
       <c r="C46" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>201</v>
+        <v>56</v>
       </c>
       <c r="B47" s="3">
-        <v>1001304507236</v>
+        <v>1001012506353</v>
       </c>
       <c r="C47" t="s">
-        <v>677</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>114</v>
+        <v>201</v>
       </c>
       <c r="B48" s="3">
         <v>1001304507236</v>
@@ -3212,7 +3230,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>682</v>
+        <v>114</v>
       </c>
       <c r="B49" s="3">
         <v>1001304507236</v>
@@ -3223,29 +3241,29 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>115</v>
+        <v>682</v>
       </c>
       <c r="B50" s="3">
-        <v>1001303056692</v>
+        <v>1001304507236</v>
       </c>
       <c r="C50" t="s">
-        <v>59</v>
+        <v>677</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>653</v>
+        <v>115</v>
       </c>
       <c r="B51" s="3">
-        <v>1001303637149</v>
+        <v>1001303056692</v>
       </c>
       <c r="C51" t="s">
-        <v>627</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>626</v>
+        <v>653</v>
       </c>
       <c r="B52" s="3">
         <v>1001303637149</v>
@@ -3256,51 +3274,51 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>60</v>
+        <v>626</v>
       </c>
       <c r="B53" s="3">
-        <v>1001013956426</v>
+        <v>1001303637149</v>
       </c>
       <c r="C53" t="s">
-        <v>428</v>
+        <v>627</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B54" s="3">
-        <v>1001024636438</v>
+        <v>1001013956426</v>
       </c>
       <c r="C54" t="s">
-        <v>62</v>
+        <v>428</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B55" s="3">
-        <v>1001234146448</v>
+        <v>1001024636438</v>
       </c>
       <c r="C55" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>289</v>
+        <v>63</v>
       </c>
       <c r="B56" s="3">
-        <v>1001202506453</v>
+        <v>1001234146448</v>
       </c>
       <c r="C56" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>66</v>
+        <v>289</v>
       </c>
       <c r="B57" s="3">
         <v>1001202506453</v>
@@ -3311,227 +3329,227 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B58" s="3">
-        <v>1001201976454</v>
+        <v>1001202506453</v>
       </c>
       <c r="C58" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B59" s="3">
-        <v>1001025176475</v>
+        <v>1001201976454</v>
       </c>
       <c r="C59" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="B60" s="3">
-        <v>1001301876697</v>
+        <v>1001025176475</v>
       </c>
       <c r="C60" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="B61" s="3">
-        <v>1001024636517</v>
+        <v>1001301876697</v>
       </c>
       <c r="C61" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B62" s="3">
-        <v>1001031076527</v>
+        <v>1001024636517</v>
       </c>
       <c r="C62" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B63" s="3">
-        <v>1001304506562</v>
+        <v>1001031076527</v>
       </c>
       <c r="C63" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B64" s="3">
-        <v>1001020846563</v>
+        <v>1001304506562</v>
       </c>
       <c r="C64" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B65" s="3">
-        <v>1001020836589</v>
+        <v>1001020846563</v>
       </c>
       <c r="C65" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B66" s="3">
-        <v>6751</v>
+        <v>1001020836589</v>
       </c>
       <c r="C66" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B67" s="3">
-        <v>1001010016592</v>
+        <v>6751</v>
       </c>
       <c r="C67" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B68" s="3">
-        <v>1001010026594</v>
+        <v>1001010016592</v>
       </c>
       <c r="C68" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B69" s="3">
-        <v>1001022296601</v>
+        <v>1001010026594</v>
       </c>
       <c r="C69" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B70" s="3">
-        <v>1001031896648</v>
+        <v>1001022296601</v>
       </c>
       <c r="C70" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B71" s="3">
-        <v>1001035266650</v>
+        <v>1001031896648</v>
       </c>
       <c r="C71" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B72" s="3">
-        <v>1001305256658</v>
+        <v>1001035266650</v>
       </c>
       <c r="C72" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B73" s="3">
-        <v>1001010016593</v>
+        <v>1001305256658</v>
       </c>
       <c r="C73" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B74" s="3">
-        <v>1001010026595</v>
+        <v>1001010016593</v>
       </c>
       <c r="C74" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B75" s="3">
-        <v>1001010036597</v>
+        <v>1001010026595</v>
       </c>
       <c r="C75" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B76" s="3">
-        <v>1001020886646</v>
+        <v>1001010036597</v>
       </c>
       <c r="C76" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>313</v>
+        <v>111</v>
       </c>
       <c r="B77" s="3">
-        <v>1001305306566</v>
+        <v>1001020886646</v>
       </c>
       <c r="C77" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>112</v>
+        <v>313</v>
       </c>
       <c r="B78" s="3">
         <v>1001305306566</v>
@@ -3542,18 +3560,18 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>651</v>
+        <v>112</v>
       </c>
       <c r="B79" s="3">
-        <v>1001300387154</v>
+        <v>1001305306566</v>
       </c>
       <c r="C79" t="s">
-        <v>631</v>
+        <v>113</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>630</v>
+        <v>651</v>
       </c>
       <c r="B80" s="3">
         <v>1001300387154</v>
@@ -3564,18 +3582,18 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>652</v>
+        <v>630</v>
       </c>
       <c r="B81" s="3">
-        <v>1001303987169</v>
+        <v>1001300387154</v>
       </c>
       <c r="C81" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>632</v>
+        <v>652</v>
       </c>
       <c r="B82" s="3">
         <v>1001303987169</v>
@@ -3586,20 +3604,20 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>232</v>
+        <v>632</v>
       </c>
       <c r="B83" s="3">
-        <v>1001303106773</v>
+        <v>1001303987169</v>
       </c>
       <c r="C83" t="s">
-        <v>336</v>
+        <v>633</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="B84" s="4">
+        <v>232</v>
+      </c>
+      <c r="B84" s="3">
         <v>1001303106773</v>
       </c>
       <c r="C84" t="s">
@@ -3608,7 +3626,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>264</v>
+        <v>343</v>
       </c>
       <c r="B85" s="4">
         <v>1001303106773</v>
@@ -3619,9 +3637,9 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B86" s="3">
+        <v>264</v>
+      </c>
+      <c r="B86" s="4">
         <v>1001303106773</v>
       </c>
       <c r="C86" t="s">
@@ -3630,7 +3648,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>383</v>
+        <v>116</v>
       </c>
       <c r="B87" s="3">
         <v>1001303106773</v>
@@ -3641,7 +3659,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B88" s="3">
         <v>1001303106773</v>
@@ -3652,7 +3670,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B89" s="3">
         <v>1001303106773</v>
@@ -3663,18 +3681,18 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>221</v>
+        <v>378</v>
       </c>
       <c r="B90" s="3">
-        <v>1001012566392</v>
+        <v>1001303106773</v>
       </c>
       <c r="C90" t="s">
-        <v>55</v>
+        <v>336</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>413</v>
+        <v>221</v>
       </c>
       <c r="B91" s="3">
         <v>1001012566392</v>
@@ -3685,7 +3703,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>119</v>
+        <v>413</v>
       </c>
       <c r="B92" s="3">
         <v>1001012566392</v>
@@ -3696,18 +3714,18 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>654</v>
+        <v>119</v>
       </c>
       <c r="B93" s="3">
-        <v>1001302277173</v>
+        <v>1001012566392</v>
       </c>
       <c r="C93" t="s">
-        <v>629</v>
+        <v>55</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>628</v>
+        <v>654</v>
       </c>
       <c r="B94" s="3">
         <v>1001302277173</v>
@@ -3718,18 +3736,18 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>711</v>
+        <v>628</v>
       </c>
       <c r="B95" s="3">
-        <v>1001012426268</v>
+        <v>1001302277173</v>
       </c>
       <c r="C95" t="s">
-        <v>121</v>
+        <v>629</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>122</v>
+        <v>711</v>
       </c>
       <c r="B96" s="3">
         <v>1001012426268</v>
@@ -3740,95 +3758,95 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B97" s="3">
-        <v>1001024906041</v>
+        <v>1001012426268</v>
       </c>
       <c r="C97" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B98" s="3">
-        <v>1001011086247</v>
+        <v>1001024906041</v>
       </c>
       <c r="C98" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="B99" s="3">
-        <v>1001014486158</v>
+        <v>1001011086247</v>
       </c>
       <c r="C99" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B100" s="3">
-        <v>1001015356259</v>
+        <v>1001014486158</v>
       </c>
       <c r="C100" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B101" s="3">
-        <v>1001012816716</v>
+        <v>1001015356259</v>
       </c>
       <c r="C101" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>318</v>
+        <v>151</v>
       </c>
       <c r="B102" s="3">
-        <v>1001020966227</v>
+        <v>1001012816716</v>
       </c>
       <c r="C102" t="s">
-        <v>317</v>
+        <v>142</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>128</v>
+        <v>318</v>
       </c>
       <c r="B103" s="3">
         <v>1001020966227</v>
       </c>
       <c r="C103" t="s">
-        <v>129</v>
+        <v>317</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>219</v>
+        <v>128</v>
       </c>
       <c r="B104" s="3">
-        <v>1001022726303</v>
+        <v>1001020966227</v>
       </c>
       <c r="C104" t="s">
-        <v>252</v>
+        <v>129</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="B105" s="3">
         <v>1001022726303</v>
@@ -3839,7 +3857,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>335</v>
+        <v>251</v>
       </c>
       <c r="B106" s="3">
         <v>1001022726303</v>
@@ -3850,62 +3868,62 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>152</v>
+        <v>335</v>
       </c>
       <c r="B107" s="3">
         <v>1001022726303</v>
       </c>
       <c r="C107" t="s">
-        <v>154</v>
+        <v>252</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="B108" s="3">
-        <v>1001022466726</v>
+        <v>1001022726303</v>
       </c>
       <c r="C108" t="s">
-        <v>108</v>
+        <v>154</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="B109" s="3">
-        <v>1001020966144</v>
+        <v>1001022466726</v>
       </c>
       <c r="C109" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="B110" s="3">
-        <v>1001022376722</v>
+        <v>1001020966144</v>
       </c>
       <c r="C110" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>573</v>
+        <v>120</v>
       </c>
       <c r="B111" s="3">
-        <v>1001022376955</v>
+        <v>1001022376722</v>
       </c>
       <c r="C111" t="s">
-        <v>564</v>
+        <v>118</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B112" s="3">
         <v>1001022376955</v>
@@ -3916,7 +3934,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>133</v>
+        <v>571</v>
       </c>
       <c r="B113" s="3">
         <v>1001022376955</v>
@@ -3927,18 +3945,18 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>244</v>
+        <v>133</v>
       </c>
       <c r="B114" s="3">
-        <v>1001022246661</v>
+        <v>1001022376955</v>
       </c>
       <c r="C114" t="s">
-        <v>245</v>
+        <v>564</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>314</v>
+        <v>244</v>
       </c>
       <c r="B115" s="3">
         <v>1001022246661</v>
@@ -3949,172 +3967,172 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>132</v>
+        <v>314</v>
       </c>
       <c r="B116" s="3">
         <v>1001022246661</v>
       </c>
       <c r="C116" t="s">
-        <v>134</v>
+        <v>245</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B117" s="3">
-        <v>1001022246713</v>
+        <v>1001022246661</v>
       </c>
       <c r="C117" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B118" s="3">
-        <v>1001025166241</v>
+        <v>1001022246713</v>
       </c>
       <c r="C118" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B119" s="3">
-        <v>6606</v>
+        <v>1001025166241</v>
       </c>
       <c r="C119" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="B120" s="3">
-        <v>1001035326217</v>
+        <v>6606</v>
       </c>
       <c r="C120" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="B121" s="3">
-        <v>1001303636301</v>
+        <v>1001035326217</v>
       </c>
       <c r="C121" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>93</v>
+        <v>150</v>
       </c>
       <c r="B122" s="3">
-        <v>1001303636302</v>
+        <v>1001303636301</v>
       </c>
       <c r="C122" t="s">
-        <v>94</v>
+        <v>144</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="B123" s="3">
-        <v>1001305196215</v>
+        <v>1001303636302</v>
       </c>
       <c r="C123" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="B124" s="3">
-        <v>1001301876212</v>
+        <v>1001305196215</v>
       </c>
       <c r="C124" t="s">
-        <v>145</v>
+        <v>78</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="B125" s="3">
-        <v>1001301876213</v>
+        <v>1001301876212</v>
       </c>
       <c r="C125" t="s">
-        <v>77</v>
+        <v>145</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="B126" s="3">
-        <v>1001303636302</v>
+        <v>1001301876213</v>
       </c>
       <c r="C126" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B127" s="3">
-        <v>6645</v>
+        <v>1001303636302</v>
       </c>
       <c r="C127" t="s">
-        <v>157</v>
+        <v>94</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B128" s="3">
-        <v>1001225416228</v>
+        <v>6645</v>
       </c>
       <c r="C128" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B129" s="3">
-        <v>6225</v>
+        <v>1001225416228</v>
       </c>
       <c r="C129" t="s">
-        <v>268</v>
+        <v>159</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B130" s="3">
-        <v>1001022376722</v>
+        <v>6225</v>
       </c>
       <c r="C130" t="s">
-        <v>118</v>
+        <v>268</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B131" s="3">
         <v>1001022376722</v>
@@ -4125,29 +4143,29 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B132" s="3">
-        <v>3297</v>
+        <v>1001022376722</v>
       </c>
       <c r="C132" t="s">
-        <v>164</v>
+        <v>118</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>308</v>
+        <v>163</v>
       </c>
       <c r="B133" s="3">
-        <v>1001022466726</v>
+        <v>3297</v>
       </c>
       <c r="C133" t="s">
-        <v>286</v>
+        <v>164</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>287</v>
+        <v>308</v>
       </c>
       <c r="B134" s="3">
         <v>1001022466726</v>
@@ -4158,51 +4176,51 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>167</v>
+        <v>287</v>
       </c>
       <c r="B135" s="3">
         <v>1001022466726</v>
       </c>
       <c r="C135" t="s">
-        <v>108</v>
+        <v>286</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B136" s="3">
-        <v>1001021966602</v>
+        <v>1001022466726</v>
       </c>
       <c r="C136" t="s">
-        <v>279</v>
+        <v>108</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B137" s="3">
-        <v>6233</v>
+        <v>1001021966602</v>
       </c>
       <c r="C137" t="s">
-        <v>169</v>
+        <v>279</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>259</v>
+        <v>170</v>
       </c>
       <c r="B138" s="3">
-        <v>1001012816341</v>
+        <v>6233</v>
       </c>
       <c r="C138" t="s">
-        <v>438</v>
+        <v>169</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>484</v>
+        <v>259</v>
       </c>
       <c r="B139" s="3">
         <v>1001012816341</v>
@@ -4213,7 +4231,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B140" s="3">
         <v>1001012816341</v>
@@ -4224,7 +4242,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>171</v>
+        <v>487</v>
       </c>
       <c r="B141" s="3">
         <v>1001012816341</v>
@@ -4235,51 +4253,51 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B142" s="3">
-        <v>6750</v>
+        <v>1001012816341</v>
       </c>
       <c r="C142" t="s">
-        <v>84</v>
+        <v>438</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B143" s="3">
-        <v>6751</v>
+        <v>6750</v>
       </c>
       <c r="C143" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B144" s="3">
-        <v>5982</v>
+        <v>6751</v>
       </c>
       <c r="C144" t="s">
-        <v>175</v>
+        <v>86</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>535</v>
+        <v>174</v>
       </c>
       <c r="B145" s="3">
-        <v>1001022656854</v>
+        <v>5982</v>
       </c>
       <c r="C145" t="s">
-        <v>427</v>
+        <v>175</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>552</v>
+        <v>535</v>
       </c>
       <c r="B146" s="3">
         <v>1001022656854</v>
@@ -4290,7 +4308,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>451</v>
+        <v>552</v>
       </c>
       <c r="B147" s="3">
         <v>1001022656854</v>
@@ -4301,7 +4319,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>176</v>
+        <v>451</v>
       </c>
       <c r="B148" s="3">
         <v>1001022656854</v>
@@ -4312,21 +4330,21 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B149" s="3">
-        <v>1001094966025</v>
+        <v>1001022656854</v>
       </c>
       <c r="C149" t="s">
-        <v>178</v>
+        <v>427</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B150" s="3">
-        <v>6025</v>
+        <v>1001094966025</v>
       </c>
       <c r="C150" t="s">
         <v>178</v>
@@ -4334,29 +4352,29 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B151" s="3">
-        <v>1001022373812</v>
+        <v>6025</v>
       </c>
       <c r="C151" t="s">
-        <v>3</v>
+        <v>178</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B152" s="3">
-        <v>1001100606827</v>
+        <v>1001022373812</v>
       </c>
       <c r="C152" t="s">
-        <v>325</v>
+        <v>3</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>337</v>
+        <v>185</v>
       </c>
       <c r="B153" s="3">
         <v>1001100606827</v>
@@ -4367,18 +4385,18 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>186</v>
+        <v>337</v>
       </c>
       <c r="B154" s="3">
-        <v>1001100616826</v>
+        <v>1001100606827</v>
       </c>
       <c r="C154" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>338</v>
+        <v>186</v>
       </c>
       <c r="B155" s="3">
         <v>1001100616826</v>
@@ -4389,18 +4407,18 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>187</v>
+        <v>338</v>
       </c>
       <c r="B156" s="3">
-        <v>1001100626828</v>
+        <v>1001100616826</v>
       </c>
       <c r="C156" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>339</v>
+        <v>187</v>
       </c>
       <c r="B157" s="3">
         <v>1001100626828</v>
@@ -4411,62 +4429,62 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>188</v>
+        <v>339</v>
       </c>
       <c r="B158" s="3">
-        <v>1001035026308</v>
+        <v>1001100626828</v>
       </c>
       <c r="C158" t="s">
-        <v>189</v>
+        <v>327</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>556</v>
+        <v>188</v>
       </c>
       <c r="B159" s="3">
-        <v>1001014486159</v>
+        <v>1001035026308</v>
       </c>
       <c r="C159" t="s">
-        <v>557</v>
+        <v>189</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>190</v>
+        <v>556</v>
       </c>
       <c r="B160" s="3">
         <v>1001014486159</v>
       </c>
       <c r="C160" t="s">
-        <v>191</v>
+        <v>557</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B161" s="3">
-        <v>1001035326217</v>
+        <v>1001014486159</v>
       </c>
       <c r="C161" t="s">
-        <v>283</v>
+        <v>191</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>502</v>
+        <v>192</v>
       </c>
       <c r="B162" s="3">
-        <v>1001012426220</v>
+        <v>1001035326217</v>
       </c>
       <c r="C162" t="s">
-        <v>194</v>
+        <v>283</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>193</v>
+        <v>502</v>
       </c>
       <c r="B163" s="3">
         <v>1001012426220</v>
@@ -4477,238 +4495,238 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B164" s="3">
-        <v>1001022466236</v>
+        <v>1001012426220</v>
       </c>
       <c r="C164" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B165" s="3">
-        <v>1001021966602</v>
+        <v>1001022466236</v>
       </c>
       <c r="C165" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B166" s="3">
-        <v>1001022296656</v>
+        <v>1001021966602</v>
       </c>
       <c r="C166" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B167" s="3">
-        <v>1001301876697</v>
+        <v>1001022296656</v>
       </c>
       <c r="C167" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B168" s="3">
-        <v>1001022246713</v>
+        <v>1001301876697</v>
       </c>
       <c r="C168" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B169" s="3">
-        <v>1001022376722</v>
+        <v>1001022246713</v>
       </c>
       <c r="C169" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B170" s="3">
-        <v>1001020846751</v>
+        <v>1001022376722</v>
       </c>
       <c r="C170" t="s">
-        <v>86</v>
+        <v>208</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B171" s="3">
-        <v>1001022725819</v>
+        <v>1001020846751</v>
       </c>
       <c r="C171" t="s">
-        <v>211</v>
+        <v>86</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B172" s="3">
-        <v>1001012825337</v>
+        <v>1001022725819</v>
       </c>
       <c r="C172" t="s">
-        <v>27</v>
+        <v>211</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B173" s="3">
-        <v>1001012815336</v>
+        <v>1001012825337</v>
       </c>
       <c r="C173" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B174" s="3">
-        <v>1001234146448</v>
+        <v>1001012815336</v>
       </c>
       <c r="C174" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B175" s="3">
-        <v>1001022725819</v>
+        <v>1001234146448</v>
       </c>
       <c r="C175" t="s">
-        <v>211</v>
+        <v>64</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B176" s="3">
-        <v>1001092676027</v>
+        <v>1001022725819</v>
       </c>
       <c r="C176" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B177" s="3">
-        <v>1001301876213</v>
+        <v>1001092676027</v>
       </c>
       <c r="C177" t="s">
-        <v>77</v>
+        <v>217</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B178" s="3">
-        <v>1001035026308</v>
+        <v>1001301876213</v>
       </c>
       <c r="C178" t="s">
-        <v>403</v>
+        <v>77</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B179" s="3">
-        <v>1001234146448</v>
+        <v>1001035026308</v>
       </c>
       <c r="C179" t="s">
-        <v>64</v>
+        <v>403</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B180" s="3">
-        <v>1001201976454</v>
+        <v>1001234146448</v>
       </c>
       <c r="C180" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B181" s="3">
-        <v>1001025176475</v>
+        <v>1001201976454</v>
       </c>
       <c r="C181" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B182" s="3">
-        <v>1001012456498</v>
+        <v>1001025176475</v>
       </c>
       <c r="C182" t="s">
-        <v>227</v>
+        <v>71</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B183" s="3">
-        <v>1001010036596</v>
+        <v>1001012456498</v>
       </c>
       <c r="C183" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>567</v>
+        <v>228</v>
       </c>
       <c r="B184" s="3">
-        <v>1001033856608</v>
+        <v>1001010036596</v>
       </c>
       <c r="C184" t="s">
-        <v>558</v>
+        <v>229</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="B185" s="3">
         <v>1001033856608</v>
@@ -4719,18 +4737,18 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="B186" s="3">
-        <v>1001033856609</v>
+        <v>1001033856608</v>
       </c>
       <c r="C186" t="s">
-        <v>231</v>
+        <v>558</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>230</v>
+        <v>568</v>
       </c>
       <c r="B187" s="3">
         <v>1001033856609</v>
@@ -4741,315 +4759,315 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B188" s="3">
-        <v>1001093345495</v>
+        <v>1001033856609</v>
       </c>
       <c r="C188" t="s">
-        <v>439</v>
+        <v>231</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B189" s="3">
-        <v>6550</v>
+        <v>1001093345495</v>
       </c>
       <c r="C189" t="s">
-        <v>236</v>
+        <v>439</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B190" s="3">
-        <v>1001304506684</v>
+        <v>6550</v>
       </c>
       <c r="C190" t="s">
-        <v>58</v>
+        <v>236</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B191" s="3">
-        <v>1001010113248</v>
+        <v>1001304506684</v>
       </c>
       <c r="C191" t="s">
-        <v>239</v>
+        <v>58</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>411</v>
+        <v>238</v>
       </c>
       <c r="B192" s="3">
-        <v>1001063926780</v>
+        <v>1001010113248</v>
       </c>
       <c r="C192" t="s">
-        <v>412</v>
+        <v>239</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>240</v>
+        <v>411</v>
       </c>
       <c r="B193" s="3">
-        <v>6586</v>
+        <v>1001063926780</v>
       </c>
       <c r="C193" t="s">
-        <v>241</v>
+        <v>412</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B194" s="3">
-        <v>1001303636467</v>
+        <v>6586</v>
       </c>
       <c r="C194" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B195" s="3">
-        <v>1001304496701</v>
+        <v>1001303636467</v>
       </c>
       <c r="C195" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B196" s="3">
-        <v>6144</v>
+        <v>1001304496701</v>
       </c>
       <c r="C196" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B197" s="3">
-        <v>1001022725819</v>
+        <v>6144</v>
       </c>
       <c r="C197" t="s">
-        <v>211</v>
+        <v>249</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B198" s="3">
-        <v>1001022373812</v>
+        <v>1001022725819</v>
       </c>
       <c r="C198" t="s">
-        <v>3</v>
+        <v>211</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B199" s="3">
-        <v>1001024906062</v>
+        <v>1001022373812</v>
       </c>
       <c r="C199" t="s">
-        <v>255</v>
+        <v>3</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B200" s="3">
-        <v>1001303056692</v>
+        <v>1001024906062</v>
       </c>
       <c r="C200" t="s">
-        <v>59</v>
+        <v>255</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B201" s="3">
-        <v>1001301876697</v>
+        <v>1001303056692</v>
       </c>
       <c r="C201" t="s">
-        <v>203</v>
+        <v>59</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B202" s="3">
-        <v>1001012634574</v>
+        <v>1001301876697</v>
       </c>
       <c r="C202" t="s">
-        <v>11</v>
+        <v>203</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B203" s="3">
-        <v>1001092485452</v>
+        <v>1001012634574</v>
       </c>
       <c r="C203" t="s">
-        <v>261</v>
+        <v>11</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B204" s="3">
-        <v>1001020966144</v>
+        <v>1001092485452</v>
       </c>
       <c r="C204" t="s">
-        <v>143</v>
+        <v>261</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B205" s="3">
-        <v>6586</v>
+        <v>1001020966144</v>
       </c>
       <c r="C205" t="s">
-        <v>241</v>
+        <v>143</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B206" s="3">
-        <v>1001304496701</v>
+        <v>6586</v>
       </c>
       <c r="C206" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B207" s="3">
-        <v>1001063655015</v>
+        <v>1001304496701</v>
       </c>
       <c r="C207" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B208" s="3">
-        <v>1001060763287</v>
+        <v>1001063655015</v>
       </c>
       <c r="C208" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B209" s="3">
-        <v>1001225416228</v>
+        <v>1001060763287</v>
       </c>
       <c r="C209" t="s">
-        <v>159</v>
+        <v>270</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B210" s="3">
-        <v>1001032736550</v>
+        <v>1001225416228</v>
       </c>
       <c r="C210" t="s">
-        <v>236</v>
+        <v>159</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B211" s="3">
-        <v>6758</v>
+        <v>1001032736550</v>
       </c>
       <c r="C211" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B212" s="3">
-        <v>1001020965976</v>
+        <v>6758</v>
       </c>
       <c r="C212" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B213" s="3">
-        <v>1001215576586</v>
+        <v>1001020965976</v>
       </c>
       <c r="C213" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B214" s="3">
-        <v>1001094896026</v>
+        <v>1001215576586</v>
       </c>
       <c r="C214" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>492</v>
+        <v>280</v>
       </c>
       <c r="B215" s="3">
-        <v>1001215576586</v>
+        <v>1001094896026</v>
       </c>
       <c r="C215" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>282</v>
+        <v>492</v>
       </c>
       <c r="B216" s="3">
         <v>1001215576586</v>
@@ -5060,43 +5078,40 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B217" s="3">
-        <v>1001092436470</v>
+        <v>1001215576586</v>
       </c>
       <c r="C217" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="B218" s="3">
-        <v>1001203146555</v>
+        <v>1001092436470</v>
       </c>
       <c r="C218" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="B219" s="3">
-        <v>1001016747343</v>
+        <v>1001203146555</v>
       </c>
       <c r="C219" t="s">
-        <v>754</v>
-      </c>
-      <c r="E219" t="s">
-        <v>753</v>
+        <v>290</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>714</v>
+        <v>301</v>
       </c>
       <c r="B220" s="3">
         <v>1001016747343</v>
@@ -5110,7 +5125,7 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>292</v>
+        <v>714</v>
       </c>
       <c r="B221" s="3">
         <v>1001016747343</v>
@@ -5124,7 +5139,7 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>756</v>
+        <v>292</v>
       </c>
       <c r="B222" s="3">
         <v>1001016747343</v>
@@ -5132,54 +5147,57 @@
       <c r="C222" t="s">
         <v>754</v>
       </c>
+      <c r="E222" t="s">
+        <v>753</v>
+      </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>294</v>
+        <v>756</v>
       </c>
       <c r="B223" s="3">
-        <v>1001014765993</v>
+        <v>1001016747343</v>
       </c>
       <c r="C223" t="s">
-        <v>293</v>
+        <v>754</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B224" s="3">
-        <v>1001025166776</v>
+        <v>1001014765993</v>
       </c>
       <c r="C224" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B225" s="3">
-        <v>1001025506777</v>
+        <v>1001025166776</v>
       </c>
       <c r="C225" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
       <c r="B226" s="3">
-        <v>1001025546822</v>
+        <v>1001025506777</v>
       </c>
       <c r="C226" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B227" s="3">
         <v>1001025546822</v>
@@ -5190,40 +5208,40 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="B228" s="3">
         <v>1001025546822</v>
       </c>
       <c r="C228" t="s">
-        <v>550</v>
+        <v>300</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="B229" s="3">
         <v>1001025546822</v>
       </c>
       <c r="C229" t="s">
-        <v>300</v>
+        <v>550</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>661</v>
+        <v>299</v>
       </c>
       <c r="B230" s="3">
-        <v>1001024976616</v>
+        <v>1001025546822</v>
       </c>
       <c r="C230" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>303</v>
+        <v>661</v>
       </c>
       <c r="B231" s="3">
         <v>1001024976616</v>
@@ -5234,29 +5252,29 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B232" s="3">
-        <v>1001010855247</v>
+        <v>1001024976616</v>
       </c>
       <c r="C232" t="s">
-        <v>23</v>
+        <v>302</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>382</v>
+        <v>304</v>
       </c>
       <c r="B233" s="3">
-        <v>1001223296919</v>
+        <v>1001010855247</v>
       </c>
       <c r="C233" t="s">
-        <v>385</v>
+        <v>23</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>65</v>
+        <v>382</v>
       </c>
       <c r="B234" s="3">
         <v>1001223296919</v>
@@ -5267,7 +5285,7 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>223</v>
+        <v>65</v>
       </c>
       <c r="B235" s="3">
         <v>1001223296919</v>
@@ -5278,29 +5296,29 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>455</v>
+        <v>223</v>
       </c>
       <c r="B236" s="3">
         <v>1001223296919</v>
       </c>
       <c r="C236" t="s">
-        <v>471</v>
+        <v>385</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>477</v>
+        <v>455</v>
       </c>
       <c r="B237" s="3">
         <v>1001223296919</v>
       </c>
       <c r="C237" t="s">
-        <v>385</v>
+        <v>471</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>305</v>
+        <v>477</v>
       </c>
       <c r="B238" s="3">
         <v>1001223296919</v>
@@ -5311,73 +5329,73 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B239" s="3">
-        <v>1001014765993</v>
+        <v>1001223296919</v>
       </c>
       <c r="C239" t="s">
-        <v>293</v>
+        <v>385</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B240" s="3">
-        <v>1001025166776</v>
+        <v>1001014765993</v>
       </c>
       <c r="C240" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B241" s="3">
-        <v>1001025506777</v>
+        <v>1001025166776</v>
       </c>
       <c r="C241" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B242" s="3">
-        <v>1001025526778</v>
+        <v>1001025506777</v>
       </c>
       <c r="C242" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B243" s="3">
-        <v>1001304236685</v>
+        <v>1001025526778</v>
       </c>
       <c r="C243" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>340</v>
+        <v>315</v>
       </c>
       <c r="B244" s="3">
-        <v>1001015496769</v>
+        <v>1001304236685</v>
       </c>
       <c r="C244" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="B245" s="3">
         <v>1001015496769</v>
@@ -5388,84 +5406,84 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B246" s="3">
-        <v>1001014766798</v>
+        <v>1001015496769</v>
       </c>
       <c r="C246" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B247" s="3">
-        <v>1001015026797</v>
+        <v>1001014766798</v>
       </c>
       <c r="C247" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B248" s="3">
-        <v>1001205386222</v>
+        <v>1001015026797</v>
       </c>
       <c r="C248" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B249" s="3">
-        <v>1001092675224</v>
+        <v>1001205386222</v>
       </c>
       <c r="C249" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="B250" s="3">
-        <v>1001225406223</v>
+        <v>1001092675224</v>
       </c>
       <c r="C250" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B251" s="3">
-        <v>1001300366790</v>
+        <v>1001225406223</v>
       </c>
       <c r="C251" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>473</v>
+        <v>344</v>
       </c>
       <c r="B252" s="3">
-        <v>1001304096792</v>
+        <v>1001300366790</v>
       </c>
       <c r="C252" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>346</v>
+        <v>473</v>
       </c>
       <c r="B253" s="3">
         <v>1001304096792</v>
@@ -5476,29 +5494,29 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B254" s="3">
-        <v>1001303636793</v>
+        <v>1001304096792</v>
       </c>
       <c r="C254" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>393</v>
+        <v>347</v>
       </c>
       <c r="B255" s="3">
-        <v>1001303636794</v>
+        <v>1001303636793</v>
       </c>
       <c r="C255" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>493</v>
+        <v>393</v>
       </c>
       <c r="B256" s="3">
         <v>1001303636794</v>
@@ -5509,7 +5527,7 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>348</v>
+        <v>493</v>
       </c>
       <c r="B257" s="3">
         <v>1001303636794</v>
@@ -5520,51 +5538,51 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B258" s="3">
-        <v>1001302596795</v>
+        <v>1001303636794</v>
       </c>
       <c r="C258" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B259" s="3">
-        <v>1001302596796</v>
+        <v>1001302596795</v>
       </c>
       <c r="C259" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B260" s="3">
-        <v>1001300456804</v>
+        <v>1001302596796</v>
       </c>
       <c r="C260" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>442</v>
+        <v>351</v>
       </c>
       <c r="B261" s="3">
-        <v>1001300366806</v>
+        <v>1001300456804</v>
       </c>
       <c r="C261" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>352</v>
+        <v>442</v>
       </c>
       <c r="B262" s="3">
         <v>1001300366806</v>
@@ -5575,62 +5593,62 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B263" s="3">
-        <v>1001300516803</v>
+        <v>1001300366806</v>
       </c>
       <c r="C263" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B264" s="3">
-        <v>1001300366807</v>
+        <v>1001300516803</v>
       </c>
       <c r="C264" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="B265" s="3">
         <v>1001300366807</v>
       </c>
       <c r="C265" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B266" s="3">
-        <v>1001300516785</v>
+        <v>1001300366807</v>
       </c>
       <c r="C266" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>536</v>
+        <v>368</v>
       </c>
       <c r="B267" s="3">
-        <v>1001300456787</v>
+        <v>1001300516785</v>
       </c>
       <c r="C267" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>551</v>
+        <v>536</v>
       </c>
       <c r="B268" s="3">
         <v>1001300456787</v>
@@ -5641,7 +5659,7 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>370</v>
+        <v>551</v>
       </c>
       <c r="B269" s="3">
         <v>1001300456787</v>
@@ -5652,73 +5670,73 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B270" s="3">
-        <v>1001303636793</v>
+        <v>1001300456787</v>
       </c>
       <c r="C270" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B271" s="3">
-        <v>1001302596795</v>
+        <v>1001303636793</v>
       </c>
       <c r="C271" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B272" s="3">
-        <v>1001012486332</v>
+        <v>1001302596795</v>
       </c>
       <c r="C272" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B273" s="3">
-        <v>1001012566345</v>
+        <v>1001012486332</v>
       </c>
       <c r="C273" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B274" s="3">
-        <v>1001031076528</v>
+        <v>1001012566345</v>
       </c>
       <c r="C274" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
-        <v>410</v>
+        <v>379</v>
       </c>
       <c r="B275" s="3">
-        <v>1001020836761</v>
+        <v>1001031076528</v>
       </c>
       <c r="C275" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B276" s="3">
         <v>1001020836761</v>
@@ -5729,7 +5747,7 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="B277" s="3">
         <v>1001020836761</v>
@@ -5740,18 +5758,18 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
-        <v>406</v>
+        <v>386</v>
       </c>
       <c r="B278" s="3">
-        <v>1001020846764</v>
+        <v>1001020836761</v>
       </c>
       <c r="C278" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="B279" s="3">
         <v>1001020846764</v>
@@ -5762,7 +5780,7 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
-        <v>388</v>
+        <v>416</v>
       </c>
       <c r="B280" s="3">
         <v>1001020846764</v>
@@ -5773,18 +5791,18 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
-        <v>489</v>
+        <v>388</v>
       </c>
       <c r="B281" s="3">
-        <v>1001300366790</v>
+        <v>1001020846764</v>
       </c>
       <c r="C281" t="s">
-        <v>355</v>
+        <v>389</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
-        <v>390</v>
+        <v>489</v>
       </c>
       <c r="B282" s="3">
         <v>1001300366790</v>
@@ -5795,18 +5813,18 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
-        <v>345</v>
+        <v>390</v>
       </c>
       <c r="B283" s="3">
-        <v>1001304096791</v>
+        <v>1001300366790</v>
       </c>
       <c r="C283" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
-        <v>464</v>
+        <v>345</v>
       </c>
       <c r="B284" s="3">
         <v>1001304096791</v>
@@ -5817,7 +5835,7 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
-        <v>391</v>
+        <v>464</v>
       </c>
       <c r="B285" s="3">
         <v>1001304096791</v>
@@ -5828,84 +5846,84 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B286" s="3">
-        <v>1001303636793</v>
+        <v>1001304096791</v>
       </c>
       <c r="C286" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B287" s="3">
-        <v>1001302596795</v>
+        <v>1001303636793</v>
       </c>
       <c r="C287" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B288" s="3">
-        <v>1001300516803</v>
+        <v>1001302596795</v>
       </c>
       <c r="C288" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B289" s="3">
-        <v>1001300456804</v>
+        <v>1001300516803</v>
       </c>
       <c r="C289" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B290" s="3">
-        <v>1001300366807</v>
+        <v>1001300456804</v>
       </c>
       <c r="C290" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B291" s="3">
-        <v>1001302596796</v>
+        <v>1001300366807</v>
       </c>
       <c r="C291" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
-        <v>448</v>
+        <v>398</v>
       </c>
       <c r="B292" s="3">
-        <v>1001023696765</v>
+        <v>1001302596796</v>
       </c>
       <c r="C292" t="s">
-        <v>401</v>
+        <v>361</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>467</v>
+        <v>448</v>
       </c>
       <c r="B293" s="3">
         <v>1001023696765</v>
@@ -5916,7 +5934,7 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
-        <v>400</v>
+        <v>467</v>
       </c>
       <c r="B294" s="3">
         <v>1001023696765</v>
@@ -5927,18 +5945,18 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="B295" s="3">
-        <v>1001023696767</v>
+        <v>1001023696765</v>
       </c>
       <c r="C295" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="B296" s="3">
         <v>1001023696767</v>
@@ -5949,7 +5967,7 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
       <c r="B297" s="3">
         <v>1001023696767</v>
@@ -5960,18 +5978,18 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B298" s="3">
-        <v>1001024976829</v>
+        <v>1001023696767</v>
       </c>
       <c r="C298" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B299" s="3">
         <v>1001024976829</v>
@@ -5982,29 +6000,29 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="B300" s="3">
-        <v>1001022376722</v>
+        <v>1001024976829</v>
       </c>
       <c r="C300" t="s">
-        <v>118</v>
+        <v>399</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
-        <v>447</v>
+        <v>420</v>
       </c>
       <c r="B301" s="3">
-        <v>1001020846762</v>
+        <v>1001022376722</v>
       </c>
       <c r="C301" t="s">
-        <v>422</v>
+        <v>118</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
-        <v>466</v>
+        <v>447</v>
       </c>
       <c r="B302" s="3">
         <v>1001020846762</v>
@@ -6015,7 +6033,7 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
-        <v>421</v>
+        <v>466</v>
       </c>
       <c r="B303" s="3">
         <v>1001020846762</v>
@@ -6026,18 +6044,18 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
-        <v>123</v>
+        <v>421</v>
       </c>
       <c r="B304" s="3">
-        <v>1001022656853</v>
+        <v>1001020846762</v>
       </c>
       <c r="C304" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
-        <v>488</v>
+        <v>123</v>
       </c>
       <c r="B305" s="3">
         <v>1001022656853</v>
@@ -6048,18 +6066,18 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
-        <v>572</v>
+        <v>488</v>
       </c>
       <c r="B306" s="3">
-        <v>1001022656948</v>
+        <v>1001022656853</v>
       </c>
       <c r="C306" t="s">
-        <v>563</v>
+        <v>425</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="B307" s="3">
         <v>1001022656948</v>
@@ -6070,7 +6088,7 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
-        <v>424</v>
+        <v>566</v>
       </c>
       <c r="B308" s="3">
         <v>1001022656948</v>
@@ -6081,29 +6099,29 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="B309" s="3">
-        <v>1001022656852</v>
+        <v>1001022656948</v>
       </c>
       <c r="C309" t="s">
-        <v>431</v>
+        <v>563</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="B310" s="3">
-        <v>1001020836759</v>
+        <v>1001022656852</v>
       </c>
       <c r="C310" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="B311" s="3">
         <v>1001020836759</v>
@@ -6114,7 +6132,7 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>432</v>
+        <v>465</v>
       </c>
       <c r="B312" s="3">
         <v>1001020836759</v>
@@ -6125,51 +6143,51 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B313" s="3">
-        <v>1001023856870</v>
+        <v>1001020836759</v>
       </c>
       <c r="C313" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="B314" s="3">
-        <v>1001013956426</v>
+        <v>1001023856870</v>
       </c>
       <c r="C314" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B315" s="3">
-        <v>1001093345495</v>
+        <v>1001013956426</v>
       </c>
       <c r="C315" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
-        <v>481</v>
+        <v>452</v>
       </c>
       <c r="B316" s="3">
-        <v>1001022656868</v>
+        <v>1001093345495</v>
       </c>
       <c r="C316" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
-        <v>453</v>
+        <v>481</v>
       </c>
       <c r="B317" s="3">
         <v>1001022656868</v>
@@ -6180,18 +6198,18 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
-        <v>165</v>
+        <v>453</v>
       </c>
       <c r="B318" s="3">
-        <v>1001034065698</v>
+        <v>1001022656868</v>
       </c>
       <c r="C318" t="s">
-        <v>426</v>
+        <v>454</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="B319" s="3">
         <v>1001034065698</v>
@@ -6202,7 +6220,7 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
-        <v>479</v>
+        <v>183</v>
       </c>
       <c r="B320" s="3">
         <v>1001034065698</v>
@@ -6213,7 +6231,7 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
-        <v>457</v>
+        <v>479</v>
       </c>
       <c r="B321" s="3">
         <v>1001034065698</v>
@@ -6224,29 +6242,29 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B322" s="3">
-        <v>1001084216206</v>
+        <v>1001034065698</v>
       </c>
       <c r="C322" t="s">
-        <v>384</v>
+        <v>426</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="B323" s="3">
-        <v>1001015646861</v>
+        <v>1001084216206</v>
       </c>
       <c r="C323" t="s">
-        <v>423</v>
+        <v>384</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="B324" s="3">
         <v>1001015646861</v>
@@ -6257,18 +6275,18 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="B325" s="3">
-        <v>1001025176768</v>
+        <v>1001015646861</v>
       </c>
       <c r="C325" t="s">
-        <v>446</v>
+        <v>423</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
-        <v>468</v>
+        <v>445</v>
       </c>
       <c r="B326" s="3">
         <v>1001025176768</v>
@@ -6279,7 +6297,7 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="B327" s="3">
         <v>1001025176768</v>
@@ -6290,18 +6308,18 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
-        <v>444</v>
+        <v>460</v>
       </c>
       <c r="B328" s="3">
-        <v>1001025486770</v>
+        <v>1001025176768</v>
       </c>
       <c r="C328" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="B329" s="3">
         <v>1001025486770</v>
@@ -6312,7 +6330,7 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="B330" s="3">
         <v>1001025486770</v>
@@ -6323,18 +6341,18 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
-        <v>206</v>
+        <v>461</v>
       </c>
       <c r="B331" s="3">
-        <v>1001012816340</v>
+        <v>1001025486770</v>
       </c>
       <c r="C331" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
-        <v>483</v>
+        <v>206</v>
       </c>
       <c r="B332" s="3">
         <v>1001012816340</v>
@@ -6345,7 +6363,7 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
-        <v>462</v>
+        <v>483</v>
       </c>
       <c r="B333" s="3">
         <v>1001012816340</v>
@@ -6356,18 +6374,18 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
-        <v>306</v>
+        <v>462</v>
       </c>
       <c r="B334" s="3">
-        <v>1001203146834</v>
+        <v>1001012816340</v>
       </c>
       <c r="C334" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
-        <v>456</v>
+        <v>306</v>
       </c>
       <c r="B335" s="3">
         <v>1001203146834</v>
@@ -6378,7 +6396,7 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
       <c r="B336" s="3">
         <v>1001203146834</v>
@@ -6389,7 +6407,7 @@
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
-        <v>463</v>
+        <v>480</v>
       </c>
       <c r="B337" s="3">
         <v>1001203146834</v>
@@ -6400,40 +6418,40 @@
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="B338" s="3">
-        <v>1001300456788</v>
+        <v>1001203146834</v>
       </c>
       <c r="C338" t="s">
-        <v>476</v>
+        <v>429</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="B339" s="3">
-        <v>1001300516786</v>
+        <v>1001300456788</v>
       </c>
       <c r="C339" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
-        <v>547</v>
+        <v>490</v>
       </c>
       <c r="B340" s="3">
-        <v>1001092436495</v>
+        <v>1001300516786</v>
       </c>
       <c r="C340" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="B341" s="3">
         <v>1001092436495</v>
@@ -6444,7 +6462,7 @@
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
-        <v>496</v>
+        <v>554</v>
       </c>
       <c r="B342" s="3">
         <v>1001092436495</v>
@@ -6455,40 +6473,40 @@
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B343" s="3">
-        <v>1001025526901</v>
+        <v>1001092436495</v>
       </c>
       <c r="C343" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B344" s="3">
-        <v>1001025546931</v>
+        <v>1001025526901</v>
       </c>
       <c r="C344" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="B345" s="3">
-        <v>1001010016324</v>
+        <v>1001025546931</v>
       </c>
       <c r="C345" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
-        <v>540</v>
+        <v>510</v>
       </c>
       <c r="B346" s="3">
         <v>1001010016324</v>
@@ -6499,7 +6517,7 @@
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
-        <v>503</v>
+        <v>540</v>
       </c>
       <c r="B347" s="3">
         <v>1001010016324</v>
@@ -6510,18 +6528,18 @@
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B348" s="3">
-        <v>1001025766909</v>
+        <v>1001010016324</v>
       </c>
       <c r="C348" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
-        <v>541</v>
+        <v>507</v>
       </c>
       <c r="B349" s="3">
         <v>1001025766909</v>
@@ -6532,7 +6550,7 @@
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
-        <v>505</v>
+        <v>541</v>
       </c>
       <c r="B350" s="3">
         <v>1001025766909</v>
@@ -6543,18 +6561,18 @@
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
-        <v>539</v>
+        <v>505</v>
       </c>
       <c r="B351" s="3">
-        <v>1001010014558</v>
+        <v>1001025766909</v>
       </c>
       <c r="C351" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
-        <v>508</v>
+        <v>539</v>
       </c>
       <c r="B352" s="3">
         <v>1001010014558</v>
@@ -6565,18 +6583,18 @@
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
-        <v>534</v>
+        <v>508</v>
       </c>
       <c r="B353" s="3">
-        <v>1001012596802</v>
+        <v>1001010014558</v>
       </c>
       <c r="C353" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="B354" s="3">
         <v>1001012596802</v>
@@ -6587,7 +6605,7 @@
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
-        <v>511</v>
+        <v>543</v>
       </c>
       <c r="B355" s="3">
         <v>1001012596802</v>
@@ -6598,18 +6616,18 @@
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
-        <v>529</v>
+        <v>511</v>
       </c>
       <c r="B356" s="3">
-        <v>1001012596801</v>
+        <v>1001012596802</v>
       </c>
       <c r="C356" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="B357" s="3">
         <v>1001012596801</v>
@@ -6620,7 +6638,7 @@
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
-        <v>513</v>
+        <v>542</v>
       </c>
       <c r="B358" s="3">
         <v>1001012596801</v>
@@ -6631,161 +6649,161 @@
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B359" s="3">
-        <v>1001062353684</v>
+        <v>1001012596801</v>
       </c>
       <c r="C359" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B360" s="3">
-        <v>1001010014555</v>
+        <v>1001062353684</v>
       </c>
       <c r="C360" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B361" s="3">
-        <v>1001083424691</v>
+        <v>1001010014555</v>
       </c>
       <c r="C361" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B362" s="3">
-        <v>1001190765679</v>
+        <v>1001083424691</v>
       </c>
       <c r="C362" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B363" s="3">
-        <v>1001085636200</v>
+        <v>1001190765679</v>
       </c>
       <c r="C363" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B364" s="3">
-        <v>1001020836253</v>
+        <v>1001085636200</v>
       </c>
       <c r="C364" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B365" s="3">
-        <v>1001084226492</v>
+        <v>1001020836253</v>
       </c>
       <c r="C365" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B366" s="3">
-        <v>1001223296921</v>
+        <v>1001084226492</v>
       </c>
       <c r="C366" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B367" s="3">
-        <v>1001053944786</v>
+        <v>1001223296921</v>
       </c>
       <c r="C367" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="B368" s="3">
-        <v>1001010016839</v>
+        <v>1001053944786</v>
       </c>
       <c r="C368" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="B369" s="3">
-        <v>1001023857038</v>
+        <v>1001010016839</v>
       </c>
       <c r="C369" t="s">
-        <v>585</v>
+        <v>538</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B370" s="3">
-        <v>1001040434903</v>
+        <v>1001023857038</v>
       </c>
       <c r="C370" t="s">
-        <v>546</v>
+        <v>585</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B371" s="3">
-        <v>1001080216842</v>
+        <v>1001040434903</v>
       </c>
       <c r="C371" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="B372" s="3">
-        <v>1001022466951</v>
+        <v>1001080216842</v>
       </c>
       <c r="C372" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B373" s="3">
         <v>1001022466951</v>
@@ -6796,95 +6814,95 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B374" s="3">
-        <v>1001035276653</v>
+        <v>1001022466951</v>
       </c>
       <c r="C374" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="B375" s="3">
-        <v>1001062353680</v>
+        <v>1001035276653</v>
       </c>
       <c r="C375" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B376" s="3">
-        <v>1001061971146</v>
+        <v>1001062353680</v>
       </c>
       <c r="C376" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B377" s="3">
-        <v>1001225636201</v>
+        <v>1001061971146</v>
       </c>
       <c r="C377" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B378" s="3">
-        <v>1001095227035</v>
+        <v>1001225636201</v>
       </c>
       <c r="C378" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B379" s="3">
-        <v>1001023857038</v>
+        <v>1001095227035</v>
       </c>
       <c r="C379" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B380" s="3">
-        <v>1001025027040</v>
+        <v>1001023857038</v>
       </c>
       <c r="C380" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B381" s="3">
-        <v>1001223297103</v>
+        <v>1001025027040</v>
       </c>
       <c r="C381" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B382" s="3">
         <v>1001223297103</v>
@@ -6895,7 +6913,7 @@
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B383" s="3">
         <v>1001223297103</v>
@@ -6906,18 +6924,18 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
-        <v>610</v>
+        <v>589</v>
       </c>
       <c r="B384" s="3">
-        <v>1001010032675</v>
+        <v>1001223297103</v>
       </c>
       <c r="C384" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
-        <v>591</v>
+        <v>610</v>
       </c>
       <c r="B385" s="3">
         <v>1001010032675</v>
@@ -6928,18 +6946,18 @@
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
-        <v>615</v>
+        <v>591</v>
       </c>
       <c r="B386" s="3">
-        <v>1001035937001</v>
+        <v>1001010032675</v>
       </c>
       <c r="C386" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
-        <v>593</v>
+        <v>615</v>
       </c>
       <c r="B387" s="3">
         <v>1001035937001</v>
@@ -6950,18 +6968,18 @@
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
-        <v>616</v>
+        <v>593</v>
       </c>
       <c r="B388" s="3">
-        <v>1001084217090</v>
+        <v>1001035937001</v>
       </c>
       <c r="C388" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
-        <v>595</v>
+        <v>616</v>
       </c>
       <c r="B389" s="3">
         <v>1001084217090</v>
@@ -6972,18 +6990,18 @@
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
-        <v>617</v>
+        <v>595</v>
       </c>
       <c r="B390" s="3">
-        <v>1001022377066</v>
+        <v>1001084217090</v>
       </c>
       <c r="C390" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
-        <v>597</v>
+        <v>617</v>
       </c>
       <c r="B391" s="3">
         <v>1001022377066</v>
@@ -6994,18 +7012,18 @@
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
-        <v>618</v>
+        <v>597</v>
       </c>
       <c r="B392" s="3">
-        <v>1001022467080</v>
+        <v>1001022377066</v>
       </c>
       <c r="C392" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
-        <v>599</v>
+        <v>618</v>
       </c>
       <c r="B393" s="3">
         <v>1001022467080</v>
@@ -7016,21 +7034,18 @@
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
-        <v>619</v>
+        <v>599</v>
       </c>
       <c r="B394" s="3">
-        <v>1001025507255</v>
+        <v>1001022467080</v>
       </c>
       <c r="C394" t="s">
-        <v>755</v>
-      </c>
-      <c r="E394" t="s">
-        <v>753</v>
+        <v>600</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
-        <v>601</v>
+        <v>619</v>
       </c>
       <c r="B395" s="3">
         <v>1001025507255</v>
@@ -7038,977 +7053,1027 @@
       <c r="C395" t="s">
         <v>755</v>
       </c>
+      <c r="E395" t="s">
+        <v>753</v>
+      </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
       <c r="B396" s="3">
-        <v>1001022657075</v>
+        <v>1001025507255</v>
       </c>
       <c r="C396" t="s">
-        <v>603</v>
+        <v>755</v>
+      </c>
+      <c r="E396" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
-        <v>602</v>
+        <v>762</v>
       </c>
       <c r="B397" s="3">
-        <v>1001022657075</v>
+        <v>1001025507255</v>
       </c>
       <c r="C397" t="s">
-        <v>603</v>
+        <v>755</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="B398" s="3">
-        <v>1001022467082</v>
+        <v>1001022657075</v>
       </c>
       <c r="C398" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B399" s="3">
-        <v>1001022467082</v>
+        <v>1001022657075</v>
       </c>
       <c r="C399" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B400" s="3">
-        <v>1001022377070</v>
+        <v>1001022467082</v>
       </c>
       <c r="C400" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B401" s="3">
-        <v>1001022377070</v>
+        <v>1001022467082</v>
       </c>
       <c r="C401" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B402" s="3">
-        <v>1001022657073</v>
+        <v>1001022377070</v>
       </c>
       <c r="C402" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B403" s="3">
-        <v>1001022657073</v>
+        <v>1001022377070</v>
       </c>
       <c r="C403" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
       <c r="B404" s="3">
-        <v>1001010027126</v>
+        <v>1001022657073</v>
       </c>
       <c r="C404" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="B405" s="3">
-        <v>1001010027126</v>
+        <v>1001022657073</v>
       </c>
       <c r="C405" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
-        <v>613</v>
+        <v>634</v>
       </c>
       <c r="B406" s="3">
-        <v>1001010027125</v>
+        <v>1001010027126</v>
       </c>
       <c r="C406" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
-        <v>635</v>
+        <v>611</v>
       </c>
       <c r="B407" s="3">
-        <v>1001010027125</v>
+        <v>1001010027126</v>
       </c>
       <c r="C407" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
-        <v>658</v>
+        <v>613</v>
       </c>
       <c r="B408" s="3">
-        <v>1001016366888</v>
+        <v>1001010027125</v>
       </c>
       <c r="C408" t="s">
-        <v>637</v>
+        <v>614</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B409" s="3">
-        <v>1001016366888</v>
+        <v>1001010027125</v>
       </c>
       <c r="C409" t="s">
-        <v>637</v>
+        <v>614</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B410" s="3">
-        <v>1001300367133</v>
+        <v>1001016366888</v>
       </c>
       <c r="C410" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B411" s="3">
-        <v>1001300367133</v>
+        <v>1001016366888</v>
       </c>
       <c r="C411" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B412" s="3">
-        <v>1001303637131</v>
+        <v>1001300367133</v>
       </c>
       <c r="C412" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B413" s="3">
-        <v>1001303637131</v>
+        <v>1001300367133</v>
       </c>
       <c r="C413" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="B414" s="3">
-        <v>1001304527146</v>
+        <v>1001303637131</v>
       </c>
       <c r="C414" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B415" s="3">
-        <v>1001304527146</v>
+        <v>1001303637131</v>
       </c>
       <c r="C415" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="B416" s="3">
-        <v>1001300517134</v>
+        <v>1001304527146</v>
       </c>
       <c r="C416" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B417" s="3">
-        <v>1001300517134</v>
+        <v>1001304527146</v>
       </c>
       <c r="C417" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" s="2" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
       <c r="B418" s="3">
-        <v>1001300457135</v>
+        <v>1001300517134</v>
       </c>
       <c r="C418" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="B419" s="3">
-        <v>1001304527144</v>
+        <v>1001300517134</v>
       </c>
       <c r="C419" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" s="2" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="B420" s="3">
-        <v>1001304527144</v>
+        <v>1001300457135</v>
       </c>
       <c r="C420" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
-        <v>680</v>
+        <v>648</v>
       </c>
       <c r="B421" s="3">
-        <v>1001081596620</v>
+        <v>1001304527144</v>
       </c>
       <c r="C421" t="s">
-        <v>662</v>
+        <v>649</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="B422" s="3">
-        <v>1001081596620</v>
+        <v>1001304527144</v>
       </c>
       <c r="C422" t="s">
-        <v>662</v>
+        <v>649</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="B423" s="3">
-        <v>1001085637187</v>
+        <v>1001081596620</v>
       </c>
       <c r="C423" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B424" s="3">
-        <v>1001085637187</v>
+        <v>1001081596620</v>
       </c>
       <c r="C424" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B425" s="3">
-        <v>1001015676877</v>
+        <v>1001085637187</v>
       </c>
       <c r="C425" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B426" s="3">
-        <v>1001015676877</v>
+        <v>1001085637187</v>
       </c>
       <c r="C426" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="B427" s="3">
-        <v>1001015686878</v>
+        <v>1001015676877</v>
       </c>
       <c r="C427" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" s="2" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B428" s="3">
-        <v>1001015686878</v>
+        <v>1001015676877</v>
       </c>
       <c r="C428" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" s="2" t="s">
-        <v>670</v>
+        <v>687</v>
       </c>
       <c r="B429" s="3">
-        <v>1001302277232</v>
+        <v>1001015686878</v>
       </c>
       <c r="C429" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" s="2" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B430" s="3">
-        <v>1001304497237</v>
+        <v>1001015686878</v>
       </c>
       <c r="C430" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" s="2" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B431" s="3">
-        <v>1001303107241</v>
+        <v>1001302277232</v>
       </c>
       <c r="C431" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" s="2" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="B432" s="3">
-        <v>1002162216872</v>
+        <v>1001304497237</v>
       </c>
       <c r="C432" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" s="2" t="s">
-        <v>686</v>
+        <v>672</v>
       </c>
       <c r="B433" s="3">
-        <v>1002162216872</v>
+        <v>1001303107241</v>
       </c>
       <c r="C433" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434" s="2" t="s">
-        <v>701</v>
+        <v>678</v>
       </c>
       <c r="B434" s="3">
-        <v>1001063237147</v>
+        <v>1002162216872</v>
       </c>
       <c r="C434" t="s">
-        <v>693</v>
+        <v>679</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B435" s="3">
-        <v>1001063237147</v>
+        <v>1002162216872</v>
       </c>
       <c r="C435" t="s">
-        <v>693</v>
+        <v>679</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" s="2" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B436" s="3">
-        <v>1001063097227</v>
+        <v>1001063237147</v>
       </c>
       <c r="C436" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B437" s="3">
-        <v>1001063097227</v>
+        <v>1001063237147</v>
       </c>
       <c r="C437" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" s="2" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="B438" s="3">
-        <v>1001066537225</v>
+        <v>1001063097227</v>
       </c>
       <c r="C438" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B439" s="3">
-        <v>1001066537225</v>
+        <v>1001063097227</v>
       </c>
       <c r="C439" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B440" s="3">
-        <v>1001066527226</v>
+        <v>1001066537225</v>
       </c>
       <c r="C440" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B441" s="3">
-        <v>1001066527226</v>
+        <v>1001066537225</v>
       </c>
       <c r="C441" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
-        <v>692</v>
+        <v>699</v>
       </c>
       <c r="B442" s="3">
-        <v>1001066547228</v>
+        <v>1001066527226</v>
       </c>
       <c r="C442" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" s="2" t="s">
-        <v>708</v>
+        <v>691</v>
       </c>
       <c r="B443" s="3">
-        <v>1001063237229</v>
+        <v>1001066527226</v>
       </c>
       <c r="C443" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" s="2" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="B444" s="3">
-        <v>1001063237229</v>
+        <v>1001066547228</v>
       </c>
       <c r="C444" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" s="2" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B445" s="3">
-        <v>1001063237150</v>
+        <v>1001063237229</v>
       </c>
       <c r="C445" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B446" s="3">
-        <v>1001063237150</v>
+        <v>1001063237229</v>
       </c>
       <c r="C446" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
       <c r="B447" s="3">
-        <v>1001022467276</v>
+        <v>1001063237150</v>
       </c>
       <c r="C447" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" s="2" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="B448" s="3">
-        <v>1001022467276</v>
+        <v>1001063237150</v>
       </c>
       <c r="C448" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" s="2" t="s">
-        <v>485</v>
+        <v>704</v>
       </c>
       <c r="B449" s="3">
-        <v>1001022556837</v>
+        <v>1001022467276</v>
       </c>
       <c r="C449" t="s">
-        <v>486</v>
+        <v>707</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" s="2" t="s">
-        <v>731</v>
+        <v>709</v>
       </c>
       <c r="B450" s="3">
-        <v>1001022556837</v>
+        <v>1001022467276</v>
       </c>
       <c r="C450" t="s">
-        <v>486</v>
+        <v>707</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" s="2" t="s">
-        <v>712</v>
-      </c>
-      <c r="B451" s="5">
+        <v>485</v>
+      </c>
+      <c r="B451" s="3">
         <v>1001022556837</v>
       </c>
-      <c r="C451" s="6" t="s">
+      <c r="C451" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" s="2" t="s">
-        <v>182</v>
+        <v>731</v>
       </c>
       <c r="B452" s="3">
-        <v>1001205376221</v>
+        <v>1001022556837</v>
       </c>
       <c r="C452" t="s">
-        <v>180</v>
+        <v>486</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" s="2" t="s">
-        <v>729</v>
-      </c>
-      <c r="B453" s="3">
-        <v>1001205376221</v>
-      </c>
-      <c r="C453" t="s">
-        <v>180</v>
+        <v>712</v>
+      </c>
+      <c r="B453" s="5">
+        <v>1001022556837</v>
+      </c>
+      <c r="C453" s="6" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" s="2" t="s">
-        <v>713</v>
-      </c>
-      <c r="B454" s="5">
+        <v>182</v>
+      </c>
+      <c r="B454" s="3">
         <v>1001205376221</v>
       </c>
-      <c r="C454" s="6" t="s">
+      <c r="C454" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" s="2" t="s">
-        <v>494</v>
+        <v>729</v>
       </c>
       <c r="B455" s="3">
-        <v>1001214196459</v>
+        <v>1001205376221</v>
       </c>
       <c r="C455" t="s">
-        <v>495</v>
+        <v>180</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" s="2" t="s">
-        <v>726</v>
-      </c>
-      <c r="B456" s="3">
-        <v>1001214196459</v>
-      </c>
-      <c r="C456" t="s">
-        <v>495</v>
+        <v>713</v>
+      </c>
+      <c r="B456" s="5">
+        <v>1001205376221</v>
+      </c>
+      <c r="C456" s="6" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457" s="2" t="s">
-        <v>715</v>
-      </c>
-      <c r="B457" s="5">
+        <v>494</v>
+      </c>
+      <c r="B457" s="3">
         <v>1001214196459</v>
       </c>
-      <c r="C457" s="6" t="s">
+      <c r="C457" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" s="2" t="s">
-        <v>716</v>
-      </c>
-      <c r="B458" s="5">
-        <v>1001010106325</v>
-      </c>
-      <c r="C458" s="6" t="s">
-        <v>52</v>
+        <v>726</v>
+      </c>
+      <c r="B458" s="3">
+        <v>1001214196459</v>
+      </c>
+      <c r="C458" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459" s="2" t="s">
-        <v>727</v>
+        <v>715</v>
       </c>
       <c r="B459" s="5">
-        <v>1001013957231</v>
+        <v>1001214196459</v>
       </c>
       <c r="C459" s="6" t="s">
-        <v>723</v>
+        <v>495</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B460" s="5">
-        <v>1001013957231</v>
+        <v>1001010106325</v>
       </c>
       <c r="C460" s="6" t="s">
-        <v>723</v>
+        <v>52</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B461" s="3">
-        <v>1001220286279</v>
-      </c>
-      <c r="C461" t="s">
-        <v>48</v>
+        <v>727</v>
+      </c>
+      <c r="B461" s="5">
+        <v>1001013957231</v>
+      </c>
+      <c r="C461" s="6" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462" s="2" t="s">
-        <v>733</v>
-      </c>
-      <c r="B462" s="3">
-        <v>1001220286279</v>
-      </c>
-      <c r="C462" t="s">
-        <v>48</v>
+        <v>717</v>
+      </c>
+      <c r="B462" s="5">
+        <v>1001013957231</v>
+      </c>
+      <c r="C462" s="6" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463" s="2" t="s">
-        <v>718</v>
-      </c>
-      <c r="B463" s="5">
+        <v>47</v>
+      </c>
+      <c r="B463" s="3">
         <v>1001220286279</v>
       </c>
-      <c r="C463" s="6" t="s">
+      <c r="C463" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464" s="2" t="s">
-        <v>728</v>
-      </c>
-      <c r="B464" s="5">
-        <v>1001223297092</v>
-      </c>
-      <c r="C464" s="6" t="s">
-        <v>724</v>
+        <v>733</v>
+      </c>
+      <c r="B464" s="3">
+        <v>1001220286279</v>
+      </c>
+      <c r="C464" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B465" s="5">
-        <v>1001223297092</v>
+        <v>1001220286279</v>
       </c>
       <c r="C465" s="6" t="s">
-        <v>724</v>
+        <v>48</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="B466" s="3">
-        <v>1001020836724</v>
-      </c>
-      <c r="C466" t="s">
-        <v>581</v>
+        <v>728</v>
+      </c>
+      <c r="B466" s="5">
+        <v>1001223297092</v>
+      </c>
+      <c r="C466" s="6" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467" s="2" t="s">
-        <v>730</v>
-      </c>
-      <c r="B467" s="3">
-        <v>1001020836724</v>
-      </c>
-      <c r="C467" t="s">
-        <v>581</v>
+        <v>719</v>
+      </c>
+      <c r="B467" s="5">
+        <v>1001223297092</v>
+      </c>
+      <c r="C467" s="6" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468" s="2" t="s">
-        <v>720</v>
-      </c>
-      <c r="B468" s="5">
+        <v>580</v>
+      </c>
+      <c r="B468" s="3">
         <v>1001020836724</v>
       </c>
-      <c r="C468" s="6" t="s">
+      <c r="C468" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469" s="2" t="s">
-        <v>732</v>
-      </c>
-      <c r="B469" s="5">
-        <v>1001062475707</v>
-      </c>
-      <c r="C469" s="6" t="s">
-        <v>725</v>
+        <v>730</v>
+      </c>
+      <c r="B469" s="3">
+        <v>1001020836724</v>
+      </c>
+      <c r="C469" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B470" s="5">
-        <v>1001062475707</v>
+        <v>1001020836724</v>
       </c>
       <c r="C470" s="6" t="s">
-        <v>725</v>
+        <v>581</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471" s="2" t="s">
-        <v>722</v>
+        <v>732</v>
       </c>
       <c r="B471" s="5">
-        <v>1001033856609</v>
+        <v>1001062475707</v>
       </c>
       <c r="C471" s="6" t="s">
-        <v>231</v>
+        <v>725</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="B472" s="5">
+        <v>1001062475707</v>
+      </c>
+      <c r="C472" s="6" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A473" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="B473" s="5">
+        <v>1001033856609</v>
+      </c>
+      <c r="C473" s="6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A474" s="2" t="s">
         <v>734</v>
       </c>
-      <c r="B472" s="3">
+      <c r="B474" s="3">
         <v>1001025767284</v>
       </c>
-      <c r="C472" s="6" t="s">
+      <c r="C474" s="6" t="s">
         <v>735</v>
-      </c>
-    </row>
-    <row r="473" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A473" s="7" t="s">
-        <v>736</v>
-      </c>
-      <c r="B473" s="5">
-        <v>1001301777332</v>
-      </c>
-      <c r="C473" s="6" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="474" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A474" s="7" t="s">
-        <v>750</v>
-      </c>
-      <c r="B474" s="5">
-        <v>1001301777332</v>
-      </c>
-      <c r="C474" s="6" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="475" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A475" s="7" t="s">
-        <v>751</v>
+        <v>736</v>
       </c>
       <c r="B475" s="5">
-        <v>1001303987333</v>
+        <v>1001301777332</v>
       </c>
       <c r="C475" s="6" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="476" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A476" s="7" t="s">
-        <v>737</v>
+        <v>750</v>
       </c>
       <c r="B476" s="5">
-        <v>1001303987333</v>
+        <v>1001301777332</v>
       </c>
       <c r="C476" s="6" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="477" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A477" s="7" t="s">
-        <v>738</v>
+        <v>751</v>
       </c>
       <c r="B477" s="5">
-        <v>1001012426220</v>
+        <v>1001303987333</v>
       </c>
       <c r="C477" s="6" t="s">
-        <v>194</v>
+        <v>743</v>
       </c>
     </row>
     <row r="478" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A478" s="7" t="s">
-        <v>749</v>
+        <v>737</v>
       </c>
       <c r="B478" s="5">
-        <v>1001300387157</v>
+        <v>1001303987333</v>
       </c>
       <c r="C478" s="6" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="479" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A479" s="7" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B479" s="5">
-        <v>1001300387157</v>
+        <v>1001012426220</v>
       </c>
       <c r="C479" s="6" t="s">
-        <v>744</v>
+        <v>194</v>
       </c>
     </row>
     <row r="480" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A480" s="7" t="s">
-        <v>740</v>
+        <v>749</v>
       </c>
       <c r="B480" s="5">
-        <v>1001220226208</v>
+        <v>1001300387157</v>
       </c>
       <c r="C480" s="6" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="481" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A481" s="7" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="B481" s="5">
-        <v>1001220226208</v>
+        <v>1001300387157</v>
       </c>
       <c r="C481" s="6" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="482" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A482" s="7" t="s">
+        <v>740</v>
+      </c>
+      <c r="B482" s="5">
+        <v>1001220226208</v>
+      </c>
+      <c r="C482" s="6" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A483" s="7" t="s">
+        <v>747</v>
+      </c>
+      <c r="B483" s="5">
+        <v>1001220226208</v>
+      </c>
+      <c r="C483" s="6" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A484" s="7" t="s">
         <v>741</v>
       </c>
-      <c r="B482" s="5">
+      <c r="B484" s="5">
         <v>1001063656967</v>
       </c>
-      <c r="C482" s="6" t="s">
+      <c r="C484" s="6" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A483" s="2" t="s">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A485" s="2" t="s">
         <v>748</v>
       </c>
-      <c r="B483" s="5">
+      <c r="B485" s="5">
         <v>1001063656967</v>
       </c>
-      <c r="C483" s="6" t="s">
+      <c r="C485" s="6" t="s">
         <v>746</v>
       </c>
     </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A486" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="B486" s="3">
+        <v>1001065616832</v>
+      </c>
+      <c r="C486" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A487" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="B487" s="3">
+        <v>1001060677299</v>
+      </c>
+      <c r="C487" t="s">
+        <v>761</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C483" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
+  <autoFilter ref="A1:C487" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/в бланки заводов/Останкино КИ/ostankino_ki/NV/moduls/1С.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/NV/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\NV\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD95F88-27BD-4F00-B88C-4E20BE14E5FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD6570B-F392-45E1-85BA-8FA2E1A8469C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="764">
   <si>
     <t>1С</t>
   </si>
@@ -135,9 +135,6 @@
     <t>5682 САЛЯМИ МЕЛКОЗЕРНЕНАЯ с/к в/у 1/120_60с   ОСТАНКИНО</t>
   </si>
   <si>
-    <t>САЛЯМИ МЕЛКОЗЕРНЕНАЯ с/к в/у 1/120_60с</t>
-  </si>
-  <si>
     <t>5706 АРОМАТНАЯ Папа может с/к в/у 1/250 8шт.  ОСТАНКИНО</t>
   </si>
   <si>
@@ -2323,6 +2320,12 @@
   </si>
   <si>
     <t>7255 МЯСНЫЕ С ГОВЯД.ПМ сос п/о мгс 0.4кг 6шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ротация 01,12,25</t>
+  </si>
+  <si>
+    <t>САЛЯМИ МЕЛКОЗЕРНЕНАЯ с/к в/у 1/120 8шт.</t>
   </si>
 </sst>
 </file>
@@ -2683,7 +2686,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2775,68 +2778,68 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B8" s="3">
         <v>1001095716865</v>
       </c>
       <c r="C8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B9" s="3">
         <v>1001095716866</v>
       </c>
       <c r="C9" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B10" s="3">
         <v>1001095716866</v>
       </c>
       <c r="C10" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B11" s="3">
         <v>1001095716866</v>
       </c>
       <c r="C11" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B12" s="3">
         <v>1001095716866</v>
       </c>
       <c r="C12" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B13" s="3">
         <v>1001095716866</v>
       </c>
       <c r="C13" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -2847,12 +2850,12 @@
         <v>1001095716865</v>
       </c>
       <c r="C14" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B15" s="3">
         <v>1001092446756</v>
@@ -2913,29 +2916,29 @@
         <v>1001015646861</v>
       </c>
       <c r="C20" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B21" s="3">
         <v>1001015706862</v>
       </c>
       <c r="C21" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B22" s="3">
         <v>1001015706862</v>
       </c>
       <c r="C22" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -2946,29 +2949,29 @@
         <v>1001015706862</v>
       </c>
       <c r="C23" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B24" s="3">
         <v>1001303987166</v>
       </c>
       <c r="C24" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B25" s="3">
         <v>1001303987166</v>
       </c>
       <c r="C25" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -2998,1372 +3001,1375 @@
         <v>32</v>
       </c>
       <c r="B28" s="3">
-        <v>1001193115682</v>
+        <v>1001203117382</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>763</v>
+      </c>
+      <c r="E28" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B29" s="3">
         <v>1001061973986</v>
       </c>
       <c r="C29" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30" s="3">
         <v>1001061973986</v>
       </c>
       <c r="C30" t="s">
+        <v>751</v>
+      </c>
+      <c r="E30" t="s">
         <v>752</v>
-      </c>
-      <c r="E30" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31" s="3">
         <v>1001063145708</v>
       </c>
       <c r="C31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32" s="3">
         <v>1001022465820</v>
       </c>
       <c r="C32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B33" s="3">
         <v>1001012505851</v>
       </c>
       <c r="C33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B34" s="3">
         <v>1001060755931</v>
       </c>
       <c r="C34" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B35" s="3">
         <v>1001060755931</v>
       </c>
       <c r="C35" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B36" s="3">
         <v>1001012815997</v>
       </c>
       <c r="C36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B37" s="3">
         <v>1001024906042</v>
       </c>
       <c r="C37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B38" s="3">
         <v>1001024976829</v>
       </c>
       <c r="C38" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B39" s="3">
         <v>1001084216206</v>
       </c>
       <c r="C39" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B40" s="3">
         <v>1001084216206</v>
       </c>
       <c r="C40" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B41" s="3">
         <v>1001022557257</v>
       </c>
       <c r="C41" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B42" s="3">
         <v>1001022557257</v>
       </c>
       <c r="C42" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B43" s="3">
         <v>1001022557257</v>
       </c>
       <c r="C43" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="3">
         <v>1001022556069</v>
       </c>
       <c r="C44" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B45" s="3">
         <v>1001010106325</v>
       </c>
       <c r="C45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B46" s="3">
         <v>1001012486333</v>
       </c>
       <c r="C46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B47" s="3">
         <v>1001012506353</v>
       </c>
       <c r="C47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B48" s="3">
         <v>1001304507236</v>
       </c>
       <c r="C48" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B49" s="3">
         <v>1001304507236</v>
       </c>
       <c r="C49" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B50" s="3">
         <v>1001304507236</v>
       </c>
       <c r="C50" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B51" s="3">
         <v>1001303056692</v>
       </c>
       <c r="C51" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B52" s="3">
         <v>1001303637149</v>
       </c>
       <c r="C52" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B53" s="3">
         <v>1001303637149</v>
       </c>
       <c r="C53" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B54" s="3">
         <v>1001013956426</v>
       </c>
       <c r="C54" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B55" s="3">
         <v>1001024636438</v>
       </c>
       <c r="C55" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B56" s="3">
         <v>1001234146448</v>
       </c>
       <c r="C56" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B57" s="3">
         <v>1001202506453</v>
       </c>
       <c r="C57" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B58" s="3">
         <v>1001202506453</v>
       </c>
       <c r="C58" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B59" s="3">
         <v>1001201976454</v>
       </c>
       <c r="C59" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60" s="3">
         <v>1001025176475</v>
       </c>
       <c r="C60" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B61" s="3">
         <v>1001301876697</v>
       </c>
       <c r="C61" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B62" s="3">
         <v>1001024636517</v>
       </c>
       <c r="C62" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B63" s="3">
         <v>1001031076527</v>
       </c>
       <c r="C63" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B64" s="3">
         <v>1001304506562</v>
       </c>
       <c r="C64" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B65" s="3">
         <v>1001020846563</v>
       </c>
       <c r="C65" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B66" s="3">
         <v>1001020836589</v>
       </c>
       <c r="C66" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B67" s="3">
         <v>6751</v>
       </c>
       <c r="C67" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B68" s="3">
         <v>1001010016592</v>
       </c>
       <c r="C68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B69" s="3">
         <v>1001010026594</v>
       </c>
       <c r="C69" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B70" s="3">
         <v>1001022296601</v>
       </c>
       <c r="C70" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B71" s="3">
         <v>1001031896648</v>
       </c>
       <c r="C71" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B72" s="3">
         <v>1001035266650</v>
       </c>
       <c r="C72" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B73" s="3">
         <v>1001305256658</v>
       </c>
       <c r="C73" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B74" s="3">
         <v>1001010016593</v>
       </c>
       <c r="C74" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B75" s="3">
         <v>1001010026595</v>
       </c>
       <c r="C75" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B76" s="3">
         <v>1001010036597</v>
       </c>
       <c r="C76" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B77" s="3">
         <v>1001020886646</v>
       </c>
       <c r="C77" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B78" s="3">
         <v>1001305306566</v>
       </c>
       <c r="C78" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B79" s="3">
         <v>1001305306566</v>
       </c>
       <c r="C79" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B80" s="3">
         <v>1001300387154</v>
       </c>
       <c r="C80" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B81" s="3">
         <v>1001300387154</v>
       </c>
       <c r="C81" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B82" s="3">
         <v>1001303987169</v>
       </c>
       <c r="C82" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B83" s="3">
         <v>1001303987169</v>
       </c>
       <c r="C83" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B84" s="3">
         <v>1001303106773</v>
       </c>
       <c r="C84" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B85" s="4">
         <v>1001303106773</v>
       </c>
       <c r="C85" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B86" s="4">
         <v>1001303106773</v>
       </c>
       <c r="C86" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B87" s="3">
         <v>1001303106773</v>
       </c>
       <c r="C87" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B88" s="3">
         <v>1001303106773</v>
       </c>
       <c r="C88" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B89" s="3">
         <v>1001303106773</v>
       </c>
       <c r="C89" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B90" s="3">
         <v>1001303106773</v>
       </c>
       <c r="C90" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B91" s="3">
         <v>1001012566392</v>
       </c>
       <c r="C91" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B92" s="3">
         <v>1001012566392</v>
       </c>
       <c r="C92" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B93" s="3">
         <v>1001012566392</v>
       </c>
       <c r="C93" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B94" s="3">
         <v>1001302277173</v>
       </c>
       <c r="C94" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B95" s="3">
         <v>1001302277173</v>
       </c>
       <c r="C95" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B96" s="3">
         <v>1001012426268</v>
       </c>
       <c r="C96" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B97" s="3">
         <v>1001012426268</v>
       </c>
       <c r="C97" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B98" s="3">
         <v>1001024906041</v>
       </c>
       <c r="C98" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B99" s="3">
         <v>1001011086247</v>
       </c>
       <c r="C99" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B100" s="3">
         <v>1001014486158</v>
       </c>
       <c r="C100" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B101" s="3">
         <v>1001015356259</v>
       </c>
       <c r="C101" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B102" s="3">
         <v>1001012816716</v>
       </c>
       <c r="C102" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B103" s="3">
         <v>1001020966227</v>
       </c>
       <c r="C103" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B104" s="3">
         <v>1001020966227</v>
       </c>
       <c r="C104" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B105" s="3">
         <v>1001022726303</v>
       </c>
       <c r="C105" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B106" s="3">
         <v>1001022726303</v>
       </c>
       <c r="C106" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B107" s="3">
         <v>1001022726303</v>
       </c>
       <c r="C107" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B108" s="3">
         <v>1001022726303</v>
       </c>
       <c r="C108" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B109" s="3">
         <v>1001022466726</v>
       </c>
       <c r="C109" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B110" s="3">
         <v>1001020966144</v>
       </c>
       <c r="C110" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B111" s="3">
         <v>1001022376722</v>
       </c>
       <c r="C111" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B112" s="3">
         <v>1001022376955</v>
       </c>
       <c r="C112" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B113" s="3">
         <v>1001022376955</v>
       </c>
       <c r="C113" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B114" s="3">
         <v>1001022376955</v>
       </c>
       <c r="C114" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B115" s="3">
         <v>1001022246661</v>
       </c>
       <c r="C115" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B116" s="3">
         <v>1001022246661</v>
       </c>
       <c r="C116" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B117" s="3">
         <v>1001022246661</v>
       </c>
       <c r="C117" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B118" s="3">
         <v>1001022246713</v>
       </c>
       <c r="C118" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B119" s="3">
         <v>1001025166241</v>
       </c>
       <c r="C119" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B120" s="3">
         <v>6606</v>
       </c>
       <c r="C120" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B121" s="3">
         <v>1001035326217</v>
       </c>
       <c r="C121" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B122" s="3">
         <v>1001303636301</v>
       </c>
       <c r="C122" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B123" s="3">
         <v>1001303636302</v>
       </c>
       <c r="C123" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B124" s="3">
         <v>1001305196215</v>
       </c>
       <c r="C124" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B125" s="3">
         <v>1001301876212</v>
       </c>
       <c r="C125" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B126" s="3">
         <v>1001301876213</v>
       </c>
       <c r="C126" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B127" s="3">
         <v>1001303636302</v>
       </c>
       <c r="C127" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B128" s="3">
         <v>6645</v>
       </c>
       <c r="C128" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B129" s="3">
         <v>1001225416228</v>
       </c>
       <c r="C129" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B130" s="3">
         <v>6225</v>
       </c>
       <c r="C130" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B131" s="3">
         <v>1001022376722</v>
       </c>
       <c r="C131" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B132" s="3">
         <v>1001022376722</v>
       </c>
       <c r="C132" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B133" s="3">
         <v>3297</v>
       </c>
       <c r="C133" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B134" s="3">
         <v>1001022466726</v>
       </c>
       <c r="C134" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B135" s="3">
         <v>1001022466726</v>
       </c>
       <c r="C135" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B136" s="3">
         <v>1001022466726</v>
       </c>
       <c r="C136" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B137" s="3">
         <v>1001021966602</v>
       </c>
       <c r="C137" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B138" s="3">
         <v>6233</v>
       </c>
       <c r="C138" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B139" s="3">
         <v>1001012816341</v>
       </c>
       <c r="C139" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B140" s="3">
         <v>1001012816341</v>
       </c>
       <c r="C140" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B141" s="3">
         <v>1001012816341</v>
       </c>
       <c r="C141" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B142" s="3">
         <v>1001012816341</v>
       </c>
       <c r="C142" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B143" s="3">
         <v>6750</v>
       </c>
       <c r="C143" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B144" s="3">
         <v>6751</v>
       </c>
       <c r="C144" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B145" s="3">
         <v>5982</v>
       </c>
       <c r="C145" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B146" s="3">
         <v>1001022656854</v>
       </c>
       <c r="C146" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B147" s="3">
         <v>1001022656854</v>
       </c>
       <c r="C147" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B148" s="3">
         <v>1001022656854</v>
       </c>
       <c r="C148" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B149" s="3">
         <v>1001022656854</v>
       </c>
       <c r="C149" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B150" s="3">
         <v>1001094966025</v>
       </c>
       <c r="C150" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B151" s="3">
         <v>6025</v>
       </c>
       <c r="C151" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B152" s="3">
         <v>1001022373812</v>
@@ -4374,227 +4380,227 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B153" s="3">
         <v>1001100606827</v>
       </c>
       <c r="C153" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B154" s="3">
         <v>1001100606827</v>
       </c>
       <c r="C154" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B155" s="3">
         <v>1001100616826</v>
       </c>
       <c r="C155" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B156" s="3">
         <v>1001100616826</v>
       </c>
       <c r="C156" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B157" s="3">
         <v>1001100626828</v>
       </c>
       <c r="C157" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B158" s="3">
         <v>1001100626828</v>
       </c>
       <c r="C158" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B159" s="3">
         <v>1001035026308</v>
       </c>
       <c r="C159" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B160" s="3">
         <v>1001014486159</v>
       </c>
       <c r="C160" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B161" s="3">
         <v>1001014486159</v>
       </c>
       <c r="C161" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B162" s="3">
         <v>1001035326217</v>
       </c>
       <c r="C162" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B163" s="3">
         <v>1001012426220</v>
       </c>
       <c r="C163" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B164" s="3">
         <v>1001012426220</v>
       </c>
       <c r="C164" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B165" s="3">
         <v>1001022466236</v>
       </c>
       <c r="C165" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B166" s="3">
         <v>1001021966602</v>
       </c>
       <c r="C166" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B167" s="3">
         <v>1001022296656</v>
       </c>
       <c r="C167" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B168" s="3">
         <v>1001301876697</v>
       </c>
       <c r="C168" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B169" s="3">
         <v>1001022246713</v>
       </c>
       <c r="C169" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B170" s="3">
         <v>1001022376722</v>
       </c>
       <c r="C170" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B171" s="3">
         <v>1001020846751</v>
       </c>
       <c r="C171" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B172" s="3">
         <v>1001022725819</v>
       </c>
       <c r="C172" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B173" s="3">
         <v>1001012825337</v>
@@ -4605,7 +4611,7 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B174" s="3">
         <v>1001012815336</v>
@@ -4616,271 +4622,271 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B175" s="3">
         <v>1001234146448</v>
       </c>
       <c r="C175" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B176" s="3">
         <v>1001022725819</v>
       </c>
       <c r="C176" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B177" s="3">
         <v>1001092676027</v>
       </c>
       <c r="C177" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B178" s="3">
         <v>1001301876213</v>
       </c>
       <c r="C178" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B179" s="3">
         <v>1001035026308</v>
       </c>
       <c r="C179" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B180" s="3">
         <v>1001234146448</v>
       </c>
       <c r="C180" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B181" s="3">
         <v>1001201976454</v>
       </c>
       <c r="C181" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B182" s="3">
         <v>1001025176475</v>
       </c>
       <c r="C182" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B183" s="3">
         <v>1001012456498</v>
       </c>
       <c r="C183" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B184" s="3">
         <v>1001010036596</v>
       </c>
       <c r="C184" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B185" s="3">
         <v>1001033856608</v>
       </c>
       <c r="C185" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B186" s="3">
         <v>1001033856608</v>
       </c>
       <c r="C186" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B187" s="3">
         <v>1001033856609</v>
       </c>
       <c r="C187" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B188" s="3">
         <v>1001033856609</v>
       </c>
       <c r="C188" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B189" s="3">
         <v>1001093345495</v>
       </c>
       <c r="C189" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B190" s="3">
         <v>6550</v>
       </c>
       <c r="C190" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B191" s="3">
         <v>1001304506684</v>
       </c>
       <c r="C191" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B192" s="3">
         <v>1001010113248</v>
       </c>
       <c r="C192" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B193" s="3">
         <v>1001063926780</v>
       </c>
       <c r="C193" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B194" s="3">
         <v>6586</v>
       </c>
       <c r="C194" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B195" s="3">
         <v>1001303636467</v>
       </c>
       <c r="C195" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B196" s="3">
         <v>1001304496701</v>
       </c>
       <c r="C196" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B197" s="3">
         <v>6144</v>
       </c>
       <c r="C197" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B198" s="3">
         <v>1001022725819</v>
       </c>
       <c r="C198" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B199" s="3">
         <v>1001022373812</v>
@@ -4891,40 +4897,40 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B200" s="3">
         <v>1001024906062</v>
       </c>
       <c r="C200" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B201" s="3">
         <v>1001303056692</v>
       </c>
       <c r="C201" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B202" s="3">
         <v>1001301876697</v>
       </c>
       <c r="C202" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B203" s="3">
         <v>1001012634574</v>
@@ -4935,335 +4941,335 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B204" s="3">
         <v>1001092485452</v>
       </c>
       <c r="C204" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B205" s="3">
         <v>1001020966144</v>
       </c>
       <c r="C205" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B206" s="3">
         <v>6586</v>
       </c>
       <c r="C206" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B207" s="3">
         <v>1001304496701</v>
       </c>
       <c r="C207" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B208" s="3">
         <v>1001063655015</v>
       </c>
       <c r="C208" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B209" s="3">
         <v>1001060763287</v>
       </c>
       <c r="C209" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B210" s="3">
         <v>1001225416228</v>
       </c>
       <c r="C210" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B211" s="3">
         <v>1001032736550</v>
       </c>
       <c r="C211" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B212" s="3">
         <v>6758</v>
       </c>
       <c r="C212" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B213" s="3">
         <v>1001020965976</v>
       </c>
       <c r="C213" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B214" s="3">
         <v>1001215576586</v>
       </c>
       <c r="C214" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B215" s="3">
         <v>1001094896026</v>
       </c>
       <c r="C215" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B216" s="3">
         <v>1001215576586</v>
       </c>
       <c r="C216" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B217" s="3">
         <v>1001215576586</v>
       </c>
       <c r="C217" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B218" s="3">
         <v>1001092436470</v>
       </c>
       <c r="C218" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B219" s="3">
         <v>1001203146555</v>
       </c>
       <c r="C219" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B220" s="3">
         <v>1001016747343</v>
       </c>
       <c r="C220" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E220" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B221" s="3">
         <v>1001016747343</v>
       </c>
       <c r="C221" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E221" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B222" s="3">
         <v>1001016747343</v>
       </c>
       <c r="C222" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E222" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B223" s="3">
         <v>1001016747343</v>
       </c>
       <c r="C223" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B224" s="3">
         <v>1001014765993</v>
       </c>
       <c r="C224" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B225" s="3">
         <v>1001025166776</v>
       </c>
       <c r="C225" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B226" s="3">
         <v>1001025506777</v>
       </c>
       <c r="C226" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B227" s="3">
         <v>1001025546822</v>
       </c>
       <c r="C227" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B228" s="3">
         <v>1001025546822</v>
       </c>
       <c r="C228" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B229" s="3">
         <v>1001025546822</v>
       </c>
       <c r="C229" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B230" s="3">
         <v>1001025546822</v>
       </c>
       <c r="C230" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B231" s="3">
         <v>1001024976616</v>
       </c>
       <c r="C231" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B232" s="3">
         <v>1001024976616</v>
       </c>
       <c r="C232" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B233" s="3">
         <v>1001010855247</v>
@@ -5274,2802 +5280,2802 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B234" s="3">
         <v>1001223296919</v>
       </c>
       <c r="C234" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B235" s="3">
         <v>1001223296919</v>
       </c>
       <c r="C235" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B236" s="3">
         <v>1001223296919</v>
       </c>
       <c r="C236" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B237" s="3">
         <v>1001223296919</v>
       </c>
       <c r="C237" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B238" s="3">
         <v>1001223296919</v>
       </c>
       <c r="C238" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B239" s="3">
         <v>1001223296919</v>
       </c>
       <c r="C239" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B240" s="3">
         <v>1001014765993</v>
       </c>
       <c r="C240" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B241" s="3">
         <v>1001025166776</v>
       </c>
       <c r="C241" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B242" s="3">
         <v>1001025506777</v>
       </c>
       <c r="C242" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B243" s="3">
         <v>1001025526778</v>
       </c>
       <c r="C243" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B244" s="3">
         <v>1001304236685</v>
       </c>
       <c r="C244" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B245" s="3">
         <v>1001015496769</v>
       </c>
       <c r="C245" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B246" s="3">
         <v>1001015496769</v>
       </c>
       <c r="C246" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B247" s="3">
         <v>1001014766798</v>
       </c>
       <c r="C247" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B248" s="3">
         <v>1001015026797</v>
       </c>
       <c r="C248" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B249" s="3">
         <v>1001205386222</v>
       </c>
       <c r="C249" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B250" s="3">
         <v>1001092675224</v>
       </c>
       <c r="C250" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B251" s="3">
         <v>1001225406223</v>
       </c>
       <c r="C251" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B252" s="3">
         <v>1001300366790</v>
       </c>
       <c r="C252" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B253" s="3">
         <v>1001304096792</v>
       </c>
       <c r="C253" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B254" s="3">
         <v>1001304096792</v>
       </c>
       <c r="C254" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B255" s="3">
         <v>1001303636793</v>
       </c>
       <c r="C255" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B256" s="3">
         <v>1001303636794</v>
       </c>
       <c r="C256" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B257" s="3">
         <v>1001303636794</v>
       </c>
       <c r="C257" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B258" s="3">
         <v>1001303636794</v>
       </c>
       <c r="C258" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B259" s="3">
         <v>1001302596795</v>
       </c>
       <c r="C259" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B260" s="3">
         <v>1001302596796</v>
       </c>
       <c r="C260" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B261" s="3">
         <v>1001300456804</v>
       </c>
       <c r="C261" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B262" s="3">
         <v>1001300366806</v>
       </c>
       <c r="C262" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B263" s="3">
         <v>1001300366806</v>
       </c>
       <c r="C263" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B264" s="3">
         <v>1001300516803</v>
       </c>
       <c r="C264" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B265" s="3">
         <v>1001300366807</v>
       </c>
       <c r="C265" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B266" s="3">
         <v>1001300366807</v>
       </c>
       <c r="C266" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B267" s="3">
         <v>1001300516785</v>
       </c>
       <c r="C267" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B268" s="3">
         <v>1001300456787</v>
       </c>
       <c r="C268" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B269" s="3">
         <v>1001300456787</v>
       </c>
       <c r="C269" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B270" s="3">
         <v>1001300456787</v>
       </c>
       <c r="C270" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B271" s="3">
         <v>1001303636793</v>
       </c>
       <c r="C271" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B272" s="3">
         <v>1001302596795</v>
       </c>
       <c r="C272" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B273" s="3">
         <v>1001012486332</v>
       </c>
       <c r="C273" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B274" s="3">
         <v>1001012566345</v>
       </c>
       <c r="C274" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B275" s="3">
         <v>1001031076528</v>
       </c>
       <c r="C275" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B276" s="3">
         <v>1001020836761</v>
       </c>
       <c r="C276" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B277" s="3">
         <v>1001020836761</v>
       </c>
       <c r="C277" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B278" s="3">
         <v>1001020836761</v>
       </c>
       <c r="C278" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B279" s="3">
         <v>1001020846764</v>
       </c>
       <c r="C279" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B280" s="3">
         <v>1001020846764</v>
       </c>
       <c r="C280" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B281" s="3">
         <v>1001020846764</v>
       </c>
       <c r="C281" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B282" s="3">
         <v>1001300366790</v>
       </c>
       <c r="C282" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B283" s="3">
         <v>1001300366790</v>
       </c>
       <c r="C283" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B284" s="3">
         <v>1001304096791</v>
       </c>
       <c r="C284" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B285" s="3">
         <v>1001304096791</v>
       </c>
       <c r="C285" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B286" s="3">
         <v>1001304096791</v>
       </c>
       <c r="C286" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B287" s="3">
         <v>1001303636793</v>
       </c>
       <c r="C287" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B288" s="3">
         <v>1001302596795</v>
       </c>
       <c r="C288" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B289" s="3">
         <v>1001300516803</v>
       </c>
       <c r="C289" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B290" s="3">
         <v>1001300456804</v>
       </c>
       <c r="C290" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B291" s="3">
         <v>1001300366807</v>
       </c>
       <c r="C291" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B292" s="3">
         <v>1001302596796</v>
       </c>
       <c r="C292" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B293" s="3">
         <v>1001023696765</v>
       </c>
       <c r="C293" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B294" s="3">
         <v>1001023696765</v>
       </c>
       <c r="C294" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B295" s="3">
         <v>1001023696765</v>
       </c>
       <c r="C295" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B296" s="3">
         <v>1001023696767</v>
       </c>
       <c r="C296" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B297" s="3">
         <v>1001023696767</v>
       </c>
       <c r="C297" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B298" s="3">
         <v>1001023696767</v>
       </c>
       <c r="C298" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B299" s="3">
         <v>1001024976829</v>
       </c>
       <c r="C299" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B300" s="3">
         <v>1001024976829</v>
       </c>
       <c r="C300" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B301" s="3">
         <v>1001022376722</v>
       </c>
       <c r="C301" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B302" s="3">
         <v>1001020846762</v>
       </c>
       <c r="C302" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B303" s="3">
         <v>1001020846762</v>
       </c>
       <c r="C303" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B304" s="3">
         <v>1001020846762</v>
       </c>
       <c r="C304" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B305" s="3">
         <v>1001022656853</v>
       </c>
       <c r="C305" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B306" s="3">
         <v>1001022656853</v>
       </c>
       <c r="C306" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B307" s="3">
         <v>1001022656948</v>
       </c>
       <c r="C307" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B308" s="3">
         <v>1001022656948</v>
       </c>
       <c r="C308" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B309" s="3">
         <v>1001022656948</v>
       </c>
       <c r="C309" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B310" s="3">
         <v>1001022656852</v>
       </c>
       <c r="C310" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B311" s="3">
         <v>1001020836759</v>
       </c>
       <c r="C311" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B312" s="3">
         <v>1001020836759</v>
       </c>
       <c r="C312" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B313" s="3">
         <v>1001020836759</v>
       </c>
       <c r="C313" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B314" s="3">
         <v>1001023856870</v>
       </c>
       <c r="C314" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B315" s="3">
         <v>1001013956426</v>
       </c>
       <c r="C315" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B316" s="3">
         <v>1001093345495</v>
       </c>
       <c r="C316" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B317" s="3">
         <v>1001022656868</v>
       </c>
       <c r="C317" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B318" s="3">
         <v>1001022656868</v>
       </c>
       <c r="C318" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B319" s="3">
         <v>1001034065698</v>
       </c>
       <c r="C319" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B320" s="3">
         <v>1001034065698</v>
       </c>
       <c r="C320" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B321" s="3">
         <v>1001034065698</v>
       </c>
       <c r="C321" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B322" s="3">
         <v>1001034065698</v>
       </c>
       <c r="C322" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B323" s="3">
         <v>1001084216206</v>
       </c>
       <c r="C323" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B324" s="3">
         <v>1001015646861</v>
       </c>
       <c r="C324" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B325" s="3">
         <v>1001015646861</v>
       </c>
       <c r="C325" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B326" s="3">
         <v>1001025176768</v>
       </c>
       <c r="C326" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B327" s="3">
         <v>1001025176768</v>
       </c>
       <c r="C327" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B328" s="3">
         <v>1001025176768</v>
       </c>
       <c r="C328" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B329" s="3">
         <v>1001025486770</v>
       </c>
       <c r="C329" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B330" s="3">
         <v>1001025486770</v>
       </c>
       <c r="C330" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B331" s="3">
         <v>1001025486770</v>
       </c>
       <c r="C331" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B332" s="3">
         <v>1001012816340</v>
       </c>
       <c r="C332" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B333" s="3">
         <v>1001012816340</v>
       </c>
       <c r="C333" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B334" s="3">
         <v>1001012816340</v>
       </c>
       <c r="C334" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B335" s="3">
         <v>1001203146834</v>
       </c>
       <c r="C335" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B336" s="3">
         <v>1001203146834</v>
       </c>
       <c r="C336" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B337" s="3">
         <v>1001203146834</v>
       </c>
       <c r="C337" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B338" s="3">
         <v>1001203146834</v>
       </c>
       <c r="C338" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B339" s="3">
         <v>1001300456788</v>
       </c>
       <c r="C339" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B340" s="3">
         <v>1001300516786</v>
       </c>
       <c r="C340" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B341" s="3">
         <v>1001092436495</v>
       </c>
       <c r="C341" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B342" s="3">
         <v>1001092436495</v>
       </c>
       <c r="C342" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B343" s="3">
         <v>1001092436495</v>
       </c>
       <c r="C343" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B344" s="3">
         <v>1001025526901</v>
       </c>
       <c r="C344" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B345" s="3">
         <v>1001025546931</v>
       </c>
       <c r="C345" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B346" s="3">
         <v>1001010016324</v>
       </c>
       <c r="C346" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B347" s="3">
         <v>1001010016324</v>
       </c>
       <c r="C347" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B348" s="3">
         <v>1001010016324</v>
       </c>
       <c r="C348" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B349" s="3">
         <v>1001025766909</v>
       </c>
       <c r="C349" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B350" s="3">
         <v>1001025766909</v>
       </c>
       <c r="C350" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B351" s="3">
         <v>1001025766909</v>
       </c>
       <c r="C351" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B352" s="3">
         <v>1001010014558</v>
       </c>
       <c r="C352" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B353" s="3">
         <v>1001010014558</v>
       </c>
       <c r="C353" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B354" s="3">
         <v>1001012596802</v>
       </c>
       <c r="C354" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B355" s="3">
         <v>1001012596802</v>
       </c>
       <c r="C355" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B356" s="3">
         <v>1001012596802</v>
       </c>
       <c r="C356" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B357" s="3">
         <v>1001012596801</v>
       </c>
       <c r="C357" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B358" s="3">
         <v>1001012596801</v>
       </c>
       <c r="C358" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B359" s="3">
         <v>1001012596801</v>
       </c>
       <c r="C359" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B360" s="3">
         <v>1001062353684</v>
       </c>
       <c r="C360" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B361" s="3">
         <v>1001010014555</v>
       </c>
       <c r="C361" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B362" s="3">
         <v>1001083424691</v>
       </c>
       <c r="C362" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B363" s="3">
         <v>1001190765679</v>
       </c>
       <c r="C363" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B364" s="3">
         <v>1001085636200</v>
       </c>
       <c r="C364" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B365" s="3">
         <v>1001020836253</v>
       </c>
       <c r="C365" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B366" s="3">
         <v>1001084226492</v>
       </c>
       <c r="C366" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B367" s="3">
         <v>1001223296921</v>
       </c>
       <c r="C367" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B368" s="3">
         <v>1001053944786</v>
       </c>
       <c r="C368" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B369" s="3">
         <v>1001010016839</v>
       </c>
       <c r="C369" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B370" s="3">
         <v>1001023857038</v>
       </c>
       <c r="C370" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B371" s="3">
         <v>1001040434903</v>
       </c>
       <c r="C371" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B372" s="3">
         <v>1001080216842</v>
       </c>
       <c r="C372" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B373" s="3">
         <v>1001022466951</v>
       </c>
       <c r="C373" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B374" s="3">
         <v>1001022466951</v>
       </c>
       <c r="C374" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B375" s="3">
         <v>1001035276653</v>
       </c>
       <c r="C375" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B376" s="3">
         <v>1001062353680</v>
       </c>
       <c r="C376" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B377" s="3">
         <v>1001061971146</v>
       </c>
       <c r="C377" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B378" s="3">
         <v>1001225636201</v>
       </c>
       <c r="C378" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B379" s="3">
         <v>1001095227035</v>
       </c>
       <c r="C379" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B380" s="3">
         <v>1001023857038</v>
       </c>
       <c r="C380" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B381" s="3">
         <v>1001025027040</v>
       </c>
       <c r="C381" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B382" s="3">
         <v>1001223297103</v>
       </c>
       <c r="C382" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B383" s="3">
         <v>1001223297103</v>
       </c>
       <c r="C383" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B384" s="3">
         <v>1001223297103</v>
       </c>
       <c r="C384" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B385" s="3">
         <v>1001010032675</v>
       </c>
       <c r="C385" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B386" s="3">
         <v>1001010032675</v>
       </c>
       <c r="C386" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B387" s="3">
         <v>1001035937001</v>
       </c>
       <c r="C387" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B388" s="3">
         <v>1001035937001</v>
       </c>
       <c r="C388" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B389" s="3">
         <v>1001084217090</v>
       </c>
       <c r="C389" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B390" s="3">
         <v>1001084217090</v>
       </c>
       <c r="C390" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B391" s="3">
         <v>1001022377066</v>
       </c>
       <c r="C391" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B392" s="3">
         <v>1001022377066</v>
       </c>
       <c r="C392" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B393" s="3">
         <v>1001022467080</v>
       </c>
       <c r="C393" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B394" s="3">
         <v>1001022467080</v>
       </c>
       <c r="C394" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B395" s="3">
         <v>1001025507255</v>
       </c>
       <c r="C395" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E395" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B396" s="3">
         <v>1001025507255</v>
       </c>
       <c r="C396" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E396" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B397" s="3">
         <v>1001025507255</v>
       </c>
       <c r="C397" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B398" s="3">
         <v>1001022657075</v>
       </c>
       <c r="C398" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B399" s="3">
         <v>1001022657075</v>
       </c>
       <c r="C399" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B400" s="3">
         <v>1001022467082</v>
       </c>
       <c r="C400" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B401" s="3">
         <v>1001022467082</v>
       </c>
       <c r="C401" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B402" s="3">
         <v>1001022377070</v>
       </c>
       <c r="C402" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B403" s="3">
         <v>1001022377070</v>
       </c>
       <c r="C403" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B404" s="3">
         <v>1001022657073</v>
       </c>
       <c r="C404" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B405" s="3">
         <v>1001022657073</v>
       </c>
       <c r="C405" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B406" s="3">
         <v>1001010027126</v>
       </c>
       <c r="C406" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B407" s="3">
         <v>1001010027126</v>
       </c>
       <c r="C407" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B408" s="3">
         <v>1001010027125</v>
       </c>
       <c r="C408" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B409" s="3">
         <v>1001010027125</v>
       </c>
       <c r="C409" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B410" s="3">
         <v>1001016366888</v>
       </c>
       <c r="C410" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B411" s="3">
         <v>1001016366888</v>
       </c>
       <c r="C411" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B412" s="3">
         <v>1001300367133</v>
       </c>
       <c r="C412" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B413" s="3">
         <v>1001300367133</v>
       </c>
       <c r="C413" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B414" s="3">
         <v>1001303637131</v>
       </c>
       <c r="C414" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B415" s="3">
         <v>1001303637131</v>
       </c>
       <c r="C415" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B416" s="3">
         <v>1001304527146</v>
       </c>
       <c r="C416" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B417" s="3">
         <v>1001304527146</v>
       </c>
       <c r="C417" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B418" s="3">
         <v>1001300517134</v>
       </c>
       <c r="C418" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B419" s="3">
         <v>1001300517134</v>
       </c>
       <c r="C419" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B420" s="3">
         <v>1001300457135</v>
       </c>
       <c r="C420" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B421" s="3">
         <v>1001304527144</v>
       </c>
       <c r="C421" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B422" s="3">
         <v>1001304527144</v>
       </c>
       <c r="C422" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B423" s="3">
         <v>1001081596620</v>
       </c>
       <c r="C423" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B424" s="3">
         <v>1001081596620</v>
       </c>
       <c r="C424" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B425" s="3">
         <v>1001085637187</v>
       </c>
       <c r="C425" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B426" s="3">
         <v>1001085637187</v>
       </c>
       <c r="C426" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B427" s="3">
         <v>1001015676877</v>
       </c>
       <c r="C427" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B428" s="3">
         <v>1001015676877</v>
       </c>
       <c r="C428" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B429" s="3">
         <v>1001015686878</v>
       </c>
       <c r="C429" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B430" s="3">
         <v>1001015686878</v>
       </c>
       <c r="C430" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B431" s="3">
         <v>1001302277232</v>
       </c>
       <c r="C431" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B432" s="3">
         <v>1001304497237</v>
       </c>
       <c r="C432" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B433" s="3">
         <v>1001303107241</v>
       </c>
       <c r="C433" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B434" s="3">
         <v>1002162216872</v>
       </c>
       <c r="C434" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B435" s="3">
         <v>1002162216872</v>
       </c>
       <c r="C435" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B436" s="3">
         <v>1001063237147</v>
       </c>
       <c r="C436" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B437" s="3">
         <v>1001063237147</v>
       </c>
       <c r="C437" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B438" s="3">
         <v>1001063097227</v>
       </c>
       <c r="C438" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B439" s="3">
         <v>1001063097227</v>
       </c>
       <c r="C439" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B440" s="3">
         <v>1001066537225</v>
       </c>
       <c r="C440" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B441" s="3">
         <v>1001066537225</v>
       </c>
       <c r="C441" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B442" s="3">
         <v>1001066527226</v>
       </c>
       <c r="C442" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B443" s="3">
         <v>1001066527226</v>
       </c>
       <c r="C443" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B444" s="3">
         <v>1001066547228</v>
       </c>
       <c r="C444" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B445" s="3">
         <v>1001063237229</v>
       </c>
       <c r="C445" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B446" s="3">
         <v>1001063237229</v>
       </c>
       <c r="C446" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B447" s="3">
         <v>1001063237150</v>
       </c>
       <c r="C447" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B448" s="3">
         <v>1001063237150</v>
       </c>
       <c r="C448" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B449" s="3">
         <v>1001022467276</v>
       </c>
       <c r="C449" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B450" s="3">
         <v>1001022467276</v>
       </c>
       <c r="C450" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B451" s="3">
         <v>1001022556837</v>
       </c>
       <c r="C451" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B452" s="3">
         <v>1001022556837</v>
       </c>
       <c r="C452" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B453" s="5">
         <v>1001022556837</v>
       </c>
       <c r="C453" s="6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B454" s="3">
         <v>1001205376221</v>
       </c>
       <c r="C454" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B455" s="3">
         <v>1001205376221</v>
       </c>
       <c r="C455" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B456" s="5">
         <v>1001205376221</v>
       </c>
       <c r="C456" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B457" s="3">
         <v>1001214196459</v>
       </c>
       <c r="C457" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B458" s="3">
         <v>1001214196459</v>
       </c>
       <c r="C458" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B459" s="5">
         <v>1001214196459</v>
       </c>
       <c r="C459" s="6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B460" s="5">
         <v>1001010106325</v>
       </c>
       <c r="C460" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" s="2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B461" s="5">
         <v>1001013957231</v>
       </c>
       <c r="C461" s="6" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B462" s="5">
         <v>1001013957231</v>
       </c>
       <c r="C462" s="6" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B463" s="3">
         <v>1001220286279</v>
       </c>
       <c r="C463" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464" s="2" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B464" s="3">
         <v>1001220286279</v>
       </c>
       <c r="C464" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B465" s="5">
         <v>1001220286279</v>
       </c>
       <c r="C465" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B466" s="5">
         <v>1001223297092</v>
       </c>
       <c r="C466" s="6" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B467" s="5">
         <v>1001223297092</v>
       </c>
       <c r="C467" s="6" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B468" s="3">
         <v>1001020836724</v>
       </c>
       <c r="C468" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B469" s="3">
         <v>1001020836724</v>
       </c>
       <c r="C469" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B470" s="5">
         <v>1001020836724</v>
       </c>
       <c r="C470" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B471" s="5">
         <v>1001062475707</v>
       </c>
       <c r="C471" s="6" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B472" s="5">
         <v>1001062475707</v>
       </c>
       <c r="C472" s="6" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B473" s="5">
         <v>1001033856609</v>
       </c>
       <c r="C473" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B474" s="3">
         <v>1001025767284</v>
       </c>
       <c r="C474" s="6" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="475" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A475" s="7" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B475" s="5">
         <v>1001301777332</v>
       </c>
       <c r="C475" s="6" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="476" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A476" s="7" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B476" s="5">
         <v>1001301777332</v>
       </c>
       <c r="C476" s="6" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="477" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A477" s="7" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B477" s="5">
         <v>1001303987333</v>
       </c>
       <c r="C477" s="6" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="478" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A478" s="7" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B478" s="5">
         <v>1001303987333</v>
       </c>
       <c r="C478" s="6" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="479" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A479" s="7" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B479" s="5">
         <v>1001012426220</v>
       </c>
       <c r="C479" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="480" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A480" s="7" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B480" s="5">
         <v>1001300387157</v>
       </c>
       <c r="C480" s="6" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="481" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A481" s="7" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B481" s="5">
         <v>1001300387157</v>
       </c>
       <c r="C481" s="6" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="482" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A482" s="7" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B482" s="5">
         <v>1001220226208</v>
       </c>
       <c r="C482" s="6" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="483" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A483" s="7" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B483" s="5">
         <v>1001220226208</v>
       </c>
       <c r="C483" s="6" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="484" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A484" s="7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B484" s="5">
         <v>1001063656967</v>
       </c>
       <c r="C484" s="6" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A485" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B485" s="5">
         <v>1001063656967</v>
       </c>
       <c r="C485" s="6" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A486" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B486" s="3">
         <v>1001065616832</v>
       </c>
       <c r="C486" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A487" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B487" s="3">
         <v>1001060677299</v>
       </c>
       <c r="C487" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
   </sheetData>

--- a/в бланки заводов/Останкино КИ/ostankino_ki/NV/moduls/1С.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/NV/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\NV\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD6570B-F392-45E1-85BA-8FA2E1A8469C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A751EC-E0E7-451C-AEFC-C709608F50D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2686,7 +2686,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/в бланки заводов/Останкино КИ/ostankino_ki/NV/moduls/1С.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/NV/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\NV\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A751EC-E0E7-451C-AEFC-C709608F50D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C7E948D-7DFA-4528-97CA-EDC39DCA5337}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$487</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$488</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="765">
   <si>
     <t>1С</t>
   </si>
@@ -2326,6 +2326,9 @@
   </si>
   <si>
     <t>САЛЯМИ МЕЛКОЗЕРНЕНАЯ с/к в/у 1/120 8шт.</t>
+  </si>
+  <si>
+    <t>7382  САЛЯМИ МЕЛКОЗЕРНЕНАЯ с/к в/у1/120 8шт.  ОСТАНКИНО</t>
   </si>
 </sst>
 </file>
@@ -2682,11 +2685,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F487"/>
+  <dimension ref="A1:F488"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3012,18 +3015,18 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>756</v>
+        <v>764</v>
       </c>
       <c r="B29" s="3">
-        <v>1001061973986</v>
+        <v>1001203117382</v>
       </c>
       <c r="C29" t="s">
-        <v>751</v>
+        <v>763</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>33</v>
+        <v>756</v>
       </c>
       <c r="B30" s="3">
         <v>1001061973986</v>
@@ -3031,57 +3034,57 @@
       <c r="C30" t="s">
         <v>751</v>
       </c>
-      <c r="E30" t="s">
-        <v>752</v>
-      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" s="3">
-        <v>1001063145708</v>
+        <v>1001061973986</v>
       </c>
       <c r="C31" t="s">
-        <v>35</v>
+        <v>751</v>
+      </c>
+      <c r="E31" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B32" s="3">
-        <v>1001022465820</v>
+        <v>1001063145708</v>
       </c>
       <c r="C32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B33" s="3">
-        <v>1001012505851</v>
+        <v>1001022465820</v>
       </c>
       <c r="C33" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>287</v>
+        <v>38</v>
       </c>
       <c r="B34" s="3">
-        <v>1001060755931</v>
+        <v>1001012505851</v>
       </c>
       <c r="C34" t="s">
-        <v>413</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>40</v>
+        <v>287</v>
       </c>
       <c r="B35" s="3">
         <v>1001060755931</v>
@@ -3092,51 +3095,51 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B36" s="3">
-        <v>1001012815997</v>
+        <v>1001060755931</v>
       </c>
       <c r="C36" t="s">
-        <v>42</v>
+        <v>413</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B37" s="3">
-        <v>1001024906042</v>
+        <v>1001012815997</v>
       </c>
       <c r="C37" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B38" s="3">
-        <v>1001024976829</v>
+        <v>1001024906042</v>
       </c>
       <c r="C38" t="s">
-        <v>398</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>440</v>
+        <v>45</v>
       </c>
       <c r="B39" s="3">
-        <v>1001084216206</v>
+        <v>1001024976829</v>
       </c>
       <c r="C39" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>48</v>
+        <v>440</v>
       </c>
       <c r="B40" s="3">
         <v>1001084216206</v>
@@ -3147,18 +3150,18 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>680</v>
+        <v>48</v>
       </c>
       <c r="B41" s="3">
-        <v>1001022557257</v>
+        <v>1001084216206</v>
       </c>
       <c r="C41" t="s">
-        <v>675</v>
+        <v>383</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B42" s="3">
         <v>1001022557257</v>
@@ -3169,7 +3172,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>481</v>
+        <v>682</v>
       </c>
       <c r="B43" s="3">
         <v>1001022557257</v>
@@ -3180,63 +3183,63 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>49</v>
+        <v>481</v>
       </c>
       <c r="B44" s="3">
-        <v>1001022556069</v>
+        <v>1001022557257</v>
       </c>
       <c r="C44" t="s">
-        <v>471</v>
-      </c>
-      <c r="F44" s="3"/>
+        <v>675</v>
+      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B45" s="3">
-        <v>1001010106325</v>
+        <v>1001022556069</v>
       </c>
       <c r="C45" t="s">
-        <v>51</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="F45" s="3"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B46" s="3">
-        <v>1001012486333</v>
+        <v>1001010106325</v>
       </c>
       <c r="C46" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B47" s="3">
-        <v>1001012506353</v>
+        <v>1001012486333</v>
       </c>
       <c r="C47" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="B48" s="3">
-        <v>1001304507236</v>
+        <v>1001012506353</v>
       </c>
       <c r="C48" t="s">
-        <v>676</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>113</v>
+        <v>200</v>
       </c>
       <c r="B49" s="3">
         <v>1001304507236</v>
@@ -3247,7 +3250,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>681</v>
+        <v>113</v>
       </c>
       <c r="B50" s="3">
         <v>1001304507236</v>
@@ -3258,29 +3261,29 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>114</v>
+        <v>681</v>
       </c>
       <c r="B51" s="3">
-        <v>1001303056692</v>
+        <v>1001304507236</v>
       </c>
       <c r="C51" t="s">
-        <v>58</v>
+        <v>676</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>652</v>
+        <v>114</v>
       </c>
       <c r="B52" s="3">
-        <v>1001303637149</v>
+        <v>1001303056692</v>
       </c>
       <c r="C52" t="s">
-        <v>626</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>625</v>
+        <v>652</v>
       </c>
       <c r="B53" s="3">
         <v>1001303637149</v>
@@ -3291,51 +3294,51 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>59</v>
+        <v>625</v>
       </c>
       <c r="B54" s="3">
-        <v>1001013956426</v>
+        <v>1001303637149</v>
       </c>
       <c r="C54" t="s">
-        <v>427</v>
+        <v>626</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B55" s="3">
-        <v>1001024636438</v>
+        <v>1001013956426</v>
       </c>
       <c r="C55" t="s">
-        <v>61</v>
+        <v>427</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B56" s="3">
-        <v>1001234146448</v>
+        <v>1001024636438</v>
       </c>
       <c r="C56" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>288</v>
+        <v>62</v>
       </c>
       <c r="B57" s="3">
-        <v>1001202506453</v>
+        <v>1001234146448</v>
       </c>
       <c r="C57" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>65</v>
+        <v>288</v>
       </c>
       <c r="B58" s="3">
         <v>1001202506453</v>
@@ -3346,227 +3349,227 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B59" s="3">
-        <v>1001201976454</v>
+        <v>1001202506453</v>
       </c>
       <c r="C59" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B60" s="3">
-        <v>1001025176475</v>
+        <v>1001201976454</v>
       </c>
       <c r="C60" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>116</v>
+        <v>69</v>
       </c>
       <c r="B61" s="3">
-        <v>1001301876697</v>
+        <v>1001025176475</v>
       </c>
       <c r="C61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="B62" s="3">
-        <v>1001024636517</v>
+        <v>1001301876697</v>
       </c>
       <c r="C62" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B63" s="3">
-        <v>1001031076527</v>
+        <v>1001024636517</v>
       </c>
       <c r="C63" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B64" s="3">
-        <v>1001304506562</v>
+        <v>1001031076527</v>
       </c>
       <c r="C64" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B65" s="3">
-        <v>1001020846563</v>
+        <v>1001304506562</v>
       </c>
       <c r="C65" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B66" s="3">
-        <v>1001020836589</v>
+        <v>1001020846563</v>
       </c>
       <c r="C66" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B67" s="3">
-        <v>6751</v>
+        <v>1001020836589</v>
       </c>
       <c r="C67" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B68" s="3">
-        <v>1001010016592</v>
+        <v>6751</v>
       </c>
       <c r="C68" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B69" s="3">
-        <v>1001010026594</v>
+        <v>1001010016592</v>
       </c>
       <c r="C69" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B70" s="3">
-        <v>1001022296601</v>
+        <v>1001010026594</v>
       </c>
       <c r="C70" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B71" s="3">
-        <v>1001031896648</v>
+        <v>1001022296601</v>
       </c>
       <c r="C71" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B72" s="3">
-        <v>1001035266650</v>
+        <v>1001031896648</v>
       </c>
       <c r="C72" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B73" s="3">
-        <v>1001305256658</v>
+        <v>1001035266650</v>
       </c>
       <c r="C73" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B74" s="3">
-        <v>1001010016593</v>
+        <v>1001305256658</v>
       </c>
       <c r="C74" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B75" s="3">
-        <v>1001010026595</v>
+        <v>1001010016593</v>
       </c>
       <c r="C75" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B76" s="3">
-        <v>1001010036597</v>
+        <v>1001010026595</v>
       </c>
       <c r="C76" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B77" s="3">
-        <v>1001020886646</v>
+        <v>1001010036597</v>
       </c>
       <c r="C77" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>312</v>
+        <v>110</v>
       </c>
       <c r="B78" s="3">
-        <v>1001305306566</v>
+        <v>1001020886646</v>
       </c>
       <c r="C78" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>111</v>
+        <v>312</v>
       </c>
       <c r="B79" s="3">
         <v>1001305306566</v>
@@ -3577,18 +3580,18 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>650</v>
+        <v>111</v>
       </c>
       <c r="B80" s="3">
-        <v>1001300387154</v>
+        <v>1001305306566</v>
       </c>
       <c r="C80" t="s">
-        <v>630</v>
+        <v>112</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>629</v>
+        <v>650</v>
       </c>
       <c r="B81" s="3">
         <v>1001300387154</v>
@@ -3599,18 +3602,18 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>651</v>
+        <v>629</v>
       </c>
       <c r="B82" s="3">
-        <v>1001303987169</v>
+        <v>1001300387154</v>
       </c>
       <c r="C82" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>631</v>
+        <v>651</v>
       </c>
       <c r="B83" s="3">
         <v>1001303987169</v>
@@ -3621,20 +3624,20 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>231</v>
+        <v>631</v>
       </c>
       <c r="B84" s="3">
-        <v>1001303106773</v>
+        <v>1001303987169</v>
       </c>
       <c r="C84" t="s">
-        <v>335</v>
+        <v>632</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="B85" s="4">
+        <v>231</v>
+      </c>
+      <c r="B85" s="3">
         <v>1001303106773</v>
       </c>
       <c r="C85" t="s">
@@ -3643,7 +3646,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>263</v>
+        <v>342</v>
       </c>
       <c r="B86" s="4">
         <v>1001303106773</v>
@@ -3654,9 +3657,9 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B87" s="3">
+        <v>263</v>
+      </c>
+      <c r="B87" s="4">
         <v>1001303106773</v>
       </c>
       <c r="C87" t="s">
@@ -3665,7 +3668,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>382</v>
+        <v>115</v>
       </c>
       <c r="B88" s="3">
         <v>1001303106773</v>
@@ -3676,7 +3679,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B89" s="3">
         <v>1001303106773</v>
@@ -3687,7 +3690,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B90" s="3">
         <v>1001303106773</v>
@@ -3698,18 +3701,18 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>220</v>
+        <v>377</v>
       </c>
       <c r="B91" s="3">
-        <v>1001012566392</v>
+        <v>1001303106773</v>
       </c>
       <c r="C91" t="s">
-        <v>54</v>
+        <v>335</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>412</v>
+        <v>220</v>
       </c>
       <c r="B92" s="3">
         <v>1001012566392</v>
@@ -3720,7 +3723,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>118</v>
+        <v>412</v>
       </c>
       <c r="B93" s="3">
         <v>1001012566392</v>
@@ -3731,18 +3734,18 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>653</v>
+        <v>118</v>
       </c>
       <c r="B94" s="3">
-        <v>1001302277173</v>
+        <v>1001012566392</v>
       </c>
       <c r="C94" t="s">
-        <v>628</v>
+        <v>54</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>627</v>
+        <v>653</v>
       </c>
       <c r="B95" s="3">
         <v>1001302277173</v>
@@ -3753,18 +3756,18 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>710</v>
+        <v>627</v>
       </c>
       <c r="B96" s="3">
-        <v>1001012426268</v>
+        <v>1001302277173</v>
       </c>
       <c r="C96" t="s">
-        <v>120</v>
+        <v>628</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>121</v>
+        <v>710</v>
       </c>
       <c r="B97" s="3">
         <v>1001012426268</v>
@@ -3775,95 +3778,95 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B98" s="3">
-        <v>1001024906041</v>
+        <v>1001012426268</v>
       </c>
       <c r="C98" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B99" s="3">
-        <v>1001011086247</v>
+        <v>1001024906041</v>
       </c>
       <c r="C99" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="B100" s="3">
-        <v>1001014486158</v>
+        <v>1001011086247</v>
       </c>
       <c r="C100" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B101" s="3">
-        <v>1001015356259</v>
+        <v>1001014486158</v>
       </c>
       <c r="C101" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B102" s="3">
-        <v>1001012816716</v>
+        <v>1001015356259</v>
       </c>
       <c r="C102" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>317</v>
+        <v>150</v>
       </c>
       <c r="B103" s="3">
-        <v>1001020966227</v>
+        <v>1001012816716</v>
       </c>
       <c r="C103" t="s">
-        <v>316</v>
+        <v>141</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>127</v>
+        <v>317</v>
       </c>
       <c r="B104" s="3">
         <v>1001020966227</v>
       </c>
       <c r="C104" t="s">
-        <v>128</v>
+        <v>316</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>218</v>
+        <v>127</v>
       </c>
       <c r="B105" s="3">
-        <v>1001022726303</v>
+        <v>1001020966227</v>
       </c>
       <c r="C105" t="s">
-        <v>251</v>
+        <v>128</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>250</v>
+        <v>218</v>
       </c>
       <c r="B106" s="3">
         <v>1001022726303</v>
@@ -3874,7 +3877,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>334</v>
+        <v>250</v>
       </c>
       <c r="B107" s="3">
         <v>1001022726303</v>
@@ -3885,62 +3888,62 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>151</v>
+        <v>334</v>
       </c>
       <c r="B108" s="3">
         <v>1001022726303</v>
       </c>
       <c r="C108" t="s">
-        <v>153</v>
+        <v>251</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>106</v>
+        <v>151</v>
       </c>
       <c r="B109" s="3">
-        <v>1001022466726</v>
+        <v>1001022726303</v>
       </c>
       <c r="C109" t="s">
-        <v>107</v>
+        <v>153</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="B110" s="3">
-        <v>1001020966144</v>
+        <v>1001022466726</v>
       </c>
       <c r="C110" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="B111" s="3">
-        <v>1001022376722</v>
+        <v>1001020966144</v>
       </c>
       <c r="C111" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>572</v>
+        <v>119</v>
       </c>
       <c r="B112" s="3">
-        <v>1001022376955</v>
+        <v>1001022376722</v>
       </c>
       <c r="C112" t="s">
-        <v>563</v>
+        <v>117</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B113" s="3">
         <v>1001022376955</v>
@@ -3951,7 +3954,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>132</v>
+        <v>570</v>
       </c>
       <c r="B114" s="3">
         <v>1001022376955</v>
@@ -3962,18 +3965,18 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>243</v>
+        <v>132</v>
       </c>
       <c r="B115" s="3">
-        <v>1001022246661</v>
+        <v>1001022376955</v>
       </c>
       <c r="C115" t="s">
-        <v>244</v>
+        <v>563</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>313</v>
+        <v>243</v>
       </c>
       <c r="B116" s="3">
         <v>1001022246661</v>
@@ -3984,172 +3987,172 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>131</v>
+        <v>313</v>
       </c>
       <c r="B117" s="3">
         <v>1001022246661</v>
       </c>
       <c r="C117" t="s">
-        <v>133</v>
+        <v>244</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B118" s="3">
-        <v>1001022246713</v>
+        <v>1001022246661</v>
       </c>
       <c r="C118" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B119" s="3">
-        <v>1001025166241</v>
+        <v>1001022246713</v>
       </c>
       <c r="C119" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="B120" s="3">
-        <v>6606</v>
+        <v>1001025166241</v>
       </c>
       <c r="C120" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="B121" s="3">
-        <v>1001035326217</v>
+        <v>6606</v>
       </c>
       <c r="C121" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="B122" s="3">
-        <v>1001303636301</v>
+        <v>1001035326217</v>
       </c>
       <c r="C122" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>92</v>
+        <v>149</v>
       </c>
       <c r="B123" s="3">
-        <v>1001303636302</v>
+        <v>1001303636301</v>
       </c>
       <c r="C123" t="s">
-        <v>93</v>
+        <v>143</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="B124" s="3">
-        <v>1001305196215</v>
+        <v>1001303636302</v>
       </c>
       <c r="C124" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="B125" s="3">
-        <v>1001301876212</v>
+        <v>1001305196215</v>
       </c>
       <c r="C125" t="s">
-        <v>144</v>
+        <v>77</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="B126" s="3">
-        <v>1001301876213</v>
+        <v>1001301876212</v>
       </c>
       <c r="C126" t="s">
-        <v>76</v>
+        <v>144</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="B127" s="3">
-        <v>1001303636302</v>
+        <v>1001301876213</v>
       </c>
       <c r="C127" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B128" s="3">
-        <v>6645</v>
+        <v>1001303636302</v>
       </c>
       <c r="C128" t="s">
-        <v>156</v>
+        <v>93</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B129" s="3">
-        <v>1001225416228</v>
+        <v>6645</v>
       </c>
       <c r="C129" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B130" s="3">
-        <v>6225</v>
+        <v>1001225416228</v>
       </c>
       <c r="C130" t="s">
-        <v>267</v>
+        <v>158</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B131" s="3">
-        <v>1001022376722</v>
+        <v>6225</v>
       </c>
       <c r="C131" t="s">
-        <v>117</v>
+        <v>267</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B132" s="3">
         <v>1001022376722</v>
@@ -4160,29 +4163,29 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B133" s="3">
-        <v>3297</v>
+        <v>1001022376722</v>
       </c>
       <c r="C133" t="s">
-        <v>163</v>
+        <v>117</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>307</v>
+        <v>162</v>
       </c>
       <c r="B134" s="3">
-        <v>1001022466726</v>
+        <v>3297</v>
       </c>
       <c r="C134" t="s">
-        <v>285</v>
+        <v>163</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>286</v>
+        <v>307</v>
       </c>
       <c r="B135" s="3">
         <v>1001022466726</v>
@@ -4193,51 +4196,51 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>166</v>
+        <v>286</v>
       </c>
       <c r="B136" s="3">
         <v>1001022466726</v>
       </c>
       <c r="C136" t="s">
-        <v>107</v>
+        <v>285</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B137" s="3">
-        <v>1001021966602</v>
+        <v>1001022466726</v>
       </c>
       <c r="C137" t="s">
-        <v>278</v>
+        <v>107</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B138" s="3">
-        <v>6233</v>
+        <v>1001021966602</v>
       </c>
       <c r="C138" t="s">
-        <v>168</v>
+        <v>278</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>258</v>
+        <v>169</v>
       </c>
       <c r="B139" s="3">
-        <v>1001012816341</v>
+        <v>6233</v>
       </c>
       <c r="C139" t="s">
-        <v>437</v>
+        <v>168</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>483</v>
+        <v>258</v>
       </c>
       <c r="B140" s="3">
         <v>1001012816341</v>
@@ -4248,7 +4251,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B141" s="3">
         <v>1001012816341</v>
@@ -4259,7 +4262,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>170</v>
+        <v>486</v>
       </c>
       <c r="B142" s="3">
         <v>1001012816341</v>
@@ -4270,51 +4273,51 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B143" s="3">
-        <v>6750</v>
+        <v>1001012816341</v>
       </c>
       <c r="C143" t="s">
-        <v>83</v>
+        <v>437</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B144" s="3">
-        <v>6751</v>
+        <v>6750</v>
       </c>
       <c r="C144" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B145" s="3">
-        <v>5982</v>
+        <v>6751</v>
       </c>
       <c r="C145" t="s">
-        <v>174</v>
+        <v>85</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>534</v>
+        <v>173</v>
       </c>
       <c r="B146" s="3">
-        <v>1001022656854</v>
+        <v>5982</v>
       </c>
       <c r="C146" t="s">
-        <v>426</v>
+        <v>174</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>551</v>
+        <v>534</v>
       </c>
       <c r="B147" s="3">
         <v>1001022656854</v>
@@ -4325,7 +4328,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>450</v>
+        <v>551</v>
       </c>
       <c r="B148" s="3">
         <v>1001022656854</v>
@@ -4336,7 +4339,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>175</v>
+        <v>450</v>
       </c>
       <c r="B149" s="3">
         <v>1001022656854</v>
@@ -4347,21 +4350,21 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B150" s="3">
-        <v>1001094966025</v>
+        <v>1001022656854</v>
       </c>
       <c r="C150" t="s">
-        <v>177</v>
+        <v>426</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B151" s="3">
-        <v>6025</v>
+        <v>1001094966025</v>
       </c>
       <c r="C151" t="s">
         <v>177</v>
@@ -4369,29 +4372,29 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B152" s="3">
-        <v>1001022373812</v>
+        <v>6025</v>
       </c>
       <c r="C152" t="s">
-        <v>3</v>
+        <v>177</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B153" s="3">
-        <v>1001100606827</v>
+        <v>1001022373812</v>
       </c>
       <c r="C153" t="s">
-        <v>324</v>
+        <v>3</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>336</v>
+        <v>184</v>
       </c>
       <c r="B154" s="3">
         <v>1001100606827</v>
@@ -4402,18 +4405,18 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>185</v>
+        <v>336</v>
       </c>
       <c r="B155" s="3">
-        <v>1001100616826</v>
+        <v>1001100606827</v>
       </c>
       <c r="C155" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>337</v>
+        <v>185</v>
       </c>
       <c r="B156" s="3">
         <v>1001100616826</v>
@@ -4424,18 +4427,18 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>186</v>
+        <v>337</v>
       </c>
       <c r="B157" s="3">
-        <v>1001100626828</v>
+        <v>1001100616826</v>
       </c>
       <c r="C157" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>338</v>
+        <v>186</v>
       </c>
       <c r="B158" s="3">
         <v>1001100626828</v>
@@ -4446,62 +4449,62 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>187</v>
+        <v>338</v>
       </c>
       <c r="B159" s="3">
-        <v>1001035026308</v>
+        <v>1001100626828</v>
       </c>
       <c r="C159" t="s">
-        <v>188</v>
+        <v>326</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>555</v>
+        <v>187</v>
       </c>
       <c r="B160" s="3">
-        <v>1001014486159</v>
+        <v>1001035026308</v>
       </c>
       <c r="C160" t="s">
-        <v>556</v>
+        <v>188</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>189</v>
+        <v>555</v>
       </c>
       <c r="B161" s="3">
         <v>1001014486159</v>
       </c>
       <c r="C161" t="s">
-        <v>190</v>
+        <v>556</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B162" s="3">
-        <v>1001035326217</v>
+        <v>1001014486159</v>
       </c>
       <c r="C162" t="s">
-        <v>282</v>
+        <v>190</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>501</v>
+        <v>191</v>
       </c>
       <c r="B163" s="3">
-        <v>1001012426220</v>
+        <v>1001035326217</v>
       </c>
       <c r="C163" t="s">
-        <v>193</v>
+        <v>282</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>192</v>
+        <v>501</v>
       </c>
       <c r="B164" s="3">
         <v>1001012426220</v>
@@ -4512,238 +4515,238 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B165" s="3">
-        <v>1001022466236</v>
+        <v>1001012426220</v>
       </c>
       <c r="C165" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B166" s="3">
-        <v>1001021966602</v>
+        <v>1001022466236</v>
       </c>
       <c r="C166" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B167" s="3">
-        <v>1001022296656</v>
+        <v>1001021966602</v>
       </c>
       <c r="C167" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B168" s="3">
-        <v>1001301876697</v>
+        <v>1001022296656</v>
       </c>
       <c r="C168" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B169" s="3">
-        <v>1001022246713</v>
+        <v>1001301876697</v>
       </c>
       <c r="C169" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B170" s="3">
-        <v>1001022376722</v>
+        <v>1001022246713</v>
       </c>
       <c r="C170" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B171" s="3">
-        <v>1001020846751</v>
+        <v>1001022376722</v>
       </c>
       <c r="C171" t="s">
-        <v>85</v>
+        <v>207</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B172" s="3">
-        <v>1001022725819</v>
+        <v>1001020846751</v>
       </c>
       <c r="C172" t="s">
-        <v>210</v>
+        <v>85</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B173" s="3">
-        <v>1001012825337</v>
+        <v>1001022725819</v>
       </c>
       <c r="C173" t="s">
-        <v>27</v>
+        <v>210</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B174" s="3">
-        <v>1001012815336</v>
+        <v>1001012825337</v>
       </c>
       <c r="C174" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B175" s="3">
-        <v>1001234146448</v>
+        <v>1001012815336</v>
       </c>
       <c r="C175" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B176" s="3">
-        <v>1001022725819</v>
+        <v>1001234146448</v>
       </c>
       <c r="C176" t="s">
-        <v>210</v>
+        <v>63</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B177" s="3">
-        <v>1001092676027</v>
+        <v>1001022725819</v>
       </c>
       <c r="C177" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B178" s="3">
-        <v>1001301876213</v>
+        <v>1001092676027</v>
       </c>
       <c r="C178" t="s">
-        <v>76</v>
+        <v>216</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B179" s="3">
-        <v>1001035026308</v>
+        <v>1001301876213</v>
       </c>
       <c r="C179" t="s">
-        <v>402</v>
+        <v>76</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B180" s="3">
-        <v>1001234146448</v>
+        <v>1001035026308</v>
       </c>
       <c r="C180" t="s">
-        <v>63</v>
+        <v>402</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B181" s="3">
-        <v>1001201976454</v>
+        <v>1001234146448</v>
       </c>
       <c r="C181" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B182" s="3">
-        <v>1001025176475</v>
+        <v>1001201976454</v>
       </c>
       <c r="C182" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B183" s="3">
-        <v>1001012456498</v>
+        <v>1001025176475</v>
       </c>
       <c r="C183" t="s">
-        <v>226</v>
+        <v>70</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B184" s="3">
-        <v>1001010036596</v>
+        <v>1001012456498</v>
       </c>
       <c r="C184" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>566</v>
+        <v>227</v>
       </c>
       <c r="B185" s="3">
-        <v>1001033856608</v>
+        <v>1001010036596</v>
       </c>
       <c r="C185" t="s">
-        <v>557</v>
+        <v>228</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="B186" s="3">
         <v>1001033856608</v>
@@ -4754,18 +4757,18 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="B187" s="3">
-        <v>1001033856609</v>
+        <v>1001033856608</v>
       </c>
       <c r="C187" t="s">
-        <v>230</v>
+        <v>557</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>229</v>
+        <v>567</v>
       </c>
       <c r="B188" s="3">
         <v>1001033856609</v>
@@ -4776,315 +4779,315 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B189" s="3">
-        <v>1001093345495</v>
+        <v>1001033856609</v>
       </c>
       <c r="C189" t="s">
-        <v>438</v>
+        <v>230</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B190" s="3">
-        <v>6550</v>
+        <v>1001093345495</v>
       </c>
       <c r="C190" t="s">
-        <v>235</v>
+        <v>438</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B191" s="3">
-        <v>1001304506684</v>
+        <v>6550</v>
       </c>
       <c r="C191" t="s">
-        <v>57</v>
+        <v>235</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B192" s="3">
-        <v>1001010113248</v>
+        <v>1001304506684</v>
       </c>
       <c r="C192" t="s">
-        <v>238</v>
+        <v>57</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>410</v>
+        <v>237</v>
       </c>
       <c r="B193" s="3">
-        <v>1001063926780</v>
+        <v>1001010113248</v>
       </c>
       <c r="C193" t="s">
-        <v>411</v>
+        <v>238</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>239</v>
+        <v>410</v>
       </c>
       <c r="B194" s="3">
-        <v>6586</v>
+        <v>1001063926780</v>
       </c>
       <c r="C194" t="s">
-        <v>240</v>
+        <v>411</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B195" s="3">
-        <v>1001303636467</v>
+        <v>6586</v>
       </c>
       <c r="C195" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B196" s="3">
-        <v>1001304496701</v>
+        <v>1001303636467</v>
       </c>
       <c r="C196" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B197" s="3">
-        <v>6144</v>
+        <v>1001304496701</v>
       </c>
       <c r="C197" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B198" s="3">
-        <v>1001022725819</v>
+        <v>6144</v>
       </c>
       <c r="C198" t="s">
-        <v>210</v>
+        <v>248</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B199" s="3">
-        <v>1001022373812</v>
+        <v>1001022725819</v>
       </c>
       <c r="C199" t="s">
-        <v>3</v>
+        <v>210</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B200" s="3">
-        <v>1001024906062</v>
+        <v>1001022373812</v>
       </c>
       <c r="C200" t="s">
-        <v>254</v>
+        <v>3</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B201" s="3">
-        <v>1001303056692</v>
+        <v>1001024906062</v>
       </c>
       <c r="C201" t="s">
-        <v>58</v>
+        <v>254</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B202" s="3">
-        <v>1001301876697</v>
+        <v>1001303056692</v>
       </c>
       <c r="C202" t="s">
-        <v>202</v>
+        <v>58</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B203" s="3">
-        <v>1001012634574</v>
+        <v>1001301876697</v>
       </c>
       <c r="C203" t="s">
-        <v>11</v>
+        <v>202</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B204" s="3">
-        <v>1001092485452</v>
+        <v>1001012634574</v>
       </c>
       <c r="C204" t="s">
-        <v>260</v>
+        <v>11</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B205" s="3">
-        <v>1001020966144</v>
+        <v>1001092485452</v>
       </c>
       <c r="C205" t="s">
-        <v>142</v>
+        <v>260</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B206" s="3">
-        <v>6586</v>
+        <v>1001020966144</v>
       </c>
       <c r="C206" t="s">
-        <v>240</v>
+        <v>142</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B207" s="3">
-        <v>1001304496701</v>
+        <v>6586</v>
       </c>
       <c r="C207" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B208" s="3">
-        <v>1001063655015</v>
+        <v>1001304496701</v>
       </c>
       <c r="C208" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B209" s="3">
-        <v>1001060763287</v>
+        <v>1001063655015</v>
       </c>
       <c r="C209" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B210" s="3">
-        <v>1001225416228</v>
+        <v>1001060763287</v>
       </c>
       <c r="C210" t="s">
-        <v>158</v>
+        <v>269</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B211" s="3">
-        <v>1001032736550</v>
+        <v>1001225416228</v>
       </c>
       <c r="C211" t="s">
-        <v>235</v>
+        <v>158</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B212" s="3">
-        <v>6758</v>
+        <v>1001032736550</v>
       </c>
       <c r="C212" t="s">
-        <v>273</v>
+        <v>235</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B213" s="3">
-        <v>1001020965976</v>
+        <v>6758</v>
       </c>
       <c r="C213" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B214" s="3">
-        <v>1001215576586</v>
+        <v>1001020965976</v>
       </c>
       <c r="C214" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B215" s="3">
-        <v>1001094896026</v>
+        <v>1001215576586</v>
       </c>
       <c r="C215" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>491</v>
+        <v>279</v>
       </c>
       <c r="B216" s="3">
-        <v>1001215576586</v>
+        <v>1001094896026</v>
       </c>
       <c r="C216" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>281</v>
+        <v>491</v>
       </c>
       <c r="B217" s="3">
         <v>1001215576586</v>
@@ -5095,43 +5098,40 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B218" s="3">
-        <v>1001092436470</v>
+        <v>1001215576586</v>
       </c>
       <c r="C218" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="B219" s="3">
-        <v>1001203146555</v>
+        <v>1001092436470</v>
       </c>
       <c r="C219" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="B220" s="3">
-        <v>1001016747343</v>
+        <v>1001203146555</v>
       </c>
       <c r="C220" t="s">
-        <v>753</v>
-      </c>
-      <c r="E220" t="s">
-        <v>752</v>
+        <v>289</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>713</v>
+        <v>300</v>
       </c>
       <c r="B221" s="3">
         <v>1001016747343</v>
@@ -5145,7 +5145,7 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>291</v>
+        <v>713</v>
       </c>
       <c r="B222" s="3">
         <v>1001016747343</v>
@@ -5159,7 +5159,7 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>755</v>
+        <v>291</v>
       </c>
       <c r="B223" s="3">
         <v>1001016747343</v>
@@ -5167,54 +5167,57 @@
       <c r="C223" t="s">
         <v>753</v>
       </c>
+      <c r="E223" t="s">
+        <v>752</v>
+      </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>293</v>
+        <v>755</v>
       </c>
       <c r="B224" s="3">
-        <v>1001014765993</v>
+        <v>1001016747343</v>
       </c>
       <c r="C224" t="s">
-        <v>292</v>
+        <v>753</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B225" s="3">
-        <v>1001025166776</v>
+        <v>1001014765993</v>
       </c>
       <c r="C225" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B226" s="3">
-        <v>1001025506777</v>
+        <v>1001025166776</v>
       </c>
       <c r="C226" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="B227" s="3">
-        <v>1001025546822</v>
+        <v>1001025506777</v>
       </c>
       <c r="C227" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B228" s="3">
         <v>1001025546822</v>
@@ -5225,40 +5228,40 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="B229" s="3">
         <v>1001025546822</v>
       </c>
       <c r="C229" t="s">
-        <v>549</v>
+        <v>299</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>298</v>
+        <v>331</v>
       </c>
       <c r="B230" s="3">
         <v>1001025546822</v>
       </c>
       <c r="C230" t="s">
-        <v>299</v>
+        <v>549</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>660</v>
+        <v>298</v>
       </c>
       <c r="B231" s="3">
-        <v>1001024976616</v>
+        <v>1001025546822</v>
       </c>
       <c r="C231" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>302</v>
+        <v>660</v>
       </c>
       <c r="B232" s="3">
         <v>1001024976616</v>
@@ -5269,29 +5272,29 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B233" s="3">
-        <v>1001010855247</v>
+        <v>1001024976616</v>
       </c>
       <c r="C233" t="s">
-        <v>23</v>
+        <v>301</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>381</v>
+        <v>303</v>
       </c>
       <c r="B234" s="3">
-        <v>1001223296919</v>
+        <v>1001010855247</v>
       </c>
       <c r="C234" t="s">
-        <v>384</v>
+        <v>23</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>64</v>
+        <v>381</v>
       </c>
       <c r="B235" s="3">
         <v>1001223296919</v>
@@ -5302,7 +5305,7 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>222</v>
+        <v>64</v>
       </c>
       <c r="B236" s="3">
         <v>1001223296919</v>
@@ -5313,29 +5316,29 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>454</v>
+        <v>222</v>
       </c>
       <c r="B237" s="3">
         <v>1001223296919</v>
       </c>
       <c r="C237" t="s">
-        <v>470</v>
+        <v>384</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>476</v>
+        <v>454</v>
       </c>
       <c r="B238" s="3">
         <v>1001223296919</v>
       </c>
       <c r="C238" t="s">
-        <v>384</v>
+        <v>470</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>304</v>
+        <v>476</v>
       </c>
       <c r="B239" s="3">
         <v>1001223296919</v>
@@ -5346,73 +5349,73 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B240" s="3">
-        <v>1001014765993</v>
+        <v>1001223296919</v>
       </c>
       <c r="C240" t="s">
-        <v>292</v>
+        <v>384</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B241" s="3">
-        <v>1001025166776</v>
+        <v>1001014765993</v>
       </c>
       <c r="C241" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B242" s="3">
-        <v>1001025506777</v>
+        <v>1001025166776</v>
       </c>
       <c r="C242" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B243" s="3">
-        <v>1001025526778</v>
+        <v>1001025506777</v>
       </c>
       <c r="C243" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B244" s="3">
-        <v>1001304236685</v>
+        <v>1001025526778</v>
       </c>
       <c r="C244" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="B245" s="3">
-        <v>1001015496769</v>
+        <v>1001304236685</v>
       </c>
       <c r="C245" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="B246" s="3">
         <v>1001015496769</v>
@@ -5423,84 +5426,84 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B247" s="3">
-        <v>1001014766798</v>
+        <v>1001015496769</v>
       </c>
       <c r="C247" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B248" s="3">
-        <v>1001015026797</v>
+        <v>1001014766798</v>
       </c>
       <c r="C248" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B249" s="3">
-        <v>1001205386222</v>
+        <v>1001015026797</v>
       </c>
       <c r="C249" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B250" s="3">
-        <v>1001092675224</v>
+        <v>1001205386222</v>
       </c>
       <c r="C250" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="B251" s="3">
-        <v>1001225406223</v>
+        <v>1001092675224</v>
       </c>
       <c r="C251" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B252" s="3">
-        <v>1001300366790</v>
+        <v>1001225406223</v>
       </c>
       <c r="C252" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>472</v>
+        <v>343</v>
       </c>
       <c r="B253" s="3">
-        <v>1001304096792</v>
+        <v>1001300366790</v>
       </c>
       <c r="C253" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>345</v>
+        <v>472</v>
       </c>
       <c r="B254" s="3">
         <v>1001304096792</v>
@@ -5511,29 +5514,29 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B255" s="3">
-        <v>1001303636793</v>
+        <v>1001304096792</v>
       </c>
       <c r="C255" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>392</v>
+        <v>346</v>
       </c>
       <c r="B256" s="3">
-        <v>1001303636794</v>
+        <v>1001303636793</v>
       </c>
       <c r="C256" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>492</v>
+        <v>392</v>
       </c>
       <c r="B257" s="3">
         <v>1001303636794</v>
@@ -5544,7 +5547,7 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>347</v>
+        <v>492</v>
       </c>
       <c r="B258" s="3">
         <v>1001303636794</v>
@@ -5555,51 +5558,51 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B259" s="3">
-        <v>1001302596795</v>
+        <v>1001303636794</v>
       </c>
       <c r="C259" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B260" s="3">
-        <v>1001302596796</v>
+        <v>1001302596795</v>
       </c>
       <c r="C260" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B261" s="3">
-        <v>1001300456804</v>
+        <v>1001302596796</v>
       </c>
       <c r="C261" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>441</v>
+        <v>350</v>
       </c>
       <c r="B262" s="3">
-        <v>1001300366806</v>
+        <v>1001300456804</v>
       </c>
       <c r="C262" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>351</v>
+        <v>441</v>
       </c>
       <c r="B263" s="3">
         <v>1001300366806</v>
@@ -5610,62 +5613,62 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B264" s="3">
-        <v>1001300516803</v>
+        <v>1001300366806</v>
       </c>
       <c r="C264" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B265" s="3">
-        <v>1001300366807</v>
+        <v>1001300516803</v>
       </c>
       <c r="C265" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="B266" s="3">
         <v>1001300366807</v>
       </c>
       <c r="C266" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B267" s="3">
-        <v>1001300516785</v>
+        <v>1001300366807</v>
       </c>
       <c r="C267" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>535</v>
+        <v>367</v>
       </c>
       <c r="B268" s="3">
-        <v>1001300456787</v>
+        <v>1001300516785</v>
       </c>
       <c r="C268" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>550</v>
+        <v>535</v>
       </c>
       <c r="B269" s="3">
         <v>1001300456787</v>
@@ -5676,7 +5679,7 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
-        <v>369</v>
+        <v>550</v>
       </c>
       <c r="B270" s="3">
         <v>1001300456787</v>
@@ -5687,73 +5690,73 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B271" s="3">
-        <v>1001303636793</v>
+        <v>1001300456787</v>
       </c>
       <c r="C271" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B272" s="3">
-        <v>1001302596795</v>
+        <v>1001303636793</v>
       </c>
       <c r="C272" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B273" s="3">
-        <v>1001012486332</v>
+        <v>1001302596795</v>
       </c>
       <c r="C273" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B274" s="3">
-        <v>1001012566345</v>
+        <v>1001012486332</v>
       </c>
       <c r="C274" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B275" s="3">
-        <v>1001031076528</v>
+        <v>1001012566345</v>
       </c>
       <c r="C275" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
-        <v>409</v>
+        <v>378</v>
       </c>
       <c r="B276" s="3">
-        <v>1001020836761</v>
+        <v>1001031076528</v>
       </c>
       <c r="C276" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="B277" s="3">
         <v>1001020836761</v>
@@ -5764,7 +5767,7 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
-        <v>385</v>
+        <v>414</v>
       </c>
       <c r="B278" s="3">
         <v>1001020836761</v>
@@ -5775,18 +5778,18 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
-        <v>405</v>
+        <v>385</v>
       </c>
       <c r="B279" s="3">
-        <v>1001020846764</v>
+        <v>1001020836761</v>
       </c>
       <c r="C279" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="B280" s="3">
         <v>1001020846764</v>
@@ -5797,7 +5800,7 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
-        <v>387</v>
+        <v>415</v>
       </c>
       <c r="B281" s="3">
         <v>1001020846764</v>
@@ -5808,18 +5811,18 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
-        <v>488</v>
+        <v>387</v>
       </c>
       <c r="B282" s="3">
-        <v>1001300366790</v>
+        <v>1001020846764</v>
       </c>
       <c r="C282" t="s">
-        <v>354</v>
+        <v>388</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
-        <v>389</v>
+        <v>488</v>
       </c>
       <c r="B283" s="3">
         <v>1001300366790</v>
@@ -5830,18 +5833,18 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
-        <v>344</v>
+        <v>389</v>
       </c>
       <c r="B284" s="3">
-        <v>1001304096791</v>
+        <v>1001300366790</v>
       </c>
       <c r="C284" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
-        <v>463</v>
+        <v>344</v>
       </c>
       <c r="B285" s="3">
         <v>1001304096791</v>
@@ -5852,7 +5855,7 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
-        <v>390</v>
+        <v>463</v>
       </c>
       <c r="B286" s="3">
         <v>1001304096791</v>
@@ -5863,84 +5866,84 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B287" s="3">
-        <v>1001303636793</v>
+        <v>1001304096791</v>
       </c>
       <c r="C287" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B288" s="3">
-        <v>1001302596795</v>
+        <v>1001303636793</v>
       </c>
       <c r="C288" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B289" s="3">
-        <v>1001300516803</v>
+        <v>1001302596795</v>
       </c>
       <c r="C289" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B290" s="3">
-        <v>1001300456804</v>
+        <v>1001300516803</v>
       </c>
       <c r="C290" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B291" s="3">
-        <v>1001300366807</v>
+        <v>1001300456804</v>
       </c>
       <c r="C291" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B292" s="3">
-        <v>1001302596796</v>
+        <v>1001300366807</v>
       </c>
       <c r="C292" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>447</v>
+        <v>397</v>
       </c>
       <c r="B293" s="3">
-        <v>1001023696765</v>
+        <v>1001302596796</v>
       </c>
       <c r="C293" t="s">
-        <v>400</v>
+        <v>360</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
-        <v>466</v>
+        <v>447</v>
       </c>
       <c r="B294" s="3">
         <v>1001023696765</v>
@@ -5951,7 +5954,7 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
-        <v>399</v>
+        <v>466</v>
       </c>
       <c r="B295" s="3">
         <v>1001023696765</v>
@@ -5962,18 +5965,18 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="B296" s="3">
-        <v>1001023696767</v>
+        <v>1001023696765</v>
       </c>
       <c r="C296" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="B297" s="3">
         <v>1001023696767</v>
@@ -5984,7 +5987,7 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
       <c r="B298" s="3">
         <v>1001023696767</v>
@@ -5995,18 +5998,18 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B299" s="3">
-        <v>1001024976829</v>
+        <v>1001023696767</v>
       </c>
       <c r="C299" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B300" s="3">
         <v>1001024976829</v>
@@ -6017,29 +6020,29 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="B301" s="3">
-        <v>1001022376722</v>
+        <v>1001024976829</v>
       </c>
       <c r="C301" t="s">
-        <v>117</v>
+        <v>398</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
-        <v>446</v>
+        <v>419</v>
       </c>
       <c r="B302" s="3">
-        <v>1001020846762</v>
+        <v>1001022376722</v>
       </c>
       <c r="C302" t="s">
-        <v>421</v>
+        <v>117</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
-        <v>465</v>
+        <v>446</v>
       </c>
       <c r="B303" s="3">
         <v>1001020846762</v>
@@ -6050,7 +6053,7 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
-        <v>420</v>
+        <v>465</v>
       </c>
       <c r="B304" s="3">
         <v>1001020846762</v>
@@ -6061,18 +6064,18 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
-        <v>122</v>
+        <v>420</v>
       </c>
       <c r="B305" s="3">
-        <v>1001022656853</v>
+        <v>1001020846762</v>
       </c>
       <c r="C305" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
-        <v>487</v>
+        <v>122</v>
       </c>
       <c r="B306" s="3">
         <v>1001022656853</v>
@@ -6083,18 +6086,18 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
-        <v>571</v>
+        <v>487</v>
       </c>
       <c r="B307" s="3">
-        <v>1001022656948</v>
+        <v>1001022656853</v>
       </c>
       <c r="C307" t="s">
-        <v>562</v>
+        <v>424</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="B308" s="3">
         <v>1001022656948</v>
@@ -6105,7 +6108,7 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
-        <v>423</v>
+        <v>565</v>
       </c>
       <c r="B309" s="3">
         <v>1001022656948</v>
@@ -6116,29 +6119,29 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="B310" s="3">
-        <v>1001022656852</v>
+        <v>1001022656948</v>
       </c>
       <c r="C310" t="s">
-        <v>430</v>
+        <v>562</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
-        <v>448</v>
+        <v>429</v>
       </c>
       <c r="B311" s="3">
-        <v>1001020836759</v>
+        <v>1001022656852</v>
       </c>
       <c r="C311" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="B312" s="3">
         <v>1001020836759</v>
@@ -6149,7 +6152,7 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>431</v>
+        <v>464</v>
       </c>
       <c r="B313" s="3">
         <v>1001020836759</v>
@@ -6160,51 +6163,51 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B314" s="3">
-        <v>1001023856870</v>
+        <v>1001020836759</v>
       </c>
       <c r="C314" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="B315" s="3">
-        <v>1001013956426</v>
+        <v>1001023856870</v>
       </c>
       <c r="C315" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B316" s="3">
-        <v>1001093345495</v>
+        <v>1001013956426</v>
       </c>
       <c r="C316" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
-        <v>480</v>
+        <v>451</v>
       </c>
       <c r="B317" s="3">
-        <v>1001022656868</v>
+        <v>1001093345495</v>
       </c>
       <c r="C317" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
-        <v>452</v>
+        <v>480</v>
       </c>
       <c r="B318" s="3">
         <v>1001022656868</v>
@@ -6215,18 +6218,18 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
-        <v>164</v>
+        <v>452</v>
       </c>
       <c r="B319" s="3">
-        <v>1001034065698</v>
+        <v>1001022656868</v>
       </c>
       <c r="C319" t="s">
-        <v>425</v>
+        <v>453</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="B320" s="3">
         <v>1001034065698</v>
@@ -6237,7 +6240,7 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
-        <v>478</v>
+        <v>182</v>
       </c>
       <c r="B321" s="3">
         <v>1001034065698</v>
@@ -6248,7 +6251,7 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
-        <v>456</v>
+        <v>478</v>
       </c>
       <c r="B322" s="3">
         <v>1001034065698</v>
@@ -6259,29 +6262,29 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B323" s="3">
-        <v>1001084216206</v>
+        <v>1001034065698</v>
       </c>
       <c r="C323" t="s">
-        <v>383</v>
+        <v>425</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="B324" s="3">
-        <v>1001015646861</v>
+        <v>1001084216206</v>
       </c>
       <c r="C324" t="s">
-        <v>422</v>
+        <v>383</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="B325" s="3">
         <v>1001015646861</v>
@@ -6292,18 +6295,18 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
-        <v>444</v>
+        <v>458</v>
       </c>
       <c r="B326" s="3">
-        <v>1001025176768</v>
+        <v>1001015646861</v>
       </c>
       <c r="C326" t="s">
-        <v>445</v>
+        <v>422</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
-        <v>467</v>
+        <v>444</v>
       </c>
       <c r="B327" s="3">
         <v>1001025176768</v>
@@ -6314,7 +6317,7 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="B328" s="3">
         <v>1001025176768</v>
@@ -6325,18 +6328,18 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
-        <v>443</v>
+        <v>459</v>
       </c>
       <c r="B329" s="3">
-        <v>1001025486770</v>
+        <v>1001025176768</v>
       </c>
       <c r="C329" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
-        <v>468</v>
+        <v>443</v>
       </c>
       <c r="B330" s="3">
         <v>1001025486770</v>
@@ -6347,7 +6350,7 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="B331" s="3">
         <v>1001025486770</v>
@@ -6358,18 +6361,18 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
-        <v>205</v>
+        <v>460</v>
       </c>
       <c r="B332" s="3">
-        <v>1001012816340</v>
+        <v>1001025486770</v>
       </c>
       <c r="C332" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
-        <v>482</v>
+        <v>205</v>
       </c>
       <c r="B333" s="3">
         <v>1001012816340</v>
@@ -6380,7 +6383,7 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
-        <v>461</v>
+        <v>482</v>
       </c>
       <c r="B334" s="3">
         <v>1001012816340</v>
@@ -6391,18 +6394,18 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
-        <v>305</v>
+        <v>461</v>
       </c>
       <c r="B335" s="3">
-        <v>1001203146834</v>
+        <v>1001012816340</v>
       </c>
       <c r="C335" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
-        <v>455</v>
+        <v>305</v>
       </c>
       <c r="B336" s="3">
         <v>1001203146834</v>
@@ -6413,7 +6416,7 @@
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="B337" s="3">
         <v>1001203146834</v>
@@ -6424,7 +6427,7 @@
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="B338" s="3">
         <v>1001203146834</v>
@@ -6435,40 +6438,40 @@
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="B339" s="3">
-        <v>1001300456788</v>
+        <v>1001203146834</v>
       </c>
       <c r="C339" t="s">
-        <v>475</v>
+        <v>428</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="B340" s="3">
-        <v>1001300516786</v>
+        <v>1001300456788</v>
       </c>
       <c r="C340" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
-        <v>546</v>
+        <v>489</v>
       </c>
       <c r="B341" s="3">
-        <v>1001092436495</v>
+        <v>1001300516786</v>
       </c>
       <c r="C341" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="B342" s="3">
         <v>1001092436495</v>
@@ -6479,7 +6482,7 @@
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
-        <v>495</v>
+        <v>553</v>
       </c>
       <c r="B343" s="3">
         <v>1001092436495</v>
@@ -6490,40 +6493,40 @@
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B344" s="3">
-        <v>1001025526901</v>
+        <v>1001092436495</v>
       </c>
       <c r="C344" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B345" s="3">
-        <v>1001025546931</v>
+        <v>1001025526901</v>
       </c>
       <c r="C345" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="B346" s="3">
-        <v>1001010016324</v>
+        <v>1001025546931</v>
       </c>
       <c r="C346" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
-        <v>539</v>
+        <v>509</v>
       </c>
       <c r="B347" s="3">
         <v>1001010016324</v>
@@ -6534,7 +6537,7 @@
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
-        <v>502</v>
+        <v>539</v>
       </c>
       <c r="B348" s="3">
         <v>1001010016324</v>
@@ -6545,18 +6548,18 @@
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B349" s="3">
-        <v>1001025766909</v>
+        <v>1001010016324</v>
       </c>
       <c r="C349" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="B350" s="3">
         <v>1001025766909</v>
@@ -6567,7 +6570,7 @@
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
-        <v>504</v>
+        <v>540</v>
       </c>
       <c r="B351" s="3">
         <v>1001025766909</v>
@@ -6578,18 +6581,18 @@
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
-        <v>538</v>
+        <v>504</v>
       </c>
       <c r="B352" s="3">
-        <v>1001010014558</v>
+        <v>1001025766909</v>
       </c>
       <c r="C352" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
-        <v>507</v>
+        <v>538</v>
       </c>
       <c r="B353" s="3">
         <v>1001010014558</v>
@@ -6600,18 +6603,18 @@
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
-        <v>533</v>
+        <v>507</v>
       </c>
       <c r="B354" s="3">
-        <v>1001012596802</v>
+        <v>1001010014558</v>
       </c>
       <c r="C354" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="B355" s="3">
         <v>1001012596802</v>
@@ -6622,7 +6625,7 @@
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
-        <v>510</v>
+        <v>542</v>
       </c>
       <c r="B356" s="3">
         <v>1001012596802</v>
@@ -6633,18 +6636,18 @@
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
-        <v>528</v>
+        <v>510</v>
       </c>
       <c r="B357" s="3">
-        <v>1001012596801</v>
+        <v>1001012596802</v>
       </c>
       <c r="C357" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="B358" s="3">
         <v>1001012596801</v>
@@ -6655,7 +6658,7 @@
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="B359" s="3">
         <v>1001012596801</v>
@@ -6666,161 +6669,161 @@
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B360" s="3">
-        <v>1001062353684</v>
+        <v>1001012596801</v>
       </c>
       <c r="C360" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B361" s="3">
-        <v>1001010014555</v>
+        <v>1001062353684</v>
       </c>
       <c r="C361" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B362" s="3">
-        <v>1001083424691</v>
+        <v>1001010014555</v>
       </c>
       <c r="C362" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B363" s="3">
-        <v>1001190765679</v>
+        <v>1001083424691</v>
       </c>
       <c r="C363" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B364" s="3">
-        <v>1001085636200</v>
+        <v>1001190765679</v>
       </c>
       <c r="C364" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B365" s="3">
-        <v>1001020836253</v>
+        <v>1001085636200</v>
       </c>
       <c r="C365" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B366" s="3">
-        <v>1001084226492</v>
+        <v>1001020836253</v>
       </c>
       <c r="C366" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B367" s="3">
-        <v>1001223296921</v>
+        <v>1001084226492</v>
       </c>
       <c r="C367" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B368" s="3">
-        <v>1001053944786</v>
+        <v>1001223296921</v>
       </c>
       <c r="C368" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="B369" s="3">
-        <v>1001010016839</v>
+        <v>1001053944786</v>
       </c>
       <c r="C369" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="B370" s="3">
-        <v>1001023857038</v>
+        <v>1001010016839</v>
       </c>
       <c r="C370" t="s">
-        <v>584</v>
+        <v>537</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B371" s="3">
-        <v>1001040434903</v>
+        <v>1001023857038</v>
       </c>
       <c r="C371" t="s">
-        <v>545</v>
+        <v>584</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B372" s="3">
-        <v>1001080216842</v>
+        <v>1001040434903</v>
       </c>
       <c r="C372" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="B373" s="3">
-        <v>1001022466951</v>
+        <v>1001080216842</v>
       </c>
       <c r="C373" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B374" s="3">
         <v>1001022466951</v>
@@ -6831,95 +6834,95 @@
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B375" s="3">
-        <v>1001035276653</v>
+        <v>1001022466951</v>
       </c>
       <c r="C375" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="B376" s="3">
-        <v>1001062353680</v>
+        <v>1001035276653</v>
       </c>
       <c r="C376" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B377" s="3">
-        <v>1001061971146</v>
+        <v>1001062353680</v>
       </c>
       <c r="C377" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B378" s="3">
-        <v>1001225636201</v>
+        <v>1001061971146</v>
       </c>
       <c r="C378" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B379" s="3">
-        <v>1001095227035</v>
+        <v>1001225636201</v>
       </c>
       <c r="C379" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B380" s="3">
-        <v>1001023857038</v>
+        <v>1001095227035</v>
       </c>
       <c r="C380" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B381" s="3">
-        <v>1001025027040</v>
+        <v>1001023857038</v>
       </c>
       <c r="C381" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B382" s="3">
-        <v>1001223297103</v>
+        <v>1001025027040</v>
       </c>
       <c r="C382" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B383" s="3">
         <v>1001223297103</v>
@@ -6930,7 +6933,7 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B384" s="3">
         <v>1001223297103</v>
@@ -6941,18 +6944,18 @@
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
-        <v>609</v>
+        <v>588</v>
       </c>
       <c r="B385" s="3">
-        <v>1001010032675</v>
+        <v>1001223297103</v>
       </c>
       <c r="C385" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
-        <v>590</v>
+        <v>609</v>
       </c>
       <c r="B386" s="3">
         <v>1001010032675</v>
@@ -6963,18 +6966,18 @@
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
-        <v>614</v>
+        <v>590</v>
       </c>
       <c r="B387" s="3">
-        <v>1001035937001</v>
+        <v>1001010032675</v>
       </c>
       <c r="C387" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
-        <v>592</v>
+        <v>614</v>
       </c>
       <c r="B388" s="3">
         <v>1001035937001</v>
@@ -6985,18 +6988,18 @@
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
-        <v>615</v>
+        <v>592</v>
       </c>
       <c r="B389" s="3">
-        <v>1001084217090</v>
+        <v>1001035937001</v>
       </c>
       <c r="C389" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
-        <v>594</v>
+        <v>615</v>
       </c>
       <c r="B390" s="3">
         <v>1001084217090</v>
@@ -7007,18 +7010,18 @@
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
-        <v>616</v>
+        <v>594</v>
       </c>
       <c r="B391" s="3">
-        <v>1001022377066</v>
+        <v>1001084217090</v>
       </c>
       <c r="C391" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
-        <v>596</v>
+        <v>616</v>
       </c>
       <c r="B392" s="3">
         <v>1001022377066</v>
@@ -7029,18 +7032,18 @@
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
-        <v>617</v>
+        <v>596</v>
       </c>
       <c r="B393" s="3">
-        <v>1001022467080</v>
+        <v>1001022377066</v>
       </c>
       <c r="C393" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
-        <v>598</v>
+        <v>617</v>
       </c>
       <c r="B394" s="3">
         <v>1001022467080</v>
@@ -7051,21 +7054,18 @@
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
-        <v>618</v>
+        <v>598</v>
       </c>
       <c r="B395" s="3">
-        <v>1001025507255</v>
+        <v>1001022467080</v>
       </c>
       <c r="C395" t="s">
-        <v>754</v>
-      </c>
-      <c r="E395" t="s">
-        <v>752</v>
+        <v>599</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
-        <v>600</v>
+        <v>618</v>
       </c>
       <c r="B396" s="3">
         <v>1001025507255</v>
@@ -7079,7 +7079,7 @@
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
-        <v>761</v>
+        <v>600</v>
       </c>
       <c r="B397" s="3">
         <v>1001025507255</v>
@@ -7087,21 +7087,24 @@
       <c r="C397" t="s">
         <v>754</v>
       </c>
+      <c r="E397" t="s">
+        <v>752</v>
+      </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
-        <v>621</v>
+        <v>761</v>
       </c>
       <c r="B398" s="3">
-        <v>1001022657075</v>
+        <v>1001025507255</v>
       </c>
       <c r="C398" t="s">
-        <v>602</v>
+        <v>754</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
-        <v>601</v>
+        <v>621</v>
       </c>
       <c r="B399" s="3">
         <v>1001022657075</v>
@@ -7112,18 +7115,18 @@
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
-        <v>619</v>
+        <v>601</v>
       </c>
       <c r="B400" s="3">
-        <v>1001022467082</v>
+        <v>1001022657075</v>
       </c>
       <c r="C400" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
-        <v>603</v>
+        <v>619</v>
       </c>
       <c r="B401" s="3">
         <v>1001022467082</v>
@@ -7134,18 +7137,18 @@
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
-        <v>620</v>
+        <v>603</v>
       </c>
       <c r="B402" s="3">
-        <v>1001022377070</v>
+        <v>1001022467082</v>
       </c>
       <c r="C402" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
-        <v>605</v>
+        <v>620</v>
       </c>
       <c r="B403" s="3">
         <v>1001022377070</v>
@@ -7156,18 +7159,18 @@
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
-        <v>622</v>
+        <v>605</v>
       </c>
       <c r="B404" s="3">
-        <v>1001022657073</v>
+        <v>1001022377070</v>
       </c>
       <c r="C404" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
-        <v>607</v>
+        <v>622</v>
       </c>
       <c r="B405" s="3">
         <v>1001022657073</v>
@@ -7178,18 +7181,18 @@
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
-        <v>633</v>
+        <v>607</v>
       </c>
       <c r="B406" s="3">
-        <v>1001010027126</v>
+        <v>1001022657073</v>
       </c>
       <c r="C406" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
-        <v>610</v>
+        <v>633</v>
       </c>
       <c r="B407" s="3">
         <v>1001010027126</v>
@@ -7200,18 +7203,18 @@
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B408" s="3">
-        <v>1001010027125</v>
+        <v>1001010027126</v>
       </c>
       <c r="C408" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
-        <v>634</v>
+        <v>612</v>
       </c>
       <c r="B409" s="3">
         <v>1001010027125</v>
@@ -7222,18 +7225,18 @@
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
-        <v>657</v>
+        <v>634</v>
       </c>
       <c r="B410" s="3">
-        <v>1001016366888</v>
+        <v>1001010027125</v>
       </c>
       <c r="C410" t="s">
-        <v>636</v>
+        <v>613</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
-        <v>635</v>
+        <v>657</v>
       </c>
       <c r="B411" s="3">
         <v>1001016366888</v>
@@ -7244,18 +7247,18 @@
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
-        <v>658</v>
+        <v>635</v>
       </c>
       <c r="B412" s="3">
-        <v>1001300367133</v>
+        <v>1001016366888</v>
       </c>
       <c r="C412" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
-        <v>637</v>
+        <v>658</v>
       </c>
       <c r="B413" s="3">
         <v>1001300367133</v>
@@ -7266,18 +7269,18 @@
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
-        <v>656</v>
+        <v>637</v>
       </c>
       <c r="B414" s="3">
-        <v>1001303637131</v>
+        <v>1001300367133</v>
       </c>
       <c r="C414" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
-        <v>639</v>
+        <v>656</v>
       </c>
       <c r="B415" s="3">
         <v>1001303637131</v>
@@ -7288,18 +7291,18 @@
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
-        <v>659</v>
+        <v>639</v>
       </c>
       <c r="B416" s="3">
-        <v>1001304527146</v>
+        <v>1001303637131</v>
       </c>
       <c r="C416" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
-        <v>641</v>
+        <v>659</v>
       </c>
       <c r="B417" s="3">
         <v>1001304527146</v>
@@ -7310,18 +7313,18 @@
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" s="2" t="s">
-        <v>654</v>
+        <v>641</v>
       </c>
       <c r="B418" s="3">
-        <v>1001300517134</v>
+        <v>1001304527146</v>
       </c>
       <c r="C418" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
-        <v>643</v>
+        <v>654</v>
       </c>
       <c r="B419" s="3">
         <v>1001300517134</v>
@@ -7332,29 +7335,29 @@
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" s="2" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B420" s="3">
-        <v>1001300457135</v>
+        <v>1001300517134</v>
       </c>
       <c r="C420" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B421" s="3">
-        <v>1001304527144</v>
+        <v>1001300457135</v>
       </c>
       <c r="C421" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="B422" s="3">
         <v>1001304527144</v>
@@ -7365,18 +7368,18 @@
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
-        <v>679</v>
+        <v>655</v>
       </c>
       <c r="B423" s="3">
-        <v>1001081596620</v>
+        <v>1001304527144</v>
       </c>
       <c r="C423" t="s">
-        <v>661</v>
+        <v>648</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
-        <v>662</v>
+        <v>679</v>
       </c>
       <c r="B424" s="3">
         <v>1001081596620</v>
@@ -7387,18 +7390,18 @@
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
-        <v>684</v>
+        <v>662</v>
       </c>
       <c r="B425" s="3">
-        <v>1001085637187</v>
+        <v>1001081596620</v>
       </c>
       <c r="C425" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
-        <v>664</v>
+        <v>684</v>
       </c>
       <c r="B426" s="3">
         <v>1001085637187</v>
@@ -7409,18 +7412,18 @@
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
-        <v>683</v>
+        <v>664</v>
       </c>
       <c r="B427" s="3">
-        <v>1001015676877</v>
+        <v>1001085637187</v>
       </c>
       <c r="C427" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" s="2" t="s">
-        <v>666</v>
+        <v>683</v>
       </c>
       <c r="B428" s="3">
         <v>1001015676877</v>
@@ -7431,18 +7434,18 @@
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" s="2" t="s">
-        <v>686</v>
+        <v>666</v>
       </c>
       <c r="B429" s="3">
-        <v>1001015686878</v>
+        <v>1001015676877</v>
       </c>
       <c r="C429" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" s="2" t="s">
-        <v>668</v>
+        <v>686</v>
       </c>
       <c r="B430" s="3">
         <v>1001015686878</v>
@@ -7453,51 +7456,51 @@
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B431" s="3">
-        <v>1001302277232</v>
+        <v>1001015686878</v>
       </c>
       <c r="C431" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B432" s="3">
-        <v>1001304497237</v>
+        <v>1001302277232</v>
       </c>
       <c r="C432" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B433" s="3">
-        <v>1001303107241</v>
+        <v>1001304497237</v>
       </c>
       <c r="C433" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434" s="2" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="B434" s="3">
-        <v>1002162216872</v>
+        <v>1001303107241</v>
       </c>
       <c r="C434" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" s="2" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="B435" s="3">
         <v>1002162216872</v>
@@ -7508,18 +7511,18 @@
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" s="2" t="s">
-        <v>700</v>
+        <v>685</v>
       </c>
       <c r="B436" s="3">
-        <v>1001063237147</v>
+        <v>1002162216872</v>
       </c>
       <c r="C436" t="s">
-        <v>692</v>
+        <v>678</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" s="2" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
       <c r="B437" s="3">
         <v>1001063237147</v>
@@ -7530,18 +7533,18 @@
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" s="2" t="s">
-        <v>699</v>
+        <v>687</v>
       </c>
       <c r="B438" s="3">
-        <v>1001063097227</v>
+        <v>1001063237147</v>
       </c>
       <c r="C438" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
       <c r="B439" s="3">
         <v>1001063097227</v>
@@ -7552,18 +7555,18 @@
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
       <c r="B440" s="3">
-        <v>1001066537225</v>
+        <v>1001063097227</v>
       </c>
       <c r="C440" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
-        <v>689</v>
+        <v>697</v>
       </c>
       <c r="B441" s="3">
         <v>1001066537225</v>
@@ -7574,18 +7577,18 @@
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="B442" s="3">
-        <v>1001066527226</v>
+        <v>1001066537225</v>
       </c>
       <c r="C442" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" s="2" t="s">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="B443" s="3">
         <v>1001066527226</v>
@@ -7596,29 +7599,29 @@
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B444" s="3">
-        <v>1001066547228</v>
+        <v>1001066527226</v>
       </c>
       <c r="C444" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" s="2" t="s">
-        <v>707</v>
+        <v>691</v>
       </c>
       <c r="B445" s="3">
-        <v>1001063237229</v>
+        <v>1001066547228</v>
       </c>
       <c r="C445" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446" s="2" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="B446" s="3">
         <v>1001063237229</v>
@@ -7629,18 +7632,18 @@
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="B447" s="3">
-        <v>1001063237150</v>
+        <v>1001063237229</v>
       </c>
       <c r="C447" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" s="2" t="s">
-        <v>702</v>
+        <v>709</v>
       </c>
       <c r="B448" s="3">
         <v>1001063237150</v>
@@ -7651,18 +7654,18 @@
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B449" s="3">
-        <v>1001022467276</v>
+        <v>1001063237150</v>
       </c>
       <c r="C449" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" s="2" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="B450" s="3">
         <v>1001022467276</v>
@@ -7673,18 +7676,18 @@
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" s="2" t="s">
-        <v>484</v>
+        <v>708</v>
       </c>
       <c r="B451" s="3">
-        <v>1001022556837</v>
+        <v>1001022467276</v>
       </c>
       <c r="C451" t="s">
-        <v>485</v>
+        <v>706</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" s="2" t="s">
-        <v>730</v>
+        <v>484</v>
       </c>
       <c r="B452" s="3">
         <v>1001022556837</v>
@@ -7695,29 +7698,29 @@
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" s="2" t="s">
-        <v>711</v>
-      </c>
-      <c r="B453" s="5">
+        <v>730</v>
+      </c>
+      <c r="B453" s="3">
         <v>1001022556837</v>
       </c>
-      <c r="C453" s="6" t="s">
+      <c r="C453" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B454" s="3">
-        <v>1001205376221</v>
-      </c>
-      <c r="C454" t="s">
-        <v>179</v>
+        <v>711</v>
+      </c>
+      <c r="B454" s="5">
+        <v>1001022556837</v>
+      </c>
+      <c r="C454" s="6" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" s="2" t="s">
-        <v>728</v>
+        <v>181</v>
       </c>
       <c r="B455" s="3">
         <v>1001205376221</v>
@@ -7728,29 +7731,29 @@
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" s="2" t="s">
-        <v>712</v>
-      </c>
-      <c r="B456" s="5">
+        <v>728</v>
+      </c>
+      <c r="B456" s="3">
         <v>1001205376221</v>
       </c>
-      <c r="C456" s="6" t="s">
+      <c r="C456" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="B457" s="3">
-        <v>1001214196459</v>
-      </c>
-      <c r="C457" t="s">
-        <v>494</v>
+        <v>712</v>
+      </c>
+      <c r="B457" s="5">
+        <v>1001205376221</v>
+      </c>
+      <c r="C457" s="6" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" s="2" t="s">
-        <v>725</v>
+        <v>493</v>
       </c>
       <c r="B458" s="3">
         <v>1001214196459</v>
@@ -7761,40 +7764,40 @@
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459" s="2" t="s">
-        <v>714</v>
-      </c>
-      <c r="B459" s="5">
+        <v>725</v>
+      </c>
+      <c r="B459" s="3">
         <v>1001214196459</v>
       </c>
-      <c r="C459" s="6" t="s">
+      <c r="C459" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B460" s="5">
-        <v>1001010106325</v>
+        <v>1001214196459</v>
       </c>
       <c r="C460" s="6" t="s">
-        <v>51</v>
+        <v>494</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" s="2" t="s">
-        <v>726</v>
+        <v>715</v>
       </c>
       <c r="B461" s="5">
-        <v>1001013957231</v>
+        <v>1001010106325</v>
       </c>
       <c r="C461" s="6" t="s">
-        <v>722</v>
+        <v>51</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462" s="2" t="s">
-        <v>716</v>
+        <v>726</v>
       </c>
       <c r="B462" s="5">
         <v>1001013957231</v>
@@ -7805,18 +7808,18 @@
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B463" s="3">
-        <v>1001220286279</v>
-      </c>
-      <c r="C463" t="s">
-        <v>47</v>
+        <v>716</v>
+      </c>
+      <c r="B463" s="5">
+        <v>1001013957231</v>
+      </c>
+      <c r="C463" s="6" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464" s="2" t="s">
-        <v>732</v>
+        <v>46</v>
       </c>
       <c r="B464" s="3">
         <v>1001220286279</v>
@@ -7827,29 +7830,29 @@
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="B465" s="5">
+        <v>732</v>
+      </c>
+      <c r="B465" s="3">
         <v>1001220286279</v>
       </c>
-      <c r="C465" s="6" t="s">
+      <c r="C465" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466" s="2" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="B466" s="5">
-        <v>1001223297092</v>
+        <v>1001220286279</v>
       </c>
       <c r="C466" s="6" t="s">
-        <v>723</v>
+        <v>47</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467" s="2" t="s">
-        <v>718</v>
+        <v>727</v>
       </c>
       <c r="B467" s="5">
         <v>1001223297092</v>
@@ -7860,18 +7863,18 @@
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="B468" s="3">
-        <v>1001020836724</v>
-      </c>
-      <c r="C468" t="s">
-        <v>580</v>
+        <v>718</v>
+      </c>
+      <c r="B468" s="5">
+        <v>1001223297092</v>
+      </c>
+      <c r="C468" s="6" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469" s="2" t="s">
-        <v>729</v>
+        <v>579</v>
       </c>
       <c r="B469" s="3">
         <v>1001020836724</v>
@@ -7882,29 +7885,29 @@
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="B470" s="5">
+        <v>729</v>
+      </c>
+      <c r="B470" s="3">
         <v>1001020836724</v>
       </c>
-      <c r="C470" s="6" t="s">
+      <c r="C470" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471" s="2" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="B471" s="5">
-        <v>1001062475707</v>
+        <v>1001020836724</v>
       </c>
       <c r="C471" s="6" t="s">
-        <v>724</v>
+        <v>580</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472" s="2" t="s">
-        <v>720</v>
+        <v>731</v>
       </c>
       <c r="B472" s="5">
         <v>1001062475707</v>
@@ -7915,40 +7918,40 @@
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B473" s="5">
-        <v>1001033856609</v>
+        <v>1001062475707</v>
       </c>
       <c r="C473" s="6" t="s">
-        <v>230</v>
+        <v>724</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="B474" s="5">
+        <v>1001033856609</v>
+      </c>
+      <c r="C474" s="6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A475" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="B474" s="3">
+      <c r="B475" s="3">
         <v>1001025767284</v>
       </c>
-      <c r="C474" s="6" t="s">
+      <c r="C475" s="6" t="s">
         <v>734</v>
-      </c>
-    </row>
-    <row r="475" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A475" s="7" t="s">
-        <v>735</v>
-      </c>
-      <c r="B475" s="5">
-        <v>1001301777332</v>
-      </c>
-      <c r="C475" s="6" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="476" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A476" s="7" t="s">
-        <v>749</v>
+        <v>735</v>
       </c>
       <c r="B476" s="5">
         <v>1001301777332</v>
@@ -7959,18 +7962,18 @@
     </row>
     <row r="477" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A477" s="7" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B477" s="5">
-        <v>1001303987333</v>
+        <v>1001301777332</v>
       </c>
       <c r="C477" s="6" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="478" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A478" s="7" t="s">
-        <v>736</v>
+        <v>750</v>
       </c>
       <c r="B478" s="5">
         <v>1001303987333</v>
@@ -7981,29 +7984,29 @@
     </row>
     <row r="479" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A479" s="7" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B479" s="5">
-        <v>1001012426220</v>
+        <v>1001303987333</v>
       </c>
       <c r="C479" s="6" t="s">
-        <v>193</v>
+        <v>742</v>
       </c>
     </row>
     <row r="480" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A480" s="7" t="s">
-        <v>748</v>
+        <v>737</v>
       </c>
       <c r="B480" s="5">
-        <v>1001300387157</v>
+        <v>1001012426220</v>
       </c>
       <c r="C480" s="6" t="s">
-        <v>743</v>
+        <v>193</v>
       </c>
     </row>
     <row r="481" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A481" s="7" t="s">
-        <v>738</v>
+        <v>748</v>
       </c>
       <c r="B481" s="5">
         <v>1001300387157</v>
@@ -8014,18 +8017,18 @@
     </row>
     <row r="482" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A482" s="7" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B482" s="5">
-        <v>1001220226208</v>
+        <v>1001300387157</v>
       </c>
       <c r="C482" s="6" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="483" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A483" s="7" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="B483" s="5">
         <v>1001220226208</v>
@@ -8036,18 +8039,18 @@
     </row>
     <row r="484" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A484" s="7" t="s">
+        <v>746</v>
+      </c>
+      <c r="B484" s="5">
+        <v>1001220226208</v>
+      </c>
+      <c r="C484" s="6" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A485" s="7" t="s">
         <v>740</v>
-      </c>
-      <c r="B484" s="5">
-        <v>1001063656967</v>
-      </c>
-      <c r="C484" s="6" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A485" s="2" t="s">
-        <v>747</v>
       </c>
       <c r="B485" s="5">
         <v>1001063656967</v>
@@ -8058,28 +8061,39 @@
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A486" s="2" t="s">
-        <v>757</v>
-      </c>
-      <c r="B486" s="3">
-        <v>1001065616832</v>
-      </c>
-      <c r="C486" t="s">
-        <v>758</v>
+        <v>747</v>
+      </c>
+      <c r="B486" s="5">
+        <v>1001063656967</v>
+      </c>
+      <c r="C486" s="6" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A487" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="B487" s="3">
+        <v>1001065616832</v>
+      </c>
+      <c r="C487" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A488" s="2" t="s">
         <v>759</v>
       </c>
-      <c r="B487" s="3">
+      <c r="B488" s="3">
         <v>1001060677299</v>
       </c>
-      <c r="C487" t="s">
+      <c r="C488" t="s">
         <v>760</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C487" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
+  <autoFilter ref="A1:C488" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
